--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,30 @@
   </si>
   <si>
     <t>Did not Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1078,8 +1102,7 @@
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -1233,7 +1256,9 @@
       <c r="K2" s="36">
         <v>1</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="36">
+        <v>3</v>
+      </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
       <c r="O2" s="36"/>
@@ -1260,11 +1285,11 @@
       </c>
       <c r="AE2" s="36">
         <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="AF2" s="36">
         <f>SUM(F3:AB3)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1299,7 +1324,7 @@
       </c>
       <c r="L3" s="35">
         <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M3" s="35">
         <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
@@ -1404,7 +1429,9 @@
       <c r="K4" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="34">
+        <v>4</v>
+      </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
@@ -1431,11 +1458,11 @@
       </c>
       <c r="AE4" s="34">
         <f>SUM(F5:AB5)+AC4+AD4</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AF4" s="34">
         <f>SUM(F5:AB5)</f>
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1470,7 +1497,7 @@
       </c>
       <c r="L5" s="35">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M5" s="35">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
@@ -1575,7 +1602,9 @@
       <c r="K6" s="36">
         <v>2</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="36">
+        <v>1</v>
+      </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -1602,11 +1631,11 @@
       </c>
       <c r="AE6" s="36">
         <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF6" s="36">
         <f>SUM(F7:AB7)</f>
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1641,7 +1670,7 @@
       </c>
       <c r="L7" s="35">
         <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M7" s="35">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
@@ -1746,7 +1775,9 @@
       <c r="K8" s="37">
         <v>3</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="37">
+        <v>5</v>
+      </c>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
@@ -1767,11 +1798,11 @@
       <c r="AD8" s="37"/>
       <c r="AE8" s="37">
         <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AF8" s="37">
         <f>SUM(F9:AB9)</f>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1806,7 +1837,7 @@
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
@@ -1911,7 +1942,9 @@
       <c r="K10" s="34">
         <v>4</v>
       </c>
-      <c r="L10" s="34"/>
+      <c r="L10" s="34">
+        <v>2</v>
+      </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
@@ -1935,11 +1968,11 @@
       </c>
       <c r="AE10" s="34">
         <f>SUM(F11:AB11)+AC10+AD10</f>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="AF10" s="34">
         <f>SUM(F11:AB11)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1974,7 +2007,7 @@
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
@@ -2079,7 +2112,9 @@
       <c r="K12" s="37">
         <v>5</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="37">
+        <v>8</v>
+      </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -2100,11 +2135,11 @@
       <c r="AD12" s="37"/>
       <c r="AE12" s="37">
         <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="37">
         <f>SUM(F13:AB13)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2139,7 +2174,7 @@
       </c>
       <c r="L13" s="35">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="35">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
@@ -2244,7 +2279,9 @@
       <c r="K14" s="40">
         <v>8</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40">
+        <v>6</v>
+      </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
@@ -2261,18 +2298,21 @@
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
       <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
+      <c r="AC14" s="40">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AD14" s="40">
         <f>4</f>
         <v>4</v>
       </c>
       <c r="AE14" s="40">
         <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AF14" s="40">
         <f>SUM(F15:AB15)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2307,7 +2347,7 @@
       </c>
       <c r="L15" s="35">
         <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M15" s="35">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
@@ -2412,7 +2452,9 @@
       <c r="K16" s="31">
         <v>6</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="31">
+        <v>9</v>
+      </c>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
@@ -2436,11 +2478,11 @@
       </c>
       <c r="AE16" s="31">
         <f>SUM(F17:AB17)+AC16+AD16</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF16" s="31">
         <f>SUM(F17:AB17)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2475,7 +2517,7 @@
       </c>
       <c r="L17" s="35">
         <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="35">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
@@ -2580,7 +2622,9 @@
       <c r="K18" s="29">
         <v>7</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="29">
+        <v>12</v>
+      </c>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
@@ -2745,7 +2789,9 @@
       <c r="K20" s="30">
         <v>17</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
@@ -2913,7 +2959,9 @@
       <c r="K22" s="40">
         <v>12</v>
       </c>
-      <c r="L22" s="40"/>
+      <c r="L22" s="40">
+        <v>13</v>
+      </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
@@ -3081,7 +3129,9 @@
       <c r="K24" s="44">
         <v>10</v>
       </c>
-      <c r="L24" s="36"/>
+      <c r="L24" s="36">
+        <v>17</v>
+      </c>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -3213,65 +3263,67 @@
       <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="36">
+      <c r="A26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="29">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="29">
+        <v>9</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="29">
+        <v>17</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="29">
+        <v>11</v>
+      </c>
+      <c r="K26" s="29">
+        <v>9</v>
+      </c>
+      <c r="L26" s="29">
+        <v>7</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29">
+        <f>SUM(F27:AB27)+AC26+AD26</f>
         <v>10</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="36">
-        <v>8</v>
-      </c>
-      <c r="H26" s="36">
-        <v>9</v>
-      </c>
-      <c r="I26" s="36">
-        <v>12</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="36">
-        <v>13</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36">
-        <f>SUM(F27:AB27)+AC26+AD26</f>
-        <v>6</v>
-      </c>
-      <c r="AF26" s="36">
+      <c r="AF26" s="29">
         <f>SUM(F27:AB27)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3282,15 +3334,15 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35">
         <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="35">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" s="35">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="35">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
@@ -3302,11 +3354,11 @@
       </c>
       <c r="K27" s="35">
         <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="35">
         <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
@@ -3378,61 +3430,67 @@
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="42">
-        <v>5</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42" t="s">
+      <c r="A28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="36">
+        <v>10</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="36">
+        <v>8</v>
+      </c>
+      <c r="H28" s="36">
+        <v>9</v>
+      </c>
+      <c r="I28" s="36">
+        <v>12</v>
+      </c>
+      <c r="J28" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="42">
-        <v>8</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="42">
+      <c r="K28" s="36">
+        <v>13</v>
+      </c>
+      <c r="L28" s="36">
         <v>11</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42">
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36">
         <f>SUM(F29:AB29)+AC28+AD28</f>
-        <v>4</v>
-      </c>
-      <c r="AF28" s="42">
+        <v>6</v>
+      </c>
+      <c r="AF28" s="36">
         <f>SUM(F29:AB29)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -3447,15 +3505,15 @@
       </c>
       <c r="G29" s="35">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="35">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="35">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" s="35">
         <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
@@ -3539,65 +3597,63 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="29">
-        <v>14</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="29">
-        <v>9</v>
-      </c>
-      <c r="G30" s="29" t="s">
+      <c r="A30" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="42">
+        <v>5</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="29">
-        <v>17</v>
-      </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="42">
+        <v>8</v>
+      </c>
+      <c r="J30" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="29">
+      <c r="K30" s="42">
         <v>11</v>
       </c>
-      <c r="K30" s="29">
-        <v>9</v>
-      </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29">
+      <c r="L30" s="42">
+        <v>10</v>
+      </c>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42">
         <f>SUM(F31:AB31)+AC30+AD30</f>
-        <v>4</v>
-      </c>
-      <c r="AF30" s="29">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="42">
         <f>SUM(F31:AB31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3608,7 +3664,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="35">
         <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
@@ -3620,7 +3676,7 @@
       </c>
       <c r="I31" s="35">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="35">
         <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
@@ -3628,11 +3684,11 @@
       </c>
       <c r="K31" s="35">
         <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="35">
         <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="35">
         <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
@@ -3737,7 +3793,9 @@
       <c r="K32" s="28">
         <v>18</v>
       </c>
-      <c r="L32" s="28"/>
+      <c r="L32" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
@@ -3902,7 +3960,9 @@
       <c r="K34" s="42">
         <v>15</v>
       </c>
-      <c r="L34" s="42"/>
+      <c r="L34" s="42">
+        <v>14</v>
+      </c>
       <c r="M34" s="42"/>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
@@ -4067,7 +4127,9 @@
       <c r="K36" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="31"/>
+      <c r="L36" s="31">
+        <v>16</v>
+      </c>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
@@ -4232,7 +4294,9 @@
       <c r="K38" s="28">
         <v>16</v>
       </c>
-      <c r="L38" s="28"/>
+      <c r="L38" s="28">
+        <v>15</v>
+      </c>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
@@ -4397,7 +4461,9 @@
       <c r="K40" s="30">
         <v>14</v>
       </c>
-      <c r="L40" s="30"/>
+      <c r="L40" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
@@ -4756,9 +4822,7 @@
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -4893,7 +4957,9 @@
       <c r="K2" s="25">
         <v>1</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="36">
+        <v>3</v>
+      </c>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
       <c r="O2" s="25"/>
@@ -4912,7 +4978,7 @@
       <c r="AB2" s="36"/>
       <c r="AC2" s="36">
         <f>SUM(F3:AA3)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4947,7 +5013,7 @@
       </c>
       <c r="L3" s="35">
         <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" s="35">
         <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
@@ -5049,7 +5115,9 @@
       <c r="K4" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="34">
+        <v>4</v>
+      </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
@@ -5068,7 +5136,7 @@
       <c r="AB4" s="34"/>
       <c r="AC4" s="34">
         <f>SUM(F5:AA5)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -5103,7 +5171,7 @@
       </c>
       <c r="L5" s="35">
         <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="35">
         <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
@@ -5205,7 +5273,9 @@
       <c r="K6" s="36">
         <v>2</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="36">
+        <v>1</v>
+      </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -5224,7 +5294,7 @@
       <c r="AB6" s="36"/>
       <c r="AC6" s="36">
         <f>SUM(F7:AA7)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -5259,7 +5329,7 @@
       </c>
       <c r="L7" s="35">
         <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7" s="35">
         <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
@@ -5361,7 +5431,9 @@
       <c r="K8" s="19">
         <v>3</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="37">
+        <v>5</v>
+      </c>
       <c r="M8" s="19"/>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
@@ -5380,7 +5452,7 @@
       <c r="AB8" s="19"/>
       <c r="AC8" s="37">
         <f>SUM(F9:AA9)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5415,7 +5487,7 @@
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
@@ -5517,7 +5589,9 @@
       <c r="K10" s="34">
         <v>4</v>
       </c>
-      <c r="L10" s="34"/>
+      <c r="L10" s="34">
+        <v>2</v>
+      </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
@@ -5536,7 +5610,7 @@
       <c r="AB10" s="34"/>
       <c r="AC10" s="34">
         <f>SUM(F11:AA11)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5571,7 +5645,7 @@
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
@@ -5673,7 +5747,9 @@
       <c r="K12" s="37">
         <v>5</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="37">
+        <v>8</v>
+      </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -5692,7 +5768,7 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37">
         <f>SUM(F13:AA13)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -5727,7 +5803,7 @@
       </c>
       <c r="L13" s="35">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="35">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
@@ -5824,12 +5900,14 @@
         <v>3</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40">
+        <v>6</v>
+      </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
@@ -5848,7 +5926,7 @@
       <c r="AB14" s="40"/>
       <c r="AC14" s="40">
         <f>SUM(F15:AA15)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -5883,7 +5961,7 @@
       </c>
       <c r="L15" s="35">
         <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="35">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
@@ -5985,7 +6063,9 @@
       <c r="K16" s="31">
         <v>6</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="31">
+        <v>9</v>
+      </c>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
@@ -6141,7 +6221,9 @@
       <c r="K18" s="20">
         <v>7</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="29">
+        <v>12</v>
+      </c>
       <c r="M18" s="29"/>
       <c r="N18" s="20"/>
       <c r="O18" s="29"/>
@@ -6297,7 +6379,9 @@
       <c r="K20" s="30">
         <v>17</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="30" t="s">
+        <v>124</v>
+      </c>
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
@@ -6453,7 +6537,9 @@
       <c r="K22" s="40">
         <v>12</v>
       </c>
-      <c r="L22" s="40"/>
+      <c r="L22" s="40">
+        <v>13</v>
+      </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
@@ -6609,7 +6695,9 @@
       <c r="K24" s="36">
         <v>10</v>
       </c>
-      <c r="L24" s="36"/>
+      <c r="L24" s="36">
+        <v>17</v>
+      </c>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -6732,59 +6820,61 @@
       <c r="AC25" s="35"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="36">
-        <v>10</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="36">
-        <v>8</v>
-      </c>
-      <c r="H26" s="36">
+      <c r="A26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="29">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="20">
         <v>9</v>
       </c>
-      <c r="I26" s="36">
-        <v>12</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="36">
-        <v>13</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36">
+      <c r="G26" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="29">
+        <v>17</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="29">
+        <v>11</v>
+      </c>
+      <c r="K26" s="29">
+        <v>9</v>
+      </c>
+      <c r="L26" s="29">
+        <v>7</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29">
         <f>SUM(F27:AA27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -6799,7 +6889,7 @@
       </c>
       <c r="G27" s="35">
         <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="35">
         <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
@@ -6819,7 +6909,7 @@
       </c>
       <c r="L27" s="35">
         <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
@@ -6888,53 +6978,59 @@
       <c r="AC27" s="35"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="42">
-        <v>5</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="42">
+      <c r="A28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="36">
+        <v>10</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="36">
         <v>8</v>
       </c>
-      <c r="J28" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="42">
+      <c r="H28" s="36">
+        <v>9</v>
+      </c>
+      <c r="I28" s="36">
+        <v>12</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="36">
+        <v>13</v>
+      </c>
+      <c r="L28" s="36">
         <v>11</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42">
+      <c r="M28" s="25"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36">
         <f>SUM(F29:AA29)</f>
         <v>1</v>
       </c>
@@ -6951,7 +7047,7 @@
       </c>
       <c r="G29" s="35">
         <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="35">
         <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
@@ -6959,7 +7055,7 @@
       </c>
       <c r="I29" s="35">
         <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="35">
         <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
@@ -7040,59 +7136,57 @@
       <c r="AC29" s="35"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="28">
-        <v>6</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="28" t="s">
+      <c r="A30" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="42">
+        <v>5</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="28">
-        <v>16</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="28">
-        <v>16</v>
-      </c>
-      <c r="I30" s="28">
-        <v>16</v>
-      </c>
-      <c r="J30" s="28">
-        <v>14</v>
-      </c>
-      <c r="K30" s="28">
-        <v>16</v>
-      </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="28">
+      <c r="F30" s="42"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="42">
+        <v>8</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="42">
+        <v>11</v>
+      </c>
+      <c r="L30" s="42">
+        <v>10</v>
+      </c>
+      <c r="M30" s="42"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42">
         <f>SUM(F31:AA31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -7115,7 +7209,7 @@
       </c>
       <c r="I31" s="35">
         <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="35">
         <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
@@ -7196,57 +7290,59 @@
       <c r="AC31" s="35"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="29">
+      <c r="A32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="28">
+        <v>6</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="28">
+        <v>16</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="28">
+        <v>16</v>
+      </c>
+      <c r="I32" s="28">
+        <v>16</v>
+      </c>
+      <c r="J32" s="28">
         <v>14</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="20">
-        <v>9</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="29">
-        <v>17</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="29">
-        <v>11</v>
-      </c>
-      <c r="K32" s="29">
-        <v>9</v>
-      </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29">
+      <c r="K32" s="28">
+        <v>16</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="28">
         <f>SUM(F33:AA33)</f>
         <v>0</v>
       </c>
@@ -7385,7 +7481,9 @@
       <c r="K34" s="26">
         <v>15</v>
       </c>
-      <c r="L34" s="42"/>
+      <c r="L34" s="42">
+        <v>14</v>
+      </c>
       <c r="M34" s="42"/>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
@@ -7541,7 +7639,9 @@
       <c r="K36" s="28">
         <v>18</v>
       </c>
-      <c r="L36" s="28"/>
+      <c r="L36" s="28">
+        <v>15</v>
+      </c>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
@@ -7697,7 +7797,9 @@
       <c r="K38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="31"/>
+      <c r="L38" s="31">
+        <v>16</v>
+      </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
@@ -7853,7 +7955,9 @@
       <c r="K40" s="30">
         <v>14</v>
       </c>
-      <c r="L40" s="30"/>
+      <c r="L40" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
@@ -8152,9 +8256,7 @@
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -8297,7 +8399,9 @@
       <c r="K2" s="25">
         <v>1</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="36">
+        <v>3</v>
+      </c>
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
       <c r="O2" s="25"/>
@@ -8320,11 +8424,11 @@
       </c>
       <c r="AD2" s="36">
         <f>SUM(F3:Z3)+AC2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE2" s="36">
         <f>SUM(F3:Z3)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8359,7 +8463,7 @@
       </c>
       <c r="L3" s="35">
         <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="35">
         <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
@@ -8463,7 +8567,9 @@
       <c r="K4" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="34">
+        <v>4</v>
+      </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
@@ -8486,11 +8592,11 @@
       </c>
       <c r="AD4" s="34">
         <f>SUM(F5:Z5)+AC4</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AE4" s="34">
         <f>SUM(F5:Z5)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -8525,7 +8631,7 @@
       </c>
       <c r="L5" s="35">
         <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="35">
         <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
@@ -8629,7 +8735,9 @@
       <c r="K6" s="36">
         <v>2</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="36">
+        <v>1</v>
+      </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
@@ -8652,11 +8760,11 @@
       </c>
       <c r="AD6" s="36">
         <f>SUM(F7:Z7)+AC6</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AE6" s="36">
         <f>SUM(F7:Z7)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -8691,7 +8799,7 @@
       </c>
       <c r="L7" s="35">
         <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7" s="35">
         <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
@@ -8762,64 +8870,66 @@
       <c r="AE7" s="35"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="37">
-        <v>63</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="A8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="34">
+        <v>55</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="34">
+        <v>3</v>
+      </c>
+      <c r="K8" s="34">
         <v>4</v>
       </c>
-      <c r="G8" s="19">
-        <v>5</v>
-      </c>
-      <c r="H8" s="37">
-        <v>3</v>
-      </c>
-      <c r="I8" s="37">
-        <v>4</v>
-      </c>
-      <c r="J8" s="37">
-        <v>5</v>
-      </c>
-      <c r="K8" s="19">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37">
+      <c r="L8" s="34">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34">
         <f>SUM(F9:Z9)+AC8</f>
-        <v>18</v>
-      </c>
-      <c r="AE8" s="37">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="34">
         <f>SUM(F9:Z9)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -8830,31 +8940,31 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="35">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="35">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="35">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="35">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="35">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
@@ -8925,64 +9035,66 @@
       <c r="AE9" s="35"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="34">
-        <v>55</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="34">
-        <v>2</v>
-      </c>
-      <c r="G10" s="34">
+      <c r="A10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="37">
+        <v>63</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="37">
+        <v>4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="37">
         <v>3</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="I10" s="37">
+        <v>4</v>
+      </c>
+      <c r="J10" s="37">
+        <v>5</v>
+      </c>
+      <c r="K10" s="19">
         <v>3</v>
       </c>
-      <c r="K10" s="34">
-        <v>4</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34">
+      <c r="L10" s="37">
+        <v>5</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37">
         <f>SUM(F11:Z11)+AC10</f>
-        <v>17</v>
-      </c>
-      <c r="AE10" s="34">
+        <v>20</v>
+      </c>
+      <c r="AE10" s="37">
         <f>SUM(F11:Z11)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -8993,31 +9105,31 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11" s="35">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="35">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="35">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="35">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="35">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
@@ -9121,7 +9233,9 @@
       <c r="K12" s="37">
         <v>5</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="37">
+        <v>8</v>
+      </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -9279,12 +9393,14 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40">
+        <v>6</v>
+      </c>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
@@ -9301,14 +9417,17 @@
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
       <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
+      <c r="AC14" s="40">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AD14" s="40">
         <f>SUM(F15:Z15)+AC14</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE14" s="40">
         <f>SUM(F15:Z15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -9343,7 +9462,7 @@
       </c>
       <c r="L15" s="35">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="35">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
@@ -9447,7 +9566,9 @@
       <c r="K16" s="31">
         <v>6</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="31">
+        <v>9</v>
+      </c>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
@@ -9610,7 +9731,9 @@
       <c r="K18" s="30">
         <v>17</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="30" t="s">
+        <v>124</v>
+      </c>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
@@ -9773,7 +9896,9 @@
       <c r="K20" s="20">
         <v>7</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="29">
+        <v>12</v>
+      </c>
       <c r="M20" s="29"/>
       <c r="N20" s="20"/>
       <c r="O20" s="29"/>
@@ -9936,7 +10061,9 @@
       <c r="K22" s="40">
         <v>12</v>
       </c>
-      <c r="L22" s="40"/>
+      <c r="L22" s="40">
+        <v>13</v>
+      </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
@@ -10095,7 +10222,9 @@
       <c r="K24" s="42">
         <v>11</v>
       </c>
-      <c r="L24" s="42"/>
+      <c r="L24" s="42">
+        <v>10</v>
+      </c>
       <c r="M24" s="42"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
@@ -10258,7 +10387,9 @@
       <c r="K26" s="28">
         <v>16</v>
       </c>
-      <c r="L26" s="28"/>
+      <c r="L26" s="28">
+        <v>15</v>
+      </c>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
@@ -10421,7 +10552,9 @@
       <c r="K28" s="36">
         <v>13</v>
       </c>
-      <c r="L28" s="36"/>
+      <c r="L28" s="36">
+        <v>11</v>
+      </c>
       <c r="M28" s="25"/>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
@@ -10584,7 +10717,9 @@
       <c r="K30" s="29">
         <v>9</v>
       </c>
-      <c r="L30" s="29"/>
+      <c r="L30" s="29">
+        <v>7</v>
+      </c>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
@@ -10747,7 +10882,9 @@
       <c r="K32" s="26">
         <v>15</v>
       </c>
-      <c r="L32" s="42"/>
+      <c r="L32" s="42">
+        <v>14</v>
+      </c>
       <c r="M32" s="42"/>
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
@@ -10910,7 +11047,9 @@
       <c r="K34" s="36">
         <v>10</v>
       </c>
-      <c r="L34" s="36"/>
+      <c r="L34" s="36">
+        <v>17</v>
+      </c>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
@@ -11073,7 +11212,9 @@
       <c r="K36" s="28">
         <v>18</v>
       </c>
-      <c r="L36" s="28"/>
+      <c r="L36" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
@@ -11236,7 +11377,9 @@
       <c r="K38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="31"/>
+      <c r="L38" s="31">
+        <v>16</v>
+      </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
@@ -11399,7 +11542,9 @@
       <c r="K40" s="30">
         <v>14</v>
       </c>
-      <c r="L40" s="30"/>
+      <c r="L40" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="M40" s="30"/>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
@@ -11553,9 +11698,7 @@
       <c r="H42" s="26"/>
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
-      <c r="K42" s="42">
-        <v>15</v>
-      </c>
+      <c r="K42" s="42"/>
       <c r="L42" s="42"/>
       <c r="M42" s="42"/>
       <c r="N42" s="42"/>
@@ -11748,11 +11891,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE6</f>
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="E2" s="10">
         <f>'2022 Driver Ranking'!AF2+'2022 Driver Ranking'!AF6</f>
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11767,11 +11910,11 @@
       </c>
       <c r="D3" s="7">
         <f>'2022 Driver Ranking'!AE4+'2022 Driver Ranking'!AE10</f>
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="E3" s="7">
         <f>'2022 Driver Ranking'!AF4+'2022 Driver Ranking'!AF10</f>
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11786,11 +11929,11 @@
       </c>
       <c r="D4" s="16">
         <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E4" s="16">
         <f>'2022 Driver Ranking'!AF8+'2022 Driver Ranking'!AF12</f>
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11805,11 +11948,11 @@
       </c>
       <c r="D5" s="6">
         <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE22</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6">
         <f>'2022 Driver Ranking'!AF14+'2022 Driver Ranking'!AF22</f>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11824,11 +11967,11 @@
       </c>
       <c r="D6" s="11">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE36</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="11">
         <f>'2022 Driver Ranking'!AF16+'2022 Driver Ranking'!AF36</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11842,12 +11985,12 @@
         <v>79</v>
       </c>
       <c r="D7" s="2">
-        <f>'2022 Driver Ranking'!AE18+'2022 Driver Ranking'!AE30</f>
-        <v>34</v>
+        <f>'2022 Driver Ranking'!AE18+'2022 Driver Ranking'!AE26</f>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
-        <f>'2022 Driver Ranking'!AF18+'2022 Driver Ranking'!AF30</f>
-        <v>34</v>
+        <f>'2022 Driver Ranking'!AF18+'2022 Driver Ranking'!AF26</f>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11861,11 +12004,11 @@
         <v>76</v>
       </c>
       <c r="D8" s="10">
-        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE26</f>
+        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE28</f>
         <v>17</v>
       </c>
       <c r="E8" s="10">
-        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF26</f>
+        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF28</f>
         <v>17</v>
       </c>
     </row>
@@ -11899,12 +12042,12 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE34+'2022 Driver Ranking'!AE42</f>
-        <v>6</v>
+        <f>'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE34+'2022 Driver Ranking'!AE42</f>
+        <v>7</v>
       </c>
       <c r="E10" s="8">
-        <f>'2022 Driver Ranking'!AF28+'2022 Driver Ranking'!AF34+'2022 Driver Ranking'!AF42</f>
-        <v>6</v>
+        <f>'2022 Driver Ranking'!AF30+'2022 Driver Ranking'!AF34+'2022 Driver Ranking'!AF42</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11979,7 +12122,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC6</f>
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11994,7 +12137,7 @@
       </c>
       <c r="D3" s="7">
         <f>'2003-2009 Driver Ranking'!AC4+'2003-2009 Driver Ranking'!AC10</f>
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12009,7 +12152,7 @@
       </c>
       <c r="D4" s="16">
         <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC12</f>
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12024,7 +12167,7 @@
       </c>
       <c r="D5" s="6">
         <f>'2003-2009 Driver Ranking'!AC14+'2003-2009 Driver Ranking'!AC22</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12053,8 +12196,8 @@
         <v>79</v>
       </c>
       <c r="D7" s="2">
-        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC32</f>
-        <v>10</v>
+        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC26</f>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12083,7 +12226,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC26</f>
+        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC28</f>
         <v>4</v>
       </c>
     </row>
@@ -12098,7 +12241,7 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC42</f>
+        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC42</f>
         <v>1</v>
       </c>
     </row>
@@ -12113,7 +12256,7 @@
         <v>83</v>
       </c>
       <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC36</f>
+        <f>'2003-2009 Driver Ranking'!AC32+'2003-2009 Driver Ranking'!AC36</f>
         <v>0</v>
       </c>
     </row>
@@ -12173,11 +12316,11 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD6</f>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE6</f>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12191,12 +12334,12 @@
         <v>77</v>
       </c>
       <c r="D3" s="7">
-        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD10</f>
-        <v>53</v>
+        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD8</f>
+        <v>62</v>
       </c>
       <c r="E3" s="7">
-        <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE10</f>
-        <v>50</v>
+        <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE8</f>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12210,12 +12353,12 @@
         <v>75</v>
       </c>
       <c r="D4" s="16">
-        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD12</f>
-        <v>28</v>
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
+        <v>30</v>
       </c>
       <c r="E4" s="16">
-        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE12</f>
-        <v>28</v>
+        <f>'1991-2002 Driver Ranking'!AE10+'1991-2002 Driver Ranking'!AE12</f>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12230,11 +12373,11 @@
       </c>
       <c r="D5" s="6">
         <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD22</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6">
         <f>'1991-2002 Driver Ranking'!AE14+'1991-2002 Driver Ranking'!AE22</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="133">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,22 @@
   </si>
   <si>
     <t>Did not Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1102,8 +1118,7 @@
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.25" style="1" bestFit="1" customWidth="1"/>
@@ -1259,7 +1274,9 @@
       <c r="L2" s="36">
         <v>3</v>
       </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="44">
+        <v>1</v>
+      </c>
       <c r="N2" s="44"/>
       <c r="O2" s="36"/>
       <c r="P2" s="44"/>
@@ -1285,11 +1302,11 @@
       </c>
       <c r="AE2" s="36">
         <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AF2" s="36">
         <f>SUM(F3:AB3)</f>
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1328,7 +1345,7 @@
       </c>
       <c r="M3" s="35">
         <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N3" s="35">
         <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
@@ -1396,73 +1413,75 @@
       <c r="AF3" s="35"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="34">
-        <v>16</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="A4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="36">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="36">
+        <v>18</v>
+      </c>
+      <c r="G4" s="44">
+        <v>4</v>
+      </c>
+      <c r="H4" s="36">
+        <v>2</v>
+      </c>
+      <c r="I4" s="36">
+        <v>2</v>
+      </c>
+      <c r="J4" s="36">
+        <v>4</v>
+      </c>
+      <c r="K4" s="36">
+        <v>2</v>
+      </c>
+      <c r="L4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="34">
+      <c r="M4" s="36">
         <v>2</v>
       </c>
-      <c r="H4" s="34">
-        <v>1</v>
-      </c>
-      <c r="I4" s="34">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD4" s="36">
+        <f>6</f>
         <v>6</v>
       </c>
-      <c r="J4" s="34">
-        <v>2</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="34">
-        <v>4</v>
-      </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34">
-        <f>1+1+1</f>
-        <v>3</v>
-      </c>
-      <c r="AD4" s="34">
-        <f>7</f>
-        <v>7</v>
-      </c>
-      <c r="AE4" s="34">
+      <c r="AE4" s="36">
         <f>SUM(F5:AB5)+AC4+AD4</f>
-        <v>116</v>
-      </c>
-      <c r="AF4" s="34">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="36">
         <f>SUM(F5:AB5)</f>
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1473,35 +1492,35 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G5" s="35">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" s="35">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I5" s="35">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J5" s="35">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" s="35">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L5" s="35">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M5" s="35">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N5" s="35">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
@@ -1569,73 +1588,75 @@
       <c r="AF5" s="35"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="36">
-        <v>11</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="36">
-        <v>18</v>
-      </c>
-      <c r="G6" s="44">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="34">
+        <v>16</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2</v>
+      </c>
+      <c r="H6" s="34">
+        <v>1</v>
+      </c>
+      <c r="I6" s="34">
+        <v>6</v>
+      </c>
+      <c r="J6" s="34">
+        <v>2</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="34">
         <v>4</v>
       </c>
-      <c r="H6" s="36">
-        <v>2</v>
-      </c>
-      <c r="I6" s="36">
-        <v>2</v>
-      </c>
-      <c r="J6" s="36">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36">
-        <v>2</v>
-      </c>
-      <c r="L6" s="36">
-        <v>1</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="36">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="AE6" s="36">
+      <c r="M6" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="34">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="AE6" s="34">
         <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>110</v>
-      </c>
-      <c r="AF6" s="36">
+        <v>116</v>
+      </c>
+      <c r="AF6" s="34">
         <f>SUM(F7:AB7)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1646,31 +1667,31 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G7" s="35">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7" s="35">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I7" s="35">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J7" s="35">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" s="35">
         <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L7" s="35">
         <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M7" s="35">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
@@ -1778,7 +1799,9 @@
       <c r="L8" s="37">
         <v>5</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="37">
+        <v>3</v>
+      </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -1798,11 +1821,11 @@
       <c r="AD8" s="37"/>
       <c r="AE8" s="37">
         <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="AF8" s="37">
         <f>SUM(F9:AB9)</f>
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1841,7 +1864,7 @@
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
@@ -1945,7 +1968,9 @@
       <c r="L10" s="34">
         <v>2</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="34" t="s">
+        <v>113</v>
+      </c>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
@@ -2115,7 +2140,9 @@
       <c r="L12" s="37">
         <v>8</v>
       </c>
-      <c r="M12" s="37"/>
+      <c r="M12" s="37">
+        <v>4</v>
+      </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
@@ -2135,11 +2162,11 @@
       <c r="AD12" s="37"/>
       <c r="AE12" s="37">
         <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AF12" s="37">
         <f>SUM(F13:AB13)</f>
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2178,7 +2205,7 @@
       </c>
       <c r="M13" s="35">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N13" s="35">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
@@ -2282,7 +2309,9 @@
       <c r="L14" s="40">
         <v>6</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40">
+        <v>9</v>
+      </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -2308,11 +2337,11 @@
       </c>
       <c r="AE14" s="40">
         <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF14" s="40">
         <f>SUM(F15:AB15)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2351,7 +2380,7 @@
       </c>
       <c r="M15" s="35">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="35">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
@@ -2455,7 +2484,9 @@
       <c r="L16" s="31">
         <v>9</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="31">
+        <v>11</v>
+      </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
@@ -2625,7 +2656,9 @@
       <c r="L18" s="29">
         <v>12</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="29">
+        <v>10</v>
+      </c>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -2645,11 +2678,11 @@
       <c r="AD18" s="29"/>
       <c r="AE18" s="29">
         <f>SUM(F19:AB19)+AC18+AD18</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF18" s="29">
         <f>SUM(F19:AB19)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2688,7 +2721,7 @@
       </c>
       <c r="M19" s="35">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="35">
         <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
@@ -2756,70 +2789,69 @@
       <c r="AF19" s="35"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="30">
-        <v>20</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="30">
-        <v>5</v>
-      </c>
-      <c r="G20" s="30">
+      <c r="A20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="29">
+        <v>14</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="29">
         <v>9</v>
       </c>
-      <c r="H20" s="30">
-        <v>14</v>
-      </c>
-      <c r="I20" s="30">
+      <c r="G20" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="29">
+        <v>17</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="29">
+        <v>11</v>
+      </c>
+      <c r="K20" s="29">
         <v>9</v>
       </c>
-      <c r="J20" s="30">
+      <c r="L20" s="29">
+        <v>7</v>
+      </c>
+      <c r="M20" s="29">
+        <v>7</v>
+      </c>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29">
+        <f>SUM(F21:AB21)+AC20+AD20</f>
         <v>16</v>
       </c>
-      <c r="K20" s="30">
-        <v>17</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="30">
-        <f>SUM(F21:AB21)+AC20+AD20</f>
-        <v>15</v>
-      </c>
-      <c r="AF20" s="30">
+      <c r="AF20" s="29">
         <f>SUM(F21:AB21)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2830,11 +2862,11 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G21" s="35">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="35">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
@@ -2842,7 +2874,7 @@
       </c>
       <c r="I21" s="35">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="35">
         <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
@@ -2850,15 +2882,15 @@
       </c>
       <c r="K21" s="35">
         <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="35">
         <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M21" s="35">
         <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N21" s="35">
         <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
@@ -2926,70 +2958,69 @@
       <c r="AF21" s="35"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="40">
-        <v>3</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="40">
-        <v>14</v>
-      </c>
-      <c r="G22" s="40" t="s">
+      <c r="A22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="36">
+        <v>10</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="36">
+        <v>8</v>
+      </c>
+      <c r="H22" s="36">
+        <v>9</v>
+      </c>
+      <c r="I22" s="36">
+        <v>12</v>
+      </c>
+      <c r="J22" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="40">
-        <v>6</v>
-      </c>
-      <c r="I22" s="40">
-        <v>18</v>
-      </c>
-      <c r="J22" s="40">
+      <c r="K22" s="36">
         <v>13</v>
       </c>
-      <c r="K22" s="40">
-        <v>12</v>
-      </c>
-      <c r="L22" s="40">
-        <v>13</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="AE22" s="40">
+      <c r="L22" s="36">
+        <v>11</v>
+      </c>
+      <c r="M22" s="36">
+        <v>5</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36">
         <f>SUM(F23:AB23)+AC22+AD22</f>
-        <v>11</v>
-      </c>
-      <c r="AF22" s="40">
+        <v>16</v>
+      </c>
+      <c r="AF22" s="36">
         <f>SUM(F23:AB23)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -3004,11 +3035,11 @@
       </c>
       <c r="G23" s="35">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="35">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" s="35">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
@@ -3028,7 +3059,7 @@
       </c>
       <c r="M23" s="35">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N23" s="35">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
@@ -3096,67 +3127,72 @@
       <c r="AF23" s="35"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="36">
-        <v>22</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="36">
-        <v>8</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="36">
+      <c r="A24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="30">
+        <v>20</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="30">
+        <v>5</v>
+      </c>
+      <c r="G24" s="30">
+        <v>9</v>
+      </c>
+      <c r="H24" s="30">
+        <v>14</v>
+      </c>
+      <c r="I24" s="30">
+        <v>9</v>
+      </c>
+      <c r="J24" s="30">
+        <v>16</v>
+      </c>
+      <c r="K24" s="30">
+        <v>17</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="30">
+        <f>SUM(F25:AB25)+AC24+AD24</f>
         <v>15</v>
       </c>
-      <c r="I24" s="36">
-        <v>7</v>
-      </c>
-      <c r="J24" s="36">
-        <v>12</v>
-      </c>
-      <c r="K24" s="44">
-        <v>10</v>
-      </c>
-      <c r="L24" s="36">
-        <v>17</v>
-      </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36">
-        <f>SUM(F25:AB25)+AC24+AD24</f>
-        <v>11</v>
-      </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="30">
         <f>SUM(F25:AB25)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -3167,11 +3203,11 @@
       <c r="E25" s="35"/>
       <c r="F25" s="35">
         <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G25" s="35">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="35">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
@@ -3179,7 +3215,7 @@
       </c>
       <c r="I25" s="35">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25" s="35">
         <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
@@ -3187,7 +3223,7 @@
       </c>
       <c r="K25" s="35">
         <f>IF(K24=1,25,IF(K24=2,18,IF(K24=3,15,IF(K24=4,12,IF(K24=5,10,IF(K24=6,8,IF(K24=7,6,IF(K24=8,4,IF(K24=9,2,IF(K24=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="35">
         <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
@@ -3263,67 +3299,72 @@
       <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="29">
+      <c r="A26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="40">
+        <v>3</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="40">
         <v>14</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="29">
-        <v>9</v>
-      </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="29">
-        <v>17</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="29">
-        <v>11</v>
-      </c>
-      <c r="K26" s="29">
-        <v>9</v>
-      </c>
-      <c r="L26" s="29">
-        <v>7</v>
-      </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29">
+      <c r="H26" s="40">
+        <v>6</v>
+      </c>
+      <c r="I26" s="40">
+        <v>18</v>
+      </c>
+      <c r="J26" s="40">
+        <v>13</v>
+      </c>
+      <c r="K26" s="40">
+        <v>12</v>
+      </c>
+      <c r="L26" s="40">
+        <v>13</v>
+      </c>
+      <c r="M26" s="40">
+        <v>8</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="AE26" s="40">
         <f>SUM(F27:AB27)+AC26+AD26</f>
-        <v>10</v>
-      </c>
-      <c r="AF26" s="29">
+        <v>15</v>
+      </c>
+      <c r="AF26" s="40">
         <f>SUM(F27:AB27)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3334,7 +3375,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35">
         <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="35">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
@@ -3342,7 +3383,7 @@
       </c>
       <c r="H27" s="35">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27" s="35">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
@@ -3354,15 +3395,15 @@
       </c>
       <c r="K27" s="35">
         <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="35">
         <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27" s="35">
         <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
@@ -3430,67 +3471,65 @@
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="36">
+      <c r="A28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="42">
+        <v>5</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="42">
+        <v>8</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="42">
+        <v>11</v>
+      </c>
+      <c r="L28" s="42">
         <v>10</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="36">
-        <v>8</v>
-      </c>
-      <c r="H28" s="36">
-        <v>9</v>
-      </c>
-      <c r="I28" s="36">
-        <v>12</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="36">
+      <c r="M28" s="42">
+        <v>6</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42">
+        <f>SUM(F29:AB29)+AC28+AD28</f>
         <v>13</v>
       </c>
-      <c r="L28" s="36">
-        <v>11</v>
-      </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36">
-        <f>SUM(F29:AB29)+AC28+AD28</f>
-        <v>6</v>
-      </c>
-      <c r="AF28" s="36">
+      <c r="AF28" s="42">
         <f>SUM(F29:AB29)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
@@ -3505,15 +3544,15 @@
       </c>
       <c r="G29" s="35">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" s="35">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="35">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="35">
         <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
@@ -3525,11 +3564,11 @@
       </c>
       <c r="L29" s="35">
         <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="35">
         <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N29" s="35">
         <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
@@ -3597,63 +3636,69 @@
       <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="42">
-        <v>5</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="42" t="s">
+      <c r="A30" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="36">
         <v>22</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="42">
+      <c r="C30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="36">
         <v>8</v>
       </c>
-      <c r="J30" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="42">
+      <c r="G30" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="36">
+        <v>15</v>
+      </c>
+      <c r="I30" s="36">
+        <v>7</v>
+      </c>
+      <c r="J30" s="36">
+        <v>12</v>
+      </c>
+      <c r="K30" s="44">
+        <v>10</v>
+      </c>
+      <c r="L30" s="36">
+        <v>17</v>
+      </c>
+      <c r="M30" s="36">
+        <v>13</v>
+      </c>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36">
+        <f>SUM(F31:AB31)+AC30+AD30</f>
         <v>11</v>
       </c>
-      <c r="L30" s="42">
-        <v>10</v>
-      </c>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42">
-        <f>SUM(F31:AB31)+AC30+AD30</f>
-        <v>5</v>
-      </c>
-      <c r="AF30" s="42">
+      <c r="AF30" s="36">
         <f>SUM(F31:AB31)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3664,7 +3709,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="35">
         <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
@@ -3676,7 +3721,7 @@
       </c>
       <c r="I31" s="35">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J31" s="35">
         <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
@@ -3684,11 +3729,11 @@
       </c>
       <c r="K31" s="35">
         <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="35">
         <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="35">
         <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
@@ -3796,7 +3841,9 @@
       <c r="L32" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M32" s="28"/>
+      <c r="M32" s="28">
+        <v>12</v>
+      </c>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
@@ -3963,7 +4010,9 @@
       <c r="L34" s="42">
         <v>14</v>
       </c>
-      <c r="M34" s="42"/>
+      <c r="M34" s="42">
+        <v>16</v>
+      </c>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
@@ -4130,7 +4179,9 @@
       <c r="L36" s="31">
         <v>16</v>
       </c>
-      <c r="M36" s="31"/>
+      <c r="M36" s="31" t="s">
+        <v>130</v>
+      </c>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
@@ -4297,7 +4348,9 @@
       <c r="L38" s="28">
         <v>15</v>
       </c>
-      <c r="M38" s="28"/>
+      <c r="M38" s="28">
+        <v>15</v>
+      </c>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
@@ -4464,7 +4517,9 @@
       <c r="L40" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="M40" s="30"/>
+      <c r="M40" s="30">
+        <v>14</v>
+      </c>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
@@ -4960,7 +5015,9 @@
       <c r="L2" s="36">
         <v>3</v>
       </c>
-      <c r="M2" s="36"/>
+      <c r="M2" s="36">
+        <v>1</v>
+      </c>
       <c r="N2" s="36"/>
       <c r="O2" s="25"/>
       <c r="P2" s="36"/>
@@ -4978,7 +5035,7 @@
       <c r="AB2" s="36"/>
       <c r="AC2" s="36">
         <f>SUM(F3:AA3)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -5017,7 +5074,7 @@
       </c>
       <c r="M3" s="35">
         <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="35">
         <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
@@ -5082,61 +5139,63 @@
       <c r="AC3" s="35"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="34">
-        <v>16</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="A4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="36">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="36">
+        <v>18</v>
+      </c>
+      <c r="G4" s="36">
+        <v>4</v>
+      </c>
+      <c r="H4" s="36">
+        <v>2</v>
+      </c>
+      <c r="I4" s="36">
+        <v>2</v>
+      </c>
+      <c r="J4" s="36">
+        <v>4</v>
+      </c>
+      <c r="K4" s="36">
+        <v>2</v>
+      </c>
+      <c r="L4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="34">
+      <c r="M4" s="36">
         <v>2</v>
       </c>
-      <c r="H4" s="34">
-        <v>1</v>
-      </c>
-      <c r="I4" s="34">
-        <v>6</v>
-      </c>
-      <c r="J4" s="23">
-        <v>2</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="34">
-        <v>4</v>
-      </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36">
         <f>SUM(F5:AA5)</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -5147,35 +5206,35 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35">
         <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="35">
         <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="35">
         <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="35">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" s="35">
         <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" s="35">
         <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="35">
         <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M5" s="35">
         <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="35">
         <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
@@ -5240,59 +5299,61 @@
       <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="36">
-        <v>11</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="36">
-        <v>18</v>
-      </c>
-      <c r="G6" s="36">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="34">
+        <v>16</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2</v>
+      </c>
+      <c r="H6" s="34">
+        <v>1</v>
+      </c>
+      <c r="I6" s="34">
+        <v>6</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="34">
         <v>4</v>
       </c>
-      <c r="H6" s="36">
-        <v>2</v>
-      </c>
-      <c r="I6" s="36">
-        <v>2</v>
-      </c>
-      <c r="J6" s="36">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36">
-        <v>2</v>
-      </c>
-      <c r="L6" s="36">
-        <v>1</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36">
+      <c r="M6" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34">
         <f>SUM(F7:AA7)</f>
         <v>44</v>
       </c>
@@ -5305,31 +5366,31 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35">
         <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="35">
         <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" s="35">
         <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="35">
         <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="35">
         <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K7" s="35">
         <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L7" s="35">
         <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M7" s="35">
         <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
@@ -5434,7 +5495,9 @@
       <c r="L8" s="37">
         <v>5</v>
       </c>
-      <c r="M8" s="19"/>
+      <c r="M8" s="19">
+        <v>3</v>
+      </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -5452,7 +5515,7 @@
       <c r="AB8" s="19"/>
       <c r="AC8" s="37">
         <f>SUM(F9:AA9)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5491,7 +5554,7 @@
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
@@ -5592,7 +5655,9 @@
       <c r="L10" s="34">
         <v>2</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="39" t="s">
+        <v>113</v>
+      </c>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
@@ -5750,7 +5815,9 @@
       <c r="L12" s="37">
         <v>8</v>
       </c>
-      <c r="M12" s="37"/>
+      <c r="M12" s="37">
+        <v>4</v>
+      </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
@@ -5768,7 +5835,7 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37">
         <f>SUM(F13:AA13)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -5807,7 +5874,7 @@
       </c>
       <c r="M13" s="35">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="35">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
@@ -5908,7 +5975,9 @@
       <c r="L14" s="40">
         <v>6</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40">
+        <v>9</v>
+      </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="27"/>
@@ -6066,7 +6135,9 @@
       <c r="L16" s="31">
         <v>9</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="31">
+        <v>11</v>
+      </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="24"/>
@@ -6224,7 +6295,9 @@
       <c r="L18" s="29">
         <v>12</v>
       </c>
-      <c r="M18" s="29"/>
+      <c r="M18" s="29">
+        <v>10</v>
+      </c>
       <c r="N18" s="20"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -6346,61 +6419,63 @@
       <c r="AC19" s="35"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="30">
-        <v>20</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="A20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="36">
+        <v>10</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="36">
+        <v>8</v>
+      </c>
+      <c r="H20" s="36">
+        <v>9</v>
+      </c>
+      <c r="I20" s="36">
+        <v>12</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="36">
+        <v>13</v>
+      </c>
+      <c r="L20" s="36">
+        <v>11</v>
+      </c>
+      <c r="M20" s="25">
         <v>5</v>
       </c>
-      <c r="G20" s="30">
-        <v>9</v>
-      </c>
-      <c r="H20" s="30">
-        <v>14</v>
-      </c>
-      <c r="I20" s="30">
-        <v>9</v>
-      </c>
-      <c r="J20" s="30">
-        <v>16</v>
-      </c>
-      <c r="K20" s="30">
-        <v>17</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="30">
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36">
         <f>SUM(F21:AA21)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -6411,11 +6486,11 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35">
         <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="35">
         <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="35">
         <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
@@ -6439,7 +6514,7 @@
       </c>
       <c r="M21" s="35">
         <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" s="35">
         <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
@@ -6504,61 +6579,63 @@
       <c r="AC21" s="35"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="40">
-        <v>3</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="40">
+      <c r="A22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="30">
+        <v>20</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="30">
+        <v>9</v>
+      </c>
+      <c r="H22" s="30">
         <v>14</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="40">
-        <v>6</v>
-      </c>
-      <c r="I22" s="40">
-        <v>18</v>
-      </c>
-      <c r="J22" s="40">
-        <v>13</v>
-      </c>
-      <c r="K22" s="40">
-        <v>12</v>
-      </c>
-      <c r="L22" s="40">
-        <v>13</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40">
+      <c r="I22" s="30">
+        <v>9</v>
+      </c>
+      <c r="J22" s="30">
+        <v>16</v>
+      </c>
+      <c r="K22" s="30">
+        <v>17</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="30">
         <f>SUM(F23:AA23)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -6569,7 +6646,7 @@
       <c r="E23" s="35"/>
       <c r="F23" s="35">
         <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="35">
         <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
@@ -6577,7 +6654,7 @@
       </c>
       <c r="H23" s="35">
         <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="35">
         <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
@@ -6662,61 +6739,63 @@
       <c r="AC23" s="35"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="36">
+      <c r="A24" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="40">
+        <v>3</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="36">
+      <c r="F24" s="40">
+        <v>14</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="40">
+        <v>6</v>
+      </c>
+      <c r="I24" s="40">
+        <v>18</v>
+      </c>
+      <c r="J24" s="40">
+        <v>13</v>
+      </c>
+      <c r="K24" s="40">
+        <v>12</v>
+      </c>
+      <c r="L24" s="40">
+        <v>13</v>
+      </c>
+      <c r="M24" s="40">
         <v>8</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="36">
-        <v>15</v>
-      </c>
-      <c r="I24" s="25">
-        <v>7</v>
-      </c>
-      <c r="J24" s="36">
-        <v>12</v>
-      </c>
-      <c r="K24" s="36">
-        <v>10</v>
-      </c>
-      <c r="L24" s="36">
-        <v>17</v>
-      </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36">
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40">
         <f>SUM(F25:AA25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -6727,7 +6806,7 @@
       <c r="E25" s="35"/>
       <c r="F25" s="35">
         <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="35">
         <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
@@ -6735,11 +6814,11 @@
       </c>
       <c r="H25" s="35">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="35">
         <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="35">
         <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
@@ -6755,7 +6834,7 @@
       </c>
       <c r="M25" s="35">
         <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="35">
         <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
@@ -6856,7 +6935,9 @@
       <c r="L26" s="29">
         <v>7</v>
       </c>
-      <c r="M26" s="29"/>
+      <c r="M26" s="29">
+        <v>7</v>
+      </c>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
@@ -6874,7 +6955,7 @@
       <c r="AB26" s="29"/>
       <c r="AC26" s="29">
         <f>SUM(F27:AA27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -6913,7 +6994,7 @@
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="35">
         <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
@@ -6978,61 +7059,59 @@
       <c r="AC27" s="35"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="36">
+      <c r="A28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="42">
+        <v>5</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="42">
+        <v>8</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="42">
+        <v>11</v>
+      </c>
+      <c r="L28" s="42">
         <v>10</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="36">
-        <v>8</v>
-      </c>
-      <c r="H28" s="36">
-        <v>9</v>
-      </c>
-      <c r="I28" s="36">
-        <v>12</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="36">
-        <v>13</v>
-      </c>
-      <c r="L28" s="36">
-        <v>11</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36">
+      <c r="M28" s="42">
+        <v>6</v>
+      </c>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42">
         <f>SUM(F29:AA29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -7047,7 +7126,7 @@
       </c>
       <c r="G29" s="35">
         <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="35">
         <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
@@ -7055,7 +7134,7 @@
       </c>
       <c r="I29" s="35">
         <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="35">
         <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
@@ -7071,7 +7150,7 @@
       </c>
       <c r="M29" s="35">
         <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="35">
         <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
@@ -7136,57 +7215,63 @@
       <c r="AC29" s="35"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="42">
-        <v>5</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="42" t="s">
+      <c r="A30" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="36">
         <v>22</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="42">
+      <c r="C30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="36">
         <v>8</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K30" s="42">
-        <v>11</v>
-      </c>
-      <c r="L30" s="42">
+      <c r="G30" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="36">
+        <v>15</v>
+      </c>
+      <c r="I30" s="25">
+        <v>7</v>
+      </c>
+      <c r="J30" s="36">
+        <v>12</v>
+      </c>
+      <c r="K30" s="36">
         <v>10</v>
       </c>
-      <c r="M30" s="42"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42">
+      <c r="L30" s="36">
+        <v>17</v>
+      </c>
+      <c r="M30" s="36">
+        <v>13</v>
+      </c>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36">
         <f>SUM(F31:AA31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -7197,7 +7282,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="35">
         <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
@@ -7209,7 +7294,7 @@
       </c>
       <c r="I31" s="35">
         <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="35">
         <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
@@ -7326,7 +7411,9 @@
       <c r="L32" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="M32" s="28"/>
+      <c r="M32" s="28">
+        <v>15</v>
+      </c>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
@@ -7484,7 +7571,9 @@
       <c r="L34" s="42">
         <v>14</v>
       </c>
-      <c r="M34" s="42"/>
+      <c r="M34" s="42">
+        <v>16</v>
+      </c>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="26"/>
@@ -7642,7 +7731,9 @@
       <c r="L36" s="28">
         <v>15</v>
       </c>
-      <c r="M36" s="28"/>
+      <c r="M36" s="28">
+        <v>12</v>
+      </c>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
@@ -7800,7 +7891,9 @@
       <c r="L38" s="31">
         <v>16</v>
       </c>
-      <c r="M38" s="31"/>
+      <c r="M38" s="31" t="s">
+        <v>131</v>
+      </c>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
@@ -7958,7 +8051,9 @@
       <c r="L40" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="30"/>
+      <c r="M40" s="30">
+        <v>14</v>
+      </c>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
@@ -8402,7 +8497,9 @@
       <c r="L2" s="36">
         <v>3</v>
       </c>
-      <c r="M2" s="36"/>
+      <c r="M2" s="36">
+        <v>1</v>
+      </c>
       <c r="N2" s="36"/>
       <c r="O2" s="25"/>
       <c r="P2" s="36"/>
@@ -8424,11 +8521,11 @@
       </c>
       <c r="AD2" s="36">
         <f>SUM(F3:Z3)+AC2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AE2" s="36">
         <f>SUM(F3:Z3)</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8467,7 +8564,7 @@
       </c>
       <c r="M3" s="35">
         <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="35">
         <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
@@ -8534,69 +8631,71 @@
       <c r="AE3" s="35"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="34">
-        <v>16</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="A4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="36">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="36">
+        <v>18</v>
+      </c>
+      <c r="G4" s="25">
+        <v>4</v>
+      </c>
+      <c r="H4" s="36">
+        <v>2</v>
+      </c>
+      <c r="I4" s="36">
+        <v>2</v>
+      </c>
+      <c r="J4" s="36">
+        <v>4</v>
+      </c>
+      <c r="K4" s="36">
+        <v>2</v>
+      </c>
+      <c r="L4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="34">
+      <c r="M4" s="36">
         <v>2</v>
       </c>
-      <c r="H4" s="34">
-        <v>1</v>
-      </c>
-      <c r="I4" s="34">
-        <v>6</v>
-      </c>
-      <c r="J4" s="23">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36">
+        <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="34">
-        <v>4</v>
-      </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34">
-        <f>1+1+1</f>
-        <v>3</v>
-      </c>
-      <c r="AD4" s="34">
+      <c r="AD4" s="36">
         <f>SUM(F5:Z5)+AC4</f>
-        <v>39</v>
-      </c>
-      <c r="AE4" s="34">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="36">
         <f>SUM(F5:Z5)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -8607,35 +8706,35 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35">
         <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="35">
         <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="35">
         <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" s="35">
         <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="35">
         <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" s="35">
         <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="35">
         <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5" s="35">
         <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="35">
         <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
@@ -8702,69 +8801,71 @@
       <c r="AE5" s="35"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="36">
-        <v>11</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="36">
-        <v>18</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="A6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="34">
+        <v>16</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2</v>
+      </c>
+      <c r="H6" s="34">
+        <v>1</v>
+      </c>
+      <c r="I6" s="34">
+        <v>6</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="34">
         <v>4</v>
       </c>
-      <c r="H6" s="36">
-        <v>2</v>
-      </c>
-      <c r="I6" s="36">
-        <v>2</v>
-      </c>
-      <c r="J6" s="36">
-        <v>4</v>
-      </c>
-      <c r="K6" s="36">
-        <v>2</v>
-      </c>
-      <c r="L6" s="36">
-        <v>1</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="36">
+      <c r="M6" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="34">
         <f>SUM(F7:Z7)+AC6</f>
-        <v>35</v>
-      </c>
-      <c r="AE6" s="36">
+        <v>39</v>
+      </c>
+      <c r="AE6" s="34">
         <f>SUM(F7:Z7)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -8775,31 +8876,31 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35">
         <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="35">
         <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="35">
         <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="35">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="35">
         <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="35">
         <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="35">
         <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" s="35">
         <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
@@ -8870,66 +8971,68 @@
       <c r="AE7" s="35"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="34">
-        <v>55</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="34">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34">
+      <c r="A8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="37">
+        <v>63</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="37">
+        <v>4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>5</v>
+      </c>
+      <c r="H8" s="37">
         <v>3</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="34">
+      <c r="I8" s="37">
+        <v>4</v>
+      </c>
+      <c r="J8" s="37">
+        <v>5</v>
+      </c>
+      <c r="K8" s="19">
         <v>3</v>
       </c>
-      <c r="K8" s="34">
-        <v>4</v>
-      </c>
-      <c r="L8" s="34">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34">
+      <c r="L8" s="37">
+        <v>5</v>
+      </c>
+      <c r="M8" s="19">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37">
         <f>SUM(F9:Z9)+AC8</f>
-        <v>23</v>
-      </c>
-      <c r="AE8" s="34">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="37">
         <f>SUM(F9:Z9)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -8940,35 +9043,35 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="35">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="35">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="35">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="35">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="35">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
@@ -9035,66 +9138,68 @@
       <c r="AE9" s="35"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="37">
-        <v>63</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="37">
+      <c r="A10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="34">
+        <v>55</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="34">
+        <v>3</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="34">
+        <v>3</v>
+      </c>
+      <c r="K10" s="34">
         <v>4</v>
       </c>
-      <c r="G10" s="19">
-        <v>5</v>
-      </c>
-      <c r="H10" s="37">
-        <v>3</v>
-      </c>
-      <c r="I10" s="37">
-        <v>4</v>
-      </c>
-      <c r="J10" s="37">
-        <v>5</v>
-      </c>
-      <c r="K10" s="19">
-        <v>3</v>
-      </c>
-      <c r="L10" s="37">
-        <v>5</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37">
+      <c r="L10" s="34">
+        <v>2</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34">
         <f>SUM(F11:Z11)+AC10</f>
-        <v>20</v>
-      </c>
-      <c r="AE10" s="37">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="34">
         <f>SUM(F11:Z11)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -9105,31 +9210,31 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" s="35">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="35">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="35">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="35">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="35">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
@@ -9236,7 +9341,9 @@
       <c r="L12" s="37">
         <v>8</v>
       </c>
-      <c r="M12" s="37"/>
+      <c r="M12" s="37">
+        <v>4</v>
+      </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
@@ -9255,11 +9362,11 @@
       <c r="AC12" s="37"/>
       <c r="AD12" s="37">
         <f>SUM(F13:Z13)+AC12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE12" s="37">
         <f>SUM(F13:Z13)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -9298,7 +9405,7 @@
       </c>
       <c r="M13" s="35">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="35">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
@@ -9401,7 +9508,9 @@
       <c r="L14" s="40">
         <v>6</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40">
+        <v>9</v>
+      </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="27"/>
@@ -9569,7 +9678,9 @@
       <c r="L16" s="31">
         <v>9</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="31">
+        <v>11</v>
+      </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="24"/>
@@ -9734,7 +9845,9 @@
       <c r="L18" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="M18" s="30"/>
+      <c r="M18" s="30" t="s">
+        <v>131</v>
+      </c>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="4"/>
@@ -9863,66 +9976,68 @@
       <c r="AE19" s="35"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="29">
-        <v>31</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="36">
+        <v>10</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="29">
-        <v>7</v>
-      </c>
-      <c r="G20" s="29">
-        <v>6</v>
-      </c>
-      <c r="H20" s="29">
-        <v>7</v>
-      </c>
-      <c r="I20" s="29">
-        <v>14</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="D20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="36">
         <v>8</v>
       </c>
-      <c r="K20" s="20">
-        <v>7</v>
-      </c>
-      <c r="L20" s="29">
+      <c r="H20" s="36">
+        <v>9</v>
+      </c>
+      <c r="I20" s="36">
         <v>12</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29">
+      <c r="J20" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="36">
+        <v>13</v>
+      </c>
+      <c r="L20" s="36">
+        <v>11</v>
+      </c>
+      <c r="M20" s="25">
+        <v>5</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36">
         <f>SUM(F21:Z21)+AC20</f>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="29">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="36">
         <f>SUM(F21:Z21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -9937,7 +10052,7 @@
       </c>
       <c r="G21" s="35">
         <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="35">
         <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
@@ -9961,7 +10076,7 @@
       </c>
       <c r="M21" s="35">
         <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="35">
         <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
@@ -10028,64 +10143,66 @@
       <c r="AE21" s="35"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="40">
-        <v>3</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="40">
+      <c r="A22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="29">
+        <v>31</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="29">
+        <v>7</v>
+      </c>
+      <c r="G22" s="29">
+        <v>6</v>
+      </c>
+      <c r="H22" s="29">
+        <v>7</v>
+      </c>
+      <c r="I22" s="29">
         <v>14</v>
       </c>
-      <c r="G22" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="40">
-        <v>6</v>
-      </c>
-      <c r="I22" s="40">
-        <v>18</v>
-      </c>
-      <c r="J22" s="40">
-        <v>13</v>
-      </c>
-      <c r="K22" s="40">
+      <c r="J22" s="29">
+        <v>8</v>
+      </c>
+      <c r="K22" s="20">
+        <v>7</v>
+      </c>
+      <c r="L22" s="29">
         <v>12</v>
       </c>
-      <c r="L22" s="40">
-        <v>13</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40">
+      <c r="M22" s="29">
+        <v>10</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29">
         <f>SUM(F23:Z23)+AC22</f>
         <v>1</v>
       </c>
-      <c r="AE22" s="40">
+      <c r="AE22" s="29">
         <f>SUM(F23:Z23)</f>
         <v>1</v>
       </c>
@@ -10102,11 +10219,11 @@
       </c>
       <c r="G23" s="35">
         <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="35">
         <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="35">
         <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
@@ -10193,62 +10310,68 @@
       <c r="AE23" s="35"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="42">
-        <v>5</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="42" t="s">
+      <c r="A24" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="40">
+        <v>3</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="42" t="s">
+      <c r="F24" s="40">
+        <v>14</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="42">
+      <c r="H24" s="40">
+        <v>6</v>
+      </c>
+      <c r="I24" s="40">
+        <v>18</v>
+      </c>
+      <c r="J24" s="40">
+        <v>13</v>
+      </c>
+      <c r="K24" s="40">
+        <v>12</v>
+      </c>
+      <c r="L24" s="40">
+        <v>13</v>
+      </c>
+      <c r="M24" s="40">
         <v>8</v>
       </c>
-      <c r="J24" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="42">
-        <v>11</v>
-      </c>
-      <c r="L24" s="42">
-        <v>10</v>
-      </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42">
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40">
         <f>SUM(F25:Z25)+AC24</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="40">
         <f>SUM(F25:Z25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -10267,7 +10390,7 @@
       </c>
       <c r="H25" s="35">
         <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="35">
         <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
@@ -10354,66 +10477,64 @@
       <c r="AE25" s="35"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="A26" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="42">
+        <v>5</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="42">
+        <v>8</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="42">
+        <v>11</v>
+      </c>
+      <c r="L26" s="42">
+        <v>10</v>
+      </c>
+      <c r="M26" s="42">
         <v>6</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="28">
-        <v>16</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="28">
-        <v>16</v>
-      </c>
-      <c r="I26" s="28">
-        <v>16</v>
-      </c>
-      <c r="J26" s="28">
-        <v>14</v>
-      </c>
-      <c r="K26" s="28">
-        <v>16</v>
-      </c>
-      <c r="L26" s="28">
-        <v>15</v>
-      </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28">
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42">
         <f>SUM(F27:Z27)+AC26</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="42">
         <f>SUM(F27:Z27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -10452,7 +10573,7 @@
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="35">
         <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
@@ -10519,64 +10640,66 @@
       <c r="AE27" s="35"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="36">
-        <v>10</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="36">
-        <v>8</v>
-      </c>
-      <c r="H28" s="36">
-        <v>9</v>
-      </c>
-      <c r="I28" s="36">
-        <v>12</v>
-      </c>
-      <c r="J28" s="36" t="s">
+      <c r="A28" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="28">
+        <v>16</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="36">
-        <v>13</v>
-      </c>
-      <c r="L28" s="36">
-        <v>11</v>
-      </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36">
+      <c r="H28" s="28">
+        <v>16</v>
+      </c>
+      <c r="I28" s="28">
+        <v>16</v>
+      </c>
+      <c r="J28" s="28">
+        <v>14</v>
+      </c>
+      <c r="K28" s="28">
+        <v>16</v>
+      </c>
+      <c r="L28" s="28">
+        <v>15</v>
+      </c>
+      <c r="M28" s="28">
+        <v>15</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28">
         <f>SUM(F29:Z29)+AC28</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="36">
+      <c r="AE28" s="28">
         <f>SUM(F29:Z29)</f>
         <v>0</v>
       </c>
@@ -10720,7 +10843,9 @@
       <c r="L30" s="29">
         <v>7</v>
       </c>
-      <c r="M30" s="29"/>
+      <c r="M30" s="29">
+        <v>7</v>
+      </c>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
@@ -10885,7 +11010,9 @@
       <c r="L32" s="42">
         <v>14</v>
       </c>
-      <c r="M32" s="42"/>
+      <c r="M32" s="42">
+        <v>16</v>
+      </c>
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="26"/>
@@ -11050,7 +11177,9 @@
       <c r="L34" s="36">
         <v>17</v>
       </c>
-      <c r="M34" s="36"/>
+      <c r="M34" s="36">
+        <v>13</v>
+      </c>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -11215,7 +11344,9 @@
       <c r="L36" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="M36" s="28"/>
+      <c r="M36" s="28">
+        <v>12</v>
+      </c>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
@@ -11380,7 +11511,9 @@
       <c r="L38" s="31">
         <v>16</v>
       </c>
-      <c r="M38" s="31"/>
+      <c r="M38" s="31" t="s">
+        <v>131</v>
+      </c>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
@@ -11545,7 +11678,9 @@
       <c r="L40" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="30"/>
+      <c r="M40" s="30">
+        <v>14</v>
+      </c>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
@@ -11890,12 +12025,12 @@
         <v>78</v>
       </c>
       <c r="D2" s="10">
-        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE6</f>
-        <v>235</v>
+        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
+        <v>279</v>
       </c>
       <c r="E2" s="10">
-        <f>'2022 Driver Ranking'!AF2+'2022 Driver Ranking'!AF6</f>
-        <v>218</v>
+        <f>'2022 Driver Ranking'!AF2+'2022 Driver Ranking'!AF4</f>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11909,11 +12044,11 @@
         <v>77</v>
       </c>
       <c r="D3" s="7">
-        <f>'2022 Driver Ranking'!AE4+'2022 Driver Ranking'!AE10</f>
+        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE10</f>
         <v>199</v>
       </c>
       <c r="E3" s="7">
-        <f>'2022 Driver Ranking'!AF4+'2022 Driver Ranking'!AF10</f>
+        <f>'2022 Driver Ranking'!AF6+'2022 Driver Ranking'!AF10</f>
         <v>184</v>
       </c>
     </row>
@@ -11929,11 +12064,11 @@
       </c>
       <c r="D4" s="16">
         <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E4" s="16">
         <f>'2022 Driver Ranking'!AF8+'2022 Driver Ranking'!AF12</f>
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11947,50 +12082,50 @@
         <v>83</v>
       </c>
       <c r="D5" s="6">
-        <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE22</f>
-        <v>59</v>
+        <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE26</f>
+        <v>65</v>
       </c>
       <c r="E5" s="6">
-        <f>'2022 Driver Ranking'!AF14+'2022 Driver Ranking'!AF22</f>
-        <v>51</v>
+        <f>'2022 Driver Ranking'!AF14+'2022 Driver Ranking'!AF26</f>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'2022 Driver Ranking'!AE18+'2022 Driver Ranking'!AE20</f>
+        <v>47</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'2022 Driver Ranking'!AF18+'2022 Driver Ranking'!AF20</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE36</f>
         <v>41</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <f>'2022 Driver Ranking'!AF16+'2022 Driver Ranking'!AF36</f>
         <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2">
-        <f>'2022 Driver Ranking'!AE18+'2022 Driver Ranking'!AE26</f>
-        <v>40</v>
-      </c>
-      <c r="E7" s="2">
-        <f>'2022 Driver Ranking'!AF18+'2022 Driver Ranking'!AF26</f>
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12004,12 +12139,12 @@
         <v>76</v>
       </c>
       <c r="D8" s="10">
-        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE28</f>
-        <v>17</v>
+        <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30</f>
+        <v>27</v>
       </c>
       <c r="E8" s="10">
-        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF28</f>
-        <v>17</v>
+        <f>'2022 Driver Ranking'!AF22+'2022 Driver Ranking'!AF30</f>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12023,11 +12158,11 @@
         <v>80</v>
       </c>
       <c r="D9" s="3">
-        <f>'2022 Driver Ranking'!AE20+'2022 Driver Ranking'!AE40</f>
+        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE40</f>
         <v>15</v>
       </c>
       <c r="E9" s="3">
-        <f>'2022 Driver Ranking'!AF20+'2022 Driver Ranking'!AF40</f>
+        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF40</f>
         <v>14</v>
       </c>
     </row>
@@ -12042,12 +12177,12 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE34+'2022 Driver Ranking'!AE42</f>
-        <v>7</v>
+        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE34+'2022 Driver Ranking'!AE42</f>
+        <v>15</v>
       </c>
       <c r="E10" s="8">
-        <f>'2022 Driver Ranking'!AF30+'2022 Driver Ranking'!AF34+'2022 Driver Ranking'!AF42</f>
-        <v>7</v>
+        <f>'2022 Driver Ranking'!AF28+'2022 Driver Ranking'!AF34+'2022 Driver Ranking'!AF42</f>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12121,8 +12256,8 @@
         <v>78</v>
       </c>
       <c r="D2" s="10">
-        <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC6</f>
-        <v>90</v>
+        <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12136,7 +12271,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="7">
-        <f>'2003-2009 Driver Ranking'!AC4+'2003-2009 Driver Ranking'!AC10</f>
+        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC10</f>
         <v>77</v>
       </c>
     </row>
@@ -12152,7 +12287,7 @@
       </c>
       <c r="D4" s="16">
         <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC12</f>
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12166,67 +12301,67 @@
         <v>83</v>
       </c>
       <c r="D5" s="6">
-        <f>'2003-2009 Driver Ranking'!AC14+'2003-2009 Driver Ranking'!AC22</f>
-        <v>19</v>
+        <f>'2003-2009 Driver Ranking'!AC14+'2003-2009 Driver Ranking'!AC24</f>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC26</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC38</f>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2">
-        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC26</f>
-        <v>12</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10">
+        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC30</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="3">
-        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC40</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC28</f>
+      <c r="D9" s="3">
+        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC40</f>
         <v>4</v>
       </c>
     </row>
@@ -12241,8 +12376,8 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC42</f>
-        <v>1</v>
+        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC42</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12315,12 +12450,12 @@
         <v>78</v>
       </c>
       <c r="D2" s="10">
-        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD6</f>
-        <v>81</v>
+        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
+        <v>98</v>
       </c>
       <c r="E2" s="10">
-        <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE6</f>
-        <v>78</v>
+        <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE4</f>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12334,11 +12469,11 @@
         <v>77</v>
       </c>
       <c r="D3" s="7">
-        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD8</f>
+        <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD10</f>
         <v>62</v>
       </c>
       <c r="E3" s="7">
-        <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE8</f>
+        <f>'1991-2002 Driver Ranking'!AE6+'1991-2002 Driver Ranking'!AE10</f>
         <v>59</v>
       </c>
     </row>
@@ -12353,12 +12488,12 @@
         <v>75</v>
       </c>
       <c r="D4" s="16">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
-        <v>30</v>
+        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD12</f>
+        <v>37</v>
       </c>
       <c r="E4" s="16">
-        <f>'1991-2002 Driver Ranking'!AE10+'1991-2002 Driver Ranking'!AE12</f>
-        <v>30</v>
+        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE12</f>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12372,11 +12507,11 @@
         <v>83</v>
       </c>
       <c r="D5" s="6">
-        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD22</f>
+        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD24</f>
         <v>9</v>
       </c>
       <c r="E5" s="6">
-        <f>'1991-2002 Driver Ranking'!AE14+'1991-2002 Driver Ranking'!AE22</f>
+        <f>'1991-2002 Driver Ranking'!AE14+'1991-2002 Driver Ranking'!AE24</f>
         <v>8</v>
       </c>
     </row>
@@ -12419,41 +12554,41 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10">
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD34</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE34</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="2">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD30</f>
+      <c r="D9" s="2">
+        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE30</f>
+      <c r="E9" s="2">
+        <f>'1991-2002 Driver Ranking'!AE22+'1991-2002 Driver Ranking'!AE30</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="10">
-        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD34</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <f>'1991-2002 Driver Ranking'!AE28+'1991-2002 Driver Ranking'!AE34</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12467,12 +12602,12 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD42</f>
-        <v>0</v>
+        <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD42</f>
+        <v>1</v>
       </c>
       <c r="E10" s="8">
-        <f>'1991-2002 Driver Ranking'!AE24+'1991-2002 Driver Ranking'!AE32+'1991-2002 Driver Ranking'!AE42</f>
-        <v>0</v>
+        <f>'1991-2002 Driver Ranking'!AE26+'1991-2002 Driver Ranking'!AE32+'1991-2002 Driver Ranking'!AE42</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12486,11 +12621,11 @@
         <v>83</v>
       </c>
       <c r="D11" s="5">
-        <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD36</f>
+        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD36</f>
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <f>'1991-2002 Driver Ranking'!AE26+'1991-2002 Driver Ranking'!AE36</f>
+        <f>'1991-2002 Driver Ranking'!AE28+'1991-2002 Driver Ranking'!AE36</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="2022 Driver Ranking" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2022 Engine Ranking'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2022 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="118">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,11 +491,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Did Not Finish</t>
+    <t>Did not Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Did not Finish</t>
+    <t>Did not Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,67 +504,6 @@
   </si>
   <si>
     <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did not Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Did not Finish</t>
@@ -819,7 +770,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -861,7 +812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,14 +1067,12 @@
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="14" width="21.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
+    <col min="16" max="18" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.75" style="1" bestFit="1" customWidth="1"/>
@@ -1139,7 +1088,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I2" s="36">
         <v>1</v>
@@ -1277,12 +1226,24 @@
       <c r="M2" s="44">
         <v>1</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="N2" s="44">
+        <v>1</v>
+      </c>
+      <c r="O2" s="36">
+        <v>7</v>
+      </c>
+      <c r="P2" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>1</v>
+      </c>
+      <c r="R2" s="36">
+        <v>1</v>
+      </c>
+      <c r="S2" s="36">
+        <v>1</v>
+      </c>
       <c r="T2" s="36"/>
       <c r="U2" s="44"/>
       <c r="V2" s="36"/>
@@ -1293,23 +1254,23 @@
       <c r="AA2" s="36"/>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="AD2" s="36">
-        <f>8</f>
-        <v>8</v>
+        <f>8+8</f>
+        <v>16</v>
       </c>
       <c r="AE2" s="36">
         <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="AF2" s="36">
         <f>SUM(F3:AB3)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1349,27 +1310,27 @@
       </c>
       <c r="N3" s="35">
         <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O3" s="35">
         <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P3" s="35">
         <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="35">
         <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R3" s="35">
         <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S3" s="35">
         <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T3" s="35">
         <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
@@ -1452,12 +1413,24 @@
       <c r="M4" s="36">
         <v>2</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="36">
+        <v>2</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>4</v>
+      </c>
+      <c r="R4" s="44">
+        <v>5</v>
+      </c>
+      <c r="S4" s="36">
+        <v>2</v>
+      </c>
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
@@ -1472,19 +1445,19 @@
         <v>2</v>
       </c>
       <c r="AD4" s="36">
-        <f>6</f>
-        <v>6</v>
+        <f>6+4</f>
+        <v>10</v>
       </c>
       <c r="AE4" s="36">
         <f>SUM(F5:AB5)+AC4+AD4</f>
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="AF4" s="36">
         <f>SUM(F5:AB5)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -1528,7 +1501,7 @@
       </c>
       <c r="O5" s="35">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P5" s="35">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
@@ -1536,15 +1509,15 @@
       </c>
       <c r="Q5" s="35">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R5" s="35">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S5" s="35">
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T5" s="35">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
@@ -1619,20 +1592,32 @@
         <v>2</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="N6" s="34">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34">
+        <v>4</v>
+      </c>
+      <c r="P6" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="34">
+        <v>6</v>
+      </c>
+      <c r="S6" s="34">
+        <v>6</v>
+      </c>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
@@ -1647,19 +1632,19 @@
         <v>3</v>
       </c>
       <c r="AD6" s="34">
-        <f>7</f>
-        <v>7</v>
+        <f>7+7</f>
+        <v>14</v>
       </c>
       <c r="AE6" s="34">
         <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="AF6" s="34">
         <f>SUM(F7:AB7)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -1699,15 +1684,15 @@
       </c>
       <c r="N7" s="35">
         <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="35">
         <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P7" s="35">
         <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="35">
         <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
@@ -1715,11 +1700,11 @@
       </c>
       <c r="R7" s="35">
         <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S7" s="35">
         <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T7" s="35">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
@@ -1763,72 +1748,90 @@
       <c r="AF7" s="35"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="37">
-        <v>63</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="A8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="34">
+        <v>55</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="34">
+        <v>3</v>
+      </c>
+      <c r="K8" s="34">
         <v>4</v>
       </c>
-      <c r="G8" s="37">
+      <c r="L8" s="34">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="34">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34">
+        <v>1</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="34">
         <v>5</v>
       </c>
-      <c r="H8" s="37">
+      <c r="R8" s="34">
+        <v>4</v>
+      </c>
+      <c r="S8" s="34">
         <v>3</v>
       </c>
-      <c r="I8" s="37">
-        <v>4</v>
-      </c>
-      <c r="J8" s="37">
-        <v>5</v>
-      </c>
-      <c r="K8" s="37">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37">
-        <v>5</v>
-      </c>
-      <c r="M8" s="37">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37">
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD8" s="34">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="AE8" s="34">
         <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>99</v>
-      </c>
-      <c r="AF8" s="37">
+        <v>171</v>
+      </c>
+      <c r="AF8" s="34">
         <f>SUM(F9:AB9)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -1836,43 +1839,43 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35">
         <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="35">
         <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="35">
         <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I9" s="35">
         <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J9" s="35">
         <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9" s="35">
         <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O9" s="35">
         <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P9" s="35">
         <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
@@ -1880,15 +1883,15 @@
       </c>
       <c r="Q9" s="35">
         <f>IF(Q8=1,25,IF(Q8=2,18,IF(Q8=3,15,IF(Q8=4,12,IF(Q8=5,10,IF(Q8=6,8,IF(Q8=7,6,IF(Q8=8,4,IF(Q8=9,2,IF(Q8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9" s="35">
         <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S9" s="35">
         <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T9" s="35">
         <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
@@ -1932,75 +1935,87 @@
       <c r="AF9" s="35"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="34">
-        <v>55</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="34">
-        <v>2</v>
-      </c>
-      <c r="G10" s="34">
+      <c r="A10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="37">
+        <v>63</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="37">
+        <v>4</v>
+      </c>
+      <c r="G10" s="37">
+        <v>5</v>
+      </c>
+      <c r="H10" s="37">
         <v>3</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="I10" s="37">
+        <v>4</v>
+      </c>
+      <c r="J10" s="37">
+        <v>5</v>
+      </c>
+      <c r="K10" s="37">
         <v>3</v>
       </c>
-      <c r="K10" s="34">
+      <c r="L10" s="37">
+        <v>5</v>
+      </c>
+      <c r="M10" s="37">
+        <v>3</v>
+      </c>
+      <c r="N10" s="37">
         <v>4</v>
       </c>
-      <c r="L10" s="34">
-        <v>2</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34">
+      <c r="O10" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>3</v>
+      </c>
+      <c r="R10" s="37">
+        <v>3</v>
+      </c>
+      <c r="S10" s="37">
+        <v>4</v>
+      </c>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10" s="37">
         <f>SUM(F11:AB11)+AC10+AD10</f>
-        <v>83</v>
-      </c>
-      <c r="AF10" s="34">
+        <v>170</v>
+      </c>
+      <c r="AF10" s="37">
         <f>SUM(F11:AB11)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -2008,39 +2023,39 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G11" s="35">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H11" s="35">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I11" s="35">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J11" s="35">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" s="35">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N11" s="35">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O11" s="35">
         <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
@@ -2048,19 +2063,19 @@
       </c>
       <c r="P11" s="35">
         <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="35">
         <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R11" s="35">
         <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S11" s="35">
         <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T11" s="35">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
@@ -2103,7 +2118,7 @@
       <c r="AE11" s="35"/>
       <c r="AF11" s="35"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
@@ -2143,12 +2158,24 @@
       <c r="M12" s="37">
         <v>4</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="N12" s="37">
+        <v>3</v>
+      </c>
+      <c r="O12" s="37">
+        <v>3</v>
+      </c>
+      <c r="P12" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>2</v>
+      </c>
+      <c r="R12" s="37">
+        <v>2</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>117</v>
+      </c>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
@@ -2158,18 +2185,24 @@
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
+      <c r="AC12" s="37">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD12" s="37">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AE12" s="37">
         <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="AF12" s="37">
         <f>SUM(F13:AB13)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -2209,23 +2242,23 @@
       </c>
       <c r="N13" s="35">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O13" s="35">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P13" s="35">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="35">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R13" s="35">
         <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S13" s="35">
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
@@ -2272,7 +2305,7 @@
       <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>48</v>
       </c>
@@ -2301,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
@@ -2312,12 +2345,24 @@
       <c r="M14" s="40">
         <v>9</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="N14" s="40">
+        <v>15</v>
+      </c>
+      <c r="O14" s="40">
+        <v>6</v>
+      </c>
+      <c r="P14" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>7</v>
+      </c>
+      <c r="R14" s="40">
+        <v>7</v>
+      </c>
+      <c r="S14" s="40">
+        <v>12</v>
+      </c>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -2337,14 +2382,14 @@
       </c>
       <c r="AE14" s="40">
         <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AF14" s="40">
         <f>SUM(F15:AB15)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -2388,19 +2433,19 @@
       </c>
       <c r="O15" s="35">
         <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P15" s="35">
         <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="35">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R15" s="35">
         <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S15" s="35">
         <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
@@ -2447,76 +2492,88 @@
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="31">
-        <v>77</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="31">
+    <row r="16" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="29">
+        <v>31</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="29">
+        <v>7</v>
+      </c>
+      <c r="G16" s="29">
         <v>6</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="H16" s="29">
+        <v>7</v>
+      </c>
+      <c r="I16" s="29">
+        <v>14</v>
+      </c>
+      <c r="J16" s="29">
         <v>8</v>
       </c>
-      <c r="I16" s="31">
+      <c r="K16" s="29">
+        <v>7</v>
+      </c>
+      <c r="L16" s="29">
+        <v>12</v>
+      </c>
+      <c r="M16" s="29">
+        <v>10</v>
+      </c>
+      <c r="N16" s="29">
+        <v>6</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="29">
         <v>5</v>
       </c>
-      <c r="J16" s="31">
+      <c r="Q16" s="29">
+        <v>8</v>
+      </c>
+      <c r="R16" s="29">
+        <v>9</v>
+      </c>
+      <c r="S16" s="29">
         <v>7</v>
       </c>
-      <c r="K16" s="31">
-        <v>6</v>
-      </c>
-      <c r="L16" s="31">
-        <v>9</v>
-      </c>
-      <c r="M16" s="31">
-        <v>11</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="AE16" s="31">
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="AE16" s="29">
         <f>SUM(F17:AB17)+AC16+AD16</f>
-        <v>40</v>
-      </c>
-      <c r="AF16" s="31">
+        <v>64</v>
+      </c>
+      <c r="AF16" s="29">
         <f>SUM(F17:AB17)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -2524,39 +2581,39 @@
       <c r="E17" s="35"/>
       <c r="F17" s="35">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" s="35">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="35">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="35">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J17" s="35">
         <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17" s="35">
         <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L17" s="35">
         <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" s="35">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="35">
         <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O17" s="35">
         <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
@@ -2564,19 +2621,19 @@
       </c>
       <c r="P17" s="35">
         <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="35">
         <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" s="35">
         <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="35">
         <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T17" s="35">
         <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
@@ -2621,13 +2678,13 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="29">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>36</v>
@@ -2636,35 +2693,47 @@
         <v>37</v>
       </c>
       <c r="F18" s="29">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="29">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="29">
+        <v>11</v>
+      </c>
+      <c r="K18" s="29">
+        <v>9</v>
+      </c>
+      <c r="L18" s="29">
         <v>7</v>
       </c>
-      <c r="G18" s="29">
+      <c r="M18" s="29">
+        <v>7</v>
+      </c>
+      <c r="N18" s="29">
+        <v>9</v>
+      </c>
+      <c r="O18" s="29">
+        <v>5</v>
+      </c>
+      <c r="P18" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="29">
         <v>6</v>
       </c>
-      <c r="H18" s="29">
-        <v>7</v>
-      </c>
-      <c r="I18" s="29">
-        <v>14</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="R18" s="29">
         <v>8</v>
       </c>
-      <c r="K18" s="29">
-        <v>7</v>
-      </c>
-      <c r="L18" s="29">
-        <v>12</v>
-      </c>
-      <c r="M18" s="29">
-        <v>10</v>
-      </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="S18" s="29">
+        <v>5</v>
+      </c>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
@@ -2678,14 +2747,14 @@
       <c r="AD18" s="29"/>
       <c r="AE18" s="29">
         <f>SUM(F19:AB19)+AC18+AD18</f>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AF18" s="29">
         <f>SUM(F19:AB19)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -2693,15 +2762,15 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="35">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19" s="35">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19" s="35">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
@@ -2709,43 +2778,43 @@
       </c>
       <c r="J19" s="35">
         <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K19" s="35">
         <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L19" s="35">
         <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M19" s="35">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N19" s="35">
         <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="35">
         <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P19" s="35">
         <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="35">
         <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R19" s="35">
         <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S19" s="35">
         <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="35">
         <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
@@ -2789,72 +2858,87 @@
       <c r="AF19" s="35"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="29">
+      <c r="A20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="31">
+        <v>77</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="31">
+        <v>6</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="31">
+        <v>8</v>
+      </c>
+      <c r="I20" s="31">
+        <v>5</v>
+      </c>
+      <c r="J20" s="31">
+        <v>7</v>
+      </c>
+      <c r="K20" s="31">
+        <v>6</v>
+      </c>
+      <c r="L20" s="31">
+        <v>9</v>
+      </c>
+      <c r="M20" s="31">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31">
+        <v>7</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="31">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="31">
         <v>14</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="29">
-        <v>9</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="29">
-        <v>17</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="29">
-        <v>11</v>
-      </c>
-      <c r="K20" s="29">
-        <v>9</v>
-      </c>
-      <c r="L20" s="29">
-        <v>7</v>
-      </c>
-      <c r="M20" s="29">
-        <v>7</v>
-      </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29">
+      <c r="R20" s="31">
+        <v>20</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="AE20" s="31">
         <f>SUM(F21:AB21)+AC20+AD20</f>
-        <v>16</v>
-      </c>
-      <c r="AF20" s="29">
+        <v>46</v>
+      </c>
+      <c r="AF20" s="31">
         <f>SUM(F21:AB21)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -2862,7 +2946,7 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35">
         <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" s="35">
         <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
@@ -2870,31 +2954,31 @@
       </c>
       <c r="H21" s="35">
         <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="35">
         <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J21" s="35">
         <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="35">
         <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L21" s="35">
         <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M21" s="35">
         <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N21" s="35">
         <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21" s="35">
         <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
@@ -2957,73 +3041,88 @@
       <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="36">
+    <row r="22" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="30">
+        <v>20</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="30">
+        <v>5</v>
+      </c>
+      <c r="G22" s="30">
+        <v>9</v>
+      </c>
+      <c r="H22" s="30">
+        <v>14</v>
+      </c>
+      <c r="I22" s="30">
+        <v>9</v>
+      </c>
+      <c r="J22" s="30">
+        <v>16</v>
+      </c>
+      <c r="K22" s="30">
+        <v>17</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="30">
+        <v>17</v>
+      </c>
+      <c r="O22" s="30">
         <v>10</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="36">
+      <c r="P22" s="30">
         <v>8</v>
       </c>
-      <c r="H22" s="36">
-        <v>9</v>
-      </c>
-      <c r="I22" s="36">
-        <v>12</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="36">
-        <v>13</v>
-      </c>
-      <c r="L22" s="36">
-        <v>11</v>
-      </c>
-      <c r="M22" s="36">
-        <v>5</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36">
+      <c r="Q22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" s="30">
+        <v>16</v>
+      </c>
+      <c r="S22" s="30">
+        <v>16</v>
+      </c>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="AE22" s="30">
         <f>SUM(F23:AB23)+AC22+AD22</f>
-        <v>16</v>
-      </c>
-      <c r="AF22" s="36">
+        <v>22</v>
+      </c>
+      <c r="AF22" s="30">
         <f>SUM(F23:AB23)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -3031,19 +3130,19 @@
       <c r="E23" s="35"/>
       <c r="F23" s="35">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="35">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" s="35">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="35">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="35">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
@@ -3059,7 +3158,7 @@
       </c>
       <c r="M23" s="35">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N23" s="35">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
@@ -3067,11 +3166,11 @@
       </c>
       <c r="O23" s="35">
         <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="35">
         <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="35">
         <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
@@ -3127,75 +3226,80 @@
       <c r="AF23" s="35"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="30">
+      <c r="A24" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="42">
+        <v>5</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="42">
+        <v>8</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="42">
+        <v>11</v>
+      </c>
+      <c r="L24" s="42">
+        <v>10</v>
+      </c>
+      <c r="M24" s="42">
+        <v>6</v>
+      </c>
+      <c r="N24" s="42">
+        <v>12</v>
+      </c>
+      <c r="O24" s="42">
+        <v>9</v>
+      </c>
+      <c r="P24" s="42">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="42">
+        <v>11</v>
+      </c>
+      <c r="R24" s="42">
+        <v>10</v>
+      </c>
+      <c r="S24" s="42">
+        <v>8</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42">
+        <f>SUM(F25:AB25)+AC24+AD24</f>
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="30">
-        <v>5</v>
-      </c>
-      <c r="G24" s="30">
-        <v>9</v>
-      </c>
-      <c r="H24" s="30">
-        <v>14</v>
-      </c>
-      <c r="I24" s="30">
-        <v>9</v>
-      </c>
-      <c r="J24" s="30">
-        <v>16</v>
-      </c>
-      <c r="K24" s="30">
-        <v>17</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="AE24" s="30">
-        <f>SUM(F25:AB25)+AC24+AD24</f>
-        <v>15</v>
-      </c>
-      <c r="AF24" s="30">
+      <c r="AF24" s="42">
         <f>SUM(F25:AB25)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -3203,11 +3307,11 @@
       <c r="E25" s="35"/>
       <c r="F25" s="35">
         <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="35">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="35">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
@@ -3215,7 +3319,7 @@
       </c>
       <c r="I25" s="35">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" s="35">
         <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
@@ -3227,11 +3331,11 @@
       </c>
       <c r="L25" s="35">
         <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="35">
         <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N25" s="35">
         <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
@@ -3239,7 +3343,7 @@
       </c>
       <c r="O25" s="35">
         <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" s="35">
         <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
@@ -3251,11 +3355,11 @@
       </c>
       <c r="R25" s="35">
         <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="35">
         <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25" s="35">
         <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
@@ -3318,7 +3422,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H26" s="40">
         <v>6</v>
@@ -3338,12 +3442,24 @@
       <c r="M26" s="40">
         <v>8</v>
       </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
+      <c r="N26" s="40">
+        <v>11</v>
+      </c>
+      <c r="O26" s="40">
+        <v>13</v>
+      </c>
+      <c r="P26" s="40">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>9</v>
+      </c>
+      <c r="R26" s="40">
+        <v>15</v>
+      </c>
+      <c r="S26" s="40">
+        <v>15</v>
+      </c>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
@@ -3360,14 +3476,14 @@
       </c>
       <c r="AE26" s="40">
         <f>SUM(F27:AB27)+AC26+AD26</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF26" s="40">
         <f>SUM(F27:AB27)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -3415,11 +3531,11 @@
       </c>
       <c r="P27" s="35">
         <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="35">
         <f>IF(Q26=1,25,IF(Q26=2,18,IF(Q26=3,15,IF(Q26=4,12,IF(Q26=5,10,IF(Q26=6,8,IF(Q26=7,6,IF(Q26=8,4,IF(Q26=9,2,IF(Q26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="35">
         <f>IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
@@ -3471,68 +3587,84 @@
       <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="42">
+      <c r="A28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="36">
+        <v>10</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="36">
+        <v>8</v>
+      </c>
+      <c r="H28" s="36">
+        <v>9</v>
+      </c>
+      <c r="I28" s="36">
+        <v>12</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="36">
+        <v>13</v>
+      </c>
+      <c r="L28" s="36">
+        <v>11</v>
+      </c>
+      <c r="M28" s="36">
         <v>5</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="42">
-        <v>8</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="42">
-        <v>11</v>
-      </c>
-      <c r="L28" s="42">
-        <v>10</v>
-      </c>
-      <c r="M28" s="42">
-        <v>6</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42">
+      <c r="N28" s="36">
+        <v>14</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="36">
+        <v>12</v>
+      </c>
+      <c r="R28" s="36">
+        <v>12</v>
+      </c>
+      <c r="S28" s="36">
+        <v>9</v>
+      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36">
         <f>SUM(F29:AB29)+AC28+AD28</f>
-        <v>13</v>
-      </c>
-      <c r="AF28" s="42">
+        <v>18</v>
+      </c>
+      <c r="AF28" s="36">
         <f>SUM(F29:AB29)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -3544,15 +3676,15 @@
       </c>
       <c r="G29" s="35">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="35">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="35">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" s="35">
         <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
@@ -3564,11 +3696,11 @@
       </c>
       <c r="L29" s="35">
         <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="35">
         <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N29" s="35">
         <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
@@ -3592,7 +3724,7 @@
       </c>
       <c r="S29" s="35">
         <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="35">
         <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
@@ -3635,73 +3767,85 @@
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="36">
-        <v>22</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="36">
+    <row r="30" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="30">
+        <v>47</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="30">
+        <v>11</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="30">
+        <v>13</v>
+      </c>
+      <c r="I30" s="30">
+        <v>17</v>
+      </c>
+      <c r="J30" s="30">
+        <v>15</v>
+      </c>
+      <c r="K30" s="30">
+        <v>14</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="30">
+        <v>14</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="30">
         <v>8</v>
       </c>
-      <c r="G30" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="36">
+      <c r="P30" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="30">
         <v>15</v>
       </c>
-      <c r="I30" s="36">
-        <v>7</v>
-      </c>
-      <c r="J30" s="36">
+      <c r="R30" s="30">
+        <v>14</v>
+      </c>
+      <c r="S30" s="30">
+        <v>17</v>
+      </c>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30">
+        <f>SUM(F31:AB31)+AC30+AD30</f>
         <v>12</v>
       </c>
-      <c r="K30" s="44">
-        <v>10</v>
-      </c>
-      <c r="L30" s="36">
-        <v>17</v>
-      </c>
-      <c r="M30" s="36">
-        <v>13</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36">
-        <f>SUM(F31:AB31)+AC30+AD30</f>
-        <v>11</v>
-      </c>
-      <c r="AF30" s="36">
+      <c r="AF30" s="30">
         <f>SUM(F31:AB31)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -3709,7 +3853,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="35">
         <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
@@ -3721,7 +3865,7 @@
       </c>
       <c r="I31" s="35">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J31" s="35">
         <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
@@ -3729,7 +3873,7 @@
       </c>
       <c r="K31" s="35">
         <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="35">
         <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
@@ -3745,11 +3889,11 @@
       </c>
       <c r="O31" s="35">
         <f>IF(O30=1,25,IF(O30=2,18,IF(O30=3,15,IF(O30=4,12,IF(O30=5,10,IF(O30=6,8,IF(O30=7,6,IF(O30=8,4,IF(O30=9,2,IF(O30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P31" s="35">
         <f>IF(P30=1,25,IF(P30=2,18,IF(P30=3,15,IF(P30=4,12,IF(P30=5,10,IF(P30=6,8,IF(P30=7,6,IF(P30=8,4,IF(P30=9,2,IF(P30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q31" s="35">
         <f>IF(Q30=1,25,IF(Q30=2,18,IF(Q30=3,15,IF(Q30=4,12,IF(Q30=5,10,IF(Q30=6,8,IF(Q30=7,6,IF(Q30=8,4,IF(Q30=9,2,IF(Q30=10,1,0))))))))))</f>
@@ -3804,73 +3948,85 @@
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="28">
-        <v>23</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="28" t="s">
+    <row r="32" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="36">
         <v>22</v>
       </c>
-      <c r="F32" s="28">
+      <c r="C32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="36">
+        <v>8</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="36">
+        <v>15</v>
+      </c>
+      <c r="I32" s="36">
+        <v>7</v>
+      </c>
+      <c r="J32" s="36">
+        <v>12</v>
+      </c>
+      <c r="K32" s="44">
+        <v>10</v>
+      </c>
+      <c r="L32" s="36">
+        <v>17</v>
+      </c>
+      <c r="M32" s="36">
         <v>13</v>
       </c>
-      <c r="G32" s="28">
+      <c r="N32" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32" s="36">
         <v>14</v>
       </c>
-      <c r="H32" s="28">
-        <v>10</v>
-      </c>
-      <c r="I32" s="28">
+      <c r="P32" s="36">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R32" s="36">
+        <v>19</v>
+      </c>
+      <c r="S32" s="36">
+        <v>13</v>
+      </c>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36">
+        <f>SUM(F33:AB33)+AC32+AD32</f>
         <v>11</v>
       </c>
-      <c r="J32" s="28">
-        <v>9</v>
-      </c>
-      <c r="K32" s="28">
-        <v>18</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" s="28">
-        <v>12</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28">
-        <f>SUM(F33:AB33)+AC32+AD32</f>
-        <v>3</v>
-      </c>
-      <c r="AF32" s="28">
+      <c r="AF32" s="36">
         <f>SUM(F33:AB33)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -3878,7 +4034,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35">
         <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="35">
         <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
@@ -3886,19 +4042,19 @@
       </c>
       <c r="H33" s="35">
         <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="35">
         <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" s="35">
         <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="35">
         <f>IF(K32=1,25,IF(K32=2,18,IF(K32=3,15,IF(K32=4,12,IF(K32=5,10,IF(K32=6,8,IF(K32=7,6,IF(K32=8,4,IF(K32=9,2,IF(K32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="35">
         <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
@@ -3973,73 +4129,85 @@
       <c r="AE33" s="35"/>
       <c r="AF33" s="35"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="42">
-        <v>18</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="42">
-        <v>12</v>
-      </c>
-      <c r="G34" s="42">
+    <row r="34" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="31">
+        <v>24</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="31">
+        <v>10</v>
+      </c>
+      <c r="G34" s="31">
+        <v>11</v>
+      </c>
+      <c r="H34" s="31">
+        <v>11</v>
+      </c>
+      <c r="I34" s="31">
+        <v>15</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="31">
+        <v>16</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N34" s="31">
+        <v>8</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>16</v>
+      </c>
+      <c r="R34" s="31">
         <v>13</v>
       </c>
-      <c r="H34" s="42">
-        <v>12</v>
-      </c>
-      <c r="I34" s="42">
-        <v>10</v>
-      </c>
-      <c r="J34" s="42">
-        <v>10</v>
-      </c>
-      <c r="K34" s="42">
-        <v>15</v>
-      </c>
-      <c r="L34" s="42">
+      <c r="S34" s="31">
         <v>14</v>
       </c>
-      <c r="M34" s="42">
-        <v>16</v>
-      </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42">
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31">
         <f>SUM(F35:AB35)+AC34+AD34</f>
-        <v>2</v>
-      </c>
-      <c r="AF34" s="42">
+        <v>5</v>
+      </c>
+      <c r="AF34" s="31">
         <f>SUM(F35:AB35)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -4047,7 +4215,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="35">
         <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="35">
         <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
@@ -4059,11 +4227,11 @@
       </c>
       <c r="I35" s="35">
         <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="35">
         <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="35">
         <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
@@ -4079,7 +4247,7 @@
       </c>
       <c r="N35" s="35">
         <f>IF(N34=1,25,IF(N34=2,18,IF(N34=3,15,IF(N34=4,12,IF(N34=5,10,IF(N34=6,8,IF(N34=7,6,IF(N34=8,4,IF(N34=9,2,IF(N34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O35" s="35">
         <f>IF(O34=1,25,IF(O34=2,18,IF(O34=3,15,IF(O34=4,12,IF(O34=5,10,IF(O34=6,8,IF(O34=7,6,IF(O34=8,4,IF(O34=9,2,IF(O34=10,1,0))))))))))</f>
@@ -4142,73 +4310,85 @@
       <c r="AE35" s="35"/>
       <c r="AF35" s="35"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="31">
-        <v>24</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="31">
+    <row r="36" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="42">
+        <v>18</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="42">
+        <v>12</v>
+      </c>
+      <c r="G36" s="42">
+        <v>13</v>
+      </c>
+      <c r="H36" s="42">
+        <v>12</v>
+      </c>
+      <c r="I36" s="42">
         <v>10</v>
       </c>
-      <c r="G36" s="31">
+      <c r="J36" s="42">
+        <v>10</v>
+      </c>
+      <c r="K36" s="42">
+        <v>15</v>
+      </c>
+      <c r="L36" s="42">
+        <v>14</v>
+      </c>
+      <c r="M36" s="42">
+        <v>16</v>
+      </c>
+      <c r="N36" s="42">
+        <v>10</v>
+      </c>
+      <c r="O36" s="42">
         <v>11</v>
       </c>
-      <c r="H36" s="31">
+      <c r="P36" s="42">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="42">
+        <v>10</v>
+      </c>
+      <c r="R36" s="42">
         <v>11</v>
       </c>
-      <c r="I36" s="31">
-        <v>15</v>
-      </c>
-      <c r="J36" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="L36" s="31">
-        <v>16</v>
-      </c>
-      <c r="M36" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31">
+      <c r="S36" s="42">
+        <v>11</v>
+      </c>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42">
         <f>SUM(F37:AB37)+AC36+AD36</f>
-        <v>1</v>
-      </c>
-      <c r="AF36" s="31">
+        <v>4</v>
+      </c>
+      <c r="AF36" s="42">
         <f>SUM(F37:AB37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -4216,7 +4396,7 @@
       <c r="E37" s="35"/>
       <c r="F37" s="35">
         <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="35">
         <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
@@ -4228,11 +4408,11 @@
       </c>
       <c r="I37" s="35">
         <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="35">
         <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="35">
         <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
@@ -4248,7 +4428,7 @@
       </c>
       <c r="N37" s="35">
         <f>IF(N36=1,25,IF(N36=2,18,IF(N36=3,15,IF(N36=4,12,IF(N36=5,10,IF(N36=6,8,IF(N36=7,6,IF(N36=8,4,IF(N36=9,2,IF(N36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="35">
         <f>IF(O36=1,25,IF(O36=2,18,IF(O36=3,15,IF(O36=4,12,IF(O36=5,10,IF(O36=6,8,IF(O36=7,6,IF(O36=8,4,IF(O36=9,2,IF(O36=10,1,0))))))))))</f>
@@ -4260,7 +4440,7 @@
       </c>
       <c r="Q37" s="35">
         <f>IF(Q36=1,25,IF(Q36=2,18,IF(Q36=3,15,IF(Q36=4,12,IF(Q36=5,10,IF(Q36=6,8,IF(Q36=7,6,IF(Q36=8,4,IF(Q36=9,2,IF(Q36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="35">
         <f>IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
@@ -4311,15 +4491,15 @@
       <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B38" s="28">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>60</v>
@@ -4328,35 +4508,47 @@
         <v>22</v>
       </c>
       <c r="F38" s="28">
-        <v>16</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="G38" s="28">
+        <v>14</v>
       </c>
       <c r="H38" s="28">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I38" s="28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J38" s="28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K38" s="28">
-        <v>16</v>
-      </c>
-      <c r="L38" s="28">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="M38" s="28">
-        <v>15</v>
-      </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="N38" s="28">
+        <v>13</v>
+      </c>
+      <c r="O38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>13</v>
+      </c>
+      <c r="R38" s="28">
+        <v>17</v>
+      </c>
+      <c r="S38" s="28">
+        <v>10</v>
+      </c>
       <c r="T38" s="28"/>
       <c r="U38" s="28"/>
       <c r="V38" s="28"/>
@@ -4370,14 +4562,14 @@
       <c r="AD38" s="28"/>
       <c r="AE38" s="28">
         <f>SUM(F39:AB39)+AC38+AD38</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF38" s="28">
         <f>SUM(F39:AB39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -4393,7 +4585,7 @@
       </c>
       <c r="H39" s="35">
         <f>IF(H38=1,25,IF(H38=2,18,IF(H38=3,15,IF(H38=4,12,IF(H38=5,10,IF(H38=6,8,IF(H38=7,6,IF(H38=8,4,IF(H38=9,2,IF(H38=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="35">
         <f>IF(I38=1,25,IF(I38=2,18,IF(I38=3,15,IF(I38=4,12,IF(I38=5,10,IF(I38=6,8,IF(I38=7,6,IF(I38=8,4,IF(I38=9,2,IF(I38=10,1,0))))))))))</f>
@@ -4401,7 +4593,7 @@
       </c>
       <c r="J39" s="35">
         <f>IF(J38=1,25,IF(J38=2,18,IF(J38=3,15,IF(J38=4,12,IF(J38=5,10,IF(J38=6,8,IF(J38=7,6,IF(J38=8,4,IF(J38=9,2,IF(J38=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="35">
         <f>IF(K38=1,25,IF(K38=2,18,IF(K38=3,15,IF(K38=4,12,IF(K38=5,10,IF(K38=6,8,IF(K38=7,6,IF(K38=8,4,IF(K38=9,2,IF(K38=10,1,0))))))))))</f>
@@ -4437,7 +4629,7 @@
       </c>
       <c r="S39" s="35">
         <f>IF(S38=1,25,IF(S38=2,18,IF(S38=3,15,IF(S38=4,12,IF(S38=5,10,IF(S38=6,8,IF(S38=7,6,IF(S38=8,4,IF(S38=9,2,IF(S38=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="35">
         <f>IF(T38=1,25,IF(T38=2,18,IF(T38=3,15,IF(T38=4,12,IF(T38=5,10,IF(T38=6,8,IF(T38=7,6,IF(T38=8,4,IF(T38=9,2,IF(T38=10,1,0))))))))))</f>
@@ -4480,73 +4672,85 @@
       <c r="AE39" s="35"/>
       <c r="AF39" s="35"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="30">
-        <v>47</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="30">
-        <v>11</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="30">
-        <v>13</v>
-      </c>
-      <c r="I40" s="30">
-        <v>17</v>
-      </c>
-      <c r="J40" s="30">
+    <row r="40" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="28">
+        <v>6</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="28">
+        <v>16</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="28">
+        <v>16</v>
+      </c>
+      <c r="I40" s="28">
+        <v>16</v>
+      </c>
+      <c r="J40" s="28">
+        <v>14</v>
+      </c>
+      <c r="K40" s="28">
+        <v>16</v>
+      </c>
+      <c r="L40" s="28">
         <v>15</v>
       </c>
-      <c r="K40" s="30">
-        <v>14</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="30">
-        <v>14</v>
-      </c>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30">
+      <c r="M40" s="28">
+        <v>15</v>
+      </c>
+      <c r="N40" s="28">
+        <v>16</v>
+      </c>
+      <c r="O40" s="28">
+        <v>12</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" s="28">
+        <v>18</v>
+      </c>
+      <c r="S40" s="28">
+        <v>18</v>
+      </c>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28">
         <f>SUM(F41:AB41)+AC40+AD40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="30">
+      <c r="AF40" s="28">
         <f>SUM(F41:AB41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -4649,7 +4853,7 @@
       <c r="AE41" s="35"/>
       <c r="AF41" s="35"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>111</v>
       </c>
@@ -4703,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -4875,12 +5079,12 @@
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="14" width="21.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="27" width="20.25" style="1" bestFit="1" customWidth="1"/>
@@ -4889,7 +5093,7 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -4978,7 +5182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>30</v>
       </c>
@@ -5001,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="36">
         <v>1</v>
@@ -5018,12 +5222,24 @@
       <c r="M2" s="36">
         <v>1</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="25"/>
+      <c r="N2" s="36">
+        <v>1</v>
+      </c>
+      <c r="O2" s="25">
+        <v>7</v>
+      </c>
+      <c r="P2" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>1</v>
+      </c>
+      <c r="R2" s="36">
+        <v>1</v>
+      </c>
+      <c r="S2" s="25">
+        <v>1</v>
+      </c>
       <c r="T2" s="36"/>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
@@ -5035,10 +5251,10 @@
       <c r="AB2" s="36"/>
       <c r="AC2" s="36">
         <f>SUM(F3:AA3)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5078,27 +5294,27 @@
       </c>
       <c r="N3" s="35">
         <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="35">
         <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="35">
         <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="35">
         <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" s="35">
         <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S3" s="35">
         <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="35">
         <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
@@ -5138,7 +5354,7 @@
       </c>
       <c r="AC3" s="35"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>32</v>
       </c>
@@ -5178,12 +5394,24 @@
       <c r="M4" s="36">
         <v>2</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="36">
+        <v>2</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>4</v>
+      </c>
+      <c r="R4" s="36">
+        <v>5</v>
+      </c>
+      <c r="S4" s="36">
+        <v>2</v>
+      </c>
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
@@ -5195,10 +5423,10 @@
       <c r="AB4" s="36"/>
       <c r="AC4" s="36">
         <f>SUM(F5:AA5)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -5242,7 +5470,7 @@
       </c>
       <c r="O5" s="35">
         <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P5" s="35">
         <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
@@ -5250,15 +5478,15 @@
       </c>
       <c r="Q5" s="35">
         <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R5" s="35">
         <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="35">
         <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T5" s="35">
         <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
@@ -5298,7 +5526,7 @@
       </c>
       <c r="AC5" s="35"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>25</v>
       </c>
@@ -5330,20 +5558,32 @@
         <v>2</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="N6" s="34">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34">
+        <v>4</v>
+      </c>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="34">
+        <v>6</v>
+      </c>
+      <c r="S6" s="34">
+        <v>6</v>
+      </c>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
@@ -5355,10 +5595,10 @@
       <c r="AB6" s="34"/>
       <c r="AC6" s="34">
         <f>SUM(F7:AA7)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -5398,15 +5638,15 @@
       </c>
       <c r="N7" s="35">
         <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="35">
         <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7" s="35">
         <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="35">
         <f>IF(Q6=1,10,IF(Q6=2,8,IF(Q6=3,6,IF(Q6=4,5,IF(Q6=5,4,IF(Q6=6,3,IF(Q6=7,2,IF(Q6=8,1,0))))))))</f>
@@ -5414,11 +5654,11 @@
       </c>
       <c r="R7" s="35">
         <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7" s="35">
         <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T7" s="35">
         <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
@@ -5458,7 +5698,7 @@
       </c>
       <c r="AC7" s="35"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>58</v>
       </c>
@@ -5498,12 +5738,24 @@
       <c r="M8" s="19">
         <v>3</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="N8" s="37">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>3</v>
+      </c>
+      <c r="R8" s="37">
+        <v>3</v>
+      </c>
+      <c r="S8" s="37">
+        <v>4</v>
+      </c>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
@@ -5515,10 +5767,10 @@
       <c r="AB8" s="19"/>
       <c r="AC8" s="37">
         <f>SUM(F9:AA9)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5558,7 +5810,7 @@
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9" s="35">
         <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
@@ -5566,19 +5818,19 @@
       </c>
       <c r="P9" s="35">
         <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="35">
         <f>IF(Q8=1,10,IF(Q8=2,8,IF(Q8=3,6,IF(Q8=4,5,IF(Q8=5,4,IF(Q8=6,3,IF(Q8=7,2,IF(Q8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R9" s="35">
         <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S9" s="35">
         <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9" s="35">
         <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
@@ -5618,7 +5870,7 @@
       </c>
       <c r="AC9" s="35"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
@@ -5641,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J10" s="34">
         <v>3</v>
@@ -5656,14 +5908,26 @@
         <v>2</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="N10" s="34">
+        <v>2</v>
+      </c>
+      <c r="O10" s="34">
+        <v>1</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>5</v>
+      </c>
+      <c r="R10" s="34">
+        <v>4</v>
+      </c>
+      <c r="S10" s="34">
+        <v>3</v>
+      </c>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -5675,10 +5939,10 @@
       <c r="AB10" s="34"/>
       <c r="AC10" s="34">
         <f>SUM(F11:AA11)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -5718,11 +5982,11 @@
       </c>
       <c r="N11" s="35">
         <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O11" s="35">
         <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11" s="35">
         <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
@@ -5730,15 +5994,15 @@
       </c>
       <c r="Q11" s="35">
         <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="35">
         <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S11" s="35">
         <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T11" s="35">
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
@@ -5778,7 +6042,7 @@
       </c>
       <c r="AC11" s="35"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
@@ -5818,12 +6082,24 @@
       <c r="M12" s="37">
         <v>4</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="19"/>
+      <c r="N12" s="37">
+        <v>3</v>
+      </c>
+      <c r="O12" s="37">
+        <v>3</v>
+      </c>
+      <c r="P12" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>2</v>
+      </c>
+      <c r="R12" s="37">
+        <v>2</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
@@ -5835,10 +6111,10 @@
       <c r="AB12" s="37"/>
       <c r="AC12" s="37">
         <f>SUM(F13:AA13)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -5878,23 +6154,23 @@
       </c>
       <c r="N13" s="35">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O13" s="35">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" s="35">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="35">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R13" s="35">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S13" s="35">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
@@ -5938,7 +6214,7 @@
       </c>
       <c r="AC13" s="35"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>48</v>
       </c>
@@ -5967,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
@@ -5978,12 +6254,24 @@
       <c r="M14" s="40">
         <v>9</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="N14" s="40">
+        <v>15</v>
+      </c>
+      <c r="O14" s="40">
+        <v>6</v>
+      </c>
+      <c r="P14" s="27">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>7</v>
+      </c>
+      <c r="R14" s="40">
+        <v>7</v>
+      </c>
+      <c r="S14" s="40">
+        <v>12</v>
+      </c>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -5995,10 +6283,10 @@
       <c r="AB14" s="40"/>
       <c r="AC14" s="40">
         <f>SUM(F15:AA15)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6042,19 +6330,19 @@
       </c>
       <c r="O15" s="35">
         <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" s="35">
         <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="35">
         <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="35">
         <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="35">
         <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
@@ -6098,67 +6386,79 @@
       </c>
       <c r="AC15" s="35"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="31">
-        <v>77</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="31">
+    <row r="16" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="29">
+        <v>31</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="29">
+        <v>7</v>
+      </c>
+      <c r="G16" s="29">
         <v>6</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="H16" s="29">
+        <v>7</v>
+      </c>
+      <c r="I16" s="29">
+        <v>14</v>
+      </c>
+      <c r="J16" s="29">
         <v>8</v>
       </c>
-      <c r="I16" s="31">
+      <c r="K16" s="20">
+        <v>7</v>
+      </c>
+      <c r="L16" s="29">
+        <v>12</v>
+      </c>
+      <c r="M16" s="29">
+        <v>10</v>
+      </c>
+      <c r="N16" s="20">
+        <v>6</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="29">
         <v>5</v>
       </c>
-      <c r="J16" s="24">
+      <c r="Q16" s="29">
+        <v>8</v>
+      </c>
+      <c r="R16" s="29">
+        <v>9</v>
+      </c>
+      <c r="S16" s="29">
         <v>7</v>
       </c>
-      <c r="K16" s="31">
-        <v>6</v>
-      </c>
-      <c r="L16" s="31">
-        <v>9</v>
-      </c>
-      <c r="M16" s="31">
-        <v>11</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31">
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29">
         <f>SUM(F17:AA17)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6166,27 +6466,27 @@
       <c r="E17" s="35"/>
       <c r="F17" s="35">
         <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="35">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="35">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="35">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="35">
         <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="35">
         <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="35">
         <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
@@ -6198,7 +6498,7 @@
       </c>
       <c r="N17" s="35">
         <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="35">
         <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
@@ -6206,11 +6506,11 @@
       </c>
       <c r="P17" s="35">
         <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="35">
         <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="35">
         <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
@@ -6218,7 +6518,7 @@
       </c>
       <c r="S17" s="35">
         <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="35">
         <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
@@ -6260,13 +6560,13 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="29">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>36</v>
@@ -6274,36 +6574,48 @@
       <c r="E18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="20">
+        <v>9</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="29">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="29">
+        <v>11</v>
+      </c>
+      <c r="K18" s="29">
+        <v>9</v>
+      </c>
+      <c r="L18" s="29">
         <v>7</v>
       </c>
-      <c r="G18" s="29">
+      <c r="M18" s="29">
+        <v>7</v>
+      </c>
+      <c r="N18" s="29">
+        <v>9</v>
+      </c>
+      <c r="O18" s="29">
+        <v>5</v>
+      </c>
+      <c r="P18" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="29">
         <v>6</v>
       </c>
-      <c r="H18" s="29">
-        <v>7</v>
-      </c>
-      <c r="I18" s="29">
-        <v>14</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="R18" s="29">
         <v>8</v>
       </c>
-      <c r="K18" s="20">
-        <v>7</v>
-      </c>
-      <c r="L18" s="29">
-        <v>12</v>
-      </c>
-      <c r="M18" s="29">
-        <v>10</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="S18" s="29">
+        <v>5</v>
+      </c>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
       <c r="V18" s="20"/>
@@ -6315,10 +6627,10 @@
       <c r="AB18" s="29"/>
       <c r="AC18" s="29">
         <f>SUM(F19:AA19)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -6326,15 +6638,15 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35">
         <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="35">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="35">
         <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="35">
         <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
@@ -6342,19 +6654,19 @@
       </c>
       <c r="J19" s="35">
         <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="35">
         <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="35">
         <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="35">
         <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="35">
         <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
@@ -6362,7 +6674,7 @@
       </c>
       <c r="O19" s="35">
         <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P19" s="35">
         <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
@@ -6370,15 +6682,15 @@
       </c>
       <c r="Q19" s="35">
         <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="35">
         <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="35">
         <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T19" s="35">
         <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
@@ -6419,66 +6731,78 @@
       <c r="AC19" s="35"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="36">
-        <v>10</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="A20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="31">
+        <v>77</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="31">
+        <v>6</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="31">
+        <v>8</v>
+      </c>
+      <c r="I20" s="31">
+        <v>5</v>
+      </c>
+      <c r="J20" s="24">
+        <v>7</v>
+      </c>
+      <c r="K20" s="31">
+        <v>6</v>
+      </c>
+      <c r="L20" s="31">
+        <v>9</v>
+      </c>
+      <c r="M20" s="31">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31">
+        <v>7</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="24">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>14</v>
+      </c>
+      <c r="R20" s="31">
+        <v>20</v>
+      </c>
+      <c r="S20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="36">
-        <v>8</v>
-      </c>
-      <c r="H20" s="36">
-        <v>9</v>
-      </c>
-      <c r="I20" s="36">
-        <v>12</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="36">
-        <v>13</v>
-      </c>
-      <c r="L20" s="36">
-        <v>11</v>
-      </c>
-      <c r="M20" s="25">
-        <v>5</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36">
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31">
         <f>SUM(F21:AA21)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6486,27 +6810,27 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35">
         <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="35">
         <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="35">
         <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="35">
         <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="35">
         <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="35">
         <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="35">
         <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
@@ -6514,11 +6838,11 @@
       </c>
       <c r="M21" s="35">
         <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="35">
         <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="35">
         <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
@@ -6578,67 +6902,79 @@
       </c>
       <c r="AC21" s="35"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="30">
-        <v>20</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="4">
+    <row r="22" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="36">
+        <v>10</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="36">
+        <v>8</v>
+      </c>
+      <c r="H22" s="36">
+        <v>9</v>
+      </c>
+      <c r="I22" s="36">
+        <v>12</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="36">
+        <v>13</v>
+      </c>
+      <c r="L22" s="36">
+        <v>11</v>
+      </c>
+      <c r="M22" s="25">
         <v>5</v>
       </c>
-      <c r="G22" s="30">
+      <c r="N22" s="36">
+        <v>14</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>12</v>
+      </c>
+      <c r="R22" s="36">
+        <v>12</v>
+      </c>
+      <c r="S22" s="25">
         <v>9</v>
       </c>
-      <c r="H22" s="30">
-        <v>14</v>
-      </c>
-      <c r="I22" s="30">
-        <v>9</v>
-      </c>
-      <c r="J22" s="30">
-        <v>16</v>
-      </c>
-      <c r="K22" s="30">
-        <v>17</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="30">
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36">
         <f>SUM(F23:AA23)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -6646,11 +6982,11 @@
       <c r="E23" s="35"/>
       <c r="F23" s="35">
         <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="35">
         <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="35">
         <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
@@ -6674,7 +7010,7 @@
       </c>
       <c r="M23" s="35">
         <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="35">
         <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
@@ -6738,67 +7074,79 @@
       </c>
       <c r="AC23" s="35"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="40">
-        <v>3</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="40">
+    <row r="24" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="30">
+        <v>20</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="30">
+        <v>9</v>
+      </c>
+      <c r="H24" s="30">
         <v>14</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="40">
-        <v>6</v>
-      </c>
-      <c r="I24" s="40">
-        <v>18</v>
-      </c>
-      <c r="J24" s="40">
-        <v>13</v>
-      </c>
-      <c r="K24" s="40">
-        <v>12</v>
-      </c>
-      <c r="L24" s="40">
-        <v>13</v>
-      </c>
-      <c r="M24" s="40">
+      <c r="I24" s="30">
+        <v>9</v>
+      </c>
+      <c r="J24" s="30">
+        <v>16</v>
+      </c>
+      <c r="K24" s="30">
+        <v>17</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="30">
+        <v>17</v>
+      </c>
+      <c r="O24" s="30">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4">
         <v>8</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40">
+      <c r="Q24" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="4">
+        <v>16</v>
+      </c>
+      <c r="S24" s="4">
+        <v>16</v>
+      </c>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="30">
         <f>SUM(F25:AA25)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6806,7 +7154,7 @@
       <c r="E25" s="35"/>
       <c r="F25" s="35">
         <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="35">
         <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
@@ -6814,7 +7162,7 @@
       </c>
       <c r="H25" s="35">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="35">
         <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
@@ -6834,7 +7182,7 @@
       </c>
       <c r="M25" s="35">
         <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="35">
         <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
@@ -6846,7 +7194,7 @@
       </c>
       <c r="P25" s="35">
         <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="35">
         <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))</f>
@@ -6898,67 +7246,79 @@
       </c>
       <c r="AC25" s="35"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="29">
+    <row r="26" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="40">
+        <v>3</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="40">
         <v>14</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="G26" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="40">
+        <v>6</v>
+      </c>
+      <c r="I26" s="40">
+        <v>18</v>
+      </c>
+      <c r="J26" s="40">
+        <v>13</v>
+      </c>
+      <c r="K26" s="40">
+        <v>12</v>
+      </c>
+      <c r="L26" s="40">
+        <v>13</v>
+      </c>
+      <c r="M26" s="40">
+        <v>8</v>
+      </c>
+      <c r="N26" s="40">
+        <v>11</v>
+      </c>
+      <c r="O26" s="40">
+        <v>13</v>
+      </c>
+      <c r="P26" s="40">
         <v>9</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="29">
-        <v>17</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="29">
-        <v>11</v>
-      </c>
-      <c r="K26" s="29">
+      <c r="Q26" s="40">
         <v>9</v>
       </c>
-      <c r="L26" s="29">
-        <v>7</v>
-      </c>
-      <c r="M26" s="29">
-        <v>7</v>
-      </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29">
+      <c r="R26" s="40">
+        <v>15</v>
+      </c>
+      <c r="S26" s="40">
+        <v>15</v>
+      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40">
         <f>SUM(F27:AA27)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -6974,7 +7334,7 @@
       </c>
       <c r="H27" s="35">
         <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="35">
         <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
@@ -6990,11 +7350,11 @@
       </c>
       <c r="L27" s="35">
         <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="35">
         <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
@@ -7058,7 +7418,7 @@
       </c>
       <c r="AC27" s="35"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>50</v>
       </c>
@@ -7077,13 +7437,13 @@
       <c r="F28" s="42"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I28" s="42">
         <v>8</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K28" s="42">
         <v>11</v>
@@ -7094,12 +7454,24 @@
       <c r="M28" s="42">
         <v>6</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
+      <c r="N28" s="26">
+        <v>12</v>
+      </c>
+      <c r="O28" s="26">
+        <v>9</v>
+      </c>
+      <c r="P28" s="26">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>11</v>
+      </c>
+      <c r="R28" s="42">
+        <v>10</v>
+      </c>
+      <c r="S28" s="42">
+        <v>10</v>
+      </c>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
@@ -7114,7 +7486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -7214,67 +7586,79 @@
       </c>
       <c r="AC29" s="35"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="36">
-        <v>22</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="36">
+    <row r="30" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="30">
+        <v>47</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="30">
+        <v>11</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="30">
+        <v>13</v>
+      </c>
+      <c r="I30" s="30">
+        <v>17</v>
+      </c>
+      <c r="J30" s="30">
+        <v>15</v>
+      </c>
+      <c r="K30" s="30">
+        <v>14</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="30">
+        <v>14</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="30">
         <v>8</v>
       </c>
-      <c r="G30" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="36">
+      <c r="P30" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="30">
         <v>15</v>
       </c>
-      <c r="I30" s="25">
-        <v>7</v>
-      </c>
-      <c r="J30" s="36">
-        <v>12</v>
-      </c>
-      <c r="K30" s="36">
-        <v>10</v>
-      </c>
-      <c r="L30" s="36">
+      <c r="R30" s="30">
+        <v>14</v>
+      </c>
+      <c r="S30" s="30">
         <v>17</v>
       </c>
-      <c r="M30" s="36">
-        <v>13</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36">
+      <c r="T30" s="4"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30">
         <f>SUM(F31:AA31)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -7282,7 +7666,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35">
         <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="35">
         <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
@@ -7294,7 +7678,7 @@
       </c>
       <c r="I31" s="35">
         <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="35">
         <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
@@ -7318,11 +7702,11 @@
       </c>
       <c r="O31" s="35">
         <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="35">
         <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="35">
         <f>IF(Q30=1,10,IF(Q30=2,8,IF(Q30=3,6,IF(Q30=4,5,IF(Q30=5,4,IF(Q30=6,3,IF(Q30=7,2,IF(Q30=8,1,0))))))))</f>
@@ -7374,67 +7758,79 @@
       </c>
       <c r="AC31" s="35"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="28">
-        <v>6</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="28" t="s">
+    <row r="32" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="36">
         <v>22</v>
       </c>
-      <c r="F32" s="28">
+      <c r="C32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="36">
+        <v>8</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="36">
+        <v>15</v>
+      </c>
+      <c r="I32" s="25">
+        <v>7</v>
+      </c>
+      <c r="J32" s="36">
+        <v>12</v>
+      </c>
+      <c r="K32" s="36">
+        <v>10</v>
+      </c>
+      <c r="L32" s="36">
+        <v>17</v>
+      </c>
+      <c r="M32" s="36">
+        <v>13</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O32" s="36">
+        <v>14</v>
+      </c>
+      <c r="P32" s="36">
         <v>16</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="28">
-        <v>16</v>
-      </c>
-      <c r="I32" s="28">
-        <v>16</v>
-      </c>
-      <c r="J32" s="28">
-        <v>14</v>
-      </c>
-      <c r="K32" s="28">
-        <v>16</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="M32" s="28">
-        <v>15</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="28">
+      <c r="Q32" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R32" s="25">
+        <v>19</v>
+      </c>
+      <c r="S32" s="25">
+        <v>13</v>
+      </c>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36">
         <f>SUM(F33:AA33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -7442,7 +7838,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35">
         <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="35">
         <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
@@ -7454,7 +7850,7 @@
       </c>
       <c r="I33" s="35">
         <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" s="35">
         <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
@@ -7534,67 +7930,79 @@
       </c>
       <c r="AC33" s="35"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="42">
-        <v>18</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="42">
-        <v>12</v>
-      </c>
-      <c r="G34" s="42">
+    <row r="34" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="31">
+        <v>24</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="31">
+        <v>10</v>
+      </c>
+      <c r="G34" s="31">
+        <v>11</v>
+      </c>
+      <c r="H34" s="31">
+        <v>11</v>
+      </c>
+      <c r="I34" s="31">
+        <v>15</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="31">
+        <v>16</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N34" s="31">
+        <v>8</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>16</v>
+      </c>
+      <c r="R34" s="31">
         <v>13</v>
       </c>
-      <c r="H34" s="42">
-        <v>12</v>
-      </c>
-      <c r="I34" s="42">
-        <v>10</v>
-      </c>
-      <c r="J34" s="42">
-        <v>10</v>
-      </c>
-      <c r="K34" s="26">
-        <v>15</v>
-      </c>
-      <c r="L34" s="42">
+      <c r="S34" s="31">
         <v>14</v>
       </c>
-      <c r="M34" s="42">
-        <v>16</v>
-      </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42">
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="31">
         <f>SUM(F35:AA35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -7634,7 +8042,7 @@
       </c>
       <c r="N35" s="35">
         <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="35">
         <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
@@ -7694,15 +8102,15 @@
       </c>
       <c r="AC35" s="35"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B36" s="28">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>60</v>
@@ -7711,41 +8119,53 @@
         <v>22</v>
       </c>
       <c r="F36" s="28">
-        <v>13</v>
-      </c>
-      <c r="G36" s="28">
+        <v>16</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="28">
+        <v>16</v>
+      </c>
+      <c r="I36" s="28">
+        <v>16</v>
+      </c>
+      <c r="J36" s="28">
         <v>14</v>
       </c>
-      <c r="H36" s="21">
-        <v>10</v>
-      </c>
-      <c r="I36" s="28">
-        <v>11</v>
-      </c>
-      <c r="J36" s="28">
-        <v>9</v>
-      </c>
       <c r="K36" s="28">
+        <v>16</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" s="28">
+        <v>15</v>
+      </c>
+      <c r="N36" s="28">
+        <v>16</v>
+      </c>
+      <c r="O36" s="28">
+        <v>12</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="28">
         <v>18</v>
       </c>
-      <c r="L36" s="28">
-        <v>15</v>
-      </c>
-      <c r="M36" s="28">
-        <v>12</v>
-      </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="28">
+        <v>18</v>
+      </c>
       <c r="T36" s="28"/>
       <c r="U36" s="28"/>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
+      <c r="Y36" s="21"/>
       <c r="Z36" s="28"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
@@ -7754,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -7854,67 +8274,79 @@
       </c>
       <c r="AC37" s="35"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="31">
-        <v>24</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="31">
+    <row r="38" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="42">
+        <v>18</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="42">
+        <v>12</v>
+      </c>
+      <c r="G38" s="42">
+        <v>13</v>
+      </c>
+      <c r="H38" s="42">
+        <v>12</v>
+      </c>
+      <c r="I38" s="42">
         <v>10</v>
       </c>
-      <c r="G38" s="31">
+      <c r="J38" s="42">
+        <v>10</v>
+      </c>
+      <c r="K38" s="26">
+        <v>15</v>
+      </c>
+      <c r="L38" s="42">
+        <v>14</v>
+      </c>
+      <c r="M38" s="42">
+        <v>16</v>
+      </c>
+      <c r="N38" s="42">
+        <v>10</v>
+      </c>
+      <c r="O38" s="42">
         <v>11</v>
       </c>
-      <c r="H38" s="31">
+      <c r="P38" s="26">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="42">
+        <v>10</v>
+      </c>
+      <c r="R38" s="42">
         <v>11</v>
       </c>
-      <c r="I38" s="31">
-        <v>15</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" s="31">
-        <v>16</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="31">
+      <c r="S38" s="42">
+        <v>11</v>
+      </c>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42">
         <f>SUM(F39:AA39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -8014,67 +8446,79 @@
       </c>
       <c r="AC39" s="35"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="30">
-        <v>47</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="30">
+    <row r="40" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="28">
+        <v>23</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="28">
+        <v>13</v>
+      </c>
+      <c r="G40" s="28">
+        <v>14</v>
+      </c>
+      <c r="H40" s="21">
+        <v>10</v>
+      </c>
+      <c r="I40" s="28">
         <v>11</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="30">
+      <c r="J40" s="28">
+        <v>9</v>
+      </c>
+      <c r="K40" s="28">
+        <v>18</v>
+      </c>
+      <c r="L40" s="28">
+        <v>15</v>
+      </c>
+      <c r="M40" s="28">
+        <v>12</v>
+      </c>
+      <c r="N40" s="28">
         <v>13</v>
       </c>
-      <c r="I40" s="30">
+      <c r="O40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>13</v>
+      </c>
+      <c r="R40" s="28">
         <v>17</v>
       </c>
-      <c r="J40" s="30">
-        <v>15</v>
-      </c>
-      <c r="K40" s="30">
-        <v>14</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="M40" s="30">
-        <v>14</v>
-      </c>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30">
+      <c r="S40" s="28">
+        <v>10</v>
+      </c>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="28">
         <f>SUM(F41:AA41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -8174,7 +8618,7 @@
       </c>
       <c r="AC41" s="35"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>111</v>
       </c>
@@ -8224,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -8349,12 +8793,13 @@
     <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="14" width="21.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
@@ -8365,7 +8810,7 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -8460,7 +8905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>30</v>
       </c>
@@ -8483,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I2" s="36">
         <v>1</v>
@@ -8500,12 +8945,24 @@
       <c r="M2" s="36">
         <v>1</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="25"/>
+      <c r="N2" s="36">
+        <v>1</v>
+      </c>
+      <c r="O2" s="25">
+        <v>7</v>
+      </c>
+      <c r="P2" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>1</v>
+      </c>
+      <c r="R2" s="36">
+        <v>1</v>
+      </c>
+      <c r="S2" s="25">
+        <v>1</v>
+      </c>
       <c r="T2" s="36"/>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
@@ -8516,19 +8973,19 @@
       <c r="AA2" s="36"/>
       <c r="AB2" s="36"/>
       <c r="AC2" s="36">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="AD2" s="36">
         <f>SUM(F3:Z3)+AC2</f>
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AE2" s="36">
         <f>SUM(F3:Z3)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8568,7 +9025,7 @@
       </c>
       <c r="N3" s="35">
         <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="35">
         <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
@@ -8576,19 +9033,19 @@
       </c>
       <c r="P3" s="35">
         <f>IF(P2=1,10,IF(P2=2,6,IF(P2=3,4,IF(P2=4,3,IF(P2=5,2,IF(P2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="35">
         <f>IF(Q2=1,10,IF(Q2=2,6,IF(Q2=3,4,IF(Q2=4,3,IF(Q2=5,2,IF(Q2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" s="35">
         <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S3" s="35">
         <f>IF(S2=1,10,IF(S2=2,6,IF(S2=3,4,IF(S2=4,3,IF(S2=5,2,IF(S2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="35">
         <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
@@ -8670,12 +9127,24 @@
       <c r="M4" s="36">
         <v>2</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
+      <c r="N4" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="36">
+        <v>2</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>4</v>
+      </c>
+      <c r="R4" s="36">
+        <v>5</v>
+      </c>
+      <c r="S4" s="36">
+        <v>2</v>
+      </c>
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
@@ -8691,14 +9160,14 @@
       </c>
       <c r="AD4" s="36">
         <f>SUM(F5:Z5)+AC4</f>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AE4" s="36">
         <f>SUM(F5:Z5)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -8742,7 +9211,7 @@
       </c>
       <c r="O5" s="35">
         <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P5" s="35">
         <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
@@ -8750,15 +9219,15 @@
       </c>
       <c r="Q5" s="35">
         <f>IF(Q4=1,10,IF(Q4=2,6,IF(Q4=3,4,IF(Q4=4,3,IF(Q4=5,2,IF(Q4=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="35">
         <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="35">
         <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T5" s="35">
         <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
@@ -8832,20 +9301,32 @@
         <v>2</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="N6" s="34">
+        <v>5</v>
+      </c>
+      <c r="O6" s="34">
+        <v>4</v>
+      </c>
+      <c r="P6" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="34">
+        <v>6</v>
+      </c>
+      <c r="S6" s="34">
+        <v>6</v>
+      </c>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
@@ -8861,14 +9342,14 @@
       </c>
       <c r="AD6" s="34">
         <f>SUM(F7:Z7)+AC6</f>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="34">
         <f>SUM(F7:Z7)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -8908,15 +9389,15 @@
       </c>
       <c r="N7" s="35">
         <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="35">
         <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="35">
         <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="35">
         <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
@@ -8924,11 +9405,11 @@
       </c>
       <c r="R7" s="35">
         <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="35">
         <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="35">
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
@@ -8970,72 +9451,87 @@
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="37">
-        <v>63</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="37">
+    <row r="8" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="34">
+        <v>55</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="34">
+        <v>3</v>
+      </c>
+      <c r="K8" s="34">
         <v>4</v>
       </c>
-      <c r="G8" s="19">
+      <c r="L8" s="34">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="34">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34">
+        <v>1</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="34">
         <v>5</v>
       </c>
-      <c r="H8" s="37">
+      <c r="R8" s="34">
+        <v>4</v>
+      </c>
+      <c r="S8" s="34">
         <v>3</v>
       </c>
-      <c r="I8" s="37">
-        <v>4</v>
-      </c>
-      <c r="J8" s="37">
-        <v>5</v>
-      </c>
-      <c r="K8" s="19">
-        <v>3</v>
-      </c>
-      <c r="L8" s="37">
-        <v>5</v>
-      </c>
-      <c r="M8" s="19">
-        <v>3</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37">
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD8" s="34">
         <f>SUM(F9:Z9)+AC8</f>
-        <v>24</v>
-      </c>
-      <c r="AE8" s="37">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="34">
         <f>SUM(F9:Z9)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -9043,43 +9539,43 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="35">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="35">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="35">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="35">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="35">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" s="35">
         <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9" s="35">
         <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
@@ -9087,15 +9583,15 @@
       </c>
       <c r="Q9" s="35">
         <f>IF(Q8=1,10,IF(Q8=2,6,IF(Q8=3,4,IF(Q8=4,3,IF(Q8=5,2,IF(Q8=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="35">
         <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" s="35">
         <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="35">
         <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
@@ -9137,72 +9633,87 @@
       <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="34">
-        <v>55</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="34">
+    <row r="10" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="37">
+        <v>3</v>
+      </c>
+      <c r="G10" s="37">
+        <v>10</v>
+      </c>
+      <c r="H10" s="37">
+        <v>4</v>
+      </c>
+      <c r="I10" s="37">
+        <v>13</v>
+      </c>
+      <c r="J10" s="37">
+        <v>6</v>
+      </c>
+      <c r="K10" s="37">
+        <v>5</v>
+      </c>
+      <c r="L10" s="37">
+        <v>8</v>
+      </c>
+      <c r="M10" s="37">
+        <v>4</v>
+      </c>
+      <c r="N10" s="37">
+        <v>3</v>
+      </c>
+      <c r="O10" s="37">
+        <v>3</v>
+      </c>
+      <c r="P10" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="37">
         <v>2</v>
       </c>
-      <c r="G10" s="34">
-        <v>3</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="34">
-        <v>3</v>
-      </c>
-      <c r="K10" s="34">
+      <c r="R10" s="37">
+        <v>2</v>
+      </c>
+      <c r="S10" s="19">
         <v>4</v>
       </c>
-      <c r="L10" s="34">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37">
+        <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34">
+      <c r="AD10" s="37">
         <f>SUM(F11:Z11)+AC10</f>
-        <v>23</v>
-      </c>
-      <c r="AE10" s="34">
+        <v>42</v>
+      </c>
+      <c r="AE10" s="37">
         <f>SUM(F11:Z11)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -9210,15 +9721,15 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="35">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="35">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="35">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
@@ -9226,43 +9737,43 @@
       </c>
       <c r="J11" s="35">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" s="35">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="35">
         <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="35">
         <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11" s="35">
         <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="35">
         <f>IF(Q10=1,10,IF(Q10=2,6,IF(Q10=3,4,IF(Q10=4,3,IF(Q10=5,2,IF(Q10=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R11" s="35">
         <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S11" s="35">
         <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" s="35">
         <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
@@ -9304,12 +9815,12 @@
       <c r="AD11" s="35"/>
       <c r="AE11" s="35"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B12" s="37">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>21</v>
@@ -9321,55 +9832,67 @@
         <v>22</v>
       </c>
       <c r="F12" s="37">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>5</v>
+      </c>
+      <c r="H12" s="37">
         <v>3</v>
       </c>
-      <c r="G12" s="37">
-        <v>10</v>
-      </c>
-      <c r="H12" s="37">
+      <c r="I12" s="37">
         <v>4</v>
       </c>
-      <c r="I12" s="37">
-        <v>13</v>
-      </c>
       <c r="J12" s="37">
-        <v>6</v>
-      </c>
-      <c r="K12" s="37">
         <v>5</v>
       </c>
+      <c r="K12" s="19">
+        <v>3</v>
+      </c>
       <c r="L12" s="37">
-        <v>8</v>
-      </c>
-      <c r="M12" s="37">
+        <v>5</v>
+      </c>
+      <c r="M12" s="19">
+        <v>3</v>
+      </c>
+      <c r="N12" s="37">
         <v>4</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="19"/>
+      <c r="O12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>3</v>
+      </c>
+      <c r="R12" s="37">
+        <v>3</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>117</v>
+      </c>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37">
         <f>SUM(F13:Z13)+AC12</f>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AE12" s="37">
         <f>SUM(F13:Z13)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -9377,39 +9900,39 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35">
         <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="35">
         <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="35">
         <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="35">
         <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="35">
         <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="35">
         <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" s="35">
         <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="35">
         <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="35">
         <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="35">
         <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
@@ -9417,15 +9940,15 @@
       </c>
       <c r="P13" s="35">
         <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="35">
         <f>IF(Q12=1,10,IF(Q12=2,6,IF(Q12=3,4,IF(Q12=4,3,IF(Q12=5,2,IF(Q12=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="35">
         <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" s="35">
         <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
@@ -9471,7 +9994,7 @@
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>48</v>
       </c>
@@ -9500,7 +10023,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
@@ -9511,12 +10034,24 @@
       <c r="M14" s="40">
         <v>9</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="N14" s="40">
+        <v>15</v>
+      </c>
+      <c r="O14" s="40">
+        <v>6</v>
+      </c>
+      <c r="P14" s="27">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>7</v>
+      </c>
+      <c r="R14" s="40">
+        <v>7</v>
+      </c>
+      <c r="S14" s="40">
+        <v>12</v>
+      </c>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -9532,14 +10067,14 @@
       </c>
       <c r="AD14" s="40">
         <f>SUM(F15:Z15)+AC14</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14" s="40">
         <f>SUM(F15:Z15)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -9583,7 +10118,7 @@
       </c>
       <c r="O15" s="35">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="35">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
@@ -9642,71 +10177,83 @@
       <c r="AE15" s="35"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="31">
-        <v>77</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="A16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="29">
+        <v>14</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="20">
+        <v>9</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="29">
+        <v>17</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="29">
+        <v>11</v>
+      </c>
+      <c r="K16" s="29">
+        <v>9</v>
+      </c>
+      <c r="L16" s="29">
+        <v>7</v>
+      </c>
+      <c r="M16" s="29">
+        <v>7</v>
+      </c>
+      <c r="N16" s="29">
+        <v>9</v>
+      </c>
+      <c r="O16" s="29">
+        <v>5</v>
+      </c>
+      <c r="P16" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="29">
         <v>6</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="R16" s="29">
         <v>8</v>
       </c>
-      <c r="I16" s="31">
+      <c r="S16" s="29">
         <v>5</v>
       </c>
-      <c r="J16" s="24">
-        <v>7</v>
-      </c>
-      <c r="K16" s="31">
-        <v>6</v>
-      </c>
-      <c r="L16" s="31">
-        <v>9</v>
-      </c>
-      <c r="M16" s="31">
-        <v>11</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31">
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29">
         <f>SUM(F17:Z17)+AC16</f>
-        <v>4</v>
-      </c>
-      <c r="AE16" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="29">
         <f>SUM(F17:Z17)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -9714,7 +10261,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="35">
         <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="35">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
@@ -9726,7 +10273,7 @@
       </c>
       <c r="I17" s="35">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="35">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
@@ -9734,7 +10281,7 @@
       </c>
       <c r="K17" s="35">
         <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="35">
         <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
@@ -9750,7 +10297,7 @@
       </c>
       <c r="O17" s="35">
         <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="35">
         <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
@@ -9758,7 +10305,7 @@
       </c>
       <c r="Q17" s="35">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="35">
         <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
@@ -9766,7 +10313,7 @@
       </c>
       <c r="S17" s="35">
         <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="35">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
@@ -9809,71 +10356,83 @@
       <c r="AE17" s="35"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="30">
+      <c r="A18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="31">
+        <v>77</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="31">
+        <v>6</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="31">
+        <v>8</v>
+      </c>
+      <c r="I18" s="31">
+        <v>5</v>
+      </c>
+      <c r="J18" s="24">
+        <v>7</v>
+      </c>
+      <c r="K18" s="31">
+        <v>6</v>
+      </c>
+      <c r="L18" s="31">
+        <v>9</v>
+      </c>
+      <c r="M18" s="31">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31">
+        <v>7</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="24">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>14</v>
+      </c>
+      <c r="R18" s="31">
         <v>20</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>9</v>
-      </c>
-      <c r="H18" s="30">
-        <v>14</v>
-      </c>
-      <c r="I18" s="30">
-        <v>9</v>
-      </c>
-      <c r="J18" s="30">
-        <v>16</v>
-      </c>
-      <c r="K18" s="30">
-        <v>17</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30">
+      <c r="S18" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31">
         <f>SUM(F19:Z19)+AC18</f>
-        <v>2</v>
-      </c>
-      <c r="AE18" s="30">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="31">
         <f>SUM(F19:Z19)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -9881,7 +10440,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35">
         <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="35">
         <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
@@ -9893,7 +10452,7 @@
       </c>
       <c r="I19" s="35">
         <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="35">
         <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
@@ -9901,7 +10460,7 @@
       </c>
       <c r="K19" s="35">
         <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="35">
         <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
@@ -9976,71 +10535,83 @@
       <c r="AE19" s="35"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="36">
+      <c r="A20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="29">
+        <v>31</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="29">
+        <v>7</v>
+      </c>
+      <c r="G20" s="29">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29">
+        <v>7</v>
+      </c>
+      <c r="I20" s="29">
+        <v>14</v>
+      </c>
+      <c r="J20" s="29">
+        <v>8</v>
+      </c>
+      <c r="K20" s="20">
+        <v>7</v>
+      </c>
+      <c r="L20" s="29">
+        <v>12</v>
+      </c>
+      <c r="M20" s="29">
         <v>10</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="36">
+      <c r="N20" s="20">
+        <v>6</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="29">
         <v>8</v>
       </c>
-      <c r="H20" s="36">
+      <c r="R20" s="29">
         <v>9</v>
       </c>
-      <c r="I20" s="36">
-        <v>12</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="36">
-        <v>13</v>
-      </c>
-      <c r="L20" s="36">
-        <v>11</v>
-      </c>
-      <c r="M20" s="25">
-        <v>5</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36">
+      <c r="S20" s="29">
+        <v>7</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29">
         <f>SUM(F21:Z21)+AC20</f>
-        <v>2</v>
-      </c>
-      <c r="AE20" s="36">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="29">
         <f>SUM(F21:Z21)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -10052,7 +10623,7 @@
       </c>
       <c r="G21" s="35">
         <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="35">
         <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
@@ -10076,11 +10647,11 @@
       </c>
       <c r="M21" s="35">
         <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="35">
         <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="35">
         <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
@@ -10088,7 +10659,7 @@
       </c>
       <c r="P21" s="35">
         <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="35">
         <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))</f>
@@ -10142,72 +10713,84 @@
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="29">
-        <v>31</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="29">
-        <v>7</v>
-      </c>
-      <c r="G22" s="29">
-        <v>6</v>
-      </c>
-      <c r="H22" s="29">
-        <v>7</v>
-      </c>
-      <c r="I22" s="29">
+    <row r="22" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="30">
+        <v>20</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9</v>
+      </c>
+      <c r="H22" s="30">
         <v>14</v>
       </c>
-      <c r="J22" s="29">
+      <c r="I22" s="30">
+        <v>9</v>
+      </c>
+      <c r="J22" s="30">
+        <v>16</v>
+      </c>
+      <c r="K22" s="30">
+        <v>17</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="30">
+        <v>17</v>
+      </c>
+      <c r="O22" s="30">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4">
         <v>8</v>
       </c>
-      <c r="K22" s="20">
-        <v>7</v>
-      </c>
-      <c r="L22" s="29">
-        <v>12</v>
-      </c>
-      <c r="M22" s="29">
-        <v>10</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29">
+      <c r="Q22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" s="4">
+        <v>16</v>
+      </c>
+      <c r="S22" s="4">
+        <v>16</v>
+      </c>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30">
         <f>SUM(F23:Z23)+AC22</f>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="29">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="30">
         <f>SUM(F23:Z23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -10215,11 +10798,11 @@
       <c r="E23" s="35"/>
       <c r="F23" s="35">
         <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="35">
         <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="35">
         <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
@@ -10309,72 +10892,84 @@
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="40">
-        <v>3</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="40">
+    <row r="24" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="36">
+        <v>10</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="36">
+        <v>8</v>
+      </c>
+      <c r="H24" s="36">
+        <v>9</v>
+      </c>
+      <c r="I24" s="36">
+        <v>12</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="36">
+        <v>13</v>
+      </c>
+      <c r="L24" s="36">
+        <v>11</v>
+      </c>
+      <c r="M24" s="25">
+        <v>5</v>
+      </c>
+      <c r="N24" s="36">
         <v>14</v>
       </c>
-      <c r="G24" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="40">
-        <v>6</v>
-      </c>
-      <c r="I24" s="40">
-        <v>18</v>
-      </c>
-      <c r="J24" s="40">
-        <v>13</v>
-      </c>
-      <c r="K24" s="40">
+      <c r="O24" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="36">
         <v>12</v>
       </c>
-      <c r="L24" s="40">
-        <v>13</v>
-      </c>
-      <c r="M24" s="40">
-        <v>8</v>
-      </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40">
+      <c r="R24" s="36">
+        <v>12</v>
+      </c>
+      <c r="S24" s="25">
+        <v>9</v>
+      </c>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36">
         <f>SUM(F25:Z25)+AC24</f>
-        <v>1</v>
-      </c>
-      <c r="AE24" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="36">
         <f>SUM(F25:Z25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -10390,7 +10985,7 @@
       </c>
       <c r="H25" s="35">
         <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="35">
         <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
@@ -10410,7 +11005,7 @@
       </c>
       <c r="M25" s="35">
         <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="35">
         <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
@@ -10476,68 +11071,84 @@
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="42">
-        <v>5</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="42" t="s">
+    <row r="26" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="40">
+        <v>3</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="42">
+      <c r="F26" s="40">
+        <v>14</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="40">
+        <v>6</v>
+      </c>
+      <c r="I26" s="40">
+        <v>18</v>
+      </c>
+      <c r="J26" s="40">
+        <v>13</v>
+      </c>
+      <c r="K26" s="40">
+        <v>12</v>
+      </c>
+      <c r="L26" s="40">
+        <v>13</v>
+      </c>
+      <c r="M26" s="40">
         <v>8</v>
       </c>
-      <c r="J26" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="42">
+      <c r="N26" s="40">
         <v>11</v>
       </c>
-      <c r="L26" s="42">
-        <v>10</v>
-      </c>
-      <c r="M26" s="42">
-        <v>6</v>
-      </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42">
+      <c r="O26" s="40">
+        <v>13</v>
+      </c>
+      <c r="P26" s="40">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>9</v>
+      </c>
+      <c r="R26" s="40">
+        <v>15</v>
+      </c>
+      <c r="S26" s="40">
+        <v>15</v>
+      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40">
         <f>SUM(F27:Z27)+AC26</f>
         <v>1</v>
       </c>
-      <c r="AE26" s="42">
+      <c r="AE26" s="40">
         <f>SUM(F27:Z27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -10553,7 +11164,7 @@
       </c>
       <c r="H27" s="35">
         <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="35">
         <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
@@ -10573,7 +11184,7 @@
       </c>
       <c r="M27" s="35">
         <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="35">
         <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
@@ -10639,72 +11250,80 @@
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="28">
+    <row r="28" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="42">
+        <v>5</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="42">
+        <v>8</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="42">
+        <v>11</v>
+      </c>
+      <c r="L28" s="42">
+        <v>10</v>
+      </c>
+      <c r="M28" s="42">
         <v>6</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="28">
-        <v>16</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="28">
-        <v>16</v>
-      </c>
-      <c r="I28" s="28">
-        <v>16</v>
-      </c>
-      <c r="J28" s="28">
-        <v>14</v>
-      </c>
-      <c r="K28" s="28">
-        <v>16</v>
-      </c>
-      <c r="L28" s="28">
-        <v>15</v>
-      </c>
-      <c r="M28" s="28">
-        <v>15</v>
-      </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28">
+      <c r="N28" s="26">
+        <v>12</v>
+      </c>
+      <c r="O28" s="26">
+        <v>9</v>
+      </c>
+      <c r="P28" s="26">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>11</v>
+      </c>
+      <c r="R28" s="42">
+        <v>10</v>
+      </c>
+      <c r="S28" s="42">
+        <v>8</v>
+      </c>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42">
         <f>SUM(F29:Z29)+AC28</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="42">
         <f>SUM(F29:Z29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -10740,7 +11359,7 @@
       </c>
       <c r="M29" s="35">
         <f>IF(M28=1,10,IF(M28=2,6,IF(M28=3,4,IF(M28=4,3,IF(M28=5,2,IF(M28=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="35">
         <f>IF(N28=1,10,IF(N28=2,6,IF(N28=3,4,IF(N28=4,3,IF(N28=5,2,IF(N28=6,1,0))))))</f>
@@ -10806,72 +11425,84 @@
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="29">
+    <row r="30" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="30">
+        <v>47</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="30">
+        <v>11</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="30">
+        <v>13</v>
+      </c>
+      <c r="I30" s="30">
+        <v>17</v>
+      </c>
+      <c r="J30" s="30">
+        <v>15</v>
+      </c>
+      <c r="K30" s="30">
         <v>14</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="20">
-        <v>9</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="29">
+      <c r="L30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="30">
+        <v>14</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O30" s="30">
+        <v>8</v>
+      </c>
+      <c r="P30" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="30">
+        <v>15</v>
+      </c>
+      <c r="R30" s="30">
+        <v>14</v>
+      </c>
+      <c r="S30" s="30">
         <v>17</v>
       </c>
-      <c r="I30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="29">
-        <v>11</v>
-      </c>
-      <c r="K30" s="29">
-        <v>9</v>
-      </c>
-      <c r="L30" s="29">
-        <v>7</v>
-      </c>
-      <c r="M30" s="29">
-        <v>7</v>
-      </c>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29">
+      <c r="T30" s="4"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30">
         <f>SUM(F31:Z31)+AC30</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="30">
         <f>SUM(F31:Z31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -10919,7 +11550,7 @@
       </c>
       <c r="P31" s="35">
         <f>IF(P30=1,10,IF(P30=2,6,IF(P30=3,4,IF(P30=4,3,IF(P30=5,2,IF(P30=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="35">
         <f>IF(Q30=1,10,IF(Q30=2,6,IF(Q30=3,4,IF(Q30=4,3,IF(Q30=5,2,IF(Q30=6,1,0))))))</f>
@@ -10973,72 +11604,84 @@
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="42">
+    <row r="32" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="28">
+        <v>6</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="28">
+        <v>16</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="28">
+        <v>16</v>
+      </c>
+      <c r="I32" s="28">
+        <v>16</v>
+      </c>
+      <c r="J32" s="28">
+        <v>14</v>
+      </c>
+      <c r="K32" s="28">
+        <v>16</v>
+      </c>
+      <c r="L32" s="28">
+        <v>15</v>
+      </c>
+      <c r="M32" s="28">
+        <v>15</v>
+      </c>
+      <c r="N32" s="28">
+        <v>16</v>
+      </c>
+      <c r="O32" s="28">
+        <v>12</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q32" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R32" s="28">
         <v>18</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="42">
-        <v>12</v>
-      </c>
-      <c r="G32" s="42">
-        <v>13</v>
-      </c>
-      <c r="H32" s="42">
-        <v>12</v>
-      </c>
-      <c r="I32" s="42">
-        <v>10</v>
-      </c>
-      <c r="J32" s="42">
-        <v>10</v>
-      </c>
-      <c r="K32" s="26">
-        <v>15</v>
-      </c>
-      <c r="L32" s="42">
-        <v>14</v>
-      </c>
-      <c r="M32" s="42">
-        <v>16</v>
-      </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42">
+      <c r="S32" s="28">
+        <v>17</v>
+      </c>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28">
         <f>SUM(F33:Z33)+AC32</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="42">
+      <c r="AE32" s="28">
         <f>SUM(F33:Z33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -11140,72 +11783,84 @@
       <c r="AD33" s="35"/>
       <c r="AE33" s="35"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="36">
+    <row r="34" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="42">
+        <v>18</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="36">
-        <v>8</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="36">
+      <c r="F34" s="42">
+        <v>12</v>
+      </c>
+      <c r="G34" s="42">
+        <v>13</v>
+      </c>
+      <c r="H34" s="42">
+        <v>12</v>
+      </c>
+      <c r="I34" s="42">
+        <v>10</v>
+      </c>
+      <c r="J34" s="42">
+        <v>10</v>
+      </c>
+      <c r="K34" s="26">
         <v>15</v>
       </c>
-      <c r="I34" s="25">
-        <v>7</v>
-      </c>
-      <c r="J34" s="36">
-        <v>12</v>
-      </c>
-      <c r="K34" s="36">
+      <c r="L34" s="42">
+        <v>14</v>
+      </c>
+      <c r="M34" s="42">
+        <v>16</v>
+      </c>
+      <c r="N34" s="42">
         <v>10</v>
       </c>
-      <c r="L34" s="36">
-        <v>17</v>
-      </c>
-      <c r="M34" s="36">
+      <c r="O34" s="42">
+        <v>11</v>
+      </c>
+      <c r="P34" s="26">
         <v>13</v>
       </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36">
+      <c r="Q34" s="42">
+        <v>10</v>
+      </c>
+      <c r="R34" s="42">
+        <v>11</v>
+      </c>
+      <c r="S34" s="42">
+        <v>11</v>
+      </c>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42">
         <f>SUM(F35:Z35)+AC34</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="36">
+      <c r="AE34" s="42">
         <f>SUM(F35:Z35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -11307,72 +11962,84 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="28">
-        <v>23</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="28" t="s">
+    <row r="36" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="36">
         <v>22</v>
       </c>
-      <c r="F36" s="28">
+      <c r="C36" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="36">
+        <v>8</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="36">
+        <v>15</v>
+      </c>
+      <c r="I36" s="25">
+        <v>7</v>
+      </c>
+      <c r="J36" s="36">
+        <v>12</v>
+      </c>
+      <c r="K36" s="36">
+        <v>10</v>
+      </c>
+      <c r="L36" s="36">
+        <v>17</v>
+      </c>
+      <c r="M36" s="36">
         <v>13</v>
       </c>
-      <c r="G36" s="28">
+      <c r="N36" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O36" s="36">
         <v>14</v>
       </c>
-      <c r="H36" s="21">
-        <v>10</v>
-      </c>
-      <c r="I36" s="28">
-        <v>11</v>
-      </c>
-      <c r="J36" s="28">
-        <v>9</v>
-      </c>
-      <c r="K36" s="28">
-        <v>18</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="M36" s="28">
-        <v>12</v>
-      </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28">
+      <c r="P36" s="36">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="25">
+        <v>19</v>
+      </c>
+      <c r="S36" s="25">
+        <v>13</v>
+      </c>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36">
         <f>SUM(F37:Z37)+AC36</f>
         <v>0</v>
       </c>
-      <c r="AE36" s="28">
+      <c r="AE36" s="36">
         <f>SUM(F37:Z37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -11474,72 +12141,84 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="31">
-        <v>24</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="31">
+    <row r="38" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="28">
+        <v>23</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="28">
+        <v>13</v>
+      </c>
+      <c r="G38" s="28">
+        <v>14</v>
+      </c>
+      <c r="H38" s="21">
         <v>10</v>
       </c>
-      <c r="G38" s="31">
+      <c r="I38" s="28">
         <v>11</v>
       </c>
-      <c r="H38" s="31">
-        <v>11</v>
-      </c>
-      <c r="I38" s="31">
-        <v>15</v>
-      </c>
-      <c r="J38" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="K38" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="L38" s="31">
-        <v>16</v>
-      </c>
-      <c r="M38" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31">
+      <c r="J38" s="28">
+        <v>9</v>
+      </c>
+      <c r="K38" s="28">
+        <v>18</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="28">
+        <v>12</v>
+      </c>
+      <c r="N38" s="28">
+        <v>13</v>
+      </c>
+      <c r="O38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="28">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>13</v>
+      </c>
+      <c r="R38" s="28">
+        <v>17</v>
+      </c>
+      <c r="S38" s="28">
+        <v>10</v>
+      </c>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28">
         <f>SUM(F39:Z39)+AC38</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="31">
+      <c r="AE38" s="28">
         <f>SUM(F39:Z39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -11641,72 +12320,84 @@
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="30">
-        <v>47</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="30" t="s">
+    <row r="40" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="31">
+        <v>24</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="31">
+        <v>10</v>
+      </c>
+      <c r="G40" s="31">
         <v>11</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="30">
+      <c r="H40" s="31">
+        <v>11</v>
+      </c>
+      <c r="I40" s="31">
+        <v>15</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" s="31">
+        <v>16</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N40" s="31">
+        <v>8</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>16</v>
+      </c>
+      <c r="R40" s="31">
         <v>13</v>
       </c>
-      <c r="I40" s="30">
-        <v>17</v>
-      </c>
-      <c r="J40" s="30">
-        <v>15</v>
-      </c>
-      <c r="K40" s="30">
+      <c r="S40" s="31">
         <v>14</v>
       </c>
-      <c r="L40" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="M40" s="30">
-        <v>14</v>
-      </c>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30">
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31">
         <f>SUM(F41:Z41)+AC40</f>
         <v>0</v>
       </c>
-      <c r="AE40" s="30">
+      <c r="AE40" s="31">
         <f>SUM(F41:Z41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -11808,7 +12499,7 @@
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>111</v>
       </c>
@@ -11861,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -11966,13 +12657,13 @@
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
     </row>
-    <row r="59" spans="30:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="30:30" ht="17.45" x14ac:dyDescent="0.25">
       <c r="AD59" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE43">
     <sortState ref="A2:AE42">
-      <sortCondition descending="1" ref="AD1:AD43"/>
+      <sortCondition descending="1" ref="AE1:AE43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11985,7 +12676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12026,11 +12719,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
-        <v>279</v>
+        <v>475</v>
       </c>
       <c r="E2" s="10">
         <f>'2022 Driver Ranking'!AF2+'2022 Driver Ranking'!AF4</f>
-        <v>261</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12044,12 +12737,12 @@
         <v>77</v>
       </c>
       <c r="D3" s="7">
-        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE10</f>
-        <v>199</v>
+        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE8</f>
+        <v>357</v>
       </c>
       <c r="E3" s="7">
-        <f>'2022 Driver Ranking'!AF6+'2022 Driver Ranking'!AF10</f>
-        <v>184</v>
+        <f>'2022 Driver Ranking'!AF6+'2022 Driver Ranking'!AF8</f>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12063,50 +12756,50 @@
         <v>75</v>
       </c>
       <c r="D4" s="16">
-        <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
-        <v>161</v>
+        <f>'2022 Driver Ranking'!AE10+'2022 Driver Ranking'!AE12</f>
+        <v>316</v>
       </c>
       <c r="E4" s="16">
-        <f>'2022 Driver Ranking'!AF8+'2022 Driver Ranking'!AF12</f>
-        <v>161</v>
+        <f>'2022 Driver Ranking'!AF10+'2022 Driver Ranking'!AF12</f>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
+        <v>115</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'2022 Driver Ranking'!AF16+'2022 Driver Ranking'!AF18</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE26</f>
-        <v>65</v>
-      </c>
-      <c r="E5" s="6">
+        <v>95</v>
+      </c>
+      <c r="E6" s="6">
         <f>'2022 Driver Ranking'!AF14+'2022 Driver Ranking'!AF26</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'2022 Driver Ranking'!AE18+'2022 Driver Ranking'!AE20</f>
-        <v>47</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'2022 Driver Ranking'!AF18+'2022 Driver Ranking'!AF20</f>
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12120,50 +12813,50 @@
         <v>81</v>
       </c>
       <c r="D7" s="11">
-        <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE36</f>
-        <v>41</v>
+        <f>'2022 Driver Ranking'!AE20+'2022 Driver Ranking'!AE34</f>
+        <v>51</v>
       </c>
       <c r="E7" s="11">
-        <f>'2022 Driver Ranking'!AF16+'2022 Driver Ranking'!AF36</f>
-        <v>39</v>
+        <f>'2022 Driver Ranking'!AF20+'2022 Driver Ranking'!AF34</f>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30</f>
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'2022 Driver Ranking'!AF22+'2022 Driver Ranking'!AF30</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="10">
-        <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30</f>
-        <v>27</v>
-      </c>
-      <c r="E8" s="10">
-        <f>'2022 Driver Ranking'!AF22+'2022 Driver Ranking'!AF30</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="3">
-        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE40</f>
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
-        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF40</f>
-        <v>14</v>
+      <c r="D9" s="10">
+        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE32</f>
+        <v>29</v>
+      </c>
+      <c r="E9" s="10">
+        <f>'2022 Driver Ranking'!AF28+'2022 Driver Ranking'!AF32</f>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12177,12 +12870,12 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE34+'2022 Driver Ranking'!AE42</f>
-        <v>15</v>
+        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE36+'2022 Driver Ranking'!AE42</f>
+        <v>24</v>
       </c>
       <c r="E10" s="8">
-        <f>'2022 Driver Ranking'!AF28+'2022 Driver Ranking'!AF34+'2022 Driver Ranking'!AF42</f>
-        <v>15</v>
+        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF36+'2022 Driver Ranking'!AF42</f>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12196,12 +12889,12 @@
         <v>83</v>
       </c>
       <c r="D11" s="5">
-        <f>'2022 Driver Ranking'!AE32+'2022 Driver Ranking'!AE38</f>
-        <v>3</v>
+        <f>'2022 Driver Ranking'!AE38+'2022 Driver Ranking'!AE40</f>
+        <v>4</v>
       </c>
       <c r="E11" s="5">
-        <f>'2022 Driver Ranking'!AF32+'2022 Driver Ranking'!AF38</f>
-        <v>3</v>
+        <f>'2022 Driver Ranking'!AF38+'2022 Driver Ranking'!AF40</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12257,7 +12950,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
-        <v>108</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12272,7 +12965,7 @@
       </c>
       <c r="D3" s="7">
         <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC10</f>
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12287,37 +12980,37 @@
       </c>
       <c r="D4" s="16">
         <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC12</f>
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC18</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="6">
-        <f>'2003-2009 Driver Ranking'!AC14+'2003-2009 Driver Ranking'!AC24</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC26</f>
-        <v>14</v>
+      <c r="D6" s="6">
+        <f>'2003-2009 Driver Ranking'!AC14+'2003-2009 Driver Ranking'!AC26</f>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12331,38 +13024,38 @@
         <v>81</v>
       </c>
       <c r="D7" s="11">
-        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC38</f>
-        <v>13</v>
+        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC34</f>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC30</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="10">
-        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC30</f>
+      <c r="D9" s="10">
+        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC32</f>
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="3">
-        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC40</f>
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12376,7 +13069,7 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC42</f>
+        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC38+'2003-2009 Driver Ranking'!AC42</f>
         <v>4</v>
       </c>
     </row>
@@ -12391,7 +13084,7 @@
         <v>83</v>
       </c>
       <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AC32+'2003-2009 Driver Ranking'!AC36</f>
+        <f>'2003-2009 Driver Ranking'!AC36+'2003-2009 Driver Ranking'!AC40</f>
         <v>0</v>
       </c>
     </row>
@@ -12451,11 +13144,11 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE4</f>
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12469,12 +13162,12 @@
         <v>77</v>
       </c>
       <c r="D3" s="7">
-        <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD10</f>
-        <v>62</v>
+        <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8</f>
+        <v>106</v>
       </c>
       <c r="E3" s="7">
-        <f>'1991-2002 Driver Ranking'!AE6+'1991-2002 Driver Ranking'!AE10</f>
-        <v>59</v>
+        <f>'1991-2002 Driver Ranking'!AE6+'1991-2002 Driver Ranking'!AE8</f>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12488,12 +13181,12 @@
         <v>75</v>
       </c>
       <c r="D4" s="16">
-        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD12</f>
-        <v>37</v>
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
+        <v>80</v>
       </c>
       <c r="E4" s="16">
-        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE12</f>
-        <v>37</v>
+        <f>'1991-2002 Driver Ranking'!AE10+'1991-2002 Driver Ranking'!AE12</f>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12507,88 +13200,88 @@
         <v>83</v>
       </c>
       <c r="D5" s="6">
-        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD24</f>
+        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD26</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <f>'1991-2002 Driver Ranking'!AE14+'1991-2002 Driver Ranking'!AE26</f>
         <v>9</v>
       </c>
-      <c r="E5" s="6">
-        <f>'1991-2002 Driver Ranking'!AE14+'1991-2002 Driver Ranking'!AE24</f>
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD20</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'1991-2002 Driver Ranking'!AE16+'1991-2002 Driver Ranking'!AE20</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="11">
-        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD38</f>
+      <c r="D7" s="11">
+        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD40</f>
         <v>4</v>
       </c>
-      <c r="E6" s="11">
-        <f>'1991-2002 Driver Ranking'!AE16+'1991-2002 Driver Ranking'!AE38</f>
+      <c r="E7" s="11">
+        <f>'1991-2002 Driver Ranking'!AE18+'1991-2002 Driver Ranking'!AE40</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="3">
-        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD40</f>
+      <c r="D8" s="3">
+        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'1991-2002 Driver Ranking'!AE22+'1991-2002 Driver Ranking'!AE30</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="10">
+        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD36</f>
         <v>2</v>
       </c>
-      <c r="E7" s="3">
-        <f>'1991-2002 Driver Ranking'!AE18+'1991-2002 Driver Ranking'!AE40</f>
+      <c r="E9" s="10">
+        <f>'1991-2002 Driver Ranking'!AE24+'1991-2002 Driver Ranking'!AE36</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="10">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD34</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="10">
-        <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE34</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2">
-        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <f>'1991-2002 Driver Ranking'!AE22+'1991-2002 Driver Ranking'!AE30</f>
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12602,11 +13295,11 @@
         <v>83</v>
       </c>
       <c r="D10" s="8">
-        <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD42</f>
+        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD34+'1991-2002 Driver Ranking'!AD42</f>
         <v>1</v>
       </c>
       <c r="E10" s="8">
-        <f>'1991-2002 Driver Ranking'!AE26+'1991-2002 Driver Ranking'!AE32+'1991-2002 Driver Ranking'!AE42</f>
+        <f>'1991-2002 Driver Ranking'!AE28+'1991-2002 Driver Ranking'!AE34+'1991-2002 Driver Ranking'!AE42</f>
         <v>1</v>
       </c>
     </row>
@@ -12621,11 +13314,11 @@
         <v>83</v>
       </c>
       <c r="D11" s="5">
-        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD36</f>
+        <f>'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD38</f>
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <f>'1991-2002 Driver Ranking'!AE28+'1991-2002 Driver Ranking'!AE36</f>
+        <f>'1991-2002 Driver Ranking'!AE32+'1991-2002 Driver Ranking'!AE38</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -19,13 +19,13 @@
     <sheet name="Ranking System Notes" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AE$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AD$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1991-2002 Engine Ranking'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AC$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022 Driver Ranking'!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022 Driver Ranking'!$A$1:$AE$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2022 Engine Ranking'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2022 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="117">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Russia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1056,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1075,25 +1071,24 @@
     <col min="19" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="44.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="22" max="22" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="44.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>9</v>
@@ -1108,16 +1103,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>5</v>
@@ -1129,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>10</v>
@@ -1147,22 +1142,22 @@
         <v>12</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>91</v>
       </c>
       <c r="Z1" s="33" t="s">
         <v>15</v>
@@ -1170,37 +1165,34 @@
       <c r="AA1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" s="41" t="s">
-        <v>66</v>
+      <c r="AB1" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="AE1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="36">
         <v>19</v>
@@ -1209,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="36">
         <v>1</v>
@@ -1244,7 +1236,9 @@
       <c r="S2" s="36">
         <v>1</v>
       </c>
-      <c r="T2" s="36"/>
+      <c r="T2" s="36">
+        <v>1</v>
+      </c>
       <c r="U2" s="44"/>
       <c r="V2" s="36"/>
       <c r="W2" s="36"/>
@@ -1252,25 +1246,24 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
       <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="AB2" s="36">
+        <f>1+1+1+1+1</f>
+        <v>5</v>
+      </c>
       <c r="AC2" s="36">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-      <c r="AD2" s="36">
         <f>8+8</f>
         <v>16</v>
       </c>
+      <c r="AD2" s="36">
+        <f>SUM(F3:AA3)+AB2+AC2</f>
+        <v>310</v>
+      </c>
       <c r="AE2" s="36">
-        <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>284</v>
-      </c>
-      <c r="AF2" s="36">
-        <f>SUM(F3:AB3)</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F3:AA3)</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1334,7 +1327,7 @@
       </c>
       <c r="T3" s="35">
         <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U3" s="35">
         <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
@@ -1364,30 +1357,26 @@
         <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="35">
-        <f>IF(AB2=1,25,IF(AB2=2,18,IF(AB2=3,15,IF(AB2=4,12,IF(AB2=5,10,IF(AB2=6,8,IF(AB2=7,6,IF(AB2=8,4,IF(AB2=9,2,IF(AB2=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB3" s="35"/>
       <c r="AC3" s="35"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="36">
         <v>11</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="36">
         <v>18</v>
@@ -1414,13 +1403,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="36">
         <v>2</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="36">
         <v>4</v>
@@ -1431,7 +1420,9 @@
       <c r="S4" s="36">
         <v>2</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="36">
+        <v>5</v>
+      </c>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
       <c r="W4" s="36"/>
@@ -1439,25 +1430,24 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="36"/>
       <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36">
+      <c r="AB4" s="36">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AC4" s="36">
         <f>6+4</f>
         <v>10</v>
       </c>
+      <c r="AD4" s="36">
+        <f>SUM(F5:AA5)+AB4+AC4</f>
+        <v>201</v>
+      </c>
       <c r="AE4" s="36">
-        <f>SUM(F5:AB5)+AC4+AD4</f>
-        <v>191</v>
-      </c>
-      <c r="AF4" s="36">
-        <f>SUM(F5:AB5)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F5:AA5)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -1521,7 +1511,7 @@
       </c>
       <c r="T5" s="35">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5" s="35">
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
@@ -1551,30 +1541,26 @@
         <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="35">
-        <f>IF(AB4=1,25,IF(AB4=2,18,IF(AB4=3,15,IF(AB4=4,12,IF(AB4=5,10,IF(AB4=6,8,IF(AB4=7,6,IF(AB4=8,4,IF(AB4=9,2,IF(AB4=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="35"/>
       <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="34">
         <v>16</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="34">
         <v>1</v>
@@ -1592,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="34">
         <v>5</v>
@@ -1610,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R6" s="34">
         <v>6</v>
@@ -1618,7 +1604,9 @@
       <c r="S6" s="34">
         <v>6</v>
       </c>
-      <c r="T6" s="34"/>
+      <c r="T6" s="34">
+        <v>3</v>
+      </c>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
@@ -1626,25 +1614,24 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34">
+      <c r="AB6" s="34">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AC6" s="34">
         <f>7+7</f>
         <v>14</v>
       </c>
+      <c r="AD6" s="34">
+        <f>SUM(F7:AA7)+AB6+AC6</f>
+        <v>201</v>
+      </c>
       <c r="AE6" s="34">
-        <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>186</v>
-      </c>
-      <c r="AF6" s="34">
-        <f>SUM(F7:AB7)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F7:AA7)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -1708,7 +1695,7 @@
       </c>
       <c r="T7" s="35">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U7" s="35">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
@@ -1738,100 +1725,94 @@
         <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="35">
-        <f>IF(AB6=1,25,IF(AB6=2,18,IF(AB6=3,15,IF(AB6=4,12,IF(AB6=5,10,IF(AB6=6,8,IF(AB6=7,6,IF(AB6=8,4,IF(AB6=9,2,IF(AB6=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="34">
-        <v>55</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="34">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="37">
+        <v>63</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="37">
+        <v>4</v>
+      </c>
+      <c r="G8" s="37">
+        <v>5</v>
+      </c>
+      <c r="H8" s="37">
+        <v>3</v>
+      </c>
+      <c r="I8" s="37">
+        <v>4</v>
+      </c>
+      <c r="J8" s="37">
+        <v>5</v>
+      </c>
+      <c r="K8" s="37">
+        <v>3</v>
+      </c>
+      <c r="L8" s="37">
+        <v>5</v>
+      </c>
+      <c r="M8" s="37">
+        <v>3</v>
+      </c>
+      <c r="N8" s="37">
+        <v>4</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="37">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>3</v>
+      </c>
+      <c r="R8" s="37">
+        <v>3</v>
+      </c>
+      <c r="S8" s="37">
+        <v>4</v>
+      </c>
+      <c r="T8" s="37">
         <v>2</v>
       </c>
-      <c r="G8" s="34">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="34">
-        <v>3</v>
-      </c>
-      <c r="K8" s="34">
-        <v>4</v>
-      </c>
-      <c r="L8" s="34">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="34">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34">
-        <v>1</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="34">
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37">
+        <f>5</f>
         <v>5</v>
       </c>
-      <c r="R8" s="34">
-        <v>4</v>
-      </c>
-      <c r="S8" s="34">
-        <v>3</v>
-      </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="AD8" s="34">
-        <f>5+6</f>
-        <v>11</v>
-      </c>
-      <c r="AE8" s="34">
-        <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>171</v>
-      </c>
-      <c r="AF8" s="34">
-        <f>SUM(F9:AB9)</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AD8" s="37">
+        <f>SUM(F9:AA9)+AB8+AC8</f>
+        <v>188</v>
+      </c>
+      <c r="AE8" s="37">
+        <f>SUM(F9:AA9)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -1839,63 +1820,63 @@
       <c r="E9" s="35"/>
       <c r="F9" s="35">
         <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" s="35">
         <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9" s="35">
         <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I9" s="35">
         <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9" s="35">
         <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K9" s="35">
         <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" s="35">
         <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M9" s="35">
         <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N9" s="35">
         <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O9" s="35">
         <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P9" s="35">
         <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="35">
         <f>IF(Q8=1,25,IF(Q8=2,18,IF(Q8=3,15,IF(Q8=4,12,IF(Q8=5,10,IF(Q8=6,8,IF(Q8=7,6,IF(Q8=8,4,IF(Q8=9,2,IF(Q8=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R9" s="35">
         <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S9" s="35">
         <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T9" s="35">
         <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U9" s="35">
         <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
@@ -1925,97 +1906,97 @@
         <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="35">
-        <f>IF(AB8=1,25,IF(AB8=2,18,IF(AB8=3,15,IF(AB8=4,12,IF(AB8=5,10,IF(AB8=6,8,IF(AB8=7,6,IF(AB8=8,4,IF(AB8=9,2,IF(AB8=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="37">
-        <v>63</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="37">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="34">
+        <v>55</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="34">
+        <v>3</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="34">
+        <v>3</v>
+      </c>
+      <c r="K10" s="34">
         <v>4</v>
       </c>
-      <c r="G10" s="37">
+      <c r="L10" s="34">
+        <v>2</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="34">
+        <v>2</v>
+      </c>
+      <c r="O10" s="34">
+        <v>1</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="34">
         <v>5</v>
       </c>
-      <c r="H10" s="37">
+      <c r="R10" s="34">
+        <v>4</v>
+      </c>
+      <c r="S10" s="34">
         <v>3</v>
       </c>
-      <c r="I10" s="37">
-        <v>4</v>
-      </c>
-      <c r="J10" s="37">
-        <v>5</v>
-      </c>
-      <c r="K10" s="37">
-        <v>3</v>
-      </c>
-      <c r="L10" s="37">
-        <v>5</v>
-      </c>
-      <c r="M10" s="37">
-        <v>3</v>
-      </c>
-      <c r="N10" s="37">
-        <v>4</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="37">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="37">
-        <v>3</v>
-      </c>
-      <c r="R10" s="37">
-        <v>3</v>
-      </c>
-      <c r="S10" s="37">
-        <v>4</v>
-      </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="AE10" s="37">
-        <f>SUM(F11:AB11)+AC10+AD10</f>
-        <v>170</v>
-      </c>
-      <c r="AF10" s="37">
-        <f>SUM(F11:AB11)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="T10" s="34">
+        <v>8</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC10" s="34">
+        <f>5+6</f>
+        <v>11</v>
+      </c>
+      <c r="AD10" s="34">
+        <f>SUM(F11:AA11)+AB10+AC10</f>
+        <v>175</v>
+      </c>
+      <c r="AE10" s="34">
+        <f>SUM(F11:AA11)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -2023,63 +2004,63 @@
       <c r="E11" s="35"/>
       <c r="F11" s="35">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G11" s="35">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11" s="35">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I11" s="35">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J11" s="35">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11" s="35">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L11" s="35">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M11" s="35">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N11" s="35">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O11" s="35">
         <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P11" s="35">
         <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="35">
         <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R11" s="35">
         <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S11" s="35">
         <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T11" s="35">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U11" s="35">
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
@@ -2109,30 +2090,26 @@
         <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="35">
-        <f>IF(AB10=1,25,IF(AB10=2,18,IF(AB10=3,15,IF(AB10=4,12,IF(AB10=5,10,IF(AB10=6,8,IF(AB10=7,6,IF(AB10=8,4,IF(AB10=9,2,IF(AB10=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
       <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-    </row>
-    <row r="12" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="37">
         <v>44</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="37">
         <v>3</v>
@@ -2174,9 +2151,11 @@
         <v>2</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="T12" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="T12" s="37">
+        <v>4</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -2184,25 +2163,24 @@
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37">
+      <c r="AB12" s="37">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="AD12" s="37">
+      <c r="AC12" s="37">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AD12" s="37">
+        <f>SUM(F13:AA13)+AB12+AC12</f>
+        <v>158</v>
+      </c>
       <c r="AE12" s="37">
-        <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>146</v>
-      </c>
-      <c r="AF12" s="37">
-        <f>SUM(F13:AB13)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F13:AA13)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -2266,7 +2244,7 @@
       </c>
       <c r="T13" s="35">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U13" s="35">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
@@ -2296,30 +2274,26 @@
         <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="35">
-        <f>IF(AB12=1,25,IF(AB12=2,18,IF(AB12=3,15,IF(AB12=4,12,IF(AB12=5,10,IF(AB12=6,8,IF(AB12=7,6,IF(AB12=8,4,IF(AB12=9,2,IF(AB12=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-    </row>
-    <row r="14" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="40">
         <v>15</v>
@@ -2334,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
@@ -2363,7 +2337,9 @@
       <c r="S14" s="40">
         <v>12</v>
       </c>
-      <c r="T14" s="40"/>
+      <c r="T14" s="40">
+        <v>7</v>
+      </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
@@ -2371,25 +2347,24 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40">
+      <c r="AB14" s="40">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD14" s="40">
+      <c r="AC14" s="40">
         <f>4</f>
         <v>4</v>
       </c>
+      <c r="AD14" s="40">
+        <f>SUM(F15:AA15)+AB14+AC14</f>
+        <v>82</v>
+      </c>
       <c r="AE14" s="40">
-        <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>76</v>
-      </c>
-      <c r="AF14" s="40">
-        <f>SUM(F15:AB15)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F15:AA15)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -2453,7 +2428,7 @@
       </c>
       <c r="T15" s="35">
         <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U15" s="35">
         <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
@@ -2483,30 +2458,26 @@
         <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="35">
-        <f>IF(AB14=1,25,IF(AB14=2,18,IF(AB14=3,15,IF(AB14=4,12,IF(AB14=5,10,IF(AB14=6,8,IF(AB14=7,6,IF(AB14=8,4,IF(AB14=9,2,IF(AB14=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
       <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-    </row>
-    <row r="16" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="29">
         <v>31</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="29">
         <v>7</v>
@@ -2536,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P16" s="29">
         <v>5</v>
@@ -2550,7 +2521,9 @@
       <c r="S16" s="29">
         <v>7</v>
       </c>
-      <c r="T16" s="29"/>
+      <c r="T16" s="29">
+        <v>9</v>
+      </c>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
@@ -2559,21 +2532,20 @@
       <c r="Z16" s="29"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29">
+      <c r="AC16" s="29">
         <f>3</f>
         <v>3</v>
       </c>
+      <c r="AD16" s="29">
+        <f>SUM(F17:AA17)+AB16+AC16</f>
+        <v>66</v>
+      </c>
       <c r="AE16" s="29">
-        <f>SUM(F17:AB17)+AC16+AD16</f>
-        <v>64</v>
-      </c>
-      <c r="AF16" s="29">
-        <f>SUM(F17:AB17)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F17:AA17)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -2637,7 +2609,7 @@
       </c>
       <c r="T17" s="35">
         <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="35">
         <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
@@ -2667,42 +2639,38 @@
         <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="35">
-        <f>IF(AB16=1,25,IF(AB16=2,18,IF(AB16=3,15,IF(AB16=4,12,IF(AB16=5,10,IF(AB16=6,8,IF(AB16=7,6,IF(AB16=8,4,IF(AB16=9,2,IF(AB16=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
       <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="29">
         <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="F18" s="29">
         <v>9</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="29">
         <v>17</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="29">
         <v>11</v>
@@ -2734,7 +2702,9 @@
       <c r="S18" s="29">
         <v>5</v>
       </c>
-      <c r="T18" s="29"/>
+      <c r="T18" s="29">
+        <v>6</v>
+      </c>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
@@ -2744,17 +2714,16 @@
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
       <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
+      <c r="AD18" s="29">
+        <f>SUM(F19:AA19)+AB18+AC18</f>
+        <v>59</v>
+      </c>
       <c r="AE18" s="29">
-        <f>SUM(F19:AB19)+AC18+AD18</f>
-        <v>51</v>
-      </c>
-      <c r="AF18" s="29">
-        <f>SUM(F19:AB19)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F19:AA19)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -2818,7 +2787,7 @@
       </c>
       <c r="T19" s="35">
         <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U19" s="35">
         <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
@@ -2848,36 +2817,32 @@
         <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="35">
-        <f>IF(AB18=1,25,IF(AB18=2,18,IF(AB18=3,15,IF(AB18=4,12,IF(AB18=5,10,IF(AB18=6,8,IF(AB18=7,6,IF(AB18=8,4,IF(AB18=9,2,IF(AB18=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
       <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="31">
         <v>77</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="31">
         <v>6</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="31">
         <v>8</v>
@@ -2901,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P20" s="31">
         <v>11</v>
@@ -2913,9 +2878,11 @@
         <v>20</v>
       </c>
       <c r="S20" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="T20" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
@@ -2924,21 +2891,20 @@
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
       <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31">
+      <c r="AC20" s="31">
         <f>2</f>
         <v>2</v>
       </c>
+      <c r="AD20" s="31">
+        <f>SUM(F21:AA21)+AB20+AC20</f>
+        <v>46</v>
+      </c>
       <c r="AE20" s="31">
-        <f>SUM(F21:AB21)+AC20+AD20</f>
-        <v>46</v>
-      </c>
-      <c r="AF20" s="31">
-        <f>SUM(F21:AB21)</f>
+        <f>SUM(F21:AA21)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -3032,30 +2998,26 @@
         <f>IF(AA20=1,25,IF(AA20=2,18,IF(AA20=3,15,IF(AA20=4,12,IF(AA20=5,10,IF(AA20=6,8,IF(AA20=7,6,IF(AA20=8,4,IF(AA20=9,2,IF(AA20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="35">
-        <f>IF(AB20=1,25,IF(AB20=2,18,IF(AB20=3,15,IF(AB20=4,12,IF(AB20=5,10,IF(AB20=6,8,IF(AB20=7,6,IF(AB20=8,4,IF(AB20=9,2,IF(AB20=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-    </row>
-    <row r="22" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="30">
         <v>20</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="F22" s="30">
         <v>5</v>
@@ -3076,10 +3038,10 @@
         <v>17</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" s="30">
         <v>17</v>
@@ -3091,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R22" s="30">
         <v>16</v>
@@ -3099,7 +3061,9 @@
       <c r="S22" s="30">
         <v>16</v>
       </c>
-      <c r="T22" s="30"/>
+      <c r="T22" s="30">
+        <v>15</v>
+      </c>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
@@ -3108,21 +3072,20 @@
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30">
+      <c r="AC22" s="30">
         <f>1+2</f>
         <v>3</v>
       </c>
+      <c r="AD22" s="30">
+        <f>SUM(F23:AA23)+AB22+AC22</f>
+        <v>22</v>
+      </c>
       <c r="AE22" s="30">
-        <f>SUM(F23:AB23)+AC22+AD22</f>
-        <v>22</v>
-      </c>
-      <c r="AF22" s="30">
-        <f>SUM(F23:AB23)</f>
+        <f>SUM(F23:AA23)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -3216,41 +3179,37 @@
         <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="35">
-        <f>IF(AB22=1,25,IF(AB22=2,18,IF(AB22=3,15,IF(AB22=4,12,IF(AB22=5,10,IF(AB22=6,8,IF(AB22=7,6,IF(AB22=8,4,IF(AB22=9,2,IF(AB22=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="42">
         <v>5</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" s="42">
         <v>8</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="42">
         <v>11</v>
@@ -3279,7 +3238,9 @@
       <c r="S24" s="42">
         <v>8</v>
       </c>
-      <c r="T24" s="42"/>
+      <c r="T24" s="42">
+        <v>14</v>
+      </c>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
       <c r="W24" s="42"/>
@@ -3289,17 +3250,16 @@
       <c r="AA24" s="42"/>
       <c r="AB24" s="42"/>
       <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
+      <c r="AD24" s="42">
+        <f>SUM(F25:AA25)+AB24+AC24</f>
+        <v>20</v>
+      </c>
       <c r="AE24" s="42">
-        <f>SUM(F25:AB25)+AC24+AD24</f>
+        <f>SUM(F25:AA25)</f>
         <v>20</v>
       </c>
-      <c r="AF24" s="42">
-        <f>SUM(F25:AB25)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -3393,36 +3353,32 @@
         <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="35">
-        <f>IF(AB24=1,25,IF(AB24=2,18,IF(AB24=3,15,IF(AB24=4,12,IF(AB24=5,10,IF(AB24=6,8,IF(AB24=7,6,IF(AB24=8,4,IF(AB24=9,2,IF(AB24=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="40">
         <v>3</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>47</v>
-      </c>
       <c r="E26" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="40">
         <v>14</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H26" s="40">
         <v>6</v>
@@ -3460,7 +3416,9 @@
       <c r="S26" s="40">
         <v>15</v>
       </c>
-      <c r="T26" s="40"/>
+      <c r="T26" s="40">
+        <v>17</v>
+      </c>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
@@ -3469,21 +3427,20 @@
       <c r="Z26" s="40"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40">
+      <c r="AC26" s="40">
         <f>3</f>
         <v>3</v>
       </c>
+      <c r="AD26" s="40">
+        <f>SUM(F27:AA27)+AB26+AC26</f>
+        <v>19</v>
+      </c>
       <c r="AE26" s="40">
-        <f>SUM(F27:AB27)+AC26+AD26</f>
-        <v>19</v>
-      </c>
-      <c r="AF26" s="40">
-        <f>SUM(F27:AB27)</f>
+        <f>SUM(F27:AA27)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -3577,33 +3534,29 @@
         <f>IF(AA26=1,25,IF(AA26=2,18,IF(AA26=3,15,IF(AA26=4,12,IF(AA26=5,10,IF(AA26=6,8,IF(AA26=7,6,IF(AA26=8,4,IF(AA26=9,2,IF(AA26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="35">
-        <f>IF(AB26=1,25,IF(AB26=2,18,IF(AB26=3,15,IF(AB26=4,12,IF(AB26=5,10,IF(AB26=6,8,IF(AB26=7,6,IF(AB26=8,4,IF(AB26=9,2,IF(AB26=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="36">
         <v>10</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="36">
         <v>8</v>
@@ -3615,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="36">
         <v>13</v>
@@ -3630,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="O28" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P28" s="36">
         <v>15</v>
@@ -3644,27 +3597,28 @@
       <c r="S28" s="36">
         <v>9</v>
       </c>
-      <c r="T28" s="36"/>
+      <c r="T28" s="36">
+        <v>11</v>
+      </c>
       <c r="U28" s="44"/>
       <c r="V28" s="36"/>
       <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="36"/>
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
       <c r="AB28" s="36"/>
       <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
+      <c r="AD28" s="36">
+        <f>SUM(F29:AA29)+AB28+AC28</f>
+        <v>18</v>
+      </c>
       <c r="AE28" s="36">
-        <f>SUM(F29:AB29)+AC28+AD28</f>
+        <f>SUM(F29:AA29)</f>
         <v>18</v>
       </c>
-      <c r="AF28" s="36">
-        <f>SUM(F29:AB29)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -3758,36 +3712,32 @@
         <f>IF(AA28=1,25,IF(AA28=2,18,IF(AA28=3,15,IF(AA28=4,12,IF(AA28=5,10,IF(AA28=6,8,IF(AA28=7,6,IF(AA28=8,4,IF(AA28=9,2,IF(AA28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="35">
-        <f>IF(AB28=1,25,IF(AB28=2,18,IF(AB28=3,15,IF(AB28=4,12,IF(AB28=5,10,IF(AB28=6,8,IF(AB28=7,6,IF(AB28=8,4,IF(AB28=9,2,IF(AB28=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-    </row>
-    <row r="30" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="30">
         <v>47</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="E30" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="F30" s="30">
         <v>11</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="30">
         <v>13</v>
@@ -3802,13 +3752,13 @@
         <v>14</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" s="30">
         <v>14</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O30" s="30">
         <v>8</v>
@@ -3825,7 +3775,9 @@
       <c r="S30" s="30">
         <v>17</v>
       </c>
-      <c r="T30" s="30"/>
+      <c r="T30" s="30">
+        <v>15</v>
+      </c>
       <c r="U30" s="30"/>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
@@ -3835,17 +3787,16 @@
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
       <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
+      <c r="AD30" s="30">
+        <f>SUM(F31:AA31)+AB30+AC30</f>
+        <v>12</v>
+      </c>
       <c r="AE30" s="30">
-        <f>SUM(F31:AB31)+AC30+AD30</f>
+        <f>SUM(F31:AA31)</f>
         <v>12</v>
       </c>
-      <c r="AF30" s="30">
-        <f>SUM(F31:AB31)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -3939,36 +3890,32 @@
         <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="35">
-        <f>IF(AB30=1,25,IF(AB30=2,18,IF(AB30=3,15,IF(AB30=4,12,IF(AB30=5,10,IF(AB30=6,8,IF(AB30=7,6,IF(AB30=8,4,IF(AB30=9,2,IF(AB30=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-    </row>
-    <row r="32" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="36">
         <v>22</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="36">
         <v>8</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="36">
         <v>15</v>
@@ -3989,7 +3936,7 @@
         <v>13</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O32" s="36">
         <v>14</v>
@@ -3998,7 +3945,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R32" s="36">
         <v>19</v>
@@ -4006,27 +3953,28 @@
       <c r="S32" s="36">
         <v>13</v>
       </c>
-      <c r="T32" s="44"/>
+      <c r="T32" s="44" t="s">
+        <v>115</v>
+      </c>
       <c r="U32" s="44"/>
       <c r="V32" s="36"/>
       <c r="W32" s="36"/>
       <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="36"/>
       <c r="AA32" s="36"/>
       <c r="AB32" s="36"/>
       <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
+      <c r="AD32" s="36">
+        <f>SUM(F33:AA33)+AB32+AC32</f>
+        <v>11</v>
+      </c>
       <c r="AE32" s="36">
-        <f>SUM(F33:AB33)+AC32+AD32</f>
+        <f>SUM(F33:AA33)</f>
         <v>11</v>
       </c>
-      <c r="AF32" s="36">
-        <f>SUM(F33:AB33)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -4120,30 +4068,26 @@
         <f>IF(AA32=1,25,IF(AA32=2,18,IF(AA32=3,15,IF(AA32=4,12,IF(AA32=5,10,IF(AA32=6,8,IF(AA32=7,6,IF(AA32=8,4,IF(AA32=9,2,IF(AA32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="35">
-        <f>IF(AB32=1,25,IF(AB32=2,18,IF(AB32=3,15,IF(AB32=4,12,IF(AB32=5,10,IF(AB32=6,8,IF(AB32=7,6,IF(AB32=8,4,IF(AB32=9,2,IF(AB32=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-    </row>
-    <row r="34" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="31">
         <v>24</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="31">
         <v>10</v>
@@ -4158,22 +4102,22 @@
         <v>15</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L34" s="31">
         <v>16</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N34" s="31">
         <v>8</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P34" s="31">
         <v>14</v>
@@ -4187,7 +4131,9 @@
       <c r="S34" s="31">
         <v>14</v>
       </c>
-      <c r="T34" s="31"/>
+      <c r="T34" s="31">
+        <v>16</v>
+      </c>
       <c r="U34" s="31"/>
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
@@ -4197,17 +4143,16 @@
       <c r="AA34" s="31"/>
       <c r="AB34" s="31"/>
       <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
+      <c r="AD34" s="31">
+        <f>SUM(F35:AA35)+AB34+AC34</f>
+        <v>5</v>
+      </c>
       <c r="AE34" s="31">
-        <f>SUM(F35:AB35)+AC34+AD34</f>
+        <f>SUM(F35:AA35)</f>
         <v>5</v>
       </c>
-      <c r="AF34" s="31">
-        <f>SUM(F35:AB35)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -4301,30 +4246,26 @@
         <f>IF(AA34=1,25,IF(AA34=2,18,IF(AA34=3,15,IF(AA34=4,12,IF(AA34=5,10,IF(AA34=6,8,IF(AA34=7,6,IF(AA34=8,4,IF(AA34=9,2,IF(AA34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="35">
-        <f>IF(AB34=1,25,IF(AB34=2,18,IF(AB34=3,15,IF(AB34=4,12,IF(AB34=5,10,IF(AB34=6,8,IF(AB34=7,6,IF(AB34=8,4,IF(AB34=9,2,IF(AB34=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-    </row>
-    <row r="36" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="42">
         <v>18</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="42">
         <v>12</v>
@@ -4368,7 +4309,9 @@
       <c r="S36" s="42">
         <v>11</v>
       </c>
-      <c r="T36" s="42"/>
+      <c r="T36" s="42">
+        <v>10</v>
+      </c>
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
       <c r="W36" s="42"/>
@@ -4378,17 +4321,16 @@
       <c r="AA36" s="42"/>
       <c r="AB36" s="42"/>
       <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
+      <c r="AD36" s="42">
+        <f>SUM(F37:AA37)+AB36+AC36</f>
+        <v>5</v>
+      </c>
       <c r="AE36" s="42">
-        <f>SUM(F37:AB37)+AC36+AD36</f>
-        <v>4</v>
-      </c>
-      <c r="AF36" s="42">
-        <f>SUM(F37:AB37)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F37:AA37)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -4452,7 +4394,7 @@
       </c>
       <c r="T37" s="35">
         <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="35">
         <f>IF(U36=1,25,IF(U36=2,18,IF(U36=3,15,IF(U36=4,12,IF(U36=5,10,IF(U36=6,8,IF(U36=7,6,IF(U36=8,4,IF(U36=9,2,IF(U36=10,1,0))))))))))</f>
@@ -4482,30 +4424,26 @@
         <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="35">
-        <f>IF(AB36=1,25,IF(AB36=2,18,IF(AB36=3,15,IF(AB36=4,12,IF(AB36=5,10,IF(AB36=6,8,IF(AB36=7,6,IF(AB36=8,4,IF(AB36=9,2,IF(AB36=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-    </row>
-    <row r="38" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="28">
         <v>23</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="28">
         <v>13</v>
@@ -4526,7 +4464,7 @@
         <v>18</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M38" s="28">
         <v>12</v>
@@ -4535,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="O38" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P38" s="28">
         <v>12</v>
@@ -4549,7 +4487,9 @@
       <c r="S38" s="28">
         <v>10</v>
       </c>
-      <c r="T38" s="28"/>
+      <c r="T38" s="28">
+        <v>12</v>
+      </c>
       <c r="U38" s="28"/>
       <c r="V38" s="28"/>
       <c r="W38" s="28"/>
@@ -4559,17 +4499,16 @@
       <c r="AA38" s="28"/>
       <c r="AB38" s="28"/>
       <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
+      <c r="AD38" s="28">
+        <f>SUM(F39:AA39)+AB38+AC38</f>
+        <v>4</v>
+      </c>
       <c r="AE38" s="28">
-        <f>SUM(F39:AB39)+AC38+AD38</f>
+        <f>SUM(F39:AA39)</f>
         <v>4</v>
       </c>
-      <c r="AF38" s="28">
-        <f>SUM(F39:AB39)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -4663,36 +4602,32 @@
         <f>IF(AA38=1,25,IF(AA38=2,18,IF(AA38=3,15,IF(AA38=4,12,IF(AA38=5,10,IF(AA38=6,8,IF(AA38=7,6,IF(AA38=8,4,IF(AA38=9,2,IF(AA38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="35">
-        <f>IF(AB38=1,25,IF(AB38=2,18,IF(AB38=3,15,IF(AB38=4,12,IF(AB38=5,10,IF(AB38=6,8,IF(AB38=7,6,IF(AB38=8,4,IF(AB38=9,2,IF(AB38=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-    </row>
-    <row r="40" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="28">
         <v>6</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="28">
         <v>16</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" s="28">
         <v>16</v>
@@ -4719,10 +4654,10 @@
         <v>12</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R40" s="28">
         <v>18</v>
@@ -4730,7 +4665,9 @@
       <c r="S40" s="28">
         <v>18</v>
       </c>
-      <c r="T40" s="28"/>
+      <c r="T40" s="28">
+        <v>18</v>
+      </c>
       <c r="U40" s="28"/>
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
@@ -4740,17 +4677,16 @@
       <c r="AA40" s="28"/>
       <c r="AB40" s="28"/>
       <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
+      <c r="AD40" s="28">
+        <f>SUM(F41:AA41)+AB40+AC40</f>
+        <v>0</v>
+      </c>
       <c r="AE40" s="28">
-        <f>SUM(F41:AB41)+AC40+AD40</f>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="28">
-        <f>SUM(F41:AB41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F41:AA41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -4844,30 +4780,26 @@
         <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="35">
-        <f>IF(AB40=1,25,IF(AB40=2,18,IF(AB40=3,15,IF(AB40=4,12,IF(AB40=5,10,IF(AB40=6,8,IF(AB40=7,6,IF(AB40=8,4,IF(AB40=9,2,IF(AB40=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB41" s="35"/>
       <c r="AC41" s="35"/>
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-    </row>
-    <row r="42" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="42">
         <v>27</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="42">
         <v>17</v>
@@ -4897,24 +4829,23 @@
       <c r="AA42" s="42"/>
       <c r="AB42" s="42"/>
       <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
+      <c r="AD42" s="42">
+        <f>SUM(F43:AA43)+AB42+AC42</f>
+        <v>0</v>
+      </c>
       <c r="AE42" s="42">
-        <f>SUM(F43:AB43)+AC42+AD42</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="42">
-        <f>SUM(F43:AB43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35">
-        <f t="shared" ref="F43:AB43" si="0">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
+        <f t="shared" ref="F43:AA43" si="0">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="35">
@@ -5001,19 +4932,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AB43" s="35"/>
       <c r="AC43" s="35"/>
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF43">
-    <sortState ref="A2:AF42">
-      <sortCondition descending="1" ref="AE1:AE43"/>
+  <autoFilter ref="A1:AE43">
+    <sortState ref="A2:AE42">
+      <sortCondition descending="1" ref="AD1:AD43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5038,26 +4965,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +4995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5087,24 +5014,24 @@
     <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.25" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="22" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>2</v>
@@ -5113,16 +5040,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>5</v>
@@ -5134,10 +5061,10 @@
         <v>7</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>10</v>
@@ -5152,22 +5079,22 @@
         <v>12</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>91</v>
       </c>
       <c r="Z1" s="33" t="s">
         <v>15</v>
@@ -5175,28 +5102,25 @@
       <c r="AA1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB1" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="36">
         <v>19</v>
@@ -5205,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="36">
         <v>1</v>
@@ -5240,7 +5164,9 @@
       <c r="S2" s="25">
         <v>1</v>
       </c>
-      <c r="T2" s="36"/>
+      <c r="T2" s="36">
+        <v>1</v>
+      </c>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
       <c r="W2" s="36"/>
@@ -5248,13 +5174,12 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
       <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36">
-        <f>SUM(F3:AA3)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB2" s="36">
+        <f>SUM(F3:Z3)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -5318,7 +5243,7 @@
       </c>
       <c r="T3" s="35">
         <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U3" s="35">
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
@@ -5348,27 +5273,23 @@
         <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="35">
-        <f>IF(AB2=1,10,IF(AB2=2,8,IF(AB2=3,6,IF(AB2=4,5,IF(AB2=5,4,IF(AB2=6,3,IF(AB2=7,2,IF(AB2=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="35"/>
-    </row>
-    <row r="4" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB3" s="35"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="36">
         <v>11</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="36">
         <v>18</v>
@@ -5395,13 +5316,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="36">
         <v>2</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="36">
         <v>4</v>
@@ -5412,21 +5333,22 @@
       <c r="S4" s="36">
         <v>2</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="36">
+        <v>5</v>
+      </c>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
       <c r="W4" s="36"/>
       <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="36"/>
       <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36">
-        <f>SUM(F5:AA5)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB4" s="36">
+        <f>SUM(F5:Z5)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -5490,7 +5412,7 @@
       </c>
       <c r="T5" s="35">
         <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" s="35">
         <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
@@ -5520,27 +5442,23 @@
         <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="35">
-        <f>IF(AB4=1,10,IF(AB4=2,8,IF(AB4=3,6,IF(AB4=4,5,IF(AB4=5,4,IF(AB4=6,3,IF(AB4=7,2,IF(AB4=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="35"/>
-    </row>
-    <row r="6" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="34">
         <v>16</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="34">
         <v>1</v>
@@ -5558,13 +5476,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="34">
         <v>5</v>
@@ -5576,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R6" s="34">
         <v>6</v>
@@ -5584,7 +5502,9 @@
       <c r="S6" s="34">
         <v>6</v>
       </c>
-      <c r="T6" s="34"/>
+      <c r="T6" s="34">
+        <v>3</v>
+      </c>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
@@ -5592,13 +5512,12 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34">
-        <f>SUM(F7:AA7)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB6" s="34">
+        <f>SUM(F7:Z7)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -5662,7 +5581,7 @@
       </c>
       <c r="T7" s="35">
         <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U7" s="35">
         <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
@@ -5692,27 +5611,23 @@
         <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="35">
-        <f>IF(AB6=1,10,IF(AB6=2,8,IF(AB6=3,6,IF(AB6=4,5,IF(AB6=5,4,IF(AB6=6,3,IF(AB6=7,2,IF(AB6=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="35"/>
-    </row>
-    <row r="8" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB7" s="35"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="37">
         <v>63</v>
       </c>
       <c r="C8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="37">
         <v>4</v>
@@ -5742,7 +5657,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P8" s="37">
         <v>4</v>
@@ -5756,21 +5671,22 @@
       <c r="S8" s="37">
         <v>4</v>
       </c>
-      <c r="T8" s="37"/>
+      <c r="T8" s="37">
+        <v>2</v>
+      </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="37">
-        <f>SUM(F9:AA9)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB8" s="37">
+        <f>SUM(F9:Z9)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -5834,7 +5750,7 @@
       </c>
       <c r="T9" s="35">
         <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U9" s="35">
         <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
@@ -5864,27 +5780,23 @@
         <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="35">
-        <f>IF(AB8=1,10,IF(AB8=2,8,IF(AB8=3,6,IF(AB8=4,5,IF(AB8=5,4,IF(AB8=6,3,IF(AB8=7,2,IF(AB8=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="35"/>
-    </row>
-    <row r="10" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB9" s="35"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="34">
         <v>55</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="34">
         <v>2</v>
@@ -5893,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="34">
         <v>3</v>
@@ -5908,7 +5820,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N10" s="34">
         <v>2</v>
@@ -5917,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="34">
         <v>5</v>
@@ -5928,7 +5840,9 @@
       <c r="S10" s="34">
         <v>3</v>
       </c>
-      <c r="T10" s="34"/>
+      <c r="T10" s="34">
+        <v>8</v>
+      </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
@@ -5936,13 +5850,12 @@
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34">
-        <f>SUM(F11:AA11)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB10" s="34">
+        <f>SUM(F11:Z11)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6006,7 +5919,7 @@
       </c>
       <c r="T11" s="35">
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="35">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
@@ -6036,27 +5949,23 @@
         <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="35">
-        <f>IF(AB10=1,10,IF(AB10=2,8,IF(AB10=3,6,IF(AB10=4,5,IF(AB10=5,4,IF(AB10=6,3,IF(AB10=7,2,IF(AB10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="35"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB11" s="35"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="37">
         <v>44</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="37">
         <v>3</v>
@@ -6098,9 +6007,11 @@
         <v>2</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="T12" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="T12" s="37">
+        <v>4</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -6108,13 +6019,12 @@
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37">
-        <f>SUM(F13:AA13)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB12" s="37">
+        <f>SUM(F13:Z13)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -6178,7 +6088,7 @@
       </c>
       <c r="T13" s="35">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U13" s="35">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
@@ -6208,27 +6118,23 @@
         <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="35">
-        <f>IF(AB12=1,10,IF(AB12=2,8,IF(AB12=3,6,IF(AB12=4,5,IF(AB12=5,4,IF(AB12=6,3,IF(AB12=7,2,IF(AB12=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="35"/>
-    </row>
-    <row r="14" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB13" s="35"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="40">
         <v>15</v>
@@ -6243,7 +6149,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
@@ -6272,7 +6178,9 @@
       <c r="S14" s="40">
         <v>12</v>
       </c>
-      <c r="T14" s="40"/>
+      <c r="T14" s="40">
+        <v>7</v>
+      </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
@@ -6280,13 +6188,12 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40">
-        <f>SUM(F15:AA15)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB14" s="40">
+        <f>SUM(F15:Z15)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -6350,7 +6257,7 @@
       </c>
       <c r="T15" s="35">
         <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="35">
         <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
@@ -6380,27 +6287,23 @@
         <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="35">
-        <f>IF(AB14=1,10,IF(AB14=2,8,IF(AB14=3,6,IF(AB14=4,5,IF(AB14=5,4,IF(AB14=6,3,IF(AB14=7,2,IF(AB14=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="35"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB15" s="35"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="29">
         <v>31</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="29">
         <v>7</v>
@@ -6430,7 +6333,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P16" s="29">
         <v>5</v>
@@ -6444,21 +6347,22 @@
       <c r="S16" s="29">
         <v>7</v>
       </c>
-      <c r="T16" s="29"/>
+      <c r="T16" s="29">
+        <v>9</v>
+      </c>
       <c r="U16" s="29"/>
-      <c r="V16" s="20"/>
+      <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="29"/>
       <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29">
-        <f>SUM(F17:AA17)</f>
+      <c r="AB16" s="29">
+        <f>SUM(F17:Z17)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -6552,39 +6456,35 @@
         <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="35">
-        <f>IF(AB16=1,10,IF(AB16=2,8,IF(AB16=3,6,IF(AB16=4,5,IF(AB16=5,4,IF(AB16=6,3,IF(AB16=7,2,IF(AB16=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="35"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB17" s="35"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="29">
         <v>14</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="F18" s="20">
         <v>9</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="29">
         <v>17</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="29">
         <v>11</v>
@@ -6616,21 +6516,22 @@
       <c r="S18" s="29">
         <v>5</v>
       </c>
-      <c r="T18" s="29"/>
+      <c r="T18" s="29">
+        <v>6</v>
+      </c>
       <c r="U18" s="29"/>
-      <c r="V18" s="20"/>
+      <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
       <c r="Z18" s="29"/>
       <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29">
-        <f>SUM(F19:AA19)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB18" s="29">
+        <f>SUM(F19:Z19)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -6694,7 +6595,7 @@
       </c>
       <c r="T19" s="35">
         <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U19" s="35">
         <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
@@ -6724,33 +6625,29 @@
         <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="35">
-        <f>IF(AB18=1,10,IF(AB18=2,8,IF(AB18=3,6,IF(AB18=4,5,IF(AB18=5,4,IF(AB18=6,3,IF(AB18=7,2,IF(AB18=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="35"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB19" s="35"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="31">
         <v>77</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="31">
         <v>6</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H20" s="31">
         <v>8</v>
@@ -6774,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P20" s="24">
         <v>11</v>
@@ -6786,23 +6683,24 @@
         <v>20</v>
       </c>
       <c r="S20" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="T20" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31">
-        <f>SUM(F21:AA21)</f>
+      <c r="AB20" s="31">
+        <f>SUM(F21:Z21)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -6896,30 +6794,26 @@
         <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="35">
-        <f>IF(AB20=1,10,IF(AB20=2,8,IF(AB20=3,6,IF(AB20=4,5,IF(AB20=5,4,IF(AB20=6,3,IF(AB20=7,2,IF(AB20=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="35"/>
-    </row>
-    <row r="22" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB21" s="35"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="36">
         <v>10</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="36">
         <v>8</v>
@@ -6931,7 +6825,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22" s="36">
         <v>13</v>
@@ -6946,7 +6840,7 @@
         <v>14</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P22" s="36">
         <v>15</v>
@@ -6960,21 +6854,22 @@
       <c r="S22" s="25">
         <v>9</v>
       </c>
-      <c r="T22" s="36"/>
+      <c r="T22" s="36">
+        <v>11</v>
+      </c>
       <c r="U22" s="36"/>
-      <c r="V22" s="25"/>
+      <c r="V22" s="36"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
       <c r="Z22" s="36"/>
       <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36">
-        <f>SUM(F23:AA23)</f>
+      <c r="AB22" s="36">
+        <f>SUM(F23:Z23)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -7068,27 +6963,23 @@
         <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="35">
-        <f>IF(AB22=1,10,IF(AB22=2,8,IF(AB22=3,6,IF(AB22=4,5,IF(AB22=5,4,IF(AB22=6,3,IF(AB22=7,2,IF(AB22=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="35"/>
-    </row>
-    <row r="24" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB23" s="35"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="30">
         <v>20</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="4">
         <v>5</v>
@@ -7109,10 +7000,10 @@
         <v>17</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N24" s="30">
         <v>17</v>
@@ -7124,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R24" s="4">
         <v>16</v>
@@ -7132,21 +7023,22 @@
       <c r="S24" s="4">
         <v>16</v>
       </c>
-      <c r="T24" s="30"/>
+      <c r="T24" s="30">
+        <v>15</v>
+      </c>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
+      <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="30">
-        <f>SUM(F25:AA25)</f>
+      <c r="AB24" s="30">
+        <f>SUM(F25:Z25)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -7240,33 +7132,29 @@
         <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="35">
-        <f>IF(AB24=1,10,IF(AB24=2,8,IF(AB24=3,6,IF(AB24=4,5,IF(AB24=5,4,IF(AB24=6,3,IF(AB24=7,2,IF(AB24=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="35"/>
-    </row>
-    <row r="26" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB25" s="35"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="40">
         <v>3</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>47</v>
-      </c>
       <c r="E26" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="40">
         <v>14</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H26" s="40">
         <v>6</v>
@@ -7304,21 +7192,22 @@
       <c r="S26" s="40">
         <v>15</v>
       </c>
-      <c r="T26" s="40"/>
+      <c r="T26" s="40">
+        <v>17</v>
+      </c>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
       <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40">
-        <f>SUM(F27:AA27)</f>
+      <c r="AB26" s="40">
+        <f>SUM(F27:Z27)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -7412,38 +7301,34 @@
         <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="35">
-        <f>IF(AB26=1,10,IF(AB26=2,8,IF(AB26=3,6,IF(AB26=4,5,IF(AB26=5,4,IF(AB26=6,3,IF(AB26=7,2,IF(AB26=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="35"/>
-    </row>
-    <row r="28" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="42">
         <v>5</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I28" s="42">
         <v>8</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="42">
         <v>11</v>
@@ -7472,21 +7357,22 @@
       <c r="S28" s="42">
         <v>10</v>
       </c>
-      <c r="T28" s="42"/>
+      <c r="T28" s="42">
+        <v>14</v>
+      </c>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
       <c r="W28" s="42"/>
       <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="42"/>
       <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42">
-        <f>SUM(F29:AA29)</f>
+      <c r="AB28" s="42">
+        <f>SUM(F29:Z29)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -7580,33 +7466,29 @@
         <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="35">
-        <f>IF(AB28=1,10,IF(AB28=2,8,IF(AB28=3,6,IF(AB28=4,5,IF(AB28=5,4,IF(AB28=6,3,IF(AB28=7,2,IF(AB28=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="35"/>
-    </row>
-    <row r="30" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB29" s="35"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="30">
         <v>47</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="E30" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="30">
         <v>11</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="30">
         <v>13</v>
@@ -7621,13 +7503,13 @@
         <v>14</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" s="30">
         <v>14</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O30" s="30">
         <v>8</v>
@@ -7644,21 +7526,22 @@
       <c r="S30" s="30">
         <v>17</v>
       </c>
-      <c r="T30" s="4"/>
+      <c r="T30" s="4">
+        <v>15</v>
+      </c>
       <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="30"/>
       <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30">
-        <f>SUM(F31:AA31)</f>
+      <c r="AB30" s="30">
+        <f>SUM(F31:Z31)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -7752,33 +7635,29 @@
         <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="35">
-        <f>IF(AB30=1,10,IF(AB30=2,8,IF(AB30=3,6,IF(AB30=4,5,IF(AB30=5,4,IF(AB30=6,3,IF(AB30=7,2,IF(AB30=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="35"/>
-    </row>
-    <row r="32" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB31" s="35"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="36">
         <v>22</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="36">
         <v>8</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" s="36">
         <v>15</v>
@@ -7799,7 +7678,7 @@
         <v>13</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O32" s="36">
         <v>14</v>
@@ -7808,7 +7687,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R32" s="25">
         <v>19</v>
@@ -7816,21 +7695,22 @@
       <c r="S32" s="25">
         <v>13</v>
       </c>
-      <c r="T32" s="36"/>
+      <c r="T32" s="36" t="s">
+        <v>115</v>
+      </c>
       <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="36"/>
       <c r="X32" s="36"/>
       <c r="Y32" s="36"/>
       <c r="Z32" s="36"/>
       <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36">
-        <f>SUM(F33:AA33)</f>
+      <c r="AB32" s="36">
+        <f>SUM(F33:Z33)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -7924,27 +7804,23 @@
         <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="35">
-        <f>IF(AB32=1,10,IF(AB32=2,8,IF(AB32=3,6,IF(AB32=4,5,IF(AB32=5,4,IF(AB32=6,3,IF(AB32=7,2,IF(AB32=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="35"/>
-    </row>
-    <row r="34" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB33" s="35"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="31">
         <v>24</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="31">
         <v>10</v>
@@ -7959,22 +7835,22 @@
         <v>15</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L34" s="31">
         <v>16</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N34" s="31">
         <v>8</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P34" s="31">
         <v>14</v>
@@ -7988,21 +7864,22 @@
       <c r="S34" s="31">
         <v>14</v>
       </c>
-      <c r="T34" s="31"/>
+      <c r="T34" s="31">
+        <v>16</v>
+      </c>
       <c r="U34" s="31"/>
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
+      <c r="Z34" s="24"/>
       <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="31">
-        <f>SUM(F35:AA35)</f>
+      <c r="AB34" s="31">
+        <f>SUM(F35:Z35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -8096,33 +7973,29 @@
         <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="35">
-        <f>IF(AB34=1,10,IF(AB34=2,8,IF(AB34=3,6,IF(AB34=4,5,IF(AB34=5,4,IF(AB34=6,3,IF(AB34=7,2,IF(AB34=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="35"/>
-    </row>
-    <row r="36" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB35" s="35"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="28">
         <v>6</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="28">
         <v>16</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H36" s="28">
         <v>16</v>
@@ -8137,7 +8010,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M36" s="28">
         <v>15</v>
@@ -8149,10 +8022,10 @@
         <v>12</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R36" s="28">
         <v>18</v>
@@ -8160,21 +8033,22 @@
       <c r="S36" s="28">
         <v>18</v>
       </c>
-      <c r="T36" s="28"/>
+      <c r="T36" s="28">
+        <v>18</v>
+      </c>
       <c r="U36" s="28"/>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="28"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="28">
-        <f>SUM(F37:AA37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB36" s="28">
+        <f>SUM(F37:Z37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -8268,27 +8142,23 @@
         <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="35">
-        <f>IF(AB36=1,10,IF(AB36=2,8,IF(AB36=3,6,IF(AB36=4,5,IF(AB36=5,4,IF(AB36=6,3,IF(AB36=7,2,IF(AB36=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="35"/>
-    </row>
-    <row r="38" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB37" s="35"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="42">
         <v>18</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="42">
         <v>12</v>
@@ -8332,21 +8202,22 @@
       <c r="S38" s="42">
         <v>11</v>
       </c>
-      <c r="T38" s="42"/>
+      <c r="T38" s="42">
+        <v>10</v>
+      </c>
       <c r="U38" s="42"/>
       <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="42"/>
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
       <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42">
-        <f>SUM(F39:AA39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB38" s="42">
+        <f>SUM(F39:Z39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -8440,27 +8311,23 @@
         <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="35">
-        <f>IF(AB38=1,10,IF(AB38=2,8,IF(AB38=3,6,IF(AB38=4,5,IF(AB38=5,4,IF(AB38=6,3,IF(AB38=7,2,IF(AB38=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="35"/>
-    </row>
-    <row r="40" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB39" s="35"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="28">
         <v>23</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="28">
         <v>13</v>
@@ -8490,7 +8357,7 @@
         <v>13</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" s="28">
         <v>12</v>
@@ -8504,21 +8371,22 @@
       <c r="S40" s="28">
         <v>10</v>
       </c>
-      <c r="T40" s="28"/>
+      <c r="T40" s="28">
+        <v>12</v>
+      </c>
       <c r="U40" s="28"/>
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
       <c r="X40" s="28"/>
       <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
+      <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="28">
-        <f>SUM(F41:AA41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB40" s="28">
+        <f>SUM(F41:Z41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -8612,27 +8480,23 @@
         <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="35">
-        <f>IF(AB40=1,10,IF(AB40=2,8,IF(AB40=3,6,IF(AB40=4,5,IF(AB40=5,4,IF(AB40=6,3,IF(AB40=7,2,IF(AB40=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="35"/>
-    </row>
-    <row r="42" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB41" s="35"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="42">
         <v>27</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="42">
         <v>17</v>
@@ -8662,20 +8526,19 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
       <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42">
-        <f>SUM(F43:AA43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="17.45" x14ac:dyDescent="0.25">
+      <c r="AB42" s="42">
+        <f>SUM(F43:Z43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35">
-        <f t="shared" ref="F43:AB43" si="0">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
+        <f t="shared" ref="F43:AA43" si="0">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="35">
@@ -8762,16 +8625,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="35"/>
+      <c r="AB43" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC43">
-    <sortState ref="A2:AC42">
-      <sortCondition descending="1" ref="AC1:AC43"/>
+  <autoFilter ref="A1:AB43">
+    <sortState ref="A2:AB42">
+      <sortCondition descending="1" ref="AB1:AB43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8782,7 +8641,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8802,20 +8661,20 @@
     <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="20.25" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="22" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="20.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>9</v>
@@ -8830,16 +8689,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>5</v>
@@ -8851,10 +8710,10 @@
         <v>7</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>10</v>
@@ -8869,22 +8728,22 @@
         <v>12</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="33" t="s">
         <v>14</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>91</v>
       </c>
       <c r="Z1" s="33" t="s">
         <v>15</v>
@@ -8892,34 +8751,31 @@
       <c r="AA1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="43" t="s">
-        <v>68</v>
+      <c r="AB1" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="AD1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="36">
         <v>19</v>
@@ -8928,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="36">
         <v>1</v>
@@ -8963,7 +8819,9 @@
       <c r="S2" s="25">
         <v>1</v>
       </c>
-      <c r="T2" s="36"/>
+      <c r="T2" s="36">
+        <v>1</v>
+      </c>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
       <c r="W2" s="36"/>
@@ -8971,21 +8829,20 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="36"/>
       <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="AB2" s="36">
+        <f>1+1+1+1+1</f>
+        <v>5</v>
+      </c>
       <c r="AC2" s="36">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <f>SUM(F3:Y3)+AB2</f>
+        <v>115</v>
       </c>
       <c r="AD2" s="36">
-        <f>SUM(F3:Z3)+AC2</f>
-        <v>104</v>
-      </c>
-      <c r="AE2" s="36">
-        <f>SUM(F3:Z3)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F3:Y3)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -9049,7 +8906,7 @@
       </c>
       <c r="T3" s="35">
         <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U3" s="35">
         <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
@@ -9079,29 +8936,25 @@
         <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="35">
-        <f>IF(AB2=1,10,IF(AB2=2,6,IF(AB2=3,4,IF(AB2=4,3,IF(AB2=5,2,IF(AB2=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB3" s="35"/>
       <c r="AC3" s="35"/>
       <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="36">
         <v>11</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="36">
         <v>18</v>
@@ -9128,13 +8981,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="36">
         <v>2</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="36">
         <v>4</v>
@@ -9145,7 +8998,9 @@
       <c r="S4" s="36">
         <v>2</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="36">
+        <v>5</v>
+      </c>
       <c r="U4" s="36"/>
       <c r="V4" s="36"/>
       <c r="W4" s="36"/>
@@ -9153,21 +9008,20 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="36"/>
       <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36">
+      <c r="AB4" s="36">
         <f>1+1</f>
         <v>2</v>
       </c>
+      <c r="AC4" s="36">
+        <f>SUM(F5:Y5)+AB4</f>
+        <v>61</v>
+      </c>
       <c r="AD4" s="36">
-        <f>SUM(F5:Z5)+AC4</f>
+        <f>SUM(F5:Y5)</f>
         <v>59</v>
       </c>
-      <c r="AE4" s="36">
-        <f>SUM(F5:Z5)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -9231,7 +9085,7 @@
       </c>
       <c r="T5" s="35">
         <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="35">
         <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
@@ -9261,29 +9115,25 @@
         <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="35">
-        <f>IF(AB4=1,10,IF(AB4=2,6,IF(AB4=3,4,IF(AB4=4,3,IF(AB4=5,2,IF(AB4=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="34">
         <v>16</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="34">
         <v>1</v>
@@ -9301,13 +9151,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" s="34">
         <v>4</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="34">
         <v>5</v>
@@ -9319,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R6" s="34">
         <v>6</v>
@@ -9327,7 +9177,9 @@
       <c r="S6" s="34">
         <v>6</v>
       </c>
-      <c r="T6" s="34"/>
+      <c r="T6" s="34">
+        <v>3</v>
+      </c>
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
@@ -9335,21 +9187,20 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34">
+      <c r="AB6" s="34">
         <f>1+1+1</f>
         <v>3</v>
       </c>
+      <c r="AC6" s="34">
+        <f>SUM(F7:Y7)+AB6</f>
+        <v>60</v>
+      </c>
       <c r="AD6" s="34">
-        <f>SUM(F7:Z7)+AC6</f>
-        <v>56</v>
-      </c>
-      <c r="AE6" s="34">
-        <f>SUM(F7:Z7)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F7:Y7)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -9413,7 +9264,7 @@
       </c>
       <c r="T7" s="35">
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="35">
         <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
@@ -9443,29 +9294,25 @@
         <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="35">
-        <f>IF(AB6=1,10,IF(AB6=2,6,IF(AB6=3,4,IF(AB6=4,3,IF(AB6=5,2,IF(AB6=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-    </row>
-    <row r="8" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="34">
         <v>55</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="34">
         <v>2</v>
@@ -9474,10 +9321,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="34">
         <v>3</v>
@@ -9489,7 +9336,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N8" s="34">
         <v>2</v>
@@ -9498,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="34">
         <v>5</v>
@@ -9509,7 +9356,9 @@
       <c r="S8" s="34">
         <v>3</v>
       </c>
-      <c r="T8" s="34"/>
+      <c r="T8" s="34">
+        <v>8</v>
+      </c>
       <c r="U8" s="34"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
@@ -9517,21 +9366,20 @@
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34">
+      <c r="AB8" s="34">
         <f>1+1</f>
         <v>2</v>
       </c>
+      <c r="AC8" s="34">
+        <f>SUM(F9:Y9)+AB8</f>
+        <v>50</v>
+      </c>
       <c r="AD8" s="34">
-        <f>SUM(F9:Z9)+AC8</f>
-        <v>50</v>
-      </c>
-      <c r="AE8" s="34">
-        <f>SUM(F9:Z9)</f>
+        <f>SUM(F9:Y9)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -9625,29 +9473,25 @@
         <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="35">
-        <f>IF(AB8=1,10,IF(AB8=2,6,IF(AB8=3,4,IF(AB8=4,3,IF(AB8=5,2,IF(AB8=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-    </row>
-    <row r="10" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="37">
         <v>44</v>
       </c>
       <c r="C10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="37">
         <v>3</v>
@@ -9691,7 +9535,9 @@
       <c r="S10" s="19">
         <v>4</v>
       </c>
-      <c r="T10" s="37"/>
+      <c r="T10" s="37">
+        <v>2</v>
+      </c>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -9699,21 +9545,20 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37">
+      <c r="AB10" s="37">
         <f>1+1</f>
         <v>2</v>
       </c>
+      <c r="AC10" s="37">
+        <f>SUM(F11:Y11)+AB10</f>
+        <v>48</v>
+      </c>
       <c r="AD10" s="37">
-        <f>SUM(F11:Z11)+AC10</f>
-        <v>42</v>
-      </c>
-      <c r="AE10" s="37">
-        <f>SUM(F11:Z11)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F11:Y11)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -9777,7 +9622,7 @@
       </c>
       <c r="T11" s="35">
         <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U11" s="35">
         <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
@@ -9807,29 +9652,25 @@
         <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="35">
-        <f>IF(AB10=1,10,IF(AB10=2,6,IF(AB10=3,4,IF(AB10=4,3,IF(AB10=5,2,IF(AB10=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-    </row>
-    <row r="12" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="37">
         <v>63</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="37">
         <v>4</v>
@@ -9859,7 +9700,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P12" s="37">
         <v>4</v>
@@ -9871,28 +9712,29 @@
         <v>3</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="T12" s="37"/>
+        <v>116</v>
+      </c>
+      <c r="T12" s="37">
+        <v>4</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
+      <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37">
+        <f>SUM(F13:Y13)+AB12</f>
+        <v>41</v>
+      </c>
       <c r="AD12" s="37">
-        <f>SUM(F13:Z13)+AC12</f>
-        <v>38</v>
-      </c>
-      <c r="AE12" s="37">
-        <f>SUM(F13:Z13)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F13:Y13)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -9956,7 +9798,7 @@
       </c>
       <c r="T13" s="35">
         <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U13" s="35">
         <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
@@ -9986,29 +9828,25 @@
         <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="35">
-        <f>IF(AB12=1,10,IF(AB12=2,6,IF(AB12=3,4,IF(AB12=4,3,IF(AB12=5,2,IF(AB12=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-    </row>
-    <row r="14" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="40">
         <v>4</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="40">
         <v>15</v>
@@ -10023,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="40">
         <v>8</v>
@@ -10052,7 +9890,9 @@
       <c r="S14" s="40">
         <v>12</v>
       </c>
-      <c r="T14" s="40"/>
+      <c r="T14" s="40">
+        <v>7</v>
+      </c>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
       <c r="W14" s="40"/>
@@ -10060,21 +9900,20 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40">
+      <c r="AB14" s="40">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC14" s="40">
+        <f>SUM(F15:Y15)+AB14</f>
+        <v>9</v>
+      </c>
       <c r="AD14" s="40">
-        <f>SUM(F15:Z15)+AC14</f>
-        <v>9</v>
-      </c>
-      <c r="AE14" s="40">
-        <f>SUM(F15:Z15)</f>
+        <f>SUM(F15:Y15)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -10168,41 +10007,37 @@
         <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="35">
-        <f>IF(AB14=1,10,IF(AB14=2,6,IF(AB14=3,4,IF(AB14=4,3,IF(AB14=5,2,IF(AB14=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="29">
         <v>14</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="20">
         <v>9</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="29">
         <v>17</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" s="29">
         <v>11</v>
@@ -10234,26 +10069,27 @@
       <c r="S16" s="29">
         <v>5</v>
       </c>
-      <c r="T16" s="29"/>
+      <c r="T16" s="29">
+        <v>6</v>
+      </c>
       <c r="U16" s="29"/>
-      <c r="V16" s="20"/>
+      <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="29"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
+      <c r="AC16" s="29">
+        <f>SUM(F17:Y17)+AB16</f>
+        <v>6</v>
+      </c>
       <c r="AD16" s="29">
-        <f>SUM(F17:Z17)+AC16</f>
-        <v>5</v>
-      </c>
-      <c r="AE16" s="29">
-        <f>SUM(F17:Z17)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F17:Y17)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -10317,7 +10153,7 @@
       </c>
       <c r="T17" s="35">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="35">
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
@@ -10347,35 +10183,31 @@
         <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="35">
-        <f>IF(AB16=1,10,IF(AB16=2,6,IF(AB16=3,4,IF(AB16=4,3,IF(AB16=5,2,IF(AB16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="31">
         <v>77</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="31">
         <v>6</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="31">
         <v>8</v>
@@ -10399,7 +10231,7 @@
         <v>7</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="24">
         <v>11</v>
@@ -10411,28 +10243,29 @@
         <v>20</v>
       </c>
       <c r="S18" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="T18" s="31"/>
+        <v>116</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="U18" s="31"/>
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
+      <c r="AC18" s="31">
+        <f>SUM(F19:Y19)+AB18</f>
+        <v>4</v>
+      </c>
       <c r="AD18" s="31">
-        <f>SUM(F19:Z19)+AC18</f>
+        <f>SUM(F19:Y19)</f>
         <v>4</v>
       </c>
-      <c r="AE18" s="31">
-        <f>SUM(F19:Z19)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -10526,29 +10359,25 @@
         <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="35">
-        <f>IF(AB18=1,10,IF(AB18=2,6,IF(AB18=3,4,IF(AB18=4,3,IF(AB18=5,2,IF(AB18=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="29">
         <v>31</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="F20" s="29">
         <v>7</v>
@@ -10578,7 +10407,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P20" s="29">
         <v>5</v>
@@ -10592,26 +10421,27 @@
       <c r="S20" s="29">
         <v>7</v>
       </c>
-      <c r="T20" s="29"/>
+      <c r="T20" s="29">
+        <v>9</v>
+      </c>
       <c r="U20" s="29"/>
-      <c r="V20" s="20"/>
+      <c r="V20" s="29"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
       <c r="Y20" s="29"/>
       <c r="Z20" s="29"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
+      <c r="AC20" s="29">
+        <f>SUM(F21:Y21)+AB20</f>
+        <v>4</v>
+      </c>
       <c r="AD20" s="29">
-        <f>SUM(F21:Z21)+AC20</f>
+        <f>SUM(F21:Y21)</f>
         <v>4</v>
       </c>
-      <c r="AE20" s="29">
-        <f>SUM(F21:Z21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -10705,29 +10535,25 @@
         <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="35">
-        <f>IF(AB20=1,10,IF(AB20=2,6,IF(AB20=3,4,IF(AB20=4,3,IF(AB20=5,2,IF(AB20=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-    </row>
-    <row r="22" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="30">
         <v>20</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
@@ -10748,10 +10574,10 @@
         <v>17</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" s="30">
         <v>17</v>
@@ -10763,7 +10589,7 @@
         <v>8</v>
       </c>
       <c r="Q22" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R22" s="4">
         <v>16</v>
@@ -10771,26 +10597,27 @@
       <c r="S22" s="4">
         <v>16</v>
       </c>
-      <c r="T22" s="30"/>
+      <c r="T22" s="30">
+        <v>15</v>
+      </c>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30">
+        <f>SUM(F23:Y23)+AB22</f>
+        <v>2</v>
+      </c>
       <c r="AD22" s="30">
-        <f>SUM(F23:Z23)+AC22</f>
+        <f>SUM(F23:Y23)</f>
         <v>2</v>
       </c>
-      <c r="AE22" s="30">
-        <f>SUM(F23:Z23)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -10884,32 +10711,28 @@
         <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="35">
-        <f>IF(AB22=1,10,IF(AB22=2,6,IF(AB22=3,4,IF(AB22=4,3,IF(AB22=5,2,IF(AB22=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
       <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-    </row>
-    <row r="24" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="36">
         <v>10</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="36">
         <v>8</v>
@@ -10921,7 +10744,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="36">
         <v>13</v>
@@ -10936,7 +10759,7 @@
         <v>14</v>
       </c>
       <c r="O24" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P24" s="36">
         <v>15</v>
@@ -10950,26 +10773,27 @@
       <c r="S24" s="25">
         <v>9</v>
       </c>
-      <c r="T24" s="36"/>
+      <c r="T24" s="36">
+        <v>11</v>
+      </c>
       <c r="U24" s="36"/>
-      <c r="V24" s="25"/>
+      <c r="V24" s="36"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
       <c r="Z24" s="36"/>
       <c r="AA24" s="36"/>
       <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
+      <c r="AC24" s="36">
+        <f>SUM(F25:Y25)+AB24</f>
+        <v>2</v>
+      </c>
       <c r="AD24" s="36">
-        <f>SUM(F25:Z25)+AC24</f>
+        <f>SUM(F25:Y25)</f>
         <v>2</v>
       </c>
-      <c r="AE24" s="36">
-        <f>SUM(F25:Z25)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -11063,35 +10887,31 @@
         <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="35">
-        <f>IF(AB24=1,10,IF(AB24=2,6,IF(AB24=3,4,IF(AB24=4,3,IF(AB24=5,2,IF(AB24=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-    </row>
-    <row r="26" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="40">
         <v>3</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>47</v>
-      </c>
       <c r="E26" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="40">
         <v>14</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H26" s="40">
         <v>6</v>
@@ -11129,26 +10949,27 @@
       <c r="S26" s="40">
         <v>15</v>
       </c>
-      <c r="T26" s="40"/>
+      <c r="T26" s="40">
+        <v>17</v>
+      </c>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="40"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
+      <c r="AC26" s="40">
+        <f>SUM(F27:Y27)+AB26</f>
+        <v>1</v>
+      </c>
       <c r="AD26" s="40">
-        <f>SUM(F27:Z27)+AC26</f>
+        <f>SUM(F27:Y27)</f>
         <v>1</v>
       </c>
-      <c r="AE26" s="40">
-        <f>SUM(F27:Z27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -11242,40 +11063,36 @@
         <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="35">
-        <f>IF(AB26=1,10,IF(AB26=2,6,IF(AB26=3,4,IF(AB26=4,3,IF(AB26=5,2,IF(AB26=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
-    </row>
-    <row r="28" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="42">
         <v>5</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="26"/>
       <c r="H28" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I28" s="42">
         <v>8</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="42">
         <v>11</v>
@@ -11304,7 +11121,9 @@
       <c r="S28" s="42">
         <v>8</v>
       </c>
-      <c r="T28" s="42"/>
+      <c r="T28" s="42">
+        <v>14</v>
+      </c>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
       <c r="W28" s="42"/>
@@ -11313,17 +11132,16 @@
       <c r="Z28" s="42"/>
       <c r="AA28" s="42"/>
       <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
+      <c r="AC28" s="42">
+        <f>SUM(F29:Y29)+AB28</f>
+        <v>1</v>
+      </c>
       <c r="AD28" s="42">
-        <f>SUM(F29:Z29)+AC28</f>
+        <f>SUM(F29:Y29)</f>
         <v>1</v>
       </c>
-      <c r="AE28" s="42">
-        <f>SUM(F29:Z29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -11417,35 +11235,31 @@
         <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="35">
-        <f>IF(AB28=1,10,IF(AB28=2,6,IF(AB28=3,4,IF(AB28=4,3,IF(AB28=5,2,IF(AB28=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
       <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-    </row>
-    <row r="30" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="30">
         <v>47</v>
       </c>
       <c r="C30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="E30" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="30">
         <v>11</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="30">
         <v>13</v>
@@ -11460,13 +11274,13 @@
         <v>14</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" s="30">
         <v>14</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O30" s="30">
         <v>8</v>
@@ -11483,26 +11297,27 @@
       <c r="S30" s="30">
         <v>17</v>
       </c>
-      <c r="T30" s="4"/>
+      <c r="T30" s="4">
+        <v>16</v>
+      </c>
       <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="30"/>
       <c r="X30" s="30"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
+      <c r="AC30" s="30">
+        <f>SUM(F31:Y31)+AB30</f>
+        <v>1</v>
+      </c>
       <c r="AD30" s="30">
-        <f>SUM(F31:Z31)+AC30</f>
+        <f>SUM(F31:Y31)</f>
         <v>1</v>
       </c>
-      <c r="AE30" s="30">
-        <f>SUM(F31:Z31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -11596,35 +11411,31 @@
         <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="35">
-        <f>IF(AB30=1,10,IF(AB30=2,6,IF(AB30=3,4,IF(AB30=4,3,IF(AB30=5,2,IF(AB30=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
       <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-    </row>
-    <row r="32" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="28">
         <v>6</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="28">
         <v>16</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32" s="28">
         <v>16</v>
@@ -11651,10 +11462,10 @@
         <v>12</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q32" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R32" s="28">
         <v>18</v>
@@ -11662,26 +11473,27 @@
       <c r="S32" s="28">
         <v>17</v>
       </c>
-      <c r="T32" s="28"/>
+      <c r="T32" s="28">
+        <v>18</v>
+      </c>
       <c r="U32" s="28"/>
       <c r="V32" s="28"/>
       <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
+      <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28">
+        <f>SUM(F33:Y33)+AB32</f>
+        <v>0</v>
+      </c>
       <c r="AD32" s="28">
-        <f>SUM(F33:Z33)+AC32</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="28">
-        <f>SUM(F33:Z33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F33:Y33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -11775,29 +11587,25 @@
         <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="35">
-        <f>IF(AB32=1,10,IF(AB32=2,6,IF(AB32=3,4,IF(AB32=4,3,IF(AB32=5,2,IF(AB32=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
       <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-    </row>
-    <row r="34" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="42">
         <v>18</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="42">
         <v>12</v>
@@ -11841,26 +11649,27 @@
       <c r="S34" s="42">
         <v>11</v>
       </c>
-      <c r="T34" s="42"/>
+      <c r="T34" s="42">
+        <v>10</v>
+      </c>
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="42"/>
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
       <c r="AA34" s="42"/>
       <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
+      <c r="AC34" s="42">
+        <f>SUM(F35:Y35)+AB34</f>
+        <v>0</v>
+      </c>
       <c r="AD34" s="42">
-        <f>SUM(F35:Z35)+AC34</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="42">
-        <f>SUM(F35:Z35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F35:Y35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -11954,35 +11763,31 @@
         <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="35">
-        <f>IF(AB34=1,10,IF(AB34=2,6,IF(AB34=3,4,IF(AB34=4,3,IF(AB34=5,2,IF(AB34=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-    </row>
-    <row r="36" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="36">
         <v>22</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" s="36">
         <v>8</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="36">
         <v>15</v>
@@ -12003,7 +11808,7 @@
         <v>13</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="36">
         <v>14</v>
@@ -12012,7 +11817,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R36" s="25">
         <v>19</v>
@@ -12020,26 +11825,27 @@
       <c r="S36" s="25">
         <v>13</v>
       </c>
-      <c r="T36" s="36"/>
+      <c r="T36" s="36" t="s">
+        <v>115</v>
+      </c>
       <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="36"/>
       <c r="X36" s="36"/>
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="36"/>
       <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
+      <c r="AC36" s="36">
+        <f>SUM(F37:Y37)+AB36</f>
+        <v>0</v>
+      </c>
       <c r="AD36" s="36">
-        <f>SUM(F37:Z37)+AC36</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="36">
-        <f>SUM(F37:Z37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F37:Y37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -12133,29 +11939,25 @@
         <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="35">
-        <f>IF(AB36=1,10,IF(AB36=2,6,IF(AB36=3,4,IF(AB36=4,3,IF(AB36=5,2,IF(AB36=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-    </row>
-    <row r="38" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="28">
         <v>23</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="28">
         <v>13</v>
@@ -12176,7 +11978,7 @@
         <v>18</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M38" s="28">
         <v>12</v>
@@ -12185,7 +11987,7 @@
         <v>13</v>
       </c>
       <c r="O38" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P38" s="28">
         <v>12</v>
@@ -12199,26 +12001,27 @@
       <c r="S38" s="28">
         <v>10</v>
       </c>
-      <c r="T38" s="28"/>
+      <c r="T38" s="28">
+        <v>12</v>
+      </c>
       <c r="U38" s="28"/>
       <c r="V38" s="28"/>
       <c r="W38" s="28"/>
       <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
+      <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28">
+        <f>SUM(F39:Y39)+AB38</f>
+        <v>0</v>
+      </c>
       <c r="AD38" s="28">
-        <f>SUM(F39:Z39)+AC38</f>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="28">
-        <f>SUM(F39:Z39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F39:Y39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -12312,29 +12115,25 @@
         <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="35">
-        <f>IF(AB38=1,10,IF(AB38=2,6,IF(AB38=3,4,IF(AB38=4,3,IF(AB38=5,2,IF(AB38=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
       <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-    </row>
-    <row r="40" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="31">
         <v>24</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="31">
         <v>10</v>
@@ -12349,22 +12148,22 @@
         <v>15</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L40" s="31">
         <v>16</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N40" s="31">
         <v>8</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" s="31">
         <v>14</v>
@@ -12378,26 +12177,27 @@
       <c r="S40" s="31">
         <v>14</v>
       </c>
-      <c r="T40" s="31"/>
+      <c r="T40" s="31">
+        <v>16</v>
+      </c>
       <c r="U40" s="31"/>
       <c r="V40" s="31"/>
       <c r="W40" s="31"/>
       <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
+      <c r="Y40" s="24"/>
       <c r="Z40" s="24"/>
       <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31">
+        <f>SUM(F41:Y41)+AB40</f>
+        <v>0</v>
+      </c>
       <c r="AD40" s="31">
-        <f>SUM(F41:Z41)+AC40</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="31">
-        <f>SUM(F41:Z41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F41:Y41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -12491,29 +12291,25 @@
         <f>IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="35">
-        <f>IF(AB40=1,10,IF(AB40=2,6,IF(AB40=3,4,IF(AB40=4,3,IF(AB40=5,2,IF(AB40=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB41" s="35"/>
       <c r="AC41" s="35"/>
       <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-    </row>
-    <row r="42" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="42">
         <v>27</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="42">
         <v>17</v>
@@ -12542,24 +12338,23 @@
       <c r="Z42" s="42"/>
       <c r="AA42" s="42"/>
       <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
+      <c r="AC42" s="42">
+        <f>SUM(F43:Y43)+AB42</f>
+        <v>0</v>
+      </c>
       <c r="AD42" s="42">
-        <f>SUM(F43:Z43)+AC42</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="42">
-        <f>SUM(F43:Z43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" ht="17.45" x14ac:dyDescent="0.25">
+        <f>SUM(F43:Y43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35">
-        <f t="shared" ref="F43:AC43" si="0">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
+        <f t="shared" ref="F43:AB43" si="0">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="35">
@@ -12650,20 +12445,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AC43" s="35"/>
       <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-    </row>
-    <row r="59" spans="30:30" ht="17.45" x14ac:dyDescent="0.25">
-      <c r="AD59" s="22"/>
+    </row>
+    <row r="59" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC59" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE43">
-    <sortState ref="A2:AE42">
-      <sortCondition descending="1" ref="AE1:AE43"/>
+  <autoFilter ref="A1:AD43">
+    <sortState ref="A2:AD42">
+      <sortCondition descending="1" ref="AC1:AC43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12676,9 +12467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12692,208 +12481,208 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10">
+        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD4</f>
+        <v>511</v>
+      </c>
+      <c r="E2" s="10">
         <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
-        <v>475</v>
-      </c>
-      <c r="E2" s="10">
-        <f>'2022 Driver Ranking'!AF2+'2022 Driver Ranking'!AF4</f>
-        <v>443</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7">
-        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE8</f>
-        <v>357</v>
+        <f>'2022 Driver Ranking'!AD6+'2022 Driver Ranking'!AD10</f>
+        <v>376</v>
       </c>
       <c r="E3" s="7">
-        <f>'2022 Driver Ranking'!AF6+'2022 Driver Ranking'!AF8</f>
-        <v>327</v>
+        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE10</f>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="16">
-        <f>'2022 Driver Ranking'!AE10+'2022 Driver Ranking'!AE12</f>
-        <v>316</v>
+        <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD12</f>
+        <v>346</v>
       </c>
       <c r="E4" s="16">
-        <f>'2022 Driver Ranking'!AF10+'2022 Driver Ranking'!AF12</f>
-        <v>308</v>
+        <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2">
+        <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
+        <v>125</v>
+      </c>
+      <c r="E5" s="2">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
-        <v>115</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'2022 Driver Ranking'!AF16+'2022 Driver Ranking'!AF18</f>
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6">
+        <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD26</f>
+        <v>101</v>
+      </c>
+      <c r="E6" s="6">
         <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE26</f>
-        <v>95</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'2022 Driver Ranking'!AF14+'2022 Driver Ranking'!AF26</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="11">
+        <f>'2022 Driver Ranking'!AD20+'2022 Driver Ranking'!AD34</f>
+        <v>51</v>
+      </c>
+      <c r="E7" s="11">
         <f>'2022 Driver Ranking'!AE20+'2022 Driver Ranking'!AE34</f>
-        <v>51</v>
-      </c>
-      <c r="E7" s="11">
-        <f>'2022 Driver Ranking'!AF20+'2022 Driver Ranking'!AF34</f>
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3">
+        <f>'2022 Driver Ranking'!AD22+'2022 Driver Ranking'!AD30</f>
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
         <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30</f>
-        <v>34</v>
-      </c>
-      <c r="E8" s="3">
-        <f>'2022 Driver Ranking'!AF22+'2022 Driver Ranking'!AF30</f>
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="10">
+        <f>'2022 Driver Ranking'!AD28+'2022 Driver Ranking'!AD32</f>
+        <v>29</v>
+      </c>
+      <c r="E9" s="10">
         <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE32</f>
         <v>29</v>
       </c>
-      <c r="E9" s="10">
-        <f>'2022 Driver Ranking'!AF28+'2022 Driver Ranking'!AF32</f>
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8">
+        <f>'2022 Driver Ranking'!AD24+'2022 Driver Ranking'!AD36+'2022 Driver Ranking'!AD42</f>
+        <v>25</v>
+      </c>
+      <c r="E10" s="8">
         <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE36+'2022 Driver Ranking'!AE42</f>
-        <v>24</v>
-      </c>
-      <c r="E10" s="8">
-        <f>'2022 Driver Ranking'!AF24+'2022 Driver Ranking'!AF36+'2022 Driver Ranking'!AF42</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5">
+        <f>'2022 Driver Ranking'!AD38+'2022 Driver Ranking'!AD40</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
         <f>'2022 Driver Ranking'!AE38+'2022 Driver Ranking'!AE40</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <f>'2022 Driver Ranking'!AF38+'2022 Driver Ranking'!AF40</f>
         <v>4</v>
       </c>
     </row>
@@ -12926,165 +12715,165 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10">
-        <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC4</f>
-        <v>183</v>
+        <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7">
-        <f>'2003-2009 Driver Ranking'!AC6+'2003-2009 Driver Ranking'!AC10</f>
-        <v>135</v>
+        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB10</f>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="16">
-        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC12</f>
-        <v>125</v>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB12</f>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2">
-        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC18</f>
-        <v>36</v>
+        <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB18</f>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6">
-        <f>'2003-2009 Driver Ranking'!AC14+'2003-2009 Driver Ranking'!AC26</f>
-        <v>29</v>
+        <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB26</f>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="11">
-        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC34</f>
+        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB34</f>
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3">
-        <f>'2003-2009 Driver Ranking'!AC24+'2003-2009 Driver Ranking'!AC30</f>
+        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB30</f>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC32</f>
+        <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB32</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8">
-        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC38+'2003-2009 Driver Ranking'!AC42</f>
+        <f>'2003-2009 Driver Ranking'!AB28+'2003-2009 Driver Ranking'!AB38+'2003-2009 Driver Ranking'!AB42</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AC36+'2003-2009 Driver Ranking'!AC40</f>
+        <f>'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB40</f>
         <v>0</v>
       </c>
     </row>
@@ -13117,208 +12906,208 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10">
+        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
+        <v>176</v>
+      </c>
+      <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>163</v>
-      </c>
-      <c r="E2" s="10">
-        <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE4</f>
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7">
+        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC8</f>
+        <v>110</v>
+      </c>
+      <c r="E3" s="7">
         <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8</f>
-        <v>106</v>
-      </c>
-      <c r="E3" s="7">
-        <f>'1991-2002 Driver Ranking'!AE6+'1991-2002 Driver Ranking'!AE8</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="16">
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC12</f>
+        <v>89</v>
+      </c>
+      <c r="E4" s="16">
         <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
-        <v>80</v>
-      </c>
-      <c r="E4" s="16">
-        <f>'1991-2002 Driver Ranking'!AE10+'1991-2002 Driver Ranking'!AE12</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
+        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC20</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD20</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'1991-2002 Driver Ranking'!AC14+'1991-2002 Driver Ranking'!AC26</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
         <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD26</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'1991-2002 Driver Ranking'!AE14+'1991-2002 Driver Ranking'!AE26</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD20</f>
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'1991-2002 Driver Ranking'!AE16+'1991-2002 Driver Ranking'!AE20</f>
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="11">
+        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC40</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="11">
         <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD40</f>
         <v>4</v>
       </c>
-      <c r="E7" s="11">
-        <f>'1991-2002 Driver Ranking'!AE18+'1991-2002 Driver Ranking'!AE40</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3">
+        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC30</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <f>'1991-2002 Driver Ranking'!AE22+'1991-2002 Driver Ranking'!AE30</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="10">
+        <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC36</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
         <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD36</f>
         <v>2</v>
       </c>
-      <c r="E9" s="10">
-        <f>'1991-2002 Driver Ranking'!AE24+'1991-2002 Driver Ranking'!AE36</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8">
+        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC34+'1991-2002 Driver Ranking'!AC42</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD34+'1991-2002 Driver Ranking'!AD42</f>
         <v>1</v>
       </c>
-      <c r="E10" s="8">
-        <f>'1991-2002 Driver Ranking'!AE28+'1991-2002 Driver Ranking'!AE34+'1991-2002 Driver Ranking'!AE42</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5">
+        <f>'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC38</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <f>'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD38</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <f>'1991-2002 Driver Ranking'!AE32+'1991-2002 Driver Ranking'!AE38</f>
         <v>0</v>
       </c>
     </row>
@@ -13358,27 +13147,27 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -13399,10 +13188,10 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="16">
         <v>4</v>
@@ -13420,7 +13209,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -13441,7 +13230,7 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>10</v>
@@ -13493,21 +13282,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -13523,10 +13312,10 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="16">
         <v>4</v>
@@ -13539,7 +13328,7 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -13555,7 +13344,7 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>10</v>
@@ -13603,27 +13392,27 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -13644,10 +13433,10 @@
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="16">
         <v>4</v>
@@ -13665,7 +13454,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>10</v>
@@ -13686,7 +13475,7 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0EC97C-D896-48FF-AEC8-CEC3B2D8DF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="2022 Driver Ranking" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2022 Engine Ranking'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2022 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="119">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,11 +513,15 @@
     <t>Nyck de Vries</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -680,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -734,6 +737,19 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -759,7 +775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -834,23 +850,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -886,23 +885,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1078,39 +1060,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="21.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="1" customWidth="1"/>
-    <col min="10" max="14" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="14" width="21.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="18" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="44.375" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1156,7 @@
       <c r="U1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="33" t="s">
         <v>106</v>
       </c>
       <c r="W1" s="27" t="s">
@@ -1205,7 +1187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1251,9 @@
       <c r="U2" s="10">
         <v>1</v>
       </c>
-      <c r="V2" s="9"/>
+      <c r="V2" s="34">
+        <v>7</v>
+      </c>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -1285,14 +1269,14 @@
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -1362,9 +1346,9 @@
         <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="35">
         <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W3" s="28">
         <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
@@ -1455,7 +1439,9 @@
       <c r="U4" s="7">
         <v>2</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="36">
+        <v>2</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -1471,14 +1457,14 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -1548,9 +1534,9 @@
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="35">
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
@@ -1641,7 +1627,9 @@
       <c r="U6" s="9">
         <v>6</v>
       </c>
-      <c r="V6" s="9"/>
+      <c r="V6" s="34">
+        <v>1</v>
+      </c>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
@@ -1657,14 +1645,14 @@
       </c>
       <c r="AD6" s="9">
         <f>SUM(F7:AA7)+AB6+AC6</f>
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="AE6" s="9">
         <f>SUM(F7:AA7)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1734,9 +1722,9 @@
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
         <v>8</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="35">
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
@@ -1763,7 +1751,7 @@
       <c r="AD7" s="28"/>
       <c r="AE7" s="28"/>
     </row>
-    <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
@@ -1827,7 +1815,9 @@
       <c r="U8" s="15">
         <v>3</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="37">
+        <v>14</v>
+      </c>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
@@ -1847,7 +1837,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1917,7 +1907,7 @@
         <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="35">
         <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -1946,7 +1936,7 @@
       <c r="AD9" s="28"/>
       <c r="AE9" s="28"/>
     </row>
-    <row r="10" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -2010,7 +2000,9 @@
       <c r="U10" s="7">
         <v>4</v>
       </c>
-      <c r="V10" s="7"/>
+      <c r="V10" s="36">
+        <v>3</v>
+      </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -2026,14 +2018,14 @@
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -2103,9 +2095,9 @@
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
         <v>12</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="35">
         <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W11" s="28">
         <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
@@ -2132,7 +2124,7 @@
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
     </row>
-    <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -2196,7 +2188,9 @@
       <c r="U12" s="15">
         <v>5</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="37">
+        <v>9</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
@@ -2212,14 +2206,14 @@
       </c>
       <c r="AD12" s="15">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AE12" s="15">
         <f>SUM(F13:AA13)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -2289,9 +2283,9 @@
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
         <v>10</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="35">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" s="28">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
@@ -2318,7 +2312,7 @@
       <c r="AD13" s="28"/>
       <c r="AE13" s="28"/>
     </row>
-    <row r="14" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -2382,7 +2376,9 @@
       <c r="U14" s="6">
         <v>7</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="38">
+        <v>4</v>
+      </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -2398,14 +2394,14 @@
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AE14" s="6">
         <f>SUM(F15:AA15)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -2475,9 +2471,9 @@
         <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="35">
         <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W15" s="28">
         <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
@@ -2504,7 +2500,7 @@
       <c r="AD15" s="28"/>
       <c r="AE15" s="28"/>
     </row>
-    <row r="16" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2568,7 +2564,9 @@
       <c r="U16" s="2">
         <v>11</v>
       </c>
-      <c r="V16" s="2"/>
+      <c r="V16" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -2588,7 +2586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2658,7 +2656,7 @@
         <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="35">
         <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2687,7 +2685,7 @@
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
     </row>
-    <row r="18" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2751,7 +2749,9 @@
       <c r="U18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -2768,7 +2768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -2838,7 +2838,7 @@
         <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V19" s="28">
+      <c r="V19" s="35">
         <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="AD19" s="28"/>
       <c r="AE19" s="28"/>
     </row>
-    <row r="20" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2931,9 @@
       <c r="U20" s="11">
         <v>13</v>
       </c>
-      <c r="V20" s="11"/>
+      <c r="V20" s="40">
+        <v>11</v>
+      </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -2951,7 +2953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -3021,7 +3023,7 @@
         <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V21" s="28">
+      <c r="V21" s="35">
         <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3050,91 +3052,93 @@
       <c r="AD21" s="28"/>
       <c r="AE21" s="28"/>
     </row>
-    <row r="22" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6">
+        <v>13</v>
+      </c>
+      <c r="K22" s="6">
+        <v>12</v>
+      </c>
+      <c r="L22" s="6">
+        <v>13</v>
+      </c>
+      <c r="M22" s="6">
+        <v>8</v>
+      </c>
+      <c r="N22" s="6">
+        <v>11</v>
+      </c>
+      <c r="O22" s="6">
+        <v>13</v>
+      </c>
+      <c r="P22" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>9</v>
+      </c>
+      <c r="R22" s="6">
+        <v>15</v>
+      </c>
+      <c r="S22" s="6">
+        <v>15</v>
+      </c>
+      <c r="T22" s="6">
+        <v>17</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="38">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>9</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9</v>
-      </c>
-      <c r="J22" s="3">
-        <v>16</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="3">
-        <v>17</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10</v>
-      </c>
-      <c r="P22" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R22" s="3">
-        <v>16</v>
-      </c>
-      <c r="S22" s="3">
-        <v>16</v>
-      </c>
-      <c r="T22" s="3">
-        <v>15</v>
-      </c>
-      <c r="U22" s="3">
-        <v>16</v>
-      </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3">
-        <f>1+2</f>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6">
+        <f>3</f>
         <v>3</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="6">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>22</v>
-      </c>
-      <c r="AE22" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE22" s="6">
         <f>SUM(F23:AA23)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -3142,19 +3146,19 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28">
         <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="28">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
@@ -3170,7 +3174,7 @@
       </c>
       <c r="M23" s="28">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="28">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
@@ -3178,15 +3182,15 @@
       </c>
       <c r="O23" s="28">
         <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="28">
         <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="28">
         <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="28">
         <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
@@ -3204,9 +3208,9 @@
         <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="35">
         <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W23" s="28">
         <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
@@ -3234,87 +3238,85 @@
       <c r="AE23" s="28"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="8">
+        <v>8</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="8">
+        <v>11</v>
+      </c>
+      <c r="L24" s="8">
         <v>10</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="M24" s="8">
+        <v>6</v>
+      </c>
+      <c r="N24" s="8">
+        <v>12</v>
+      </c>
+      <c r="O24" s="8">
+        <v>9</v>
+      </c>
+      <c r="P24" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>11</v>
+      </c>
+      <c r="R24" s="8">
+        <v>10</v>
+      </c>
+      <c r="S24" s="8">
         <v>8</v>
       </c>
-      <c r="H24" s="9">
-        <v>9</v>
-      </c>
-      <c r="I24" s="9">
-        <v>12</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="9">
-        <v>13</v>
-      </c>
-      <c r="L24" s="9">
-        <v>11</v>
-      </c>
-      <c r="M24" s="9">
-        <v>5</v>
-      </c>
-      <c r="N24" s="9">
+      <c r="T24" s="8">
         <v>14</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P24" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>12</v>
-      </c>
-      <c r="R24" s="9">
-        <v>12</v>
-      </c>
-      <c r="S24" s="9">
-        <v>9</v>
-      </c>
-      <c r="T24" s="9">
-        <v>11</v>
-      </c>
-      <c r="U24" s="10">
+      <c r="U24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="42">
         <v>8</v>
       </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9">
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8">
         <f>SUM(F25:AA25)+AB24+AC24</f>
-        <v>22</v>
-      </c>
-      <c r="AE24" s="9">
+        <v>24</v>
+      </c>
+      <c r="AE24" s="8">
         <f>SUM(F25:AA25)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -3326,15 +3328,15 @@
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="28">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="28">
         <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
@@ -3346,11 +3348,11 @@
       </c>
       <c r="L25" s="28">
         <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
@@ -3358,7 +3360,7 @@
       </c>
       <c r="O25" s="28">
         <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" s="28">
         <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
@@ -3370,11 +3372,11 @@
       </c>
       <c r="R25" s="28">
         <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="28">
         <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T25" s="28">
         <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
@@ -3382,11 +3384,11 @@
       </c>
       <c r="U25" s="28">
         <f>IF(U24=1,25,IF(U24=2,18,IF(U24=3,15,IF(U24=4,12,IF(U24=5,10,IF(U24=6,8,IF(U24=7,6,IF(U24=8,4,IF(U24=9,2,IF(U24=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="35">
+        <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
         <v>4</v>
-      </c>
-      <c r="V25" s="28">
-        <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
-        <v>0</v>
       </c>
       <c r="W25" s="28">
         <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
@@ -3414,83 +3416,89 @@
       <c r="AE25" s="28"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="A26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="9">
+        <v>8</v>
+      </c>
+      <c r="H26" s="9">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9">
+        <v>12</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="9">
+        <v>13</v>
+      </c>
+      <c r="L26" s="9">
+        <v>11</v>
+      </c>
+      <c r="M26" s="9">
         <v>5</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="N26" s="9">
+        <v>14</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="8">
+      <c r="P26" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>12</v>
+      </c>
+      <c r="R26" s="9">
+        <v>12</v>
+      </c>
+      <c r="S26" s="9">
+        <v>9</v>
+      </c>
+      <c r="T26" s="9">
+        <v>11</v>
+      </c>
+      <c r="U26" s="10">
         <v>8</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="8">
-        <v>11</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="V26" s="34">
         <v>10</v>
       </c>
-      <c r="M26" s="8">
-        <v>6</v>
-      </c>
-      <c r="N26" s="8">
-        <v>12</v>
-      </c>
-      <c r="O26" s="8">
-        <v>9</v>
-      </c>
-      <c r="P26" s="8">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>11</v>
-      </c>
-      <c r="R26" s="8">
-        <v>10</v>
-      </c>
-      <c r="S26" s="8">
-        <v>8</v>
-      </c>
-      <c r="T26" s="8">
-        <v>14</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8">
+      <c r="W26" s="9"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9">
         <f>SUM(F27:AA27)+AB26+AC26</f>
-        <v>20</v>
-      </c>
-      <c r="AE26" s="8">
+        <v>23</v>
+      </c>
+      <c r="AE26" s="9">
         <f>SUM(F27:AA27)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -3502,15 +3510,15 @@
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" s="28">
         <f>IF(J26=1,25,IF(J26=2,18,IF(J26=3,15,IF(J26=4,12,IF(J26=5,10,IF(J26=6,8,IF(J26=7,6,IF(J26=8,4,IF(J26=9,2,IF(J26=10,1,0))))))))))</f>
@@ -3522,11 +3530,11 @@
       </c>
       <c r="L27" s="28">
         <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
@@ -3534,7 +3542,7 @@
       </c>
       <c r="O27" s="28">
         <f>IF(O26=1,25,IF(O26=2,18,IF(O26=3,15,IF(O26=4,12,IF(O26=5,10,IF(O26=6,8,IF(O26=7,6,IF(O26=8,4,IF(O26=9,2,IF(O26=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="28">
         <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
@@ -3546,11 +3554,11 @@
       </c>
       <c r="R27" s="28">
         <f>IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="28">
         <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T27" s="28">
         <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
@@ -3558,11 +3566,11 @@
       </c>
       <c r="U27" s="28">
         <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="28">
+        <v>4</v>
+      </c>
+      <c r="V27" s="35">
         <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="28">
         <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
@@ -3590,90 +3598,92 @@
       <c r="AE27" s="28"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3">
+        <v>9</v>
+      </c>
+      <c r="J28" s="3">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>17</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28" s="3">
+        <v>17</v>
+      </c>
+      <c r="O28" s="3">
+        <v>10</v>
+      </c>
+      <c r="P28" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" s="3">
+        <v>16</v>
+      </c>
+      <c r="S28" s="3">
+        <v>16</v>
+      </c>
+      <c r="T28" s="3">
+        <v>15</v>
+      </c>
+      <c r="U28" s="3">
+        <v>16</v>
+      </c>
+      <c r="V28" s="41">
+        <v>12</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3">
+        <f>1+2</f>
         <v>3</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="6">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="6">
-        <v>6</v>
-      </c>
-      <c r="I28" s="6">
-        <v>18</v>
-      </c>
-      <c r="J28" s="6">
-        <v>13</v>
-      </c>
-      <c r="K28" s="6">
-        <v>12</v>
-      </c>
-      <c r="L28" s="6">
-        <v>13</v>
-      </c>
-      <c r="M28" s="6">
-        <v>8</v>
-      </c>
-      <c r="N28" s="6">
-        <v>11</v>
-      </c>
-      <c r="O28" s="6">
-        <v>13</v>
-      </c>
-      <c r="P28" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>9</v>
-      </c>
-      <c r="R28" s="6">
-        <v>15</v>
-      </c>
-      <c r="S28" s="6">
-        <v>15</v>
-      </c>
-      <c r="T28" s="6">
-        <v>17</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="6">
+      <c r="AD28" s="3">
         <f>SUM(F29:AA29)+AB28+AC28</f>
+        <v>22</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>SUM(F29:AA29)</f>
         <v>19</v>
       </c>
-      <c r="AE28" s="6">
-        <f>SUM(F29:AA29)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -3681,19 +3691,19 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28">
         <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="28">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="28">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I29" s="28">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="28">
         <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
@@ -3709,7 +3719,7 @@
       </c>
       <c r="M29" s="28">
         <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29" s="28">
         <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
@@ -3717,15 +3727,15 @@
       </c>
       <c r="O29" s="28">
         <f>IF(O28=1,25,IF(O28=2,18,IF(O28=3,15,IF(O28=4,12,IF(O28=5,10,IF(O28=6,8,IF(O28=7,6,IF(O28=8,4,IF(O28=9,2,IF(O28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="28">
         <f>IF(P28=1,25,IF(P28=2,18,IF(P28=3,15,IF(P28=4,12,IF(P28=5,10,IF(P28=6,8,IF(P28=7,6,IF(P28=8,4,IF(P28=9,2,IF(P28=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="28">
         <f>IF(Q28=1,25,IF(Q28=2,18,IF(Q28=3,15,IF(Q28=4,12,IF(Q28=5,10,IF(Q28=6,8,IF(Q28=7,6,IF(Q28=8,4,IF(Q28=9,2,IF(Q28=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="28">
         <f>IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
@@ -3743,7 +3753,7 @@
         <f>IF(U28=1,25,IF(U28=2,18,IF(U28=3,15,IF(U28=4,12,IF(U28=5,10,IF(U28=6,8,IF(U28=7,6,IF(U28=8,4,IF(U28=9,2,IF(U28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V29" s="28">
+      <c r="V29" s="35">
         <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3772,88 +3782,90 @@
       <c r="AD29" s="28"/>
       <c r="AE29" s="28"/>
     </row>
-    <row r="30" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="3">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="8">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="8">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8">
+        <v>13</v>
+      </c>
+      <c r="H30" s="8">
+        <v>12</v>
+      </c>
+      <c r="I30" s="8">
+        <v>10</v>
+      </c>
+      <c r="J30" s="8">
+        <v>10</v>
+      </c>
+      <c r="K30" s="8">
+        <v>15</v>
+      </c>
+      <c r="L30" s="8">
+        <v>14</v>
+      </c>
+      <c r="M30" s="8">
+        <v>16</v>
+      </c>
+      <c r="N30" s="8">
+        <v>10</v>
+      </c>
+      <c r="O30" s="8">
         <v>11</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="P30" s="8">
         <v>13</v>
       </c>
-      <c r="I30" s="3">
-        <v>17</v>
-      </c>
-      <c r="J30" s="3">
-        <v>15</v>
-      </c>
-      <c r="K30" s="3">
-        <v>14</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M30" s="3">
-        <v>14</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O30" s="3">
-        <v>8</v>
-      </c>
-      <c r="P30" s="3">
+      <c r="Q30" s="8">
+        <v>10</v>
+      </c>
+      <c r="R30" s="8">
+        <v>11</v>
+      </c>
+      <c r="S30" s="8">
+        <v>11</v>
+      </c>
+      <c r="T30" s="8">
+        <v>10</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V30" s="42">
         <v>6</v>
       </c>
-      <c r="Q30" s="3">
-        <v>15</v>
-      </c>
-      <c r="R30" s="3">
-        <v>14</v>
-      </c>
-      <c r="S30" s="3">
-        <v>17</v>
-      </c>
-      <c r="T30" s="3">
-        <v>15</v>
-      </c>
-      <c r="U30" s="3">
-        <v>12</v>
-      </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3">
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8">
         <f>SUM(F31:AA31)+AB30+AC30</f>
-        <v>12</v>
-      </c>
-      <c r="AE30" s="3">
+        <v>13</v>
+      </c>
+      <c r="AE30" s="8">
         <f>SUM(F31:AA31)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -3873,11 +3885,11 @@
       </c>
       <c r="I31" s="28">
         <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="28">
         <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="28">
         <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
@@ -3893,19 +3905,19 @@
       </c>
       <c r="N31" s="28">
         <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="28">
         <f>IF(O30=1,25,IF(O30=2,18,IF(O30=3,15,IF(O30=4,12,IF(O30=5,10,IF(O30=6,8,IF(O30=7,6,IF(O30=8,4,IF(O30=9,2,IF(O30=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P31" s="28">
         <f>IF(P30=1,25,IF(P30=2,18,IF(P30=3,15,IF(P30=4,12,IF(P30=5,10,IF(P30=6,8,IF(P30=7,6,IF(P30=8,4,IF(P30=9,2,IF(P30=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="28">
         <f>IF(Q30=1,25,IF(Q30=2,18,IF(Q30=3,15,IF(Q30=4,12,IF(Q30=5,10,IF(Q30=6,8,IF(Q30=7,6,IF(Q30=8,4,IF(Q30=9,2,IF(Q30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="28">
         <f>IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
@@ -3917,15 +3929,15 @@
       </c>
       <c r="T31" s="28">
         <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="28">
         <f>IF(U30=1,25,IF(U30=2,18,IF(U30=3,15,IF(U30=4,12,IF(U30=5,10,IF(U30=6,8,IF(U30=7,6,IF(U30=8,4,IF(U30=9,2,IF(U30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V31" s="28">
+      <c r="V31" s="35">
         <f>IF(V30=1,25,IF(V30=2,18,IF(V30=3,15,IF(V30=4,12,IF(V30=5,10,IF(V30=6,8,IF(V30=7,6,IF(V30=8,4,IF(V30=9,2,IF(V30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W31" s="28">
         <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
@@ -3952,88 +3964,90 @@
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
     </row>
-    <row r="32" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="9">
-        <v>22</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="9">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="3">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="3">
+        <v>13</v>
+      </c>
+      <c r="I32" s="3">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3">
+        <v>15</v>
+      </c>
+      <c r="K32" s="3">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="3">
+        <v>14</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="3">
         <v>8</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="P32" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="3">
         <v>15</v>
       </c>
-      <c r="I32" s="9">
-        <v>7</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="R32" s="3">
+        <v>14</v>
+      </c>
+      <c r="S32" s="3">
+        <v>17</v>
+      </c>
+      <c r="T32" s="3">
+        <v>15</v>
+      </c>
+      <c r="U32" s="3">
         <v>12</v>
       </c>
-      <c r="K32" s="10">
-        <v>10</v>
-      </c>
-      <c r="L32" s="9">
-        <v>17</v>
-      </c>
-      <c r="M32" s="9">
+      <c r="V32" s="41">
         <v>13</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O32" s="9">
-        <v>14</v>
-      </c>
-      <c r="P32" s="9">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="R32" s="9">
-        <v>19</v>
-      </c>
-      <c r="S32" s="9">
-        <v>13</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="U32" s="10">
-        <v>14</v>
-      </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9">
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3">
         <f>SUM(F33:AA33)+AB32+AC32</f>
-        <v>11</v>
-      </c>
-      <c r="AE32" s="9">
+        <v>12</v>
+      </c>
+      <c r="AE32" s="3">
         <f>SUM(F33:AA33)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -4041,7 +4055,7 @@
       <c r="E33" s="28"/>
       <c r="F33" s="28">
         <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="28">
         <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
@@ -4053,7 +4067,7 @@
       </c>
       <c r="I33" s="28">
         <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J33" s="28">
         <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
@@ -4061,7 +4075,7 @@
       </c>
       <c r="K33" s="28">
         <f>IF(K32=1,25,IF(K32=2,18,IF(K32=3,15,IF(K32=4,12,IF(K32=5,10,IF(K32=6,8,IF(K32=7,6,IF(K32=8,4,IF(K32=9,2,IF(K32=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="28">
         <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
@@ -4077,11 +4091,11 @@
       </c>
       <c r="O33" s="28">
         <f>IF(O32=1,25,IF(O32=2,18,IF(O32=3,15,IF(O32=4,12,IF(O32=5,10,IF(O32=6,8,IF(O32=7,6,IF(O32=8,4,IF(O32=9,2,IF(O32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P33" s="28">
         <f>IF(P32=1,25,IF(P32=2,18,IF(P32=3,15,IF(P32=4,12,IF(P32=5,10,IF(P32=6,8,IF(P32=7,6,IF(P32=8,4,IF(P32=9,2,IF(P32=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="28">
         <f>IF(Q32=1,25,IF(Q32=2,18,IF(Q32=3,15,IF(Q32=4,12,IF(Q32=5,10,IF(Q32=6,8,IF(Q32=7,6,IF(Q32=8,4,IF(Q32=9,2,IF(Q32=10,1,0))))))))))</f>
@@ -4103,7 +4117,7 @@
         <f>IF(U32=1,25,IF(U32=2,18,IF(U32=3,15,IF(U32=4,12,IF(U32=5,10,IF(U32=6,8,IF(U32=7,6,IF(U32=8,4,IF(U32=9,2,IF(U32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V33" s="28">
+      <c r="V33" s="35">
         <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4132,88 +4146,90 @@
       <c r="AD33" s="28"/>
       <c r="AE33" s="28"/>
     </row>
-    <row r="34" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="11">
-        <v>24</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="11">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="9">
+        <v>22</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="9">
+        <v>8</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="9">
+        <v>15</v>
+      </c>
+      <c r="I34" s="9">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9">
+        <v>12</v>
+      </c>
+      <c r="K34" s="10">
         <v>10</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="9">
+        <v>17</v>
+      </c>
+      <c r="M34" s="9">
+        <v>13</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O34" s="9">
+        <v>14</v>
+      </c>
+      <c r="P34" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R34" s="9">
+        <v>19</v>
+      </c>
+      <c r="S34" s="9">
+        <v>13</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="U34" s="10">
+        <v>14</v>
+      </c>
+      <c r="V34" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9">
+        <f>SUM(F35:AA35)+AB34+AC34</f>
         <v>11</v>
       </c>
-      <c r="H34" s="11">
+      <c r="AE34" s="9">
+        <f>SUM(F35:AA35)</f>
         <v>11</v>
       </c>
-      <c r="I34" s="11">
-        <v>15</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L34" s="11">
-        <v>16</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N34" s="11">
-        <v>8</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="P34" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>16</v>
-      </c>
-      <c r="R34" s="11">
-        <v>13</v>
-      </c>
-      <c r="S34" s="11">
-        <v>14</v>
-      </c>
-      <c r="T34" s="11">
-        <v>16</v>
-      </c>
-      <c r="U34" s="11">
-        <v>10</v>
-      </c>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11">
-        <f>SUM(F35:AA35)+AB34+AC34</f>
-        <v>6</v>
-      </c>
-      <c r="AE34" s="11">
-        <f>SUM(F35:AA35)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -4221,7 +4237,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28">
         <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="28">
         <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
@@ -4233,7 +4249,7 @@
       </c>
       <c r="I35" s="28">
         <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35" s="28">
         <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
@@ -4241,7 +4257,7 @@
       </c>
       <c r="K35" s="28">
         <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="28">
         <f>IF(L34=1,25,IF(L34=2,18,IF(L34=3,15,IF(L34=4,12,IF(L34=5,10,IF(L34=6,8,IF(L34=7,6,IF(L34=8,4,IF(L34=9,2,IF(L34=10,1,0))))))))))</f>
@@ -4253,7 +4269,7 @@
       </c>
       <c r="N35" s="28">
         <f>IF(N34=1,25,IF(N34=2,18,IF(N34=3,15,IF(N34=4,12,IF(N34=5,10,IF(N34=6,8,IF(N34=7,6,IF(N34=8,4,IF(N34=9,2,IF(N34=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O35" s="28">
         <f>IF(O34=1,25,IF(O34=2,18,IF(O34=3,15,IF(O34=4,12,IF(O34=5,10,IF(O34=6,8,IF(O34=7,6,IF(O34=8,4,IF(O34=9,2,IF(O34=10,1,0))))))))))</f>
@@ -4281,9 +4297,9 @@
       </c>
       <c r="U35" s="28">
         <f>IF(U34=1,25,IF(U34=2,18,IF(U34=3,15,IF(U34=4,12,IF(U34=5,10,IF(U34=6,8,IF(U34=7,6,IF(U34=8,4,IF(U34=9,2,IF(U34=10,1,0))))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="V35" s="28">
+        <v>0</v>
+      </c>
+      <c r="V35" s="35">
         <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4312,88 +4328,90 @@
       <c r="AD35" s="28"/>
       <c r="AE35" s="28"/>
     </row>
-    <row r="36" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="8">
-        <v>18</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="8">
-        <v>12</v>
-      </c>
-      <c r="G36" s="8">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="11">
+        <v>24</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="11">
+        <v>10</v>
+      </c>
+      <c r="G36" s="11">
+        <v>11</v>
+      </c>
+      <c r="H36" s="11">
+        <v>11</v>
+      </c>
+      <c r="I36" s="11">
+        <v>15</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="11">
+        <v>16</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N36" s="11">
+        <v>8</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>16</v>
+      </c>
+      <c r="R36" s="11">
         <v>13</v>
       </c>
-      <c r="H36" s="8">
-        <v>12</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="S36" s="11">
+        <v>14</v>
+      </c>
+      <c r="T36" s="11">
+        <v>16</v>
+      </c>
+      <c r="U36" s="11">
         <v>10</v>
       </c>
-      <c r="J36" s="8">
-        <v>10</v>
-      </c>
-      <c r="K36" s="8">
-        <v>15</v>
-      </c>
-      <c r="L36" s="8">
-        <v>14</v>
-      </c>
-      <c r="M36" s="8">
-        <v>16</v>
-      </c>
-      <c r="N36" s="8">
-        <v>10</v>
-      </c>
-      <c r="O36" s="8">
-        <v>11</v>
-      </c>
-      <c r="P36" s="8">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>10</v>
-      </c>
-      <c r="R36" s="8">
-        <v>11</v>
-      </c>
-      <c r="S36" s="8">
-        <v>11</v>
-      </c>
-      <c r="T36" s="8">
-        <v>10</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8">
+      <c r="V36" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11">
         <f>SUM(F37:AA37)+AB36+AC36</f>
-        <v>5</v>
-      </c>
-      <c r="AE36" s="8">
+        <v>6</v>
+      </c>
+      <c r="AE36" s="11">
         <f>SUM(F37:AA37)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4401,7 +4419,7 @@
       <c r="E37" s="28"/>
       <c r="F37" s="28">
         <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="28">
         <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
@@ -4413,11 +4431,11 @@
       </c>
       <c r="I37" s="28">
         <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="28">
         <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="28">
         <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
@@ -4433,7 +4451,7 @@
       </c>
       <c r="N37" s="28">
         <f>IF(N36=1,25,IF(N36=2,18,IF(N36=3,15,IF(N36=4,12,IF(N36=5,10,IF(N36=6,8,IF(N36=7,6,IF(N36=8,4,IF(N36=9,2,IF(N36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37" s="28">
         <f>IF(O36=1,25,IF(O36=2,18,IF(O36=3,15,IF(O36=4,12,IF(O36=5,10,IF(O36=6,8,IF(O36=7,6,IF(O36=8,4,IF(O36=9,2,IF(O36=10,1,0))))))))))</f>
@@ -4445,7 +4463,7 @@
       </c>
       <c r="Q37" s="28">
         <f>IF(Q36=1,25,IF(Q36=2,18,IF(Q36=3,15,IF(Q36=4,12,IF(Q36=5,10,IF(Q36=6,8,IF(Q36=7,6,IF(Q36=8,4,IF(Q36=9,2,IF(Q36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="28">
         <f>IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
@@ -4457,13 +4475,13 @@
       </c>
       <c r="T37" s="28">
         <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="28">
         <f>IF(U36=1,25,IF(U36=2,18,IF(U36=3,15,IF(U36=4,12,IF(U36=5,10,IF(U36=6,8,IF(U36=7,6,IF(U36=8,4,IF(U36=9,2,IF(U36=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="28">
+        <v>1</v>
+      </c>
+      <c r="V37" s="35">
         <f>IF(V36=1,25,IF(V36=2,18,IF(V36=3,15,IF(V36=4,12,IF(V36=5,10,IF(V36=6,8,IF(V36=7,6,IF(V36=8,4,IF(V36=9,2,IF(V36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4492,7 +4510,7 @@
       <c r="AD37" s="28"/>
       <c r="AE37" s="28"/>
     </row>
-    <row r="38" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -4554,7 +4572,9 @@
         <v>12</v>
       </c>
       <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="V38" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
@@ -4571,7 +4591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -4641,7 +4661,7 @@
         <f>IF(U38=1,25,IF(U38=2,18,IF(U38=3,15,IF(U38=4,12,IF(U38=5,10,IF(U38=6,8,IF(U38=7,6,IF(U38=8,4,IF(U38=9,2,IF(U38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="35">
         <f>IF(V38=1,25,IF(V38=2,18,IF(V38=3,15,IF(V38=4,12,IF(V38=5,10,IF(V38=6,8,IF(V38=7,6,IF(V38=8,4,IF(V38=9,2,IF(V38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4670,7 +4690,7 @@
       <c r="AD39" s="28"/>
       <c r="AE39" s="28"/>
     </row>
-    <row r="40" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>117</v>
       </c>
@@ -4704,7 +4724,7 @@
       <c r="U40" s="5">
         <v>9</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="43"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
@@ -4721,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -4791,7 +4811,7 @@
         <f>IF(U40=1,25,IF(U40=2,18,IF(U40=3,15,IF(U40=4,12,IF(U40=5,10,IF(U40=6,8,IF(U40=7,6,IF(U40=8,4,IF(U40=9,2,IF(U40=10,1,0))))))))))</f>
         <v>2</v>
       </c>
-      <c r="V41" s="28">
+      <c r="V41" s="35">
         <f>IF(V40=1,25,IF(V40=2,18,IF(V40=3,15,IF(V40=4,12,IF(V40=5,10,IF(V40=6,8,IF(V40=7,6,IF(V40=8,4,IF(V40=9,2,IF(V40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4820,7 +4840,7 @@
       <c r="AD41" s="28"/>
       <c r="AE41" s="28"/>
     </row>
-    <row r="42" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>60</v>
       </c>
@@ -4884,7 +4904,9 @@
       <c r="U42" s="5">
         <v>15</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
@@ -4901,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -4971,7 +4993,7 @@
         <f>IF(U42=1,25,IF(U42=2,18,IF(U42=3,15,IF(U42=4,12,IF(U42=5,10,IF(U42=6,8,IF(U42=7,6,IF(U42=8,4,IF(U42=9,2,IF(U42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V43" s="28">
+      <c r="V43" s="35">
         <f>IF(V42=1,25,IF(V42=2,18,IF(V42=3,15,IF(V42=4,12,IF(V42=5,10,IF(V42=6,8,IF(V42=7,6,IF(V42=8,4,IF(V42=9,2,IF(V42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -5036,7 +5058,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
+      <c r="V44" s="42"/>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
@@ -5123,7 +5145,7 @@
         <f t="shared" ref="U45" si="15">IF(U44=1,25,IF(U44=2,18,IF(U44=3,15,IF(U44=4,12,IF(U44=5,10,IF(U44=6,8,IF(U44=7,6,IF(U44=8,4,IF(U44=9,2,IF(U44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="V45" s="28">
+      <c r="V45" s="35">
         <f t="shared" ref="V45" si="16">IF(V44=1,25,IF(V44=2,18,IF(V44=3,15,IF(V44=4,12,IF(V44=5,10,IF(V44=6,8,IF(V44=7,6,IF(V44=8,4,IF(V44=9,2,IF(V44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -5153,8 +5175,8 @@
       <c r="AE45" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE45" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE44">
+  <autoFilter ref="A1:AE45">
+    <sortState ref="A2:AE44">
       <sortCondition descending="1" ref="AD1:AD45"/>
     </sortState>
   </autoFilter>
@@ -5165,16 +5187,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="45.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="45.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5194,7 +5216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
@@ -5209,33 +5231,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="21.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="1" customWidth="1"/>
-    <col min="10" max="14" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="14" width="21.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.21875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5299,7 +5322,7 @@
       <c r="U1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="33" t="s">
         <v>106</v>
       </c>
       <c r="W1" s="27" t="s">
@@ -5321,7 +5344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -5385,7 +5408,9 @@
       <c r="U2" s="9">
         <v>1</v>
       </c>
-      <c r="V2" s="9"/>
+      <c r="V2" s="34">
+        <v>7</v>
+      </c>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -5393,10 +5418,10 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:Z3)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -5466,9 +5491,9 @@
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
         <v>10</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="35">
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W3" s="28">
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
@@ -5492,7 +5517,7 @@
       </c>
       <c r="AB3" s="28"/>
     </row>
-    <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -5556,7 +5581,9 @@
       <c r="U4" s="9">
         <v>6</v>
       </c>
-      <c r="V4" s="9"/>
+      <c r="V4" s="34">
+        <v>1</v>
+      </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="23"/>
@@ -5564,10 +5591,10 @@
       <c r="AA4" s="9"/>
       <c r="AB4" s="9">
         <f>SUM(F5:Z5)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -5637,9 +5664,9 @@
         <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
         <v>3</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="35">
         <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
@@ -5663,7 +5690,7 @@
       </c>
       <c r="AB5" s="28"/>
     </row>
-    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5727,7 +5754,9 @@
       <c r="U6" s="7">
         <v>2</v>
       </c>
-      <c r="V6" s="7"/>
+      <c r="V6" s="36">
+        <v>2</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -5735,10 +5764,10 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:Z7)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5808,9 +5837,9 @@
         <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
         <v>8</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="35">
         <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
@@ -5834,7 +5863,7 @@
       </c>
       <c r="AB7" s="28"/>
     </row>
-    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
@@ -5898,7 +5927,9 @@
       <c r="U8" s="15">
         <v>3</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="37">
+        <v>14</v>
+      </c>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="18"/>
@@ -5909,7 +5940,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -5979,7 +6010,7 @@
         <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
         <v>6</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="35">
         <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6005,7 +6036,7 @@
       </c>
       <c r="AB9" s="28"/>
     </row>
-    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -6069,7 +6100,9 @@
       <c r="U10" s="7">
         <v>4</v>
       </c>
-      <c r="V10" s="7"/>
+      <c r="V10" s="36">
+        <v>3</v>
+      </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -6077,10 +6110,10 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
         <f>SUM(F11:Z11)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -6150,9 +6183,9 @@
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
         <v>5</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="35">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W11" s="28">
         <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
@@ -6176,7 +6209,7 @@
       </c>
       <c r="AB11" s="28"/>
     </row>
-    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -6240,7 +6273,9 @@
       <c r="U12" s="15">
         <v>5</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="37">
+        <v>9</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
@@ -6251,7 +6286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -6321,7 +6356,7 @@
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
         <v>4</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="35">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6347,7 +6382,7 @@
       </c>
       <c r="AB13" s="28"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -6411,7 +6446,9 @@
       <c r="U14" s="6">
         <v>7</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="38">
+        <v>4</v>
+      </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -6419,10 +6456,10 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6">
         <f>SUM(F15:Z15)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -6492,9 +6529,9 @@
         <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
         <v>2</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="35">
         <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W15" s="28">
         <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
@@ -6518,7 +6555,7 @@
       </c>
       <c r="AB15" s="28"/>
     </row>
-    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -6582,7 +6619,9 @@
       <c r="U16" s="2">
         <v>11</v>
       </c>
-      <c r="V16" s="2"/>
+      <c r="V16" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -6593,7 +6632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -6663,7 +6702,7 @@
         <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="35">
         <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6689,7 +6728,7 @@
       </c>
       <c r="AB17" s="28"/>
     </row>
-    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -6753,7 +6792,9 @@
       <c r="U18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V18" s="2"/>
+      <c r="V18" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -6764,7 +6805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -6834,7 +6875,7 @@
         <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V19" s="28">
+      <c r="V19" s="35">
         <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6860,7 +6901,7 @@
       </c>
       <c r="AB19" s="28"/>
     </row>
-    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -6924,7 +6965,9 @@
       <c r="U20" s="11">
         <v>13</v>
       </c>
-      <c r="V20" s="11"/>
+      <c r="V20" s="40">
+        <v>11</v>
+      </c>
       <c r="W20" s="11"/>
       <c r="X20" s="22"/>
       <c r="Y20" s="11"/>
@@ -6935,7 +6978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -7005,7 +7048,7 @@
         <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V21" s="28">
+      <c r="V21" s="35">
         <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7031,82 +7074,84 @@
       </c>
       <c r="AB21" s="28"/>
     </row>
-    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="9">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="9" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6">
+        <v>14</v>
+      </c>
+      <c r="G22" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6">
+        <v>13</v>
+      </c>
+      <c r="K22" s="6">
+        <v>12</v>
+      </c>
+      <c r="L22" s="6">
+        <v>13</v>
+      </c>
+      <c r="M22" s="6">
         <v>8</v>
       </c>
-      <c r="H22" s="9">
+      <c r="N22" s="6">
+        <v>11</v>
+      </c>
+      <c r="O22" s="6">
+        <v>13</v>
+      </c>
+      <c r="P22" s="6">
         <v>9</v>
       </c>
-      <c r="I22" s="9">
-        <v>12</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="9">
-        <v>13</v>
-      </c>
-      <c r="L22" s="9">
-        <v>11</v>
-      </c>
-      <c r="M22" s="23">
+      <c r="Q22" s="6">
+        <v>9</v>
+      </c>
+      <c r="R22" s="6">
+        <v>15</v>
+      </c>
+      <c r="S22" s="6">
+        <v>15</v>
+      </c>
+      <c r="T22" s="6">
+        <v>17</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="38">
         <v>5</v>
       </c>
-      <c r="N22" s="9">
-        <v>14</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>12</v>
-      </c>
-      <c r="R22" s="9">
-        <v>12</v>
-      </c>
-      <c r="S22" s="23">
-        <v>9</v>
-      </c>
-      <c r="T22" s="9">
-        <v>11</v>
-      </c>
-      <c r="U22" s="9">
+      <c r="W22" s="25"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6">
+        <f>SUM(F23:Z23)</f>
         <v>8</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9">
-        <f>SUM(F23:Z23)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -7118,11 +7163,11 @@
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
@@ -7142,7 +7187,7 @@
       </c>
       <c r="M23" s="28">
         <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" s="28">
         <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
@@ -7174,11 +7219,11 @@
       </c>
       <c r="U23" s="28">
         <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="V23" s="28">
+        <v>0</v>
+      </c>
+      <c r="V23" s="35">
         <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W23" s="28">
         <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
@@ -7202,82 +7247,84 @@
       </c>
       <c r="AB23" s="28"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="3">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="9">
+        <v>8</v>
+      </c>
+      <c r="H24" s="9">
+        <v>9</v>
+      </c>
+      <c r="I24" s="9">
+        <v>12</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="9">
+        <v>13</v>
+      </c>
+      <c r="L24" s="9">
+        <v>11</v>
+      </c>
+      <c r="M24" s="23">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="N24" s="9">
+        <v>14</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>12</v>
+      </c>
+      <c r="R24" s="9">
+        <v>12</v>
+      </c>
+      <c r="S24" s="23">
         <v>9</v>
       </c>
-      <c r="H24" s="3">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3">
-        <v>9</v>
-      </c>
-      <c r="J24" s="3">
-        <v>16</v>
-      </c>
-      <c r="K24" s="3">
-        <v>17</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N24" s="3">
-        <v>17</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="T24" s="9">
+        <v>11</v>
+      </c>
+      <c r="U24" s="9">
+        <v>8</v>
+      </c>
+      <c r="V24" s="34">
         <v>10</v>
       </c>
-      <c r="P24" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R24" s="4">
-        <v>16</v>
-      </c>
-      <c r="S24" s="4">
-        <v>16</v>
-      </c>
-      <c r="T24" s="3">
-        <v>15</v>
-      </c>
-      <c r="U24" s="3">
-        <v>16</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="3">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9">
         <f>SUM(F25:Z25)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -7285,11 +7332,11 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28">
         <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
@@ -7313,7 +7360,7 @@
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
@@ -7325,7 +7372,7 @@
       </c>
       <c r="P25" s="28">
         <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="28">
         <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))</f>
@@ -7345,9 +7392,9 @@
       </c>
       <c r="U25" s="28">
         <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="28">
+        <v>1</v>
+      </c>
+      <c r="V25" s="35">
         <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7373,82 +7420,84 @@
       </c>
       <c r="AB25" s="28"/>
     </row>
-    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="6">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
         <v>14</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3">
+        <v>17</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="6">
-        <v>6</v>
-      </c>
-      <c r="I26" s="6">
-        <v>18</v>
-      </c>
-      <c r="J26" s="6">
-        <v>13</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="M26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="3">
+        <v>17</v>
+      </c>
+      <c r="O26" s="3">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" s="4">
+        <v>16</v>
+      </c>
+      <c r="S26" s="4">
+        <v>16</v>
+      </c>
+      <c r="T26" s="3">
+        <v>15</v>
+      </c>
+      <c r="U26" s="3">
+        <v>16</v>
+      </c>
+      <c r="V26" s="41">
         <v>12</v>
       </c>
-      <c r="L26" s="6">
-        <v>13</v>
-      </c>
-      <c r="M26" s="6">
-        <v>8</v>
-      </c>
-      <c r="N26" s="6">
-        <v>11</v>
-      </c>
-      <c r="O26" s="6">
-        <v>13</v>
-      </c>
-      <c r="P26" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>9</v>
-      </c>
-      <c r="R26" s="6">
-        <v>15</v>
-      </c>
-      <c r="S26" s="6">
-        <v>15</v>
-      </c>
-      <c r="T26" s="6">
-        <v>17</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6">
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="3">
         <f>SUM(F27:Z27)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -7456,7 +7505,7 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28">
         <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
@@ -7464,7 +7513,7 @@
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
@@ -7484,7 +7533,7 @@
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
@@ -7496,7 +7545,7 @@
       </c>
       <c r="P27" s="28">
         <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="28">
         <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))</f>
@@ -7518,7 +7567,7 @@
         <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V27" s="28">
+      <c r="V27" s="35">
         <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7544,7 +7593,7 @@
       </c>
       <c r="AB27" s="28"/>
     </row>
-    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
@@ -7604,7 +7653,9 @@
       <c r="U28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="V28" s="8"/>
+      <c r="V28" s="42">
+        <v>8</v>
+      </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="24"/>
@@ -7612,10 +7663,10 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8">
         <f>SUM(F29:Z29)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -7685,9 +7736,9 @@
         <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V29" s="28">
+      <c r="V29" s="35">
         <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="28">
         <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
@@ -7711,7 +7762,7 @@
       </c>
       <c r="AB29" s="28"/>
     </row>
-    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -7775,7 +7826,9 @@
       <c r="U30" s="3">
         <v>12</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="41">
+        <v>13</v>
+      </c>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="4"/>
@@ -7786,7 +7839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -7856,7 +7909,7 @@
         <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V31" s="28">
+      <c r="V31" s="35">
         <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7882,7 +7935,7 @@
       </c>
       <c r="AB31" s="28"/>
     </row>
-    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>56</v>
       </c>
@@ -7946,7 +7999,9 @@
       <c r="U32" s="9">
         <v>14</v>
       </c>
-      <c r="V32" s="23"/>
+      <c r="V32" s="44" t="s">
+        <v>115</v>
+      </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -7957,7 +8012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -8027,7 +8082,7 @@
         <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V33" s="28">
+      <c r="V33" s="35">
         <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8053,82 +8108,84 @@
       </c>
       <c r="AB33" s="28"/>
     </row>
-    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="11">
-        <v>24</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="8">
+        <v>18</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="8">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8">
+        <v>13</v>
+      </c>
+      <c r="H34" s="8">
+        <v>12</v>
+      </c>
+      <c r="I34" s="8">
         <v>10</v>
       </c>
-      <c r="G34" s="11">
+      <c r="J34" s="8">
+        <v>10</v>
+      </c>
+      <c r="K34" s="24">
+        <v>15</v>
+      </c>
+      <c r="L34" s="8">
+        <v>14</v>
+      </c>
+      <c r="M34" s="8">
+        <v>16</v>
+      </c>
+      <c r="N34" s="8">
+        <v>10</v>
+      </c>
+      <c r="O34" s="8">
         <v>11</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="24">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>10</v>
+      </c>
+      <c r="R34" s="8">
         <v>11</v>
       </c>
-      <c r="I34" s="11">
-        <v>15</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L34" s="11">
-        <v>16</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N34" s="11">
-        <v>8</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="P34" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q34" s="11">
-        <v>16</v>
-      </c>
-      <c r="R34" s="11">
-        <v>13</v>
-      </c>
-      <c r="S34" s="11">
-        <v>14</v>
-      </c>
-      <c r="T34" s="11">
-        <v>16</v>
-      </c>
-      <c r="U34" s="11">
+      <c r="S34" s="8">
+        <v>11</v>
+      </c>
+      <c r="T34" s="8">
         <v>10</v>
       </c>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="11">
+      <c r="U34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V34" s="42">
+        <v>6</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8">
         <f>SUM(F35:Z35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -8168,7 +8225,7 @@
       </c>
       <c r="N35" s="28">
         <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="28">
         <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
@@ -8198,9 +8255,9 @@
         <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V35" s="28">
+      <c r="V35" s="35">
         <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="28">
         <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
@@ -8224,82 +8281,84 @@
       </c>
       <c r="AB35" s="28"/>
     </row>
-    <row r="36" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="5">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="5">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="11">
+        <v>24</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="11">
+        <v>10</v>
+      </c>
+      <c r="G36" s="11">
+        <v>11</v>
+      </c>
+      <c r="H36" s="11">
+        <v>11</v>
+      </c>
+      <c r="I36" s="11">
+        <v>15</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="11">
         <v>16</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="M36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="5">
+      <c r="N36" s="11">
+        <v>8</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="11">
         <v>16</v>
       </c>
-      <c r="I36" s="5">
+      <c r="R36" s="11">
+        <v>13</v>
+      </c>
+      <c r="S36" s="11">
+        <v>14</v>
+      </c>
+      <c r="T36" s="11">
         <v>16</v>
       </c>
-      <c r="J36" s="5">
-        <v>14</v>
-      </c>
-      <c r="K36" s="5">
-        <v>16</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M36" s="5">
-        <v>15</v>
-      </c>
-      <c r="N36" s="5">
-        <v>16</v>
-      </c>
-      <c r="O36" s="5">
-        <v>12</v>
-      </c>
-      <c r="P36" s="5" t="s">
+      <c r="U36" s="11">
+        <v>10</v>
+      </c>
+      <c r="V36" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R36" s="5">
-        <v>18</v>
-      </c>
-      <c r="S36" s="5">
-        <v>18</v>
-      </c>
-      <c r="T36" s="5">
-        <v>18</v>
-      </c>
-      <c r="U36" s="5">
-        <v>15</v>
-      </c>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="5">
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="11">
         <f>SUM(F37:Z37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -8339,7 +8398,7 @@
       </c>
       <c r="N37" s="28">
         <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="28">
         <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
@@ -8369,7 +8428,7 @@
         <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V37" s="28">
+      <c r="V37" s="35">
         <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8395,82 +8454,84 @@
       </c>
       <c r="AB37" s="28"/>
     </row>
-    <row r="38" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="8">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="5">
+        <v>16</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="5">
+        <v>16</v>
+      </c>
+      <c r="I38" s="5">
+        <v>16</v>
+      </c>
+      <c r="J38" s="5">
+        <v>14</v>
+      </c>
+      <c r="K38" s="5">
+        <v>16</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="5">
+        <v>15</v>
+      </c>
+      <c r="N38" s="5">
+        <v>16</v>
+      </c>
+      <c r="O38" s="5">
+        <v>12</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R38" s="5">
         <v>18</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="8">
-        <v>12</v>
-      </c>
-      <c r="G38" s="8">
-        <v>13</v>
-      </c>
-      <c r="H38" s="8">
-        <v>12</v>
-      </c>
-      <c r="I38" s="8">
-        <v>10</v>
-      </c>
-      <c r="J38" s="8">
-        <v>10</v>
-      </c>
-      <c r="K38" s="24">
+      <c r="S38" s="5">
+        <v>18</v>
+      </c>
+      <c r="T38" s="5">
+        <v>18</v>
+      </c>
+      <c r="U38" s="5">
         <v>15</v>
       </c>
-      <c r="L38" s="8">
-        <v>14</v>
-      </c>
-      <c r="M38" s="8">
-        <v>16</v>
-      </c>
-      <c r="N38" s="8">
-        <v>10</v>
-      </c>
-      <c r="O38" s="8">
-        <v>11</v>
-      </c>
-      <c r="P38" s="24">
-        <v>13</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>10</v>
-      </c>
-      <c r="R38" s="8">
-        <v>11</v>
-      </c>
-      <c r="S38" s="8">
-        <v>11</v>
-      </c>
-      <c r="T38" s="8">
-        <v>10</v>
-      </c>
-      <c r="U38" s="8" t="s">
+      <c r="V38" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="V38" s="8"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8">
+      <c r="W38" s="5"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="5">
         <f>SUM(F39:Z39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -8540,7 +8601,7 @@
         <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="35">
         <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8566,7 +8627,7 @@
       </c>
       <c r="AB39" s="28"/>
     </row>
-    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
@@ -8628,7 +8689,9 @@
         <v>12</v>
       </c>
       <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
+      <c r="V40" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
@@ -8639,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -8709,7 +8772,7 @@
         <f>IF(U40=1,10,IF(U40=2,8,IF(U40=3,6,IF(U40=4,5,IF(U40=5,4,IF(U40=6,3,IF(U40=7,2,IF(U40=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V41" s="28">
+      <c r="V41" s="35">
         <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8735,7 +8798,7 @@
       </c>
       <c r="AB41" s="28"/>
     </row>
-    <row r="42" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>110</v>
       </c>
@@ -8773,7 +8836,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
+      <c r="V42" s="42"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
@@ -8784,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -8854,7 +8917,7 @@
         <f>IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V43" s="28">
+      <c r="V43" s="35">
         <f>IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8914,7 +8977,7 @@
       <c r="U44" s="5">
         <v>9</v>
       </c>
-      <c r="V44" s="5"/>
+      <c r="V44" s="43"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
@@ -8995,7 +9058,7 @@
         <f t="shared" ref="U45" si="15">IF(U44=1,10,IF(U44=2,8,IF(U44=3,6,IF(U44=4,5,IF(U44=5,4,IF(U44=6,3,IF(U44=7,2,IF(U44=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="V45" s="28">
+      <c r="V45" s="35">
         <f t="shared" ref="V45" si="16">IF(V44=1,10,IF(V44=2,8,IF(V44=3,6,IF(V44=4,5,IF(V44=5,4,IF(V44=6,3,IF(V44=7,2,IF(V44=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -9022,8 +9085,8 @@
       <c r="AB45" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB45" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB44">
+  <autoFilter ref="A1:AB45">
+    <sortState ref="A2:AB44">
       <sortCondition descending="1" ref="AB1:AB45"/>
     </sortState>
   </autoFilter>
@@ -9034,36 +9097,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="21.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="1" customWidth="1"/>
-    <col min="10" max="14" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
+    <col min="10" max="14" width="21.25" style="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.21875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="20.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -9127,7 +9191,7 @@
       <c r="U1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="33" t="s">
         <v>106</v>
       </c>
       <c r="W1" s="27" t="s">
@@ -9155,7 +9219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -9219,7 +9283,9 @@
       <c r="U2" s="9">
         <v>1</v>
       </c>
-      <c r="V2" s="9"/>
+      <c r="V2" s="34">
+        <v>7</v>
+      </c>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
@@ -9238,7 +9304,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -9308,7 +9374,7 @@
         <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
         <v>10</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="35">
         <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9337,89 +9403,91 @@
       <c r="AD3" s="28"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="9">
+        <v>18</v>
+      </c>
+      <c r="G4" s="23">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="N4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>4</v>
+      </c>
+      <c r="R4" s="9">
+        <v>5</v>
+      </c>
+      <c r="S4" s="9">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9">
+        <v>5</v>
+      </c>
+      <c r="U4" s="9">
+        <v>6</v>
+      </c>
+      <c r="V4" s="34">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
-        <v>6</v>
-      </c>
-      <c r="J4" s="21">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="7">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7">
-        <v>4</v>
-      </c>
-      <c r="P4" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="7">
-        <v>6</v>
-      </c>
-      <c r="S4" s="7">
-        <v>6</v>
-      </c>
-      <c r="T4" s="7">
-        <v>3</v>
-      </c>
-      <c r="U4" s="7">
-        <v>2</v>
-      </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="9">
         <f>SUM(F5:Y5)+AB4</f>
-        <v>66</v>
-      </c>
-      <c r="AD4" s="7">
+        <v>73</v>
+      </c>
+      <c r="AD4" s="9">
         <f>SUM(F5:Y5)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -9427,71 +9495,71 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P5" s="28">
         <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="28">
         <f>IF(Q4=1,10,IF(Q4=2,6,IF(Q4=3,4,IF(Q4=4,3,IF(Q4=5,2,IF(Q4=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="28">
         <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="28">
         <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T5" s="28">
         <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U5" s="28">
         <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
-        <v>6</v>
-      </c>
-      <c r="V5" s="28">
+        <v>1</v>
+      </c>
+      <c r="V5" s="35">
         <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
@@ -9518,89 +9586,91 @@
       <c r="AD5" s="28"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="9">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="9">
-        <v>18</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="9">
+      <c r="M6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5</v>
+      </c>
+      <c r="O6" s="7">
+        <v>4</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="7">
+        <v>6</v>
+      </c>
+      <c r="S6" s="7">
+        <v>6</v>
+      </c>
+      <c r="T6" s="7">
+        <v>3</v>
+      </c>
+      <c r="U6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="V6" s="36">
         <v>2</v>
       </c>
-      <c r="J6" s="9">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>4</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>2</v>
-      </c>
-      <c r="T6" s="9">
-        <v>5</v>
-      </c>
-      <c r="U6" s="9">
-        <v>6</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9">
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="7">
         <f>SUM(F7:Y7)+AB6</f>
-        <v>63</v>
-      </c>
-      <c r="AD6" s="9">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="7">
         <f>SUM(F7:Y7)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -9608,71 +9678,71 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="28">
         <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P7" s="28">
         <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="28">
         <f>IF(Q6=1,10,IF(Q6=2,6,IF(Q6=3,4,IF(Q6=4,3,IF(Q6=5,2,IF(Q6=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="28">
         <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="28">
         <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T7" s="28">
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U7" s="28">
         <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="28">
+        <v>6</v>
+      </c>
+      <c r="V7" s="35">
         <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
@@ -9698,7 +9768,7 @@
       <c r="AC7" s="28"/>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -9762,7 +9832,9 @@
       <c r="U8" s="7">
         <v>3</v>
       </c>
-      <c r="V8" s="7"/>
+      <c r="V8" s="36">
+        <v>3</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -9774,14 +9846,14 @@
       </c>
       <c r="AC8" s="7">
         <f>SUM(F9:Y9)+AB8</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:Y9)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -9851,9 +9923,9 @@
         <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
         <v>4</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="35">
         <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9" s="28">
         <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
@@ -9943,7 +10015,9 @@
       <c r="U10" s="15">
         <v>3</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="37">
+        <v>14</v>
+      </c>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="18"/>
@@ -9959,7 +10033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -10029,7 +10103,7 @@
         <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
         <v>4</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="35">
         <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10121,7 +10195,9 @@
       <c r="U12" s="15">
         <v>5</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="37">
+        <v>9</v>
+      </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
@@ -10140,7 +10216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -10210,7 +10286,7 @@
         <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
         <v>2</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="35">
         <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10238,7 +10314,7 @@
       <c r="AC13" s="28"/>
       <c r="AD13" s="28"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -10302,7 +10378,9 @@
       <c r="U14" s="6">
         <v>7</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="38">
+        <v>4</v>
+      </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -10314,14 +10392,14 @@
       </c>
       <c r="AC14" s="6">
         <f>SUM(F15:Y15)+AB14</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:Y15)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -10391,9 +10469,9 @@
         <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="35">
         <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" s="28">
         <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
@@ -10419,7 +10497,7 @@
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -10483,7 +10561,9 @@
       <c r="U16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V16" s="2"/>
+      <c r="V16" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -10499,7 +10579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -10569,7 +10649,7 @@
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="35">
         <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10597,7 +10677,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="28"/>
     </row>
-    <row r="18" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -10661,7 +10741,9 @@
       <c r="U18" s="11">
         <v>13</v>
       </c>
-      <c r="V18" s="11"/>
+      <c r="V18" s="40">
+        <v>11</v>
+      </c>
       <c r="W18" s="11"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="11"/>
@@ -10677,7 +10759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -10747,7 +10829,7 @@
         <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V19" s="28">
+      <c r="V19" s="35">
         <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10775,7 +10857,7 @@
       <c r="AC19" s="28"/>
       <c r="AD19" s="28"/>
     </row>
-    <row r="20" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -10839,7 +10921,9 @@
       <c r="U20" s="2">
         <v>11</v>
       </c>
-      <c r="V20" s="2"/>
+      <c r="V20" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -10855,7 +10939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -10925,7 +11009,7 @@
         <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V21" s="28">
+      <c r="V21" s="35">
         <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10953,87 +11037,89 @@
       <c r="AC21" s="28"/>
       <c r="AD21" s="28"/>
     </row>
-    <row r="22" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="4">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6">
+        <v>14</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="6">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6">
+        <v>13</v>
+      </c>
+      <c r="K22" s="6">
+        <v>12</v>
+      </c>
+      <c r="L22" s="6">
+        <v>13</v>
+      </c>
+      <c r="M22" s="6">
+        <v>8</v>
+      </c>
+      <c r="N22" s="6">
+        <v>11</v>
+      </c>
+      <c r="O22" s="6">
+        <v>13</v>
+      </c>
+      <c r="P22" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>9</v>
+      </c>
+      <c r="R22" s="6">
+        <v>15</v>
+      </c>
+      <c r="S22" s="6">
+        <v>15</v>
+      </c>
+      <c r="T22" s="6">
+        <v>17</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="38">
         <v>5</v>
       </c>
-      <c r="G22" s="4">
-        <v>9</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9</v>
-      </c>
-      <c r="J22" s="3">
-        <v>16</v>
-      </c>
-      <c r="K22" s="3">
-        <v>17</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="3">
-        <v>17</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10</v>
-      </c>
-      <c r="P22" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R22" s="4">
-        <v>16</v>
-      </c>
-      <c r="S22" s="4">
-        <v>16</v>
-      </c>
-      <c r="T22" s="3">
-        <v>15</v>
-      </c>
-      <c r="U22" s="3">
-        <v>16</v>
-      </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3">
+      <c r="W22" s="25"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6">
         <f>SUM(F23:Y23)+AB22</f>
-        <v>2</v>
-      </c>
-      <c r="AD22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="6">
         <f>SUM(F23:Y23)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -11041,7 +11127,7 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28">
         <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="28">
         <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
@@ -11049,7 +11135,7 @@
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
@@ -11103,9 +11189,9 @@
         <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="35">
         <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W23" s="28">
         <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
@@ -11131,87 +11217,89 @@
       <c r="AC23" s="28"/>
       <c r="AD23" s="28"/>
     </row>
-    <row r="24" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="9">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9</v>
+      </c>
+      <c r="J24" s="3">
+        <v>16</v>
+      </c>
+      <c r="K24" s="3">
+        <v>17</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" s="3">
+        <v>17</v>
+      </c>
+      <c r="O24" s="3">
         <v>10</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="P24" s="4">
         <v>8</v>
       </c>
-      <c r="H24" s="9">
-        <v>9</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="Q24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R24" s="4">
+        <v>16</v>
+      </c>
+      <c r="S24" s="4">
+        <v>16</v>
+      </c>
+      <c r="T24" s="3">
+        <v>15</v>
+      </c>
+      <c r="U24" s="3">
+        <v>16</v>
+      </c>
+      <c r="V24" s="41">
         <v>12</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="9">
-        <v>13</v>
-      </c>
-      <c r="L24" s="9">
-        <v>11</v>
-      </c>
-      <c r="M24" s="23">
-        <v>5</v>
-      </c>
-      <c r="N24" s="9">
-        <v>14</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P24" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>12</v>
-      </c>
-      <c r="R24" s="9">
-        <v>12</v>
-      </c>
-      <c r="S24" s="23">
-        <v>9</v>
-      </c>
-      <c r="T24" s="9">
-        <v>11</v>
-      </c>
-      <c r="U24" s="9">
-        <v>8</v>
-      </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9">
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3">
         <f>SUM(F25:Y25)+AB24</f>
         <v>2</v>
       </c>
-      <c r="AD24" s="9">
+      <c r="AD24" s="3">
         <f>SUM(F25:Y25)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -11219,7 +11307,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28">
         <f>IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,10,IF(G24=2,6,IF(G24=3,4,IF(G24=4,3,IF(G24=5,2,IF(G24=6,1,0))))))</f>
@@ -11247,7 +11335,7 @@
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
@@ -11281,7 +11369,7 @@
         <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V25" s="28">
+      <c r="V25" s="35">
         <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11309,87 +11397,89 @@
       <c r="AC25" s="28"/>
       <c r="AD25" s="28"/>
     </row>
-    <row r="26" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="6">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="9">
+        <v>8</v>
+      </c>
+      <c r="H26" s="9">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9">
+        <v>12</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="9">
+        <v>13</v>
+      </c>
+      <c r="L26" s="9">
+        <v>11</v>
+      </c>
+      <c r="M26" s="23">
+        <v>5</v>
+      </c>
+      <c r="N26" s="9">
         <v>14</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="O26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="6">
-        <v>6</v>
-      </c>
-      <c r="I26" s="6">
-        <v>18</v>
-      </c>
-      <c r="J26" s="6">
-        <v>13</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="P26" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="9">
         <v>12</v>
       </c>
-      <c r="L26" s="6">
-        <v>13</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="R26" s="9">
+        <v>12</v>
+      </c>
+      <c r="S26" s="23">
+        <v>9</v>
+      </c>
+      <c r="T26" s="9">
+        <v>11</v>
+      </c>
+      <c r="U26" s="9">
         <v>8</v>
       </c>
-      <c r="N26" s="6">
-        <v>11</v>
-      </c>
-      <c r="O26" s="6">
-        <v>13</v>
-      </c>
-      <c r="P26" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>9</v>
-      </c>
-      <c r="R26" s="6">
-        <v>15</v>
-      </c>
-      <c r="S26" s="6">
-        <v>15</v>
-      </c>
-      <c r="T26" s="6">
-        <v>17</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6">
+      <c r="V26" s="34">
+        <v>10</v>
+      </c>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9">
         <f>SUM(F27:Y27)+AB26</f>
-        <v>1</v>
-      </c>
-      <c r="AD26" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="9">
         <f>SUM(F27:Y27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -11405,7 +11495,7 @@
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
@@ -11425,7 +11515,7 @@
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
@@ -11459,7 +11549,7 @@
         <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V27" s="28">
+      <c r="V27" s="35">
         <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11487,7 +11577,7 @@
       <c r="AC27" s="28"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
@@ -11547,7 +11637,9 @@
       <c r="U28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="V28" s="8"/>
+      <c r="V28" s="42">
+        <v>8</v>
+      </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
@@ -11563,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -11633,7 +11725,7 @@
         <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V29" s="28">
+      <c r="V29" s="35">
         <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11661,7 +11753,7 @@
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
     </row>
-    <row r="30" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -11725,7 +11817,9 @@
       <c r="U30" s="3">
         <v>12</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="41">
+        <v>13</v>
+      </c>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -11741,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -11811,7 +11905,7 @@
         <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V31" s="28">
+      <c r="V31" s="35">
         <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11839,87 +11933,89 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="5">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="8">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="8">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8">
+        <v>12</v>
+      </c>
+      <c r="I32" s="8">
+        <v>10</v>
+      </c>
+      <c r="J32" s="8">
+        <v>10</v>
+      </c>
+      <c r="K32" s="24">
+        <v>15</v>
+      </c>
+      <c r="L32" s="8">
+        <v>14</v>
+      </c>
+      <c r="M32" s="8">
+        <v>16</v>
+      </c>
+      <c r="N32" s="8">
+        <v>10</v>
+      </c>
+      <c r="O32" s="8">
+        <v>11</v>
+      </c>
+      <c r="P32" s="24">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>10</v>
+      </c>
+      <c r="R32" s="8">
+        <v>11</v>
+      </c>
+      <c r="S32" s="8">
+        <v>11</v>
+      </c>
+      <c r="T32" s="8">
+        <v>10</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V32" s="42">
         <v>6</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="5">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="5">
-        <v>16</v>
-      </c>
-      <c r="I32" s="5">
-        <v>16</v>
-      </c>
-      <c r="J32" s="5">
-        <v>14</v>
-      </c>
-      <c r="K32" s="5">
-        <v>16</v>
-      </c>
-      <c r="L32" s="5">
-        <v>15</v>
-      </c>
-      <c r="M32" s="5">
-        <v>15</v>
-      </c>
-      <c r="N32" s="5">
-        <v>16</v>
-      </c>
-      <c r="O32" s="5">
-        <v>12</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R32" s="5">
-        <v>18</v>
-      </c>
-      <c r="S32" s="5">
-        <v>17</v>
-      </c>
-      <c r="T32" s="5">
-        <v>18</v>
-      </c>
-      <c r="U32" s="5">
-        <v>15</v>
-      </c>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5">
+      <c r="W32" s="24"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8">
         <f>SUM(F33:Y33)+AB32</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="8">
         <f>SUM(F33:Y33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -11989,9 +12085,9 @@
         <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V33" s="28">
+      <c r="V33" s="35">
         <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="28">
         <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
@@ -12017,87 +12113,89 @@
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
     </row>
-    <row r="34" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="8">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="5">
+        <v>16</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="5">
+        <v>16</v>
+      </c>
+      <c r="I34" s="5">
+        <v>16</v>
+      </c>
+      <c r="J34" s="5">
+        <v>14</v>
+      </c>
+      <c r="K34" s="5">
+        <v>16</v>
+      </c>
+      <c r="L34" s="5">
+        <v>15</v>
+      </c>
+      <c r="M34" s="5">
+        <v>15</v>
+      </c>
+      <c r="N34" s="5">
+        <v>16</v>
+      </c>
+      <c r="O34" s="5">
+        <v>12</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R34" s="5">
         <v>18</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="8">
-        <v>12</v>
-      </c>
-      <c r="G34" s="8">
-        <v>13</v>
-      </c>
-      <c r="H34" s="8">
-        <v>12</v>
-      </c>
-      <c r="I34" s="8">
-        <v>10</v>
-      </c>
-      <c r="J34" s="8">
-        <v>10</v>
-      </c>
-      <c r="K34" s="24">
+      <c r="S34" s="5">
+        <v>17</v>
+      </c>
+      <c r="T34" s="5">
+        <v>18</v>
+      </c>
+      <c r="U34" s="5">
         <v>15</v>
       </c>
-      <c r="L34" s="8">
-        <v>14</v>
-      </c>
-      <c r="M34" s="8">
-        <v>16</v>
-      </c>
-      <c r="N34" s="8">
-        <v>10</v>
-      </c>
-      <c r="O34" s="8">
-        <v>11</v>
-      </c>
-      <c r="P34" s="24">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>10</v>
-      </c>
-      <c r="R34" s="8">
-        <v>11</v>
-      </c>
-      <c r="S34" s="8">
-        <v>11</v>
-      </c>
-      <c r="T34" s="8">
-        <v>10</v>
-      </c>
-      <c r="U34" s="8" t="s">
+      <c r="V34" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="V34" s="8"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8">
+      <c r="W34" s="5"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5">
         <f>SUM(F35:Y35)+AB34</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="8">
+      <c r="AD34" s="5">
         <f>SUM(F35:Y35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -12167,7 +12265,7 @@
         <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V35" s="28">
+      <c r="V35" s="35">
         <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12195,7 +12293,7 @@
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
     </row>
-    <row r="36" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>56</v>
       </c>
@@ -12259,7 +12357,9 @@
       <c r="U36" s="9">
         <v>14</v>
       </c>
-      <c r="V36" s="23"/>
+      <c r="V36" s="44" t="s">
+        <v>115</v>
+      </c>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -12275,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12345,7 +12445,7 @@
         <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V37" s="28">
+      <c r="V37" s="35">
         <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12373,7 +12473,7 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
     </row>
-    <row r="38" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -12435,7 +12535,9 @@
         <v>12</v>
       </c>
       <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="V38" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="20"/>
@@ -12451,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -12521,7 +12623,7 @@
         <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="35">
         <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12549,7 +12651,7 @@
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
     </row>
-    <row r="40" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>107</v>
       </c>
@@ -12613,7 +12715,9 @@
       <c r="U40" s="11">
         <v>10</v>
       </c>
-      <c r="V40" s="11"/>
+      <c r="V40" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="22"/>
@@ -12629,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -12699,7 +12803,7 @@
         <f>IF(U40=1,10,IF(U40=2,6,IF(U40=3,4,IF(U40=4,3,IF(U40=5,2,IF(U40=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V41" s="28">
+      <c r="V41" s="35">
         <f>IF(V40=1,10,IF(V40=2,6,IF(V40=3,4,IF(V40=4,3,IF(V40=5,2,IF(V40=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12727,7 +12831,7 @@
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
     </row>
-    <row r="42" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>110</v>
       </c>
@@ -12763,7 +12867,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
+      <c r="V42" s="42"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
@@ -12779,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -12849,7 +12953,7 @@
         <f>IF(U42=1,10,IF(U42=2,6,IF(U42=3,4,IF(U42=4,3,IF(U42=5,2,IF(U42=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V43" s="28">
+      <c r="V43" s="35">
         <f>IF(V42=1,10,IF(V42=2,6,IF(V42=3,4,IF(V42=4,3,IF(V42=5,2,IF(V42=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12911,7 +13015,7 @@
       <c r="U44" s="5">
         <v>9</v>
       </c>
-      <c r="V44" s="5"/>
+      <c r="V44" s="43"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="20"/>
@@ -12997,7 +13101,7 @@
         <f t="shared" ref="U45" si="15">IF(U44=1,10,IF(U44=2,6,IF(U44=3,4,IF(U44=4,3,IF(U44=5,2,IF(U44=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="V45" s="28">
+      <c r="V45" s="35">
         <f t="shared" ref="V45" si="16">IF(V44=1,10,IF(V44=2,6,IF(V44=3,4,IF(V44=4,3,IF(V44=5,2,IF(V44=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -13025,10 +13129,9 @@
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
     </row>
-    <row r="59" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AD45" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD44">
+  <autoFilter ref="A1:AD45">
+    <sortState ref="A2:AD44">
       <sortCondition descending="1" ref="AC1:AC45"/>
     </sortState>
   </autoFilter>
@@ -13039,18 +13142,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13083,11 +13186,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD6</f>
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="E2" s="10">
         <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE6</f>
-        <v>511</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13102,11 +13205,11 @@
       </c>
       <c r="D3" s="7">
         <f>'2022 Driver Ranking'!AD4+'2022 Driver Ranking'!AD10</f>
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="E3" s="7">
         <f>'2022 Driver Ranking'!AE4+'2022 Driver Ranking'!AE10</f>
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13121,49 +13224,49 @@
       </c>
       <c r="D4" s="15">
         <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD12</f>
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E4" s="15">
         <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD22</f>
+        <v>129</v>
+      </c>
+      <c r="E5" s="6">
+        <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE22</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
         <v>125</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
         <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6">
-        <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD28</f>
-        <v>107</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE28</f>
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13177,69 +13280,69 @@
         <v>80</v>
       </c>
       <c r="D7" s="11">
-        <f>'2022 Driver Ranking'!AD20+'2022 Driver Ranking'!AD34</f>
+        <f>'2022 Driver Ranking'!AD20+'2022 Driver Ranking'!AD36</f>
         <v>52</v>
       </c>
       <c r="E7" s="11">
-        <f>'2022 Driver Ranking'!AE20+'2022 Driver Ranking'!AE34</f>
+        <f>'2022 Driver Ranking'!AE20+'2022 Driver Ranking'!AE36</f>
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'2022 Driver Ranking'!AD24+'2022 Driver Ranking'!AD30+'2022 Driver Ranking'!AD44</f>
+        <v>37</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE44</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="3">
-        <f>'2022 Driver Ranking'!AD22+'2022 Driver Ranking'!AD30</f>
+      <c r="D9" s="3">
+        <f>'2022 Driver Ranking'!AD28+'2022 Driver Ranking'!AD32</f>
         <v>34</v>
       </c>
-      <c r="E8" s="3">
-        <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30</f>
+      <c r="E9" s="3">
+        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE32</f>
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10">
-        <f>'2022 Driver Ranking'!AD24+'2022 Driver Ranking'!AD32</f>
-        <v>33</v>
-      </c>
-      <c r="E9" s="10">
-        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE32</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8">
-        <f>'2022 Driver Ranking'!AD26+'2022 Driver Ranking'!AD36+'2022 Driver Ranking'!AD42</f>
-        <v>25</v>
-      </c>
-      <c r="E10" s="8">
-        <f>'2022 Driver Ranking'!AE26+'2022 Driver Ranking'!AE36+'2022 Driver Ranking'!AE42</f>
-        <v>25</v>
+      <c r="D10" s="10">
+        <f>'2022 Driver Ranking'!AD26+'2022 Driver Ranking'!AD34</f>
+        <v>34</v>
+      </c>
+      <c r="E10" s="10">
+        <f>'2022 Driver Ranking'!AE26+'2022 Driver Ranking'!AE34</f>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13253,17 +13356,17 @@
         <v>82</v>
       </c>
       <c r="D11" s="5">
-        <f>'2022 Driver Ranking'!AD38+'2022 Driver Ranking'!AD40+'2022 Driver Ranking'!AD44</f>
+        <f>'2022 Driver Ranking'!AD38+'2022 Driver Ranking'!AD40+'2022 Driver Ranking'!AD42</f>
         <v>6</v>
       </c>
       <c r="E11" s="5">
-        <f>'2022 Driver Ranking'!AE38+'2022 Driver Ranking'!AE40+'2022 Driver Ranking'!AE44</f>
+        <f>'2022 Driver Ranking'!AE38+'2022 Driver Ranking'!AE40+'2022 Driver Ranking'!AE42</f>
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+  <autoFilter ref="A1:E11">
+    <sortState ref="A2:E11">
       <sortCondition descending="1" ref="D1:D11"/>
     </sortState>
   </autoFilter>
@@ -13274,17 +13377,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13314,7 +13417,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13329,7 +13432,7 @@
       </c>
       <c r="D3" s="7">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB10</f>
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13348,33 +13451,33 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB22</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB18</f>
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6">
-        <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB26</f>
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13388,7 +13491,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="11">
-        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB34</f>
+        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB36</f>
         <v>16</v>
       </c>
     </row>
@@ -13403,7 +13506,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="3">
-        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB30</f>
+        <f>'2003-2009 Driver Ranking'!AB26+'2003-2009 Driver Ranking'!AB30</f>
         <v>9</v>
       </c>
     </row>
@@ -13418,7 +13521,7 @@
         <v>75</v>
       </c>
       <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB32</f>
+        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB32</f>
         <v>9</v>
       </c>
     </row>
@@ -13433,8 +13536,8 @@
         <v>82</v>
       </c>
       <c r="D10" s="8">
-        <f>'2003-2009 Driver Ranking'!AB28+'2003-2009 Driver Ranking'!AB38+'2003-2009 Driver Ranking'!AB42</f>
-        <v>4</v>
+        <f>'2003-2009 Driver Ranking'!AB28+'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB42</f>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13448,13 +13551,13 @@
         <v>82</v>
       </c>
       <c r="D11" s="5">
-        <f>'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB40+'2003-2009 Driver Ranking'!AB44</f>
+        <f>'2003-2009 Driver Ranking'!AB38+'2003-2009 Driver Ranking'!AB40+'2003-2009 Driver Ranking'!AB44</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+  <autoFilter ref="A1:D11">
+    <sortState ref="A2:D11">
       <sortCondition descending="1" ref="D1:D11"/>
     </sortState>
   </autoFilter>
@@ -13464,18 +13567,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13507,12 +13610,12 @@
         <v>77</v>
       </c>
       <c r="D2" s="10">
-        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC6</f>
-        <v>188</v>
+        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
+        <v>198</v>
       </c>
       <c r="E2" s="10">
-        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD6</f>
-        <v>180</v>
+        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13526,12 +13629,12 @@
         <v>76</v>
       </c>
       <c r="D3" s="7">
-        <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC8</f>
-        <v>120</v>
+        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC8</f>
+        <v>130</v>
       </c>
       <c r="E3" s="7">
-        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD8</f>
-        <v>115</v>
+        <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8</f>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13554,41 +13657,41 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'1991-2002 Driver Ranking'!AC14+'1991-2002 Driver Ranking'!AC22</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD22</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC20</f>
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD20</f>
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6">
-        <f>'1991-2002 Driver Ranking'!AC14+'1991-2002 Driver Ranking'!AC26</f>
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD26</f>
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13621,11 +13724,11 @@
         <v>79</v>
       </c>
       <c r="D8" s="3">
-        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC30</f>
+        <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC30</f>
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
+        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD30</f>
         <v>3</v>
       </c>
     </row>
@@ -13640,11 +13743,11 @@
         <v>75</v>
       </c>
       <c r="D9" s="10">
-        <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC36</f>
+        <f>'1991-2002 Driver Ranking'!AC26+'1991-2002 Driver Ranking'!AC36</f>
         <v>2</v>
       </c>
       <c r="E9" s="10">
-        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD36</f>
+        <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD36</f>
         <v>2</v>
       </c>
     </row>
@@ -13659,12 +13762,12 @@
         <v>82</v>
       </c>
       <c r="D10" s="8">
-        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC34+'1991-2002 Driver Ranking'!AC42</f>
-        <v>1</v>
+        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC42</f>
+        <v>2</v>
       </c>
       <c r="E10" s="8">
-        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD34+'1991-2002 Driver Ranking'!AD42</f>
-        <v>1</v>
+        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD42</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13678,17 +13781,17 @@
         <v>82</v>
       </c>
       <c r="D11" s="5">
-        <f>'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC38+'1991-2002 Driver Ranking'!AC44</f>
+        <f>'1991-2002 Driver Ranking'!AC34+'1991-2002 Driver Ranking'!AC38+'1991-2002 Driver Ranking'!AC44</f>
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <f>'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD44</f>
+        <f>'1991-2002 Driver Ranking'!AD34+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD44</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0000-000005000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+  <autoFilter ref="A1:E11">
+    <sortState ref="A2:E11">
       <sortCondition descending="1" ref="D1:D11"/>
     </sortState>
   </autoFilter>
@@ -13699,25 +13802,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -13740,7 +13843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -13761,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -13782,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -13803,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
@@ -13825,8 +13928,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+  <autoFilter ref="A1:G5">
+    <sortState ref="A2:G5">
       <sortCondition descending="1" ref="D1:D5"/>
     </sortState>
   </autoFilter>
@@ -13836,23 +13939,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -13869,7 +13972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -13885,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -13901,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -13917,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
@@ -13934,8 +14037,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0000-000007000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+  <autoFilter ref="A1:E5">
+    <sortState ref="A2:E5">
       <sortCondition descending="1" ref="D1:D5"/>
     </sortState>
   </autoFilter>
@@ -13945,24 +14048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -13985,7 +14088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -14006,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -14027,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
@@ -14048,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -14070,8 +14173,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0000-000008000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+  <autoFilter ref="A1:G5">
+    <sortState ref="A2:G5">
       <sortCondition descending="1" ref="D1:D5"/>
     </sortState>
   </autoFilter>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="121">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,14 @@
   </si>
   <si>
     <t>Nyck de Vries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1081,7 +1089,7 @@
     <col min="20" max="20" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.125" style="1" bestFit="1" customWidth="1"/>
@@ -1254,7 +1262,9 @@
       <c r="V2" s="34">
         <v>7</v>
       </c>
-      <c r="W2" s="9"/>
+      <c r="W2" s="9">
+        <v>1</v>
+      </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -1269,11 +1279,11 @@
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1352,7 +1362,7 @@
       </c>
       <c r="W3" s="28">
         <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X3" s="28">
         <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
@@ -1376,92 +1386,94 @@
       <c r="AE3" s="28"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="9">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="N4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>4</v>
+      </c>
+      <c r="R4" s="10">
+        <v>5</v>
+      </c>
+      <c r="S4" s="9">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9">
+        <v>5</v>
+      </c>
+      <c r="U4" s="9">
+        <v>6</v>
+      </c>
+      <c r="V4" s="34">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
-        <v>6</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="W4" s="9">
         <v>2</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="7">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7">
-        <v>4</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="7">
-        <v>6</v>
-      </c>
-      <c r="S4" s="7">
-        <v>6</v>
-      </c>
-      <c r="T4" s="7">
-        <v>3</v>
-      </c>
-      <c r="U4" s="7">
-        <v>2</v>
-      </c>
-      <c r="V4" s="36">
-        <v>2</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="7">
-        <f>7+7</f>
-        <v>14</v>
-      </c>
-      <c r="AD4" s="7">
+      <c r="AC4" s="9">
+        <f>6+4</f>
+        <v>10</v>
+      </c>
+      <c r="AD4" s="9">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>237</v>
-      </c>
-      <c r="AE4" s="7">
+        <v>253</v>
+      </c>
+      <c r="AE4" s="9">
         <f>SUM(F5:AA5)</f>
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1472,75 +1484,75 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P5" s="28">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="28">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R5" s="28">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S5" s="28">
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T5" s="28">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U5" s="28">
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="V5" s="35">
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X5" s="28">
         <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
@@ -1564,92 +1576,94 @@
       <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="9">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="9">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="9">
+      <c r="M6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5</v>
+      </c>
+      <c r="O6" s="7">
+        <v>4</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="7">
+        <v>6</v>
+      </c>
+      <c r="S6" s="7">
+        <v>6</v>
+      </c>
+      <c r="T6" s="7">
+        <v>3</v>
+      </c>
+      <c r="U6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="V6" s="36">
         <v>2</v>
       </c>
-      <c r="J6" s="9">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>4</v>
-      </c>
-      <c r="R6" s="10">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>2</v>
-      </c>
-      <c r="T6" s="9">
-        <v>5</v>
-      </c>
-      <c r="U6" s="9">
-        <v>6</v>
-      </c>
-      <c r="V6" s="34">
-        <v>1</v>
-      </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9">
+      <c r="W6" s="7">
+        <v>3</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC6" s="9">
-        <f>6+4</f>
-        <v>10</v>
-      </c>
-      <c r="AD6" s="9">
+      <c r="AC6" s="7">
+        <f>7+7</f>
+        <v>14</v>
+      </c>
+      <c r="AD6" s="7">
         <f>SUM(F7:AA7)+AB6+AC6</f>
+        <v>252</v>
+      </c>
+      <c r="AE6" s="7">
+        <f>SUM(F7:AA7)</f>
         <v>235</v>
-      </c>
-      <c r="AE6" s="9">
-        <f>SUM(F7:AA7)</f>
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1660,75 +1674,75 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L7" s="28">
         <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P7" s="28">
         <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="28">
         <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R7" s="28">
         <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S7" s="28">
         <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T7" s="28">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U7" s="28">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V7" s="35">
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X7" s="28">
         <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
@@ -1818,7 +1832,9 @@
       <c r="V8" s="37">
         <v>14</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="15">
+        <v>8</v>
+      </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
@@ -1830,11 +1846,11 @@
       </c>
       <c r="AD8" s="15">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AE8" s="15">
         <f>SUM(F9:AA9)</f>
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1913,7 +1929,7 @@
       </c>
       <c r="W9" s="28">
         <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X9" s="28">
         <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
@@ -2003,7 +2019,9 @@
       <c r="V10" s="36">
         <v>3</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -2191,7 +2209,9 @@
       <c r="V12" s="37">
         <v>9</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="15">
+        <v>5</v>
+      </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
@@ -2206,11 +2226,11 @@
       </c>
       <c r="AD12" s="15">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AE12" s="15">
         <f>SUM(F13:AA13)</f>
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2289,7 +2309,7 @@
       </c>
       <c r="W13" s="28">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13" s="28">
         <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
@@ -2379,7 +2399,9 @@
       <c r="V14" s="38">
         <v>4</v>
       </c>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6">
+        <v>10</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -2394,11 +2416,11 @@
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE14" s="6">
         <f>SUM(F15:AA15)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2477,7 +2499,7 @@
       </c>
       <c r="W15" s="28">
         <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="28">
         <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
@@ -2565,9 +2587,11 @@
         <v>11</v>
       </c>
       <c r="V16" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="W16" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="W16" s="2">
+        <v>4</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="AD16" s="2">
         <f>SUM(F17:AA17)+AB16+AC16</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AE16" s="2">
         <f>SUM(F17:AA17)</f>
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2662,7 +2686,7 @@
       </c>
       <c r="W17" s="28">
         <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X17" s="28">
         <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
@@ -2752,7 +2776,9 @@
       <c r="V18" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="W18" s="2"/>
+      <c r="W18" s="2">
+        <v>7</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -2761,11 +2787,11 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2">
         <f>SUM(F19:AA19)+AB18+AC18</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AE18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2844,7 +2870,7 @@
       </c>
       <c r="W19" s="28">
         <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X19" s="28">
         <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
@@ -2934,7 +2960,9 @@
       <c r="V20" s="40">
         <v>11</v>
       </c>
-      <c r="W20" s="11"/>
+      <c r="W20" s="11">
+        <v>15</v>
+      </c>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
@@ -3053,89 +3081,84 @@
       <c r="AE21" s="28"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="A22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="8">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="8">
+        <v>11</v>
+      </c>
+      <c r="L22" s="8">
+        <v>10</v>
+      </c>
+      <c r="M22" s="8">
+        <v>6</v>
+      </c>
+      <c r="N22" s="8">
+        <v>12</v>
+      </c>
+      <c r="O22" s="8">
+        <v>9</v>
+      </c>
+      <c r="P22" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>11</v>
+      </c>
+      <c r="R22" s="8">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8">
+        <v>8</v>
+      </c>
+      <c r="T22" s="8">
         <v>14</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="U22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="42">
+        <v>8</v>
+      </c>
+      <c r="W22" s="8">
         <v>6</v>
       </c>
-      <c r="I22" s="6">
-        <v>18</v>
-      </c>
-      <c r="J22" s="6">
-        <v>13</v>
-      </c>
-      <c r="K22" s="6">
-        <v>12</v>
-      </c>
-      <c r="L22" s="6">
-        <v>13</v>
-      </c>
-      <c r="M22" s="6">
-        <v>8</v>
-      </c>
-      <c r="N22" s="6">
-        <v>11</v>
-      </c>
-      <c r="O22" s="6">
-        <v>13</v>
-      </c>
-      <c r="P22" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>9</v>
-      </c>
-      <c r="R22" s="6">
-        <v>15</v>
-      </c>
-      <c r="S22" s="6">
-        <v>15</v>
-      </c>
-      <c r="T22" s="6">
-        <v>17</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V22" s="38">
-        <v>5</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="AD22" s="6">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>29</v>
-      </c>
-      <c r="AE22" s="6">
+        <v>32</v>
+      </c>
+      <c r="AE22" s="8">
         <f>SUM(F23:AA23)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3154,11 +3177,11 @@
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="28">
         <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
@@ -3170,11 +3193,11 @@
       </c>
       <c r="L23" s="28">
         <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="28">
         <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N23" s="28">
         <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
@@ -3182,23 +3205,23 @@
       </c>
       <c r="O23" s="28">
         <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="28">
         <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="28">
         <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="28">
         <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="28">
         <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T23" s="28">
         <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
@@ -3210,11 +3233,11 @@
       </c>
       <c r="V23" s="35">
         <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W23" s="28">
         <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X23" s="28">
         <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
@@ -3238,82 +3261,91 @@
       <c r="AE23" s="28"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>18</v>
+      </c>
+      <c r="J24" s="6">
+        <v>13</v>
+      </c>
+      <c r="K24" s="6">
+        <v>12</v>
+      </c>
+      <c r="L24" s="6">
+        <v>13</v>
+      </c>
+      <c r="M24" s="6">
+        <v>8</v>
+      </c>
+      <c r="N24" s="6">
+        <v>11</v>
+      </c>
+      <c r="O24" s="6">
+        <v>13</v>
+      </c>
+      <c r="P24" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>9</v>
+      </c>
+      <c r="R24" s="6">
+        <v>15</v>
+      </c>
+      <c r="S24" s="6">
+        <v>15</v>
+      </c>
+      <c r="T24" s="6">
+        <v>17</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="38">
         <v>5</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="8">
-        <v>8</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="W24" s="6">
         <v>11</v>
       </c>
-      <c r="L24" s="8">
-        <v>10</v>
-      </c>
-      <c r="M24" s="8">
-        <v>6</v>
-      </c>
-      <c r="N24" s="8">
-        <v>12</v>
-      </c>
-      <c r="O24" s="8">
-        <v>9</v>
-      </c>
-      <c r="P24" s="8">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>11</v>
-      </c>
-      <c r="R24" s="8">
-        <v>10</v>
-      </c>
-      <c r="S24" s="8">
-        <v>8</v>
-      </c>
-      <c r="T24" s="8">
-        <v>14</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="V24" s="42">
-        <v>8</v>
-      </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8">
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="AD24" s="6">
         <f>SUM(F25:AA25)+AB24+AC24</f>
-        <v>24</v>
-      </c>
-      <c r="AE24" s="8">
+        <v>29</v>
+      </c>
+      <c r="AE24" s="6">
         <f>SUM(F25:AA25)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3332,11 +3364,11 @@
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I25" s="28">
         <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" s="28">
         <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
@@ -3348,11 +3380,11 @@
       </c>
       <c r="L25" s="28">
         <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
@@ -3360,23 +3392,23 @@
       </c>
       <c r="O25" s="28">
         <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="28">
         <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="28">
         <f>IF(Q24=1,25,IF(Q24=2,18,IF(Q24=3,15,IF(Q24=4,12,IF(Q24=5,10,IF(Q24=6,8,IF(Q24=7,6,IF(Q24=8,4,IF(Q24=9,2,IF(Q24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="28">
         <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="28">
         <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" s="28">
         <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
@@ -3388,7 +3420,7 @@
       </c>
       <c r="V25" s="35">
         <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W25" s="28">
         <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
@@ -3482,7 +3514,9 @@
       <c r="V26" s="34">
         <v>10</v>
       </c>
-      <c r="W26" s="9"/>
+      <c r="W26" s="9">
+        <v>18</v>
+      </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3664,7 +3698,9 @@
       <c r="V28" s="41">
         <v>12</v>
       </c>
-      <c r="W28" s="3"/>
+      <c r="W28" s="3">
+        <v>14</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -3849,7 +3885,9 @@
       <c r="V30" s="42">
         <v>6</v>
       </c>
-      <c r="W30" s="8"/>
+      <c r="W30" s="8">
+        <v>12</v>
+      </c>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -4031,7 +4069,9 @@
       <c r="V32" s="41">
         <v>13</v>
       </c>
-      <c r="W32" s="3"/>
+      <c r="W32" s="3">
+        <v>17</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
@@ -4213,7 +4253,9 @@
       <c r="V34" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="9">
+        <v>13</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="9"/>
@@ -4395,7 +4437,9 @@
       <c r="V36" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="W36" s="11"/>
+      <c r="W36" s="11">
+        <v>16</v>
+      </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
@@ -4575,7 +4619,9 @@
       <c r="V38" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="W38" s="5"/>
+      <c r="W38" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -4907,7 +4953,9 @@
       <c r="V42" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="W42" s="5"/>
+      <c r="W42" s="5">
+        <v>9</v>
+      </c>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
@@ -4916,11 +4964,11 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5">
         <f>SUM(F43:AA43)+AB42+AC42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE42" s="5">
         <f>SUM(F43:AA43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -4999,7 +5047,7 @@
       </c>
       <c r="W43" s="28">
         <f>IF(W42=1,25,IF(W42=2,18,IF(W42=3,15,IF(W42=4,12,IF(W42=5,10,IF(W42=6,8,IF(W42=7,6,IF(W42=8,4,IF(W42=9,2,IF(W42=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" s="28">
         <f>IF(X42=1,25,IF(X42=2,18,IF(X42=3,15,IF(X42=4,12,IF(X42=5,10,IF(X42=6,8,IF(X42=7,6,IF(X42=8,4,IF(X42=9,2,IF(X42=10,1,0))))))))))</f>
@@ -5251,8 +5299,8 @@
     <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="20.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -5325,7 +5373,7 @@
       <c r="V1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="33" t="s">
         <v>92</v>
       </c>
       <c r="X1" s="27" t="s">
@@ -5411,14 +5459,16 @@
       <c r="V2" s="34">
         <v>7</v>
       </c>
-      <c r="W2" s="9"/>
+      <c r="W2" s="34">
+        <v>1</v>
+      </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:Z3)</f>
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5495,9 +5545,9 @@
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
         <v>2</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="35">
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3" s="28">
         <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
@@ -5584,14 +5634,16 @@
       <c r="V4" s="34">
         <v>1</v>
       </c>
-      <c r="W4" s="9"/>
+      <c r="W4" s="34">
+        <v>2</v>
+      </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="23"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9">
         <f>SUM(F5:Z5)</f>
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5668,9 +5720,9 @@
         <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
         <v>10</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="35">
         <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X5" s="28">
         <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
@@ -5757,14 +5809,16 @@
       <c r="V6" s="36">
         <v>2</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="36">
+        <v>3</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:Z7)</f>
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5841,9 +5895,9 @@
         <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
         <v>8</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="35">
         <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X7" s="28">
         <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
@@ -5930,14 +5984,16 @@
       <c r="V8" s="37">
         <v>14</v>
       </c>
-      <c r="W8" s="15"/>
+      <c r="W8" s="37">
+        <v>8</v>
+      </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="15">
         <f>SUM(F9:Z9)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -6014,9 +6070,9 @@
         <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="35">
         <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="28">
         <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
@@ -6103,7 +6159,9 @@
       <c r="V10" s="36">
         <v>3</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="36" t="s">
+        <v>119</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -6187,7 +6245,7 @@
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
         <v>6</v>
       </c>
-      <c r="W11" s="28">
+      <c r="W11" s="35">
         <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6276,14 +6334,16 @@
       <c r="V12" s="37">
         <v>9</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="37">
+        <v>5</v>
+      </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15">
         <f>SUM(F13:Z13)</f>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6360,9 +6420,9 @@
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="28">
+      <c r="W13" s="35">
         <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X13" s="28">
         <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
@@ -6449,7 +6509,9 @@
       <c r="V14" s="38">
         <v>4</v>
       </c>
-      <c r="W14" s="6"/>
+      <c r="W14" s="38">
+        <v>10</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -6533,7 +6595,7 @@
         <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
         <v>5</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="35">
         <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6620,16 +6682,18 @@
         <v>11</v>
       </c>
       <c r="V16" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="W16" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="W16" s="39">
+        <v>4</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
         <f>SUM(F17:Z17)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6706,9 +6770,9 @@
         <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W17" s="28">
+      <c r="W17" s="35">
         <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X17" s="28">
         <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
@@ -6795,14 +6859,16 @@
       <c r="V18" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="W18" s="2"/>
+      <c r="W18" s="39">
+        <v>7</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:Z19)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6879,9 +6945,9 @@
         <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W19" s="28">
+      <c r="W19" s="35">
         <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="28">
         <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
@@ -6968,7 +7034,9 @@
       <c r="V20" s="40">
         <v>11</v>
       </c>
-      <c r="W20" s="11"/>
+      <c r="W20" s="40">
+        <v>15</v>
+      </c>
       <c r="X20" s="22"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
@@ -7052,7 +7120,7 @@
         <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W21" s="28">
+      <c r="W21" s="35">
         <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7141,7 +7209,9 @@
       <c r="V22" s="38">
         <v>5</v>
       </c>
-      <c r="W22" s="25"/>
+      <c r="W22" s="38">
+        <v>11</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -7225,7 +7295,7 @@
         <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
         <v>4</v>
       </c>
-      <c r="W23" s="28">
+      <c r="W23" s="35">
         <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7248,80 +7318,78 @@
       <c r="AB23" s="28"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="8">
+        <v>8</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="8">
+        <v>11</v>
+      </c>
+      <c r="L24" s="8">
         <v>10</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="M24" s="8">
+        <v>6</v>
+      </c>
+      <c r="N24" s="24">
+        <v>12</v>
+      </c>
+      <c r="O24" s="24">
+        <v>9</v>
+      </c>
+      <c r="P24" s="24">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>11</v>
+      </c>
+      <c r="R24" s="8">
+        <v>10</v>
+      </c>
+      <c r="S24" s="8">
+        <v>10</v>
+      </c>
+      <c r="T24" s="8">
+        <v>14</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="42">
         <v>8</v>
       </c>
-      <c r="H24" s="9">
-        <v>9</v>
-      </c>
-      <c r="I24" s="9">
-        <v>12</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="9">
-        <v>13</v>
-      </c>
-      <c r="L24" s="9">
-        <v>11</v>
-      </c>
-      <c r="M24" s="23">
-        <v>5</v>
-      </c>
-      <c r="N24" s="9">
-        <v>14</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P24" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>12</v>
-      </c>
-      <c r="R24" s="9">
-        <v>12</v>
-      </c>
-      <c r="S24" s="23">
-        <v>9</v>
-      </c>
-      <c r="T24" s="9">
-        <v>11</v>
-      </c>
-      <c r="U24" s="9">
+      <c r="W24" s="42">
+        <v>6</v>
+      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8">
+        <f>SUM(F25:Z25)</f>
         <v>8</v>
-      </c>
-      <c r="V24" s="34">
-        <v>10</v>
-      </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9">
-        <f>SUM(F25:Z25)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -7336,7 +7404,7 @@
       </c>
       <c r="G25" s="28">
         <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
@@ -7344,7 +7412,7 @@
       </c>
       <c r="I25" s="28">
         <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="28">
         <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
@@ -7360,7 +7428,7 @@
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
@@ -7392,15 +7460,15 @@
       </c>
       <c r="U25" s="28">
         <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="35">
         <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="28">
+        <v>1</v>
+      </c>
+      <c r="W25" s="35">
         <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25" s="28">
         <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
@@ -7421,80 +7489,82 @@
       <c r="AB25" s="28"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="3">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="A26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="9">
+        <v>8</v>
+      </c>
+      <c r="H26" s="9">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9">
+        <v>12</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="9">
+        <v>13</v>
+      </c>
+      <c r="L26" s="9">
+        <v>11</v>
+      </c>
+      <c r="M26" s="23">
         <v>5</v>
       </c>
-      <c r="G26" s="3">
+      <c r="N26" s="9">
+        <v>14</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>12</v>
+      </c>
+      <c r="R26" s="9">
+        <v>12</v>
+      </c>
+      <c r="S26" s="23">
         <v>9</v>
       </c>
-      <c r="H26" s="3">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3">
-        <v>9</v>
-      </c>
-      <c r="J26" s="3">
-        <v>16</v>
-      </c>
-      <c r="K26" s="3">
-        <v>17</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N26" s="3">
-        <v>17</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="T26" s="9">
+        <v>11</v>
+      </c>
+      <c r="U26" s="9">
+        <v>8</v>
+      </c>
+      <c r="V26" s="34">
         <v>10</v>
       </c>
-      <c r="P26" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R26" s="4">
-        <v>16</v>
-      </c>
-      <c r="S26" s="4">
-        <v>16</v>
-      </c>
-      <c r="T26" s="3">
-        <v>15</v>
-      </c>
-      <c r="U26" s="3">
-        <v>16</v>
-      </c>
-      <c r="V26" s="41">
-        <v>12</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="3">
+      <c r="W26" s="34">
+        <v>18</v>
+      </c>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9">
         <f>SUM(F27:Z27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -7505,11 +7575,11 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28">
         <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
@@ -7533,7 +7603,7 @@
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
@@ -7545,7 +7615,7 @@
       </c>
       <c r="P27" s="28">
         <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="28">
         <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))</f>
@@ -7565,13 +7635,13 @@
       </c>
       <c r="U27" s="28">
         <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="35">
         <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="28">
+      <c r="W27" s="35">
         <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7594,74 +7664,80 @@
       <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="A28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24" t="s">
+      <c r="G28" s="3">
+        <v>9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3">
+        <v>9</v>
+      </c>
+      <c r="J28" s="3">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>17</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="8">
+      <c r="M28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28" s="3">
+        <v>17</v>
+      </c>
+      <c r="O28" s="3">
+        <v>10</v>
+      </c>
+      <c r="P28" s="4">
         <v>8</v>
       </c>
-      <c r="J28" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="8">
-        <v>11</v>
-      </c>
-      <c r="L28" s="8">
-        <v>10</v>
-      </c>
-      <c r="M28" s="8">
-        <v>6</v>
-      </c>
-      <c r="N28" s="24">
+      <c r="Q28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" s="4">
+        <v>16</v>
+      </c>
+      <c r="S28" s="4">
+        <v>16</v>
+      </c>
+      <c r="T28" s="3">
+        <v>15</v>
+      </c>
+      <c r="U28" s="3">
+        <v>16</v>
+      </c>
+      <c r="V28" s="41">
         <v>12</v>
       </c>
-      <c r="O28" s="24">
-        <v>9</v>
-      </c>
-      <c r="P28" s="24">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>11</v>
-      </c>
-      <c r="R28" s="8">
-        <v>10</v>
-      </c>
-      <c r="S28" s="8">
-        <v>10</v>
-      </c>
-      <c r="T28" s="8">
+      <c r="W28" s="41">
         <v>14</v>
       </c>
-      <c r="U28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="V28" s="42">
-        <v>8</v>
-      </c>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="3">
         <f>SUM(F29:Z29)</f>
         <v>5</v>
       </c>
@@ -7674,7 +7750,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28">
         <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="28">
         <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
@@ -7686,7 +7762,7 @@
       </c>
       <c r="I29" s="28">
         <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="28">
         <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
@@ -7702,7 +7778,7 @@
       </c>
       <c r="M29" s="28">
         <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" s="28">
         <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
@@ -7714,7 +7790,7 @@
       </c>
       <c r="P29" s="28">
         <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="28">
         <f>IF(Q28=1,10,IF(Q28=2,8,IF(Q28=3,6,IF(Q28=4,5,IF(Q28=5,4,IF(Q28=6,3,IF(Q28=7,2,IF(Q28=8,1,0))))))))</f>
@@ -7738,9 +7814,9 @@
       </c>
       <c r="V29" s="35">
         <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="28">
+        <v>0</v>
+      </c>
+      <c r="W29" s="35">
         <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7829,7 +7905,9 @@
       <c r="V30" s="41">
         <v>13</v>
       </c>
-      <c r="W30" s="3"/>
+      <c r="W30" s="41">
+        <v>17</v>
+      </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="3"/>
@@ -7913,7 +7991,7 @@
         <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W31" s="28">
+      <c r="W31" s="35">
         <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8002,7 +8080,9 @@
       <c r="V32" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="34">
+        <v>13</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -8086,7 +8166,7 @@
         <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W33" s="28">
+      <c r="W33" s="35">
         <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8175,7 +8255,9 @@
       <c r="V34" s="42">
         <v>6</v>
       </c>
-      <c r="W34" s="24"/>
+      <c r="W34" s="42">
+        <v>12</v>
+      </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
@@ -8259,7 +8341,7 @@
         <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
         <v>3</v>
       </c>
-      <c r="W35" s="28">
+      <c r="W35" s="35">
         <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8348,7 +8430,9 @@
       <c r="V36" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="W36" s="11"/>
+      <c r="W36" s="40">
+        <v>16</v>
+      </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="22"/>
@@ -8432,7 +8516,7 @@
         <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W37" s="28">
+      <c r="W37" s="35">
         <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8521,7 +8605,9 @@
       <c r="V38" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="W38" s="5"/>
+      <c r="W38" s="43">
+        <v>9</v>
+      </c>
       <c r="X38" s="20"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="20"/>
@@ -8605,7 +8691,7 @@
         <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W39" s="28">
+      <c r="W39" s="35">
         <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8692,7 +8778,9 @@
       <c r="V40" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="W40" s="5"/>
+      <c r="W40" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="20"/>
@@ -8776,7 +8864,7 @@
         <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W41" s="28">
+      <c r="W41" s="35">
         <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8837,7 +8925,7 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="42"/>
-      <c r="W42" s="8"/>
+      <c r="W42" s="42"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -8921,7 +9009,7 @@
         <f>IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W43" s="28">
+      <c r="W43" s="35">
         <f>IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8978,7 +9066,7 @@
         <v>9</v>
       </c>
       <c r="V44" s="43"/>
-      <c r="W44" s="5"/>
+      <c r="W44" s="43"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="20"/>
@@ -9062,7 +9150,7 @@
         <f t="shared" ref="V45" si="16">IF(V44=1,10,IF(V44=2,8,IF(V44=3,6,IF(V44=4,5,IF(V44=5,4,IF(V44=6,3,IF(V44=7,2,IF(V44=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="W45" s="28">
+      <c r="W45" s="35">
         <f t="shared" ref="W45" si="17">IF(W44=1,10,IF(W44=2,8,IF(W44=3,6,IF(W44=4,5,IF(W44=5,4,IF(W44=6,3,IF(W44=7,2,IF(W44=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -9286,7 +9374,9 @@
       <c r="V2" s="34">
         <v>7</v>
       </c>
-      <c r="W2" s="9"/>
+      <c r="W2" s="9">
+        <v>1</v>
+      </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -9297,11 +9387,11 @@
       </c>
       <c r="AC2" s="9">
         <f>SUM(F3:Y3)+AB2</f>
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:Y3)</f>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -9380,7 +9470,7 @@
       </c>
       <c r="W3" s="28">
         <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3" s="28">
         <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
@@ -9469,7 +9559,9 @@
       <c r="V4" s="34">
         <v>1</v>
       </c>
-      <c r="W4" s="9"/>
+      <c r="W4" s="9">
+        <v>2</v>
+      </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
@@ -9480,11 +9572,11 @@
       </c>
       <c r="AC4" s="9">
         <f>SUM(F5:Y5)+AB4</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AD4" s="9">
         <f>SUM(F5:Y5)</f>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9563,7 +9655,7 @@
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X5" s="28">
         <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
@@ -9652,7 +9744,9 @@
       <c r="V6" s="36">
         <v>2</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>3</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -9663,11 +9757,11 @@
       </c>
       <c r="AC6" s="7">
         <f>SUM(F7:Y7)+AB6</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:Y7)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -9746,7 +9840,7 @@
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X7" s="28">
         <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
@@ -9835,7 +9929,9 @@
       <c r="V8" s="36">
         <v>3</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -10018,7 +10114,9 @@
       <c r="V10" s="37">
         <v>14</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="15">
+        <v>8</v>
+      </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
@@ -10198,7 +10296,9 @@
       <c r="V12" s="37">
         <v>9</v>
       </c>
-      <c r="W12" s="15"/>
+      <c r="W12" s="15">
+        <v>5</v>
+      </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
@@ -10209,11 +10309,11 @@
       </c>
       <c r="AC12" s="15">
         <f>SUM(F13:Y13)+AB12</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD12" s="15">
         <f>SUM(F13:Y13)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -10292,7 +10392,7 @@
       </c>
       <c r="W13" s="28">
         <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" s="28">
         <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
@@ -10381,7 +10481,9 @@
       <c r="V14" s="38">
         <v>4</v>
       </c>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6">
+        <v>10</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -10499,13 +10601,13 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>35</v>
@@ -10513,58 +10615,60 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="2">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8</v>
+      </c>
+      <c r="K16" s="19">
+        <v>7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>12</v>
+      </c>
+      <c r="M16" s="2">
+        <v>10</v>
+      </c>
+      <c r="N16" s="19">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8</v>
+      </c>
+      <c r="R16" s="2">
         <v>9</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="2">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="S16" s="2">
+        <v>7</v>
+      </c>
+      <c r="T16" s="2">
+        <v>9</v>
+      </c>
+      <c r="U16" s="2">
         <v>11</v>
-      </c>
-      <c r="K16" s="2">
-        <v>9</v>
-      </c>
-      <c r="L16" s="2">
-        <v>7</v>
-      </c>
-      <c r="M16" s="2">
-        <v>7</v>
-      </c>
-      <c r="N16" s="2">
-        <v>9</v>
-      </c>
-      <c r="O16" s="2">
-        <v>5</v>
-      </c>
-      <c r="P16" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>6</v>
-      </c>
-      <c r="R16" s="2">
-        <v>8</v>
-      </c>
-      <c r="S16" s="2">
-        <v>5</v>
-      </c>
-      <c r="T16" s="2">
-        <v>6</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="W16" s="2"/>
+      <c r="W16" s="2">
+        <v>4</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -10572,11 +10676,11 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2">
         <f>SUM(F17:Y17)+AB16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="2">
         <f>SUM(F17:Y17)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -10591,7 +10695,7 @@
       </c>
       <c r="G17" s="28">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="28">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -10619,19 +10723,19 @@
       </c>
       <c r="N17" s="28">
         <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="28">
         <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="28">
         <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="28">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="28">
         <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
@@ -10639,11 +10743,11 @@
       </c>
       <c r="S17" s="28">
         <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" s="28">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="28">
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
@@ -10655,7 +10759,7 @@
       </c>
       <c r="W17" s="28">
         <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" s="28">
         <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
@@ -10678,85 +10782,87 @@
       <c r="AD17" s="28"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="19">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="2">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>7</v>
+      </c>
+      <c r="M18" s="2">
+        <v>7</v>
+      </c>
+      <c r="N18" s="2">
+        <v>9</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="2">
         <v>6</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="R18" s="2">
         <v>8</v>
       </c>
-      <c r="I18" s="11">
+      <c r="S18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="22">
+      <c r="T18" s="2">
+        <v>6</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="W18" s="2">
         <v>7</v>
       </c>
-      <c r="K18" s="11">
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
+        <f>SUM(F19:Y19)+AB18</f>
         <v>6</v>
       </c>
-      <c r="L18" s="11">
-        <v>9</v>
-      </c>
-      <c r="M18" s="11">
-        <v>11</v>
-      </c>
-      <c r="N18" s="11">
-        <v>7</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="22">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>14</v>
-      </c>
-      <c r="R18" s="11">
-        <v>20</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="U18" s="11">
-        <v>13</v>
-      </c>
-      <c r="V18" s="40">
-        <v>11</v>
-      </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11">
-        <f>SUM(F19:Y19)+AB18</f>
-        <v>4</v>
-      </c>
-      <c r="AD18" s="11">
+      <c r="AD18" s="2">
         <f>SUM(F19:Y19)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -10767,7 +10873,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="28">
         <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
@@ -10779,7 +10885,7 @@
       </c>
       <c r="I19" s="28">
         <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="28">
         <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
@@ -10787,7 +10893,7 @@
       </c>
       <c r="K19" s="28">
         <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="28">
         <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
@@ -10803,7 +10909,7 @@
       </c>
       <c r="O19" s="28">
         <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="28">
         <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
@@ -10811,7 +10917,7 @@
       </c>
       <c r="Q19" s="28">
         <f>IF(Q18=1,10,IF(Q18=2,6,IF(Q18=3,4,IF(Q18=4,3,IF(Q18=5,2,IF(Q18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="28">
         <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
@@ -10819,11 +10925,11 @@
       </c>
       <c r="S19" s="28">
         <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="28">
         <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="28">
         <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
@@ -10858,83 +10964,85 @@
       <c r="AD19" s="28"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11">
+        <v>77</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="11">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="11">
+        <v>8</v>
+      </c>
+      <c r="I20" s="11">
+        <v>5</v>
+      </c>
+      <c r="J20" s="22">
         <v>7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="K20" s="11">
         <v>6</v>
       </c>
-      <c r="H20" s="2">
+      <c r="L20" s="11">
+        <v>9</v>
+      </c>
+      <c r="M20" s="11">
+        <v>11</v>
+      </c>
+      <c r="N20" s="11">
         <v>7</v>
       </c>
-      <c r="I20" s="2">
+      <c r="O20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="22">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="11">
         <v>14</v>
       </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-      <c r="K20" s="19">
-        <v>7</v>
-      </c>
-      <c r="L20" s="2">
-        <v>12</v>
-      </c>
-      <c r="M20" s="2">
-        <v>10</v>
-      </c>
-      <c r="N20" s="19">
-        <v>6</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>8</v>
-      </c>
-      <c r="R20" s="2">
-        <v>9</v>
-      </c>
-      <c r="S20" s="2">
-        <v>7</v>
-      </c>
-      <c r="T20" s="2">
-        <v>9</v>
-      </c>
-      <c r="U20" s="2">
+      <c r="R20" s="11">
+        <v>20</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U20" s="11">
+        <v>13</v>
+      </c>
+      <c r="V20" s="40">
         <v>11</v>
       </c>
-      <c r="V20" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2">
+      <c r="W20" s="11">
+        <v>15</v>
+      </c>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11">
         <f>SUM(F21:Y21)+AB20</f>
         <v>4</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="11">
         <f>SUM(F21:Y21)</f>
         <v>4</v>
       </c>
@@ -10947,11 +11055,11 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28">
         <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="28">
         <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="28">
         <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
@@ -10959,7 +11067,7 @@
       </c>
       <c r="I21" s="28">
         <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="28">
         <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
@@ -10967,7 +11075,7 @@
       </c>
       <c r="K21" s="28">
         <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="28">
         <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
@@ -10979,7 +11087,7 @@
       </c>
       <c r="N21" s="28">
         <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="28">
         <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
@@ -10987,7 +11095,7 @@
       </c>
       <c r="P21" s="28">
         <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="28">
         <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))</f>
@@ -11104,7 +11212,9 @@
       <c r="V22" s="38">
         <v>5</v>
       </c>
-      <c r="W22" s="25"/>
+      <c r="W22" s="25">
+        <v>11</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -11284,7 +11394,9 @@
       <c r="V24" s="41">
         <v>12</v>
       </c>
-      <c r="W24" s="3"/>
+      <c r="W24" s="3">
+        <v>14</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -11464,7 +11576,9 @@
       <c r="V26" s="34">
         <v>10</v>
       </c>
-      <c r="W26" s="9"/>
+      <c r="W26" s="9">
+        <v>18</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -11640,7 +11754,9 @@
       <c r="V28" s="42">
         <v>8</v>
       </c>
-      <c r="W28" s="8"/>
+      <c r="W28" s="8">
+        <v>6</v>
+      </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
@@ -11648,11 +11764,11 @@
       <c r="AB28" s="8"/>
       <c r="AC28" s="8">
         <f>SUM(F29:Y29)+AB28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="8">
         <f>SUM(F29:Y29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -11731,7 +11847,7 @@
       </c>
       <c r="W29" s="28">
         <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="28">
         <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
@@ -11820,7 +11936,9 @@
       <c r="V30" s="41">
         <v>13</v>
       </c>
-      <c r="W30" s="3"/>
+      <c r="W30" s="3">
+        <v>17</v>
+      </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
@@ -12000,7 +12118,9 @@
       <c r="V32" s="42">
         <v>6</v>
       </c>
-      <c r="W32" s="24"/>
+      <c r="W32" s="24">
+        <v>12</v>
+      </c>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
@@ -12180,7 +12300,9 @@
       <c r="V34" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="W34" s="5"/>
+      <c r="W34" s="5">
+        <v>9</v>
+      </c>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
@@ -12360,7 +12482,9 @@
       <c r="V36" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="9">
+        <v>13</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -12538,7 +12662,9 @@
       <c r="V38" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="W38" s="5"/>
+      <c r="W38" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
@@ -12718,7 +12844,9 @@
       <c r="V40" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="W40" s="11"/>
+      <c r="W40" s="11">
+        <v>16</v>
+      </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
@@ -13185,12 +13313,12 @@
         <v>77</v>
       </c>
       <c r="D2" s="10">
-        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD6</f>
-        <v>576</v>
+        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD4</f>
+        <v>619</v>
       </c>
       <c r="E2" s="10">
-        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE6</f>
-        <v>542</v>
+        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13204,12 +13332,12 @@
         <v>76</v>
       </c>
       <c r="D3" s="7">
-        <f>'2022 Driver Ranking'!AD4+'2022 Driver Ranking'!AD10</f>
-        <v>439</v>
+        <f>'2022 Driver Ranking'!AD6+'2022 Driver Ranking'!AD10</f>
+        <v>454</v>
       </c>
       <c r="E3" s="7">
-        <f>'2022 Driver Ranking'!AE4+'2022 Driver Ranking'!AE10</f>
-        <v>409</v>
+        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE10</f>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13224,48 +13352,48 @@
       </c>
       <c r="D4" s="15">
         <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD12</f>
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E4" s="15">
         <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
+        <v>143</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="6">
-        <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD22</f>
-        <v>129</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE22</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
-        <v>125</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
+      <c r="D6" s="6">
+        <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD24</f>
+        <v>130</v>
+      </c>
+      <c r="E6" s="6">
+        <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE24</f>
         <v>122</v>
       </c>
     </row>
@@ -13299,12 +13427,12 @@
         <v>82</v>
       </c>
       <c r="D8" s="8">
-        <f>'2022 Driver Ranking'!AD24+'2022 Driver Ranking'!AD30+'2022 Driver Ranking'!AD44</f>
-        <v>37</v>
+        <f>'2022 Driver Ranking'!AD22+'2022 Driver Ranking'!AD30+'2022 Driver Ranking'!AD44</f>
+        <v>45</v>
       </c>
       <c r="E8" s="8">
-        <f>'2022 Driver Ranking'!AE24+'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE44</f>
-        <v>37</v>
+        <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE44</f>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13357,11 +13485,11 @@
       </c>
       <c r="D11" s="5">
         <f>'2022 Driver Ranking'!AD38+'2022 Driver Ranking'!AD40+'2022 Driver Ranking'!AD42</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <f>'2022 Driver Ranking'!AE38+'2022 Driver Ranking'!AE40+'2022 Driver Ranking'!AE42</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -13417,7 +13545,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13432,7 +13560,7 @@
       </c>
       <c r="D3" s="7">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB10</f>
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13447,37 +13575,37 @@
       </c>
       <c r="D4" s="15">
         <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB12</f>
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB18</f>
         <v>46</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB22</f>
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB18</f>
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13496,48 +13624,48 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB42</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="3">
-        <f>'2003-2009 Driver Ranking'!AB26+'2003-2009 Driver Ranking'!AB30</f>
+      <c r="D9" s="3">
+        <f>'2003-2009 Driver Ranking'!AB28+'2003-2009 Driver Ranking'!AB30</f>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB32</f>
+      <c r="D10" s="10">
+        <f>'2003-2009 Driver Ranking'!AB26+'2003-2009 Driver Ranking'!AB32</f>
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8">
-        <f>'2003-2009 Driver Ranking'!AB28+'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB42</f>
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13611,11 +13739,11 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13630,11 +13758,11 @@
       </c>
       <c r="D3" s="7">
         <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC8</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E3" s="7">
         <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8</f>
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13649,11 +13777,11 @@
       </c>
       <c r="D4" s="15">
         <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC12</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="15">
         <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13686,12 +13814,12 @@
         <v>78</v>
       </c>
       <c r="D6" s="2">
-        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC20</f>
-        <v>10</v>
+        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC18</f>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
-        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD20</f>
-        <v>10</v>
+        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD18</f>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13705,11 +13833,11 @@
         <v>80</v>
       </c>
       <c r="D7" s="11">
-        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC40</f>
+        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC40</f>
         <v>4</v>
       </c>
       <c r="E7" s="11">
-        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD40</f>
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD40</f>
         <v>4</v>
       </c>
     </row>
@@ -13733,40 +13861,40 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="8">
+        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC42</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD42</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <f>'1991-2002 Driver Ranking'!AC26+'1991-2002 Driver Ranking'!AC36</f>
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD36</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8">
-        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC42</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
-        <f>'1991-2002 Driver Ranking'!AD28+'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD42</f>
         <v>2</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="121">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1090,7 +1090,7 @@
     <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -1170,7 +1170,7 @@
       <c r="W1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="33" t="s">
         <v>90</v>
       </c>
       <c r="Y1" s="27" t="s">
@@ -1265,7 +1265,9 @@
       <c r="W2" s="9">
         <v>1</v>
       </c>
-      <c r="X2" s="9"/>
+      <c r="X2" s="34">
+        <v>1</v>
+      </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -1279,11 +1281,11 @@
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>345</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1364,9 +1366,9 @@
         <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="35">
         <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="28">
         <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
@@ -1386,94 +1388,96 @@
       <c r="AE3" s="28"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="9">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="7">
         <v>4</v>
       </c>
-      <c r="H4" s="9">
+      <c r="M4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>4</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="7">
+        <v>6</v>
+      </c>
+      <c r="S4" s="7">
+        <v>6</v>
+      </c>
+      <c r="T4" s="7">
+        <v>3</v>
+      </c>
+      <c r="U4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="V4" s="36">
         <v>2</v>
       </c>
-      <c r="J4" s="9">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9">
-        <v>2</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>2</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>4</v>
-      </c>
-      <c r="R4" s="10">
-        <v>5</v>
-      </c>
-      <c r="S4" s="9">
-        <v>2</v>
-      </c>
-      <c r="T4" s="9">
-        <v>5</v>
-      </c>
-      <c r="U4" s="9">
-        <v>6</v>
-      </c>
-      <c r="V4" s="34">
-        <v>1</v>
-      </c>
-      <c r="W4" s="9">
-        <v>2</v>
-      </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9">
+      <c r="W4" s="7">
+        <v>3</v>
+      </c>
+      <c r="X4" s="36">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="9">
-        <f>6+4</f>
-        <v>10</v>
-      </c>
-      <c r="AD4" s="9">
+      <c r="AC4" s="7">
+        <f>7+7</f>
+        <v>14</v>
+      </c>
+      <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>253</v>
-      </c>
-      <c r="AE4" s="9">
+        <v>267</v>
+      </c>
+      <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1484,79 +1488,79 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P5" s="28">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="28">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R5" s="28">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S5" s="28">
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T5" s="28">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U5" s="28">
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V5" s="35">
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
-        <v>18</v>
-      </c>
-      <c r="X5" s="28">
+        <v>15</v>
+      </c>
+      <c r="X5" s="35">
         <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y5" s="28">
         <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
@@ -1576,94 +1580,96 @@
       <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="9">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="M6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="N6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>4</v>
+      </c>
+      <c r="R6" s="10">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9">
+        <v>5</v>
+      </c>
+      <c r="U6" s="9">
+        <v>6</v>
+      </c>
+      <c r="V6" s="34">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>6</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="W6" s="9">
         <v>2</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="X6" s="34">
         <v>4</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5</v>
-      </c>
-      <c r="O6" s="7">
-        <v>4</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="7">
-        <v>6</v>
-      </c>
-      <c r="S6" s="7">
-        <v>6</v>
-      </c>
-      <c r="T6" s="7">
-        <v>3</v>
-      </c>
-      <c r="U6" s="7">
-        <v>2</v>
-      </c>
-      <c r="V6" s="36">
-        <v>2</v>
-      </c>
-      <c r="W6" s="7">
-        <v>3</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC6" s="7">
-        <f>7+7</f>
-        <v>14</v>
-      </c>
-      <c r="AD6" s="7">
+      <c r="AC6" s="9">
+        <f>6+4</f>
+        <v>10</v>
+      </c>
+      <c r="AD6" s="9">
         <f>SUM(F7:AA7)+AB6+AC6</f>
+        <v>265</v>
+      </c>
+      <c r="AE6" s="9">
+        <f>SUM(F7:AA7)</f>
         <v>252</v>
-      </c>
-      <c r="AE6" s="7">
-        <f>SUM(F7:AA7)</f>
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1674,79 +1680,79 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L7" s="28">
         <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P7" s="28">
         <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="28">
         <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R7" s="28">
         <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S7" s="28">
         <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T7" s="28">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U7" s="28">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="V7" s="35">
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
-        <v>15</v>
-      </c>
-      <c r="X7" s="28">
+        <v>18</v>
+      </c>
+      <c r="X7" s="35">
         <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="28">
         <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
@@ -1835,22 +1841,27 @@
       <c r="W8" s="15">
         <v>8</v>
       </c>
-      <c r="X8" s="15"/>
+      <c r="X8" s="37">
+        <v>5</v>
+      </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
+      <c r="AB8" s="15">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AC8" s="15">
         <f>5</f>
         <v>5</v>
       </c>
       <c r="AD8" s="15">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AE8" s="15">
         <f>SUM(F9:AA9)</f>
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1931,9 +1942,9 @@
         <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
         <v>4</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="35">
         <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="28">
         <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
@@ -2022,7 +2033,9 @@
       <c r="W10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="36" t="s">
+        <v>115</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -2121,7 +2134,7 @@
         <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X11" s="28">
+      <c r="X11" s="35">
         <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2212,7 +2225,9 @@
       <c r="W12" s="15">
         <v>5</v>
       </c>
-      <c r="X12" s="15"/>
+      <c r="X12" s="37">
+        <v>2</v>
+      </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
@@ -2226,11 +2241,11 @@
       </c>
       <c r="AD12" s="15">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AE12" s="15">
         <f>SUM(F13:AA13)</f>
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2311,9 +2326,9 @@
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
         <v>10</v>
       </c>
-      <c r="X13" s="28">
+      <c r="X13" s="35">
         <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y13" s="28">
         <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
@@ -2402,7 +2417,9 @@
       <c r="W14" s="6">
         <v>10</v>
       </c>
-      <c r="X14" s="6"/>
+      <c r="X14" s="38">
+        <v>6</v>
+      </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -2416,11 +2433,11 @@
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AE14" s="6">
         <f>SUM(F15:AA15)</f>
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2501,9 +2518,9 @@
         <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
         <v>1</v>
       </c>
-      <c r="X15" s="28">
+      <c r="X15" s="35">
         <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y15" s="28">
         <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
@@ -2592,7 +2609,9 @@
       <c r="W16" s="2">
         <v>4</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="39">
+        <v>11</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -2688,7 +2707,7 @@
         <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
         <v>12</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="35">
         <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -2779,7 +2798,9 @@
       <c r="W18" s="2">
         <v>7</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="39">
+        <v>7</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -2787,11 +2808,11 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2">
         <f>SUM(F19:AA19)+AB18+AC18</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AE18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2872,9 +2893,9 @@
         <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="35">
         <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y19" s="28">
         <f>IF(Y18=1,25,IF(Y18=2,18,IF(Y18=3,15,IF(Y18=4,12,IF(Y18=5,10,IF(Y18=6,8,IF(Y18=7,6,IF(Y18=8,4,IF(Y18=9,2,IF(Y18=10,1,0))))))))))</f>
@@ -2963,7 +2984,9 @@
       <c r="W20" s="11">
         <v>15</v>
       </c>
-      <c r="X20" s="11"/>
+      <c r="X20" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -3059,7 +3082,7 @@
         <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X21" s="28">
+      <c r="X21" s="35">
         <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3146,7 +3169,9 @@
       <c r="W22" s="8">
         <v>6</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="42">
+        <v>8</v>
+      </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -3154,11 +3179,11 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="8">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE22" s="8">
         <f>SUM(F23:AA23)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3239,9 +3264,9 @@
         <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
         <v>8</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="35">
         <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="28">
         <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
@@ -3330,7 +3355,9 @@
       <c r="W24" s="6">
         <v>11</v>
       </c>
-      <c r="X24" s="6"/>
+      <c r="X24" s="38">
+        <v>16</v>
+      </c>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3426,7 +3453,7 @@
         <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X25" s="28">
+      <c r="X25" s="35">
         <f>IF(X24=1,25,IF(X24=2,18,IF(X24=3,15,IF(X24=4,12,IF(X24=5,10,IF(X24=6,8,IF(X24=7,6,IF(X24=8,4,IF(X24=9,2,IF(X24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3448,88 +3475,93 @@
       <c r="AE25" s="28"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3">
+        <v>17</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" s="3">
+        <v>17</v>
+      </c>
+      <c r="O26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="P26" s="3">
         <v>8</v>
       </c>
-      <c r="H26" s="9">
+      <c r="Q26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" s="3">
+        <v>16</v>
+      </c>
+      <c r="S26" s="3">
+        <v>16</v>
+      </c>
+      <c r="T26" s="3">
+        <v>15</v>
+      </c>
+      <c r="U26" s="3">
+        <v>16</v>
+      </c>
+      <c r="V26" s="41">
+        <v>12</v>
+      </c>
+      <c r="W26" s="3">
+        <v>14</v>
+      </c>
+      <c r="X26" s="41">
         <v>9</v>
       </c>
-      <c r="I26" s="9">
-        <v>12</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="9">
-        <v>13</v>
-      </c>
-      <c r="L26" s="9">
-        <v>11</v>
-      </c>
-      <c r="M26" s="9">
-        <v>5</v>
-      </c>
-      <c r="N26" s="9">
-        <v>14</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>12</v>
-      </c>
-      <c r="R26" s="9">
-        <v>12</v>
-      </c>
-      <c r="S26" s="9">
-        <v>9</v>
-      </c>
-      <c r="T26" s="9">
-        <v>11</v>
-      </c>
-      <c r="U26" s="10">
-        <v>8</v>
-      </c>
-      <c r="V26" s="34">
-        <v>10</v>
-      </c>
-      <c r="W26" s="9">
-        <v>18</v>
-      </c>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="AD26" s="3">
         <f>SUM(F27:AA27)+AB26+AC26</f>
-        <v>23</v>
-      </c>
-      <c r="AE26" s="9">
+        <v>24</v>
+      </c>
+      <c r="AE26" s="3">
         <f>SUM(F27:AA27)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3540,19 +3572,19 @@
       <c r="E27" s="28"/>
       <c r="F27" s="28">
         <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="28">
         <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" s="28">
         <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="28">
         <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="28">
         <f>IF(J26=1,25,IF(J26=2,18,IF(J26=3,15,IF(J26=4,12,IF(J26=5,10,IF(J26=6,8,IF(J26=7,6,IF(J26=8,4,IF(J26=9,2,IF(J26=10,1,0))))))))))</f>
@@ -3568,7 +3600,7 @@
       </c>
       <c r="M27" s="28">
         <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N27" s="28">
         <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
@@ -3576,11 +3608,11 @@
       </c>
       <c r="O27" s="28">
         <f>IF(O26=1,25,IF(O26=2,18,IF(O26=3,15,IF(O26=4,12,IF(O26=5,10,IF(O26=6,8,IF(O26=7,6,IF(O26=8,4,IF(O26=9,2,IF(O26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="28">
         <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="28">
         <f>IF(Q26=1,25,IF(Q26=2,18,IF(Q26=3,15,IF(Q26=4,12,IF(Q26=5,10,IF(Q26=6,8,IF(Q26=7,6,IF(Q26=8,4,IF(Q26=9,2,IF(Q26=10,1,0))))))))))</f>
@@ -3592,7 +3624,7 @@
       </c>
       <c r="S27" s="28">
         <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="28">
         <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
@@ -3600,19 +3632,19 @@
       </c>
       <c r="U27" s="28">
         <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V27" s="35">
         <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="28">
         <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X27" s="28">
+      <c r="X27" s="35">
         <f>IF(X26=1,25,IF(X26=2,18,IF(X26=3,15,IF(X26=4,12,IF(X26=5,10,IF(X26=6,8,IF(X26=7,6,IF(X26=8,4,IF(X26=9,2,IF(X26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="28">
         <f>IF(Y26=1,25,IF(Y26=2,18,IF(Y26=3,15,IF(Y26=4,12,IF(Y26=5,10,IF(Y26=6,8,IF(Y26=7,6,IF(Y26=8,4,IF(Y26=9,2,IF(Y26=10,1,0))))))))))</f>
@@ -3632,91 +3664,90 @@
       <c r="AE27" s="28"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="3">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="A28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="9">
+        <v>8</v>
+      </c>
+      <c r="H28" s="9">
+        <v>9</v>
+      </c>
+      <c r="I28" s="9">
+        <v>12</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="9">
+        <v>13</v>
+      </c>
+      <c r="L28" s="9">
+        <v>11</v>
+      </c>
+      <c r="M28" s="9">
         <v>5</v>
       </c>
-      <c r="G28" s="3">
+      <c r="N28" s="9">
+        <v>14</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>12</v>
+      </c>
+      <c r="R28" s="9">
+        <v>12</v>
+      </c>
+      <c r="S28" s="9">
         <v>9</v>
       </c>
-      <c r="H28" s="3">
+      <c r="T28" s="9">
+        <v>11</v>
+      </c>
+      <c r="U28" s="10">
+        <v>8</v>
+      </c>
+      <c r="V28" s="34">
+        <v>10</v>
+      </c>
+      <c r="W28" s="9">
+        <v>18</v>
+      </c>
+      <c r="X28" s="44">
         <v>14</v>
       </c>
-      <c r="I28" s="3">
-        <v>9</v>
-      </c>
-      <c r="J28" s="3">
-        <v>16</v>
-      </c>
-      <c r="K28" s="3">
-        <v>17</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N28" s="3">
-        <v>17</v>
-      </c>
-      <c r="O28" s="3">
-        <v>10</v>
-      </c>
-      <c r="P28" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R28" s="3">
-        <v>16</v>
-      </c>
-      <c r="S28" s="3">
-        <v>16</v>
-      </c>
-      <c r="T28" s="3">
-        <v>15</v>
-      </c>
-      <c r="U28" s="3">
-        <v>16</v>
-      </c>
-      <c r="V28" s="41">
-        <v>12</v>
-      </c>
-      <c r="W28" s="3">
-        <v>14</v>
-      </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3">
-        <f>1+2</f>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="3">
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9">
         <f>SUM(F29:AA29)+AB28+AC28</f>
-        <v>22</v>
-      </c>
-      <c r="AE28" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE28" s="9">
         <f>SUM(F29:AA29)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -3727,19 +3758,19 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28">
         <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G29" s="28">
         <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="28">
         <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="28">
         <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="28">
         <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
@@ -3755,7 +3786,7 @@
       </c>
       <c r="M29" s="28">
         <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29" s="28">
         <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
@@ -3763,11 +3794,11 @@
       </c>
       <c r="O29" s="28">
         <f>IF(O28=1,25,IF(O28=2,18,IF(O28=3,15,IF(O28=4,12,IF(O28=5,10,IF(O28=6,8,IF(O28=7,6,IF(O28=8,4,IF(O28=9,2,IF(O28=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="28">
         <f>IF(P28=1,25,IF(P28=2,18,IF(P28=3,15,IF(P28=4,12,IF(P28=5,10,IF(P28=6,8,IF(P28=7,6,IF(P28=8,4,IF(P28=9,2,IF(P28=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="28">
         <f>IF(Q28=1,25,IF(Q28=2,18,IF(Q28=3,15,IF(Q28=4,12,IF(Q28=5,10,IF(Q28=6,8,IF(Q28=7,6,IF(Q28=8,4,IF(Q28=9,2,IF(Q28=10,1,0))))))))))</f>
@@ -3779,7 +3810,7 @@
       </c>
       <c r="S29" s="28">
         <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="28">
         <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
@@ -3787,17 +3818,17 @@
       </c>
       <c r="U29" s="28">
         <f>IF(U28=1,25,IF(U28=2,18,IF(U28=3,15,IF(U28=4,12,IF(U28=5,10,IF(U28=6,8,IF(U28=7,6,IF(U28=8,4,IF(U28=9,2,IF(U28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V29" s="35">
         <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="28">
         <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="35">
         <f>IF(X28=1,25,IF(X28=2,18,IF(X28=3,15,IF(X28=4,12,IF(X28=5,10,IF(X28=6,8,IF(X28=7,6,IF(X28=8,4,IF(X28=9,2,IF(X28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -3888,7 +3919,9 @@
       <c r="W30" s="8">
         <v>12</v>
       </c>
-      <c r="X30" s="8"/>
+      <c r="X30" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -3981,7 +4014,7 @@
         <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X31" s="28">
+      <c r="X31" s="35">
         <f>IF(X30=1,25,IF(X30=2,18,IF(X30=3,15,IF(X30=4,12,IF(X30=5,10,IF(X30=6,8,IF(X30=7,6,IF(X30=8,4,IF(X30=9,2,IF(X30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4072,7 +4105,9 @@
       <c r="W32" s="3">
         <v>17</v>
       </c>
-      <c r="X32" s="3"/>
+      <c r="X32" s="41">
+        <v>15</v>
+      </c>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
@@ -4165,7 +4200,7 @@
         <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X33" s="28">
+      <c r="X33" s="35">
         <f>IF(X32=1,25,IF(X32=2,18,IF(X32=3,15,IF(X32=4,12,IF(X32=5,10,IF(X32=6,8,IF(X32=7,6,IF(X32=8,4,IF(X32=9,2,IF(X32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4256,7 +4291,9 @@
       <c r="W34" s="9">
         <v>13</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="34">
+        <v>10</v>
+      </c>
       <c r="Y34" s="10"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4264,11 +4301,11 @@
       <c r="AC34" s="9"/>
       <c r="AD34" s="9">
         <f>SUM(F35:AA35)+AB34+AC34</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE34" s="9">
         <f>SUM(F35:AA35)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4349,9 +4386,9 @@
         <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X35" s="28">
+      <c r="X35" s="35">
         <f>IF(X34=1,25,IF(X34=2,18,IF(X34=3,15,IF(X34=4,12,IF(X34=5,10,IF(X34=6,8,IF(X34=7,6,IF(X34=8,4,IF(X34=9,2,IF(X34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="28">
         <f>IF(Y34=1,25,IF(Y34=2,18,IF(Y34=3,15,IF(Y34=4,12,IF(Y34=5,10,IF(Y34=6,8,IF(Y34=7,6,IF(Y34=8,4,IF(Y34=9,2,IF(Y34=10,1,0))))))))))</f>
@@ -4440,7 +4477,9 @@
       <c r="W36" s="11">
         <v>16</v>
       </c>
-      <c r="X36" s="11"/>
+      <c r="X36" s="40">
+        <v>12</v>
+      </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -4533,7 +4572,7 @@
         <f>IF(W36=1,25,IF(W36=2,18,IF(W36=3,15,IF(W36=4,12,IF(W36=5,10,IF(W36=6,8,IF(W36=7,6,IF(W36=8,4,IF(W36=9,2,IF(W36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X37" s="28">
+      <c r="X37" s="35">
         <f>IF(X36=1,25,IF(X36=2,18,IF(X36=3,15,IF(X36=4,12,IF(X36=5,10,IF(X36=6,8,IF(X36=7,6,IF(X36=8,4,IF(X36=9,2,IF(X36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4622,7 +4661,9 @@
       <c r="W38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X38" s="5"/>
+      <c r="X38" s="43">
+        <v>13</v>
+      </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
@@ -4715,7 +4756,7 @@
         <f>IF(W38=1,25,IF(W38=2,18,IF(W38=3,15,IF(W38=4,12,IF(W38=5,10,IF(W38=6,8,IF(W38=7,6,IF(W38=8,4,IF(W38=9,2,IF(W38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X39" s="28">
+      <c r="X39" s="35">
         <f>IF(X38=1,25,IF(X38=2,18,IF(X38=3,15,IF(X38=4,12,IF(X38=5,10,IF(X38=6,8,IF(X38=7,6,IF(X38=8,4,IF(X38=9,2,IF(X38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4772,7 +4813,7 @@
       </c>
       <c r="V40" s="43"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
+      <c r="X40" s="43"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -4865,7 +4906,7 @@
         <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X41" s="28">
+      <c r="X41" s="35">
         <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -4956,7 +4997,9 @@
       <c r="W42" s="5">
         <v>9</v>
       </c>
-      <c r="X42" s="5"/>
+      <c r="X42" s="43">
+        <v>17</v>
+      </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -5049,7 +5092,7 @@
         <f>IF(W42=1,25,IF(W42=2,18,IF(W42=3,15,IF(W42=4,12,IF(W42=5,10,IF(W42=6,8,IF(W42=7,6,IF(W42=8,4,IF(W42=9,2,IF(W42=10,1,0))))))))))</f>
         <v>2</v>
       </c>
-      <c r="X43" s="28">
+      <c r="X43" s="35">
         <f>IF(X42=1,25,IF(X42=2,18,IF(X42=3,15,IF(X42=4,12,IF(X42=5,10,IF(X42=6,8,IF(X42=7,6,IF(X42=8,4,IF(X42=9,2,IF(X42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -5108,7 +5151,7 @@
       <c r="U44" s="8"/>
       <c r="V44" s="42"/>
       <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
+      <c r="X44" s="42"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
@@ -5201,7 +5244,7 @@
         <f t="shared" ref="W45" si="17">IF(W44=1,25,IF(W44=2,18,IF(W44=3,15,IF(W44=4,12,IF(W44=5,10,IF(W44=6,8,IF(W44=7,6,IF(W44=8,4,IF(W44=9,2,IF(W44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X45" s="28">
+      <c r="X45" s="35">
         <f t="shared" ref="X45" si="18">IF(X44=1,25,IF(X44=2,18,IF(X44=3,15,IF(X44=4,12,IF(X44=5,10,IF(X44=6,8,IF(X44=7,6,IF(X44=8,4,IF(X44=9,2,IF(X44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
@@ -5299,8 +5342,8 @@
     <col min="17" max="17" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="20.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -5376,7 +5419,7 @@
       <c r="W1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="33" t="s">
         <v>90</v>
       </c>
       <c r="Y1" s="27" t="s">
@@ -5462,13 +5505,15 @@
       <c r="W2" s="34">
         <v>1</v>
       </c>
-      <c r="X2" s="9"/>
+      <c r="X2" s="34">
+        <v>1</v>
+      </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:Z3)</f>
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5549,9 +5594,9 @@
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
         <v>10</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="35">
         <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="28">
         <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
@@ -5637,13 +5682,15 @@
       <c r="W4" s="34">
         <v>2</v>
       </c>
-      <c r="X4" s="9"/>
+      <c r="X4" s="34">
+        <v>4</v>
+      </c>
       <c r="Y4" s="23"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9">
         <f>SUM(F5:Z5)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5724,9 +5771,9 @@
         <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
         <v>8</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="35">
         <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="28">
         <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
@@ -5812,13 +5859,15 @@
       <c r="W6" s="36">
         <v>3</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="36">
+        <v>3</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:Z7)</f>
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5899,9 +5948,9 @@
         <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
         <v>6</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="35">
         <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="28">
         <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
@@ -5987,13 +6036,15 @@
       <c r="W8" s="37">
         <v>8</v>
       </c>
-      <c r="X8" s="15"/>
+      <c r="X8" s="37">
+        <v>5</v>
+      </c>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="15">
         <f>SUM(F9:Z9)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -6074,9 +6125,9 @@
         <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
         <v>1</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="35">
         <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="28">
         <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
@@ -6093,82 +6144,84 @@
       <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7">
-        <v>55</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15">
+        <v>4</v>
+      </c>
+      <c r="I10" s="15">
+        <v>13</v>
+      </c>
+      <c r="J10" s="15">
+        <v>6</v>
+      </c>
+      <c r="K10" s="15">
+        <v>5</v>
+      </c>
+      <c r="L10" s="15">
+        <v>8</v>
+      </c>
+      <c r="M10" s="15">
+        <v>4</v>
+      </c>
+      <c r="N10" s="15">
+        <v>3</v>
+      </c>
+      <c r="O10" s="15">
+        <v>3</v>
+      </c>
+      <c r="P10" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="R10" s="15">
+        <v>2</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" s="15">
         <v>4</v>
       </c>
-      <c r="L10" s="7">
+      <c r="U10" s="15">
+        <v>5</v>
+      </c>
+      <c r="V10" s="37">
+        <v>9</v>
+      </c>
+      <c r="W10" s="37">
+        <v>5</v>
+      </c>
+      <c r="X10" s="37">
         <v>2</v>
       </c>
-      <c r="M10" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>5</v>
-      </c>
-      <c r="R10" s="7">
-        <v>4</v>
-      </c>
-      <c r="S10" s="7">
-        <v>3</v>
-      </c>
-      <c r="T10" s="7">
-        <v>8</v>
-      </c>
-      <c r="U10" s="7">
-        <v>4</v>
-      </c>
-      <c r="V10" s="36">
-        <v>3</v>
-      </c>
-      <c r="W10" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7">
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15">
         <f>SUM(F11:Z11)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6179,15 +6232,15 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
@@ -6195,63 +6248,63 @@
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O11" s="28">
         <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P11" s="28">
         <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="28">
         <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R11" s="28">
         <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S11" s="28">
         <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T11" s="28">
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U11" s="28">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" s="35">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W11" s="35">
         <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="28">
+        <v>4</v>
+      </c>
+      <c r="X11" s="35">
         <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y11" s="28">
         <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
@@ -6268,82 +6321,84 @@
       <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="15">
-        <v>44</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="15">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="H12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
         <v>4</v>
       </c>
-      <c r="I12" s="15">
-        <v>13</v>
-      </c>
-      <c r="J12" s="15">
-        <v>6</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="7">
         <v>5</v>
       </c>
-      <c r="L12" s="15">
+      <c r="R12" s="7">
+        <v>4</v>
+      </c>
+      <c r="S12" s="7">
+        <v>3</v>
+      </c>
+      <c r="T12" s="7">
         <v>8</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="7">
         <v>4</v>
       </c>
-      <c r="N12" s="15">
+      <c r="V12" s="36">
         <v>3</v>
       </c>
-      <c r="O12" s="15">
-        <v>3</v>
-      </c>
-      <c r="P12" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>2</v>
-      </c>
-      <c r="R12" s="15">
-        <v>2</v>
-      </c>
-      <c r="S12" s="18" t="s">
+      <c r="W12" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="15">
-        <v>4</v>
-      </c>
-      <c r="U12" s="15">
-        <v>5</v>
-      </c>
-      <c r="V12" s="37">
-        <v>9</v>
-      </c>
-      <c r="W12" s="37">
-        <v>5</v>
-      </c>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15">
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7">
         <f>SUM(F13:Z13)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6354,15 +6409,15 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
@@ -6370,61 +6425,61 @@
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N13" s="28">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O13" s="28">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P13" s="28">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="28">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R13" s="28">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S13" s="28">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T13" s="28">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U13" s="28">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" s="35">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W13" s="35">
         <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="X13" s="28">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35">
         <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6512,13 +6567,15 @@
       <c r="W14" s="38">
         <v>10</v>
       </c>
-      <c r="X14" s="6"/>
+      <c r="X14" s="38">
+        <v>6</v>
+      </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6">
         <f>SUM(F15:Z15)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6599,9 +6656,9 @@
         <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X15" s="28">
+      <c r="X15" s="35">
         <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="28">
         <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
@@ -6687,7 +6744,9 @@
       <c r="W16" s="39">
         <v>4</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="39">
+        <v>11</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -6774,7 +6833,7 @@
         <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
         <v>5</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="35">
         <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -6862,13 +6921,15 @@
       <c r="W18" s="39">
         <v>7</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="39">
+        <v>7</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:Z19)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6949,9 +7010,9 @@
         <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
         <v>2</v>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="35">
         <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="28">
         <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
@@ -7037,7 +7098,9 @@
       <c r="W20" s="40">
         <v>15</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -7124,7 +7187,7 @@
         <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X21" s="28">
+      <c r="X21" s="35">
         <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7143,82 +7206,80 @@
       <c r="AB21" s="28"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="A22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="8">
+        <v>8</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="8">
+        <v>11</v>
+      </c>
+      <c r="L22" s="8">
+        <v>10</v>
+      </c>
+      <c r="M22" s="8">
+        <v>6</v>
+      </c>
+      <c r="N22" s="24">
+        <v>12</v>
+      </c>
+      <c r="O22" s="24">
+        <v>9</v>
+      </c>
+      <c r="P22" s="24">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>11</v>
+      </c>
+      <c r="R22" s="8">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8">
+        <v>10</v>
+      </c>
+      <c r="T22" s="8">
         <v>14</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="U22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" s="42">
+        <v>8</v>
+      </c>
+      <c r="W22" s="42">
         <v>6</v>
       </c>
-      <c r="I22" s="6">
-        <v>18</v>
-      </c>
-      <c r="J22" s="6">
-        <v>13</v>
-      </c>
-      <c r="K22" s="6">
-        <v>12</v>
-      </c>
-      <c r="L22" s="6">
-        <v>13</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="X22" s="42">
         <v>8</v>
       </c>
-      <c r="N22" s="6">
-        <v>11</v>
-      </c>
-      <c r="O22" s="6">
-        <v>13</v>
-      </c>
-      <c r="P22" s="6">
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8">
+        <f>SUM(F23:Z23)</f>
         <v>9</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>9</v>
-      </c>
-      <c r="R22" s="6">
-        <v>15</v>
-      </c>
-      <c r="S22" s="6">
-        <v>15</v>
-      </c>
-      <c r="T22" s="6">
-        <v>17</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V22" s="38">
-        <v>5</v>
-      </c>
-      <c r="W22" s="38">
-        <v>11</v>
-      </c>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6">
-        <f>SUM(F23:Z23)</f>
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -7237,11 +7298,11 @@
       </c>
       <c r="H23" s="28">
         <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="28">
         <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="28">
         <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
@@ -7257,7 +7318,7 @@
       </c>
       <c r="M23" s="28">
         <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="28">
         <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
@@ -7293,15 +7354,15 @@
       </c>
       <c r="V23" s="35">
         <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W23" s="35">
         <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="28">
+        <v>3</v>
+      </c>
+      <c r="X23" s="35">
         <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="28">
         <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
@@ -7318,76 +7379,82 @@
       <c r="AB23" s="28"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6">
+        <v>14</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>18</v>
+      </c>
+      <c r="J24" s="6">
+        <v>13</v>
+      </c>
+      <c r="K24" s="6">
+        <v>12</v>
+      </c>
+      <c r="L24" s="6">
+        <v>13</v>
+      </c>
+      <c r="M24" s="6">
+        <v>8</v>
+      </c>
+      <c r="N24" s="6">
+        <v>11</v>
+      </c>
+      <c r="O24" s="6">
+        <v>13</v>
+      </c>
+      <c r="P24" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>9</v>
+      </c>
+      <c r="R24" s="6">
+        <v>15</v>
+      </c>
+      <c r="S24" s="6">
+        <v>15</v>
+      </c>
+      <c r="T24" s="6">
+        <v>17</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="38">
         <v>5</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="8">
-        <v>8</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="W24" s="38">
         <v>11</v>
       </c>
-      <c r="L24" s="8">
-        <v>10</v>
-      </c>
-      <c r="M24" s="8">
-        <v>6</v>
-      </c>
-      <c r="N24" s="24">
-        <v>12</v>
-      </c>
-      <c r="O24" s="24">
-        <v>9</v>
-      </c>
-      <c r="P24" s="24">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>11</v>
-      </c>
-      <c r="R24" s="8">
-        <v>10</v>
-      </c>
-      <c r="S24" s="8">
-        <v>10</v>
-      </c>
-      <c r="T24" s="8">
-        <v>14</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="V24" s="42">
-        <v>8</v>
-      </c>
-      <c r="W24" s="42">
-        <v>6</v>
-      </c>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8">
+      <c r="X24" s="38">
+        <v>16</v>
+      </c>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6">
         <f>SUM(F25:Z25)</f>
         <v>8</v>
       </c>
@@ -7408,11 +7475,11 @@
       </c>
       <c r="H25" s="28">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="28">
         <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="28">
         <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
@@ -7428,7 +7495,7 @@
       </c>
       <c r="M25" s="28">
         <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" s="28">
         <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
@@ -7464,13 +7531,13 @@
       </c>
       <c r="V25" s="35">
         <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W25" s="35">
         <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
-        <v>3</v>
-      </c>
-      <c r="X25" s="28">
+        <v>0</v>
+      </c>
+      <c r="X25" s="35">
         <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7558,7 +7625,9 @@
       <c r="W26" s="34">
         <v>18</v>
       </c>
-      <c r="X26" s="9"/>
+      <c r="X26" s="34">
+        <v>14</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -7645,7 +7714,7 @@
         <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X27" s="28">
+      <c r="X27" s="35">
         <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7733,7 +7802,9 @@
       <c r="W28" s="41">
         <v>14</v>
       </c>
-      <c r="X28" s="3"/>
+      <c r="X28" s="41">
+        <v>9</v>
+      </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
@@ -7820,7 +7891,7 @@
         <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="35">
         <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -7908,7 +7979,9 @@
       <c r="W30" s="41">
         <v>17</v>
       </c>
-      <c r="X30" s="3"/>
+      <c r="X30" s="41">
+        <v>15</v>
+      </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
@@ -7995,7 +8068,7 @@
         <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X31" s="28">
+      <c r="X31" s="35">
         <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8083,7 +8156,9 @@
       <c r="W32" s="34">
         <v>13</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="34">
+        <v>10</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -8170,7 +8245,7 @@
         <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X33" s="28">
+      <c r="X33" s="35">
         <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8258,7 +8333,9 @@
       <c r="W34" s="42">
         <v>12</v>
       </c>
-      <c r="X34" s="8"/>
+      <c r="X34" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
@@ -8345,7 +8422,7 @@
         <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X35" s="28">
+      <c r="X35" s="35">
         <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8433,7 +8510,9 @@
       <c r="W36" s="40">
         <v>16</v>
       </c>
-      <c r="X36" s="11"/>
+      <c r="X36" s="40">
+        <v>12</v>
+      </c>
       <c r="Y36" s="11"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="22"/>
@@ -8520,7 +8599,7 @@
         <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X37" s="28">
+      <c r="X37" s="35">
         <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8608,7 +8687,9 @@
       <c r="W38" s="43">
         <v>9</v>
       </c>
-      <c r="X38" s="20"/>
+      <c r="X38" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
@@ -8695,7 +8776,7 @@
         <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X39" s="28">
+      <c r="X39" s="35">
         <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8781,7 +8862,9 @@
       <c r="W40" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="X40" s="5"/>
+      <c r="X40" s="43">
+        <v>13</v>
+      </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
@@ -8868,7 +8951,7 @@
         <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X41" s="28">
+      <c r="X41" s="35">
         <f>IF(X40=1,10,IF(X40=2,8,IF(X40=3,6,IF(X40=4,5,IF(X40=5,4,IF(X40=6,3,IF(X40=7,2,IF(X40=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -8926,7 +9009,7 @@
       <c r="U42" s="8"/>
       <c r="V42" s="42"/>
       <c r="W42" s="42"/>
-      <c r="X42" s="8"/>
+      <c r="X42" s="42"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
@@ -9013,7 +9096,7 @@
         <f>IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X43" s="28">
+      <c r="X43" s="35">
         <f>IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -9067,7 +9150,7 @@
       </c>
       <c r="V44" s="43"/>
       <c r="W44" s="43"/>
-      <c r="X44" s="5"/>
+      <c r="X44" s="43"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
@@ -9154,7 +9237,7 @@
         <f t="shared" ref="W45" si="17">IF(W44=1,10,IF(W44=2,8,IF(W44=3,6,IF(W44=4,5,IF(W44=5,4,IF(W44=6,3,IF(W44=7,2,IF(W44=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="X45" s="28">
+      <c r="X45" s="35">
         <f t="shared" ref="X45" si="18">IF(X44=1,10,IF(X44=2,8,IF(X44=3,6,IF(X44=4,5,IF(X44=5,4,IF(X44=6,3,IF(X44=7,2,IF(X44=8,1,0))))))))</f>
         <v>0</v>
       </c>
@@ -9207,7 +9290,9 @@
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="20.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -9285,7 +9370,7 @@
       <c r="W1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="33" t="s">
         <v>90</v>
       </c>
       <c r="Y1" s="27" t="s">
@@ -9377,7 +9462,9 @@
       <c r="W2" s="9">
         <v>1</v>
       </c>
-      <c r="X2" s="9"/>
+      <c r="X2" s="34">
+        <v>1</v>
+      </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -9387,11 +9474,11 @@
       </c>
       <c r="AC2" s="9">
         <f>SUM(F3:Y3)+AB2</f>
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:Y3)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -9472,9 +9559,9 @@
         <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
         <v>10</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="35">
         <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="28">
         <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
@@ -9562,7 +9649,9 @@
       <c r="W4" s="9">
         <v>2</v>
       </c>
-      <c r="X4" s="9"/>
+      <c r="X4" s="34">
+        <v>4</v>
+      </c>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -9572,11 +9661,11 @@
       </c>
       <c r="AC4" s="9">
         <f>SUM(F5:Y5)+AB4</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AD4" s="9">
         <f>SUM(F5:Y5)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9657,9 +9746,9 @@
         <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
         <v>6</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="35">
         <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="28">
         <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
@@ -9747,7 +9836,9 @@
       <c r="W6" s="7">
         <v>3</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="36">
+        <v>3</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -9757,11 +9848,11 @@
       </c>
       <c r="AC6" s="7">
         <f>SUM(F7:Y7)+AB6</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:Y7)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -9842,9 +9933,9 @@
         <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
         <v>4</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="35">
         <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="28">
         <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
@@ -9932,7 +10023,9 @@
       <c r="W8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="36" t="s">
+        <v>115</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
@@ -10027,7 +10120,7 @@
         <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="35">
         <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10117,18 +10210,23 @@
       <c r="W10" s="15">
         <v>8</v>
       </c>
-      <c r="X10" s="15"/>
+      <c r="X10" s="37">
+        <v>5</v>
+      </c>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
-      <c r="AB10" s="15"/>
+      <c r="AB10" s="15">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AC10" s="15">
         <f>SUM(F11:Y11)+AB10</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AD10" s="15">
         <f>SUM(F11:Y11)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -10209,9 +10307,9 @@
         <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X11" s="28">
+      <c r="X11" s="35">
         <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="28">
         <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
@@ -10299,7 +10397,9 @@
       <c r="W12" s="15">
         <v>5</v>
       </c>
-      <c r="X12" s="15"/>
+      <c r="X12" s="37">
+        <v>2</v>
+      </c>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
@@ -10309,11 +10409,11 @@
       </c>
       <c r="AC12" s="15">
         <f>SUM(F13:Y13)+AB12</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AD12" s="15">
         <f>SUM(F13:Y13)</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -10394,9 +10494,9 @@
         <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
         <v>2</v>
       </c>
-      <c r="X13" s="28">
+      <c r="X13" s="35">
         <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y13" s="28">
         <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
@@ -10484,7 +10584,9 @@
       <c r="W14" s="6">
         <v>10</v>
       </c>
-      <c r="X14" s="6"/>
+      <c r="X14" s="38">
+        <v>6</v>
+      </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -10494,11 +10596,11 @@
       </c>
       <c r="AC14" s="6">
         <f>SUM(F15:Y15)+AB14</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:Y15)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -10579,9 +10681,9 @@
         <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X15" s="28">
+      <c r="X15" s="35">
         <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="28">
         <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
@@ -10669,7 +10771,9 @@
       <c r="W16" s="2">
         <v>4</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="39">
+        <v>11</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -10761,7 +10865,7 @@
         <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
         <v>3</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="35">
         <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10851,7 +10955,9 @@
       <c r="W18" s="2">
         <v>7</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="39">
+        <v>7</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -10943,7 +11049,7 @@
         <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="35">
         <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11033,7 +11139,9 @@
       <c r="W20" s="11">
         <v>15</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -11125,7 +11233,7 @@
         <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X21" s="28">
+      <c r="X21" s="35">
         <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11215,7 +11323,9 @@
       <c r="W22" s="25">
         <v>11</v>
       </c>
-      <c r="X22" s="6"/>
+      <c r="X22" s="38">
+        <v>16</v>
+      </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -11307,7 +11417,7 @@
         <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="35">
         <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11397,7 +11507,9 @@
       <c r="W24" s="3">
         <v>14</v>
       </c>
-      <c r="X24" s="3"/>
+      <c r="X24" s="41">
+        <v>9</v>
+      </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
@@ -11489,7 +11601,7 @@
         <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X25" s="28">
+      <c r="X25" s="35">
         <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11579,7 +11691,9 @@
       <c r="W26" s="9">
         <v>18</v>
       </c>
-      <c r="X26" s="9"/>
+      <c r="X26" s="34">
+        <v>14</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -11671,7 +11785,7 @@
         <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X27" s="28">
+      <c r="X27" s="35">
         <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11757,7 +11871,9 @@
       <c r="W28" s="8">
         <v>6</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="X28" s="42">
+        <v>8</v>
+      </c>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -11849,7 +11965,7 @@
         <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
         <v>1</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X29" s="35">
         <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11939,7 +12055,9 @@
       <c r="W30" s="3">
         <v>17</v>
       </c>
-      <c r="X30" s="3"/>
+      <c r="X30" s="41">
+        <v>15</v>
+      </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
@@ -12031,7 +12149,7 @@
         <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X31" s="28">
+      <c r="X31" s="35">
         <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12121,7 +12239,9 @@
       <c r="W32" s="24">
         <v>12</v>
       </c>
-      <c r="X32" s="8"/>
+      <c r="X32" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -12213,7 +12333,7 @@
         <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X33" s="28">
+      <c r="X33" s="35">
         <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12303,7 +12423,9 @@
       <c r="W34" s="5">
         <v>9</v>
       </c>
-      <c r="X34" s="20"/>
+      <c r="X34" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
@@ -12395,7 +12517,7 @@
         <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X35" s="28">
+      <c r="X35" s="35">
         <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12485,7 +12607,9 @@
       <c r="W36" s="9">
         <v>13</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="34">
+        <v>10</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -12577,7 +12701,7 @@
         <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X37" s="28">
+      <c r="X37" s="35">
         <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12665,7 +12789,9 @@
       <c r="W38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X38" s="5"/>
+      <c r="X38" s="43">
+        <v>13</v>
+      </c>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
@@ -12757,7 +12883,7 @@
         <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X39" s="28">
+      <c r="X39" s="35">
         <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12847,7 +12973,9 @@
       <c r="W40" s="11">
         <v>16</v>
       </c>
-      <c r="X40" s="11"/>
+      <c r="X40" s="40">
+        <v>12</v>
+      </c>
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
       <c r="AA40" s="22"/>
@@ -12939,7 +13067,7 @@
         <f>IF(W40=1,10,IF(W40=2,6,IF(W40=3,4,IF(W40=4,3,IF(W40=5,2,IF(W40=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X41" s="28">
+      <c r="X41" s="35">
         <f>IF(X40=1,10,IF(X40=2,6,IF(X40=3,4,IF(X40=4,3,IF(X40=5,2,IF(X40=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12997,7 +13125,7 @@
       <c r="U42" s="8"/>
       <c r="V42" s="42"/>
       <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
+      <c r="X42" s="42"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
@@ -13089,7 +13217,7 @@
         <f>IF(W42=1,10,IF(W42=2,6,IF(W42=3,4,IF(W42=4,3,IF(W42=5,2,IF(W42=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X43" s="28">
+      <c r="X43" s="35">
         <f>IF(X42=1,10,IF(X42=2,6,IF(X42=3,4,IF(X42=4,3,IF(X42=5,2,IF(X42=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -13145,7 +13273,7 @@
       </c>
       <c r="V44" s="43"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
+      <c r="X44" s="43"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
@@ -13237,7 +13365,7 @@
         <f t="shared" ref="W45" si="17">IF(W44=1,10,IF(W44=2,6,IF(W44=3,4,IF(W44=4,3,IF(W44=5,2,IF(W44=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="X45" s="28">
+      <c r="X45" s="35">
         <f t="shared" ref="X45" si="18">IF(X44=1,10,IF(X44=2,6,IF(X44=3,4,IF(X44=4,3,IF(X44=5,2,IF(X44=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -13313,12 +13441,12 @@
         <v>77</v>
       </c>
       <c r="D2" s="10">
-        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD4</f>
-        <v>619</v>
+        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD6</f>
+        <v>656</v>
       </c>
       <c r="E2" s="10">
-        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
-        <v>585</v>
+        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE6</f>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13332,12 +13460,12 @@
         <v>76</v>
       </c>
       <c r="D3" s="7">
-        <f>'2022 Driver Ranking'!AD6+'2022 Driver Ranking'!AD10</f>
-        <v>454</v>
+        <f>'2022 Driver Ranking'!AD4+'2022 Driver Ranking'!AD10</f>
+        <v>469</v>
       </c>
       <c r="E3" s="7">
-        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE10</f>
-        <v>424</v>
+        <f>'2022 Driver Ranking'!AE4+'2022 Driver Ranking'!AE10</f>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13352,11 +13480,11 @@
       </c>
       <c r="D4" s="15">
         <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD12</f>
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="E4" s="15">
         <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13371,11 +13499,11 @@
       </c>
       <c r="D5" s="2">
         <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13390,11 +13518,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD24</f>
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E6" s="6">
         <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE24</f>
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13428,11 +13556,11 @@
       </c>
       <c r="D8" s="8">
         <f>'2022 Driver Ranking'!AD22+'2022 Driver Ranking'!AD30+'2022 Driver Ranking'!AD44</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8">
         <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE44</f>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13446,12 +13574,12 @@
         <v>79</v>
       </c>
       <c r="D9" s="3">
-        <f>'2022 Driver Ranking'!AD28+'2022 Driver Ranking'!AD32</f>
-        <v>34</v>
+        <f>'2022 Driver Ranking'!AD26+'2022 Driver Ranking'!AD32</f>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
-        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE32</f>
-        <v>31</v>
+        <f>'2022 Driver Ranking'!AE26+'2022 Driver Ranking'!AE32</f>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -13465,12 +13593,12 @@
         <v>75</v>
       </c>
       <c r="D10" s="10">
-        <f>'2022 Driver Ranking'!AD26+'2022 Driver Ranking'!AD34</f>
-        <v>34</v>
+        <f>'2022 Driver Ranking'!AD28+'2022 Driver Ranking'!AD34</f>
+        <v>35</v>
       </c>
       <c r="E10" s="10">
-        <f>'2022 Driver Ranking'!AE26+'2022 Driver Ranking'!AE34</f>
-        <v>34</v>
+        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE34</f>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13545,7 +13673,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13559,8 +13687,8 @@
         <v>76</v>
       </c>
       <c r="D3" s="7">
-        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB10</f>
-        <v>175</v>
+        <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB12</f>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13574,8 +13702,8 @@
         <v>74</v>
       </c>
       <c r="D4" s="15">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB12</f>
-        <v>153</v>
+        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB8</f>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13590,7 +13718,7 @@
       </c>
       <c r="D5" s="2">
         <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB18</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13604,8 +13732,8 @@
         <v>82</v>
       </c>
       <c r="D6" s="6">
-        <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB22</f>
-        <v>42</v>
+        <f>'2003-2009 Driver Ranking'!AB14+'2003-2009 Driver Ranking'!AB24</f>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13634,8 +13762,8 @@
         <v>82</v>
       </c>
       <c r="D8" s="8">
-        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB42</f>
-        <v>11</v>
+        <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB42</f>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13739,11 +13867,11 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD4</f>
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13758,11 +13886,11 @@
       </c>
       <c r="D3" s="7">
         <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC8</f>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E3" s="7">
         <f>'1991-2002 Driver Ranking'!AD6+'1991-2002 Driver Ranking'!AD8</f>
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13777,11 +13905,11 @@
       </c>
       <c r="D4" s="15">
         <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC12</f>
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E4" s="15">
         <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD12</f>
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13796,11 +13924,11 @@
       </c>
       <c r="D5" s="6">
         <f>'1991-2002 Driver Ranking'!AC14+'1991-2002 Driver Ranking'!AC22</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="6">
         <f>'1991-2002 Driver Ranking'!AD14+'1991-2002 Driver Ranking'!AD22</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -19,9 +19,9 @@
     <sheet name="Ranking System Notes" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AC$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AB$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1991-2002 Engine Ranking'!$A$1:$G$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="123">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,14 @@
   </si>
   <si>
     <t>Nyck de Vries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1092,7 +1100,7 @@
     <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="26.375" style="1" bestFit="1" customWidth="1"/>
@@ -1272,23 +1280,25 @@
       <c r="Y2" s="9">
         <v>1</v>
       </c>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="9">
+        <v>6</v>
+      </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>1+1+1+1+1</f>
         <v>5</v>
       </c>
       <c r="AC2" s="9">
-        <f>8+8</f>
-        <v>16</v>
+        <f>8+8+5</f>
+        <v>21</v>
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1298,91 +1308,91 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <f t="shared" ref="F3:AA3" si="0">IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
+        <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="H3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="J3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="K3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="L3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="M3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="N3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="O3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="P3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="Q3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="R3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="S3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="T3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="U3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="V3" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="W3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="X3" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="Y3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="Z3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(Z2=1,25,IF(Z2=2,18,IF(Z2=3,15,IF(Z2=4,12,IF(Z2=5,10,IF(Z2=6,8,IF(Z2=7,6,IF(Z2=8,4,IF(Z2=9,2,IF(Z2=10,1,0))))))))))</f>
+        <v>8</v>
       </c>
       <c r="AA3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="28"/>
@@ -1466,23 +1476,25 @@
       <c r="Y4" s="9">
         <v>3</v>
       </c>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="9">
+        <v>7</v>
+      </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9">
         <f>1+1+1</f>
         <v>3</v>
       </c>
       <c r="AC4" s="9">
-        <f>6+4</f>
-        <v>10</v>
+        <f>6+4+4</f>
+        <v>14</v>
       </c>
       <c r="AD4" s="9">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AE4" s="9">
         <f>SUM(F5:AA5)</f>
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1492,91 +1504,91 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <f t="shared" ref="F5:AA5" si="1">IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
+        <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="H5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="I5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="J5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="K5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="L5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="M5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="N5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="S5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="T5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="U5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="V5" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="W5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="X5" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="Y5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="Z5" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
+        <v>6</v>
       </c>
       <c r="AA5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="28"/>
@@ -1660,23 +1672,25 @@
       <c r="Y6" s="7">
         <v>6</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>4</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>1+1+1</f>
         <v>3</v>
       </c>
       <c r="AC6" s="7">
-        <f>7+7</f>
-        <v>14</v>
+        <f>7+7+3</f>
+        <v>17</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)+AB6+AC6</f>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1686,91 +1700,91 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <f t="shared" ref="F7:AA7" si="2">IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
+        <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="G7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="H7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="I7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="J7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="K7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="T7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="U7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="V7" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="W7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="X7" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="Y7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="Z7" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Z6=1,25,IF(Z6=2,18,IF(Z6=3,15,IF(Z6=4,12,IF(Z6=5,10,IF(Z6=6,8,IF(Z6=7,6,IF(Z6=8,4,IF(Z6=9,2,IF(Z6=10,1,0))))))))))</f>
+        <v>12</v>
       </c>
       <c r="AA7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="28"/>
@@ -1854,23 +1868,25 @@
       <c r="Y8" s="15">
         <v>4</v>
       </c>
-      <c r="Z8" s="15"/>
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15">
-        <f>1+1</f>
-        <v>2</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="AC8" s="15">
-        <f>5</f>
-        <v>5</v>
+        <f>5+8</f>
+        <v>13</v>
       </c>
       <c r="AD8" s="15">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="AE8" s="15">
         <f>SUM(F9:AA9)</f>
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1880,91 +1896,91 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <f t="shared" ref="F9:AA9" si="3">IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
+        <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="G9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="H9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="J9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="K9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="L9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="M9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="N9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="O9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="Q9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(Q8=1,25,IF(Q8=2,18,IF(Q8=3,15,IF(Q8=4,12,IF(Q8=5,10,IF(Q8=6,8,IF(Q8=7,6,IF(Q8=8,4,IF(Q8=9,2,IF(Q8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="R9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="S9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="T9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="U9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="V9" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="X9" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="Y9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="Z9" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(Z8=1,25,IF(Z8=2,18,IF(Z8=3,15,IF(Z8=4,12,IF(Z8=5,10,IF(Z8=6,8,IF(Z8=7,6,IF(Z8=8,4,IF(Z8=9,2,IF(Z8=10,1,0))))))))))</f>
+        <v>25</v>
       </c>
       <c r="AA9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="28"/>
@@ -2048,23 +2064,25 @@
       <c r="Y10" s="15">
         <v>2</v>
       </c>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="15">
+        <v>2</v>
+      </c>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15">
         <f>1+1</f>
         <v>2</v>
       </c>
       <c r="AC10" s="15">
-        <f>1</f>
-        <v>1</v>
+        <f>1+6</f>
+        <v>7</v>
       </c>
       <c r="AD10" s="15">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="AE10" s="15">
         <f>SUM(F11:AA11)</f>
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2074,91 +2092,91 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28">
-        <f t="shared" ref="F11:AA11" si="4">IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
+        <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="G11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="L11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="M11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="N11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="O11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="Q11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="S11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="U11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="V11" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="W11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="X11" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="Y11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="Z11" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
+        <v>18</v>
       </c>
       <c r="AA11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="28"/>
@@ -2242,23 +2260,25 @@
       <c r="Y12" s="7">
         <v>5</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="7">
+        <v>3</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <f>1+1</f>
         <v>2</v>
       </c>
       <c r="AC12" s="7">
-        <f>5+6</f>
-        <v>11</v>
+        <f>5+6+7</f>
+        <v>18</v>
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2268,91 +2288,91 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28">
-        <f t="shared" ref="F13:AA13" si="5">IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
+        <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="O13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="V13" s="35">
-        <f t="shared" si="5"/>
+        <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X13" s="35">
-        <f t="shared" si="5"/>
+        <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="Z13" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
+        <v>15</v>
       </c>
       <c r="AA13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="28"/>
@@ -2436,19 +2456,21 @@
       <c r="Y14" s="6">
         <v>9</v>
       </c>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="AC14" s="6">
-        <f>4</f>
-        <v>4</v>
+        <f>4+2</f>
+        <v>6</v>
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE14" s="6">
         <f>SUM(F15:AA15)</f>
@@ -2462,91 +2484,91 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28">
-        <f t="shared" ref="F15:AA15" si="6">IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
+        <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="J15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="L15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="M15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="N15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="S15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="U15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="V15" s="35">
-        <f t="shared" si="6"/>
+        <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="W15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="X15" s="35">
-        <f t="shared" si="6"/>
+        <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="Y15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="Z15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(Z14=1,25,IF(Z14=2,18,IF(Z14=3,15,IF(Z14=4,12,IF(Z14=5,10,IF(Z14=6,8,IF(Z14=7,6,IF(Z14=8,4,IF(Z14=9,2,IF(Z14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="28"/>
@@ -2630,7 +2652,9 @@
       <c r="Y16" s="2">
         <v>8</v>
       </c>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="2">
+        <v>8</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2">
@@ -2639,11 +2663,11 @@
       </c>
       <c r="AD16" s="2">
         <f>SUM(F17:AA17)+AB16+AC16</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AE16" s="2">
         <f>SUM(F17:AA17)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2653,91 +2677,91 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28">
-        <f t="shared" ref="F17:AA17" si="7">IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
+        <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="H17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="K17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="L17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="N17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="O17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="Q17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="R17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="S17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="U17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="35">
-        <f t="shared" si="7"/>
+        <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="X17" s="35">
-        <f t="shared" si="7"/>
+        <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(Y16=1,25,IF(Y16=2,18,IF(Y16=3,15,IF(Y16=4,12,IF(Y16=5,10,IF(Y16=6,8,IF(Y16=7,6,IF(Y16=8,4,IF(Y16=9,2,IF(Y16=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="Z17" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(Z16=1,25,IF(Z16=2,18,IF(Z16=3,15,IF(Z16=4,12,IF(Z16=5,10,IF(Z16=6,8,IF(Z16=7,6,IF(Z16=8,4,IF(Z16=9,2,IF(Z16=10,1,0))))))))))</f>
+        <v>4</v>
       </c>
       <c r="AA17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="28"/>
@@ -2821,17 +2845,19 @@
       <c r="Y18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="2">
+        <v>5</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2">
         <f>SUM(F19:AA19)+AB18+AC18</f>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AE18" s="2">
         <f>SUM(F19:AA19)</f>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2841,91 +2867,91 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28">
-        <f t="shared" ref="F19:AA19" si="8">IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
+        <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V19" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="X19" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="Y19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(Y18=1,25,IF(Y18=2,18,IF(Y18=3,15,IF(Y18=4,12,IF(Y18=5,10,IF(Y18=6,8,IF(Y18=7,6,IF(Y18=8,4,IF(Y18=9,2,IF(Y18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z19" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(Z18=1,25,IF(Z18=2,18,IF(Z18=3,15,IF(Z18=4,12,IF(Z18=5,10,IF(Z18=6,8,IF(Z18=7,6,IF(Z18=8,4,IF(Z18=9,2,IF(Z18=10,1,0))))))))))</f>
+        <v>10</v>
       </c>
       <c r="AA19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="28"/>
@@ -3009,7 +3035,9 @@
       <c r="Y20" s="11">
         <v>10</v>
       </c>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="11">
+        <v>9</v>
+      </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11">
@@ -3018,11 +3046,11 @@
       </c>
       <c r="AD20" s="11">
         <f>SUM(F21:AA21)+AB20+AC20</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AE20" s="11">
         <f>SUM(F21:AA21)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3032,91 +3060,91 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28">
-        <f t="shared" ref="F21:AA21" si="9">IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
+        <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="L21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="M21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="O21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(P20=1,25,IF(P20=2,18,IF(P20=3,15,IF(P20=4,12,IF(P20=5,10,IF(P20=6,8,IF(P20=7,6,IF(P20=8,4,IF(P20=9,2,IF(P20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(Q20=1,25,IF(Q20=2,18,IF(Q20=3,15,IF(Q20=4,12,IF(Q20=5,10,IF(Q20=6,8,IF(Q20=7,6,IF(Q20=8,4,IF(Q20=9,2,IF(Q20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V21" s="35">
-        <f t="shared" si="9"/>
+        <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X21" s="35">
-        <f t="shared" si="9"/>
+        <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(Y20=1,25,IF(Y20=2,18,IF(Y20=3,15,IF(Y20=4,12,IF(Y20=5,10,IF(Y20=6,8,IF(Y20=7,6,IF(Y20=8,4,IF(Y20=9,2,IF(Y20=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="Z21" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(Z20=1,25,IF(Z20=2,18,IF(Z20=3,15,IF(Z20=4,12,IF(Z20=5,10,IF(Z20=6,8,IF(Z20=7,6,IF(Z20=8,4,IF(Z20=9,2,IF(Z20=10,1,0))))))))))</f>
+        <v>2</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(AA20=1,25,IF(AA20=2,18,IF(AA20=3,15,IF(AA20=4,12,IF(AA20=5,10,IF(AA20=6,8,IF(AA20=7,6,IF(AA20=8,4,IF(AA20=9,2,IF(AA20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB21" s="28"/>
@@ -3196,7 +3224,9 @@
       <c r="Y22" s="8">
         <v>14</v>
       </c>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="8">
+        <v>11</v>
+      </c>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -3216,91 +3246,91 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28">
-        <f t="shared" ref="F23:AA23" si="10">IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
+        <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(Q22=1,25,IF(Q22=2,18,IF(Q22=3,15,IF(Q22=4,12,IF(Q22=5,10,IF(Q22=6,8,IF(Q22=7,6,IF(Q22=8,4,IF(Q22=9,2,IF(Q22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V23" s="35">
-        <f t="shared" si="10"/>
+        <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="W23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="X23" s="35">
-        <f t="shared" si="10"/>
+        <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="Y23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(Z22=1,25,IF(Z22=2,18,IF(Z22=3,15,IF(Z22=4,12,IF(Z22=5,10,IF(Z22=6,8,IF(Z22=7,6,IF(Z22=8,4,IF(Z22=9,2,IF(Z22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="28"/>
@@ -3384,7 +3414,9 @@
       <c r="Y24" s="6">
         <v>7</v>
       </c>
-      <c r="Z24" s="6"/>
+      <c r="Z24" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6">
@@ -3407,91 +3439,91 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28">
-        <f t="shared" ref="F25:AA25" si="11">IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
+        <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(K24=1,25,IF(K24=2,18,IF(K24=3,15,IF(K24=4,12,IF(K24=5,10,IF(K24=6,8,IF(K24=7,6,IF(K24=8,4,IF(K24=9,2,IF(K24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(Q24=1,25,IF(Q24=2,18,IF(Q24=3,15,IF(Q24=4,12,IF(Q24=5,10,IF(Q24=6,8,IF(Q24=7,6,IF(Q24=8,4,IF(Q24=9,2,IF(Q24=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(U24=1,25,IF(U24=2,18,IF(U24=3,15,IF(U24=4,12,IF(U24=5,10,IF(U24=6,8,IF(U24=7,6,IF(U24=8,4,IF(U24=9,2,IF(U24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="35">
-        <f t="shared" si="11"/>
+        <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="W25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X25" s="35">
-        <f t="shared" si="11"/>
+        <f>IF(X24=1,25,IF(X24=2,18,IF(X24=3,15,IF(X24=4,12,IF(X24=5,10,IF(X24=6,8,IF(X24=7,6,IF(X24=8,4,IF(X24=9,2,IF(X24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(Y24=1,25,IF(Y24=2,18,IF(Y24=3,15,IF(Y24=4,12,IF(Y24=5,10,IF(Y24=6,8,IF(Y24=7,6,IF(Y24=8,4,IF(Y24=9,2,IF(Y24=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="Z25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(Z24=1,25,IF(Z24=2,18,IF(Z24=3,15,IF(Z24=4,12,IF(Z24=5,10,IF(Z24=6,8,IF(Z24=7,6,IF(Z24=8,4,IF(Z24=9,2,IF(Z24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="28"/>
@@ -3575,16 +3607,18 @@
       <c r="Y26" s="3">
         <v>17</v>
       </c>
-      <c r="Z26" s="3"/>
+      <c r="Z26" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3">
-        <f>1+2</f>
-        <v>3</v>
+        <f>1+2+1</f>
+        <v>4</v>
       </c>
       <c r="AD26" s="3">
         <f>SUM(F27:AA27)+AB26+AC26</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE26" s="3">
         <f>SUM(F27:AA27)</f>
@@ -3598,91 +3632,91 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28">
-        <f t="shared" ref="F27:AA27" si="12">IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
+        <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(J26=1,25,IF(J26=2,18,IF(J26=3,15,IF(J26=4,12,IF(J26=5,10,IF(J26=6,8,IF(J26=7,6,IF(J26=8,4,IF(J26=9,2,IF(J26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(O26=1,25,IF(O26=2,18,IF(O26=3,15,IF(O26=4,12,IF(O26=5,10,IF(O26=6,8,IF(O26=7,6,IF(O26=8,4,IF(O26=9,2,IF(O26=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="Q27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(Q26=1,25,IF(Q26=2,18,IF(Q26=3,15,IF(Q26=4,12,IF(Q26=5,10,IF(Q26=6,8,IF(Q26=7,6,IF(Q26=8,4,IF(Q26=9,2,IF(Q26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V27" s="35">
-        <f t="shared" si="12"/>
+        <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="35">
-        <f t="shared" si="12"/>
+        <f>IF(X26=1,25,IF(X26=2,18,IF(X26=3,15,IF(X26=4,12,IF(X26=5,10,IF(X26=6,8,IF(X26=7,6,IF(X26=8,4,IF(X26=9,2,IF(X26=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="Y27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(Y26=1,25,IF(Y26=2,18,IF(Y26=3,15,IF(Y26=4,12,IF(Y26=5,10,IF(Y26=6,8,IF(Y26=7,6,IF(Y26=8,4,IF(Y26=9,2,IF(Y26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(Z26=1,25,IF(Z26=2,18,IF(Z26=3,15,IF(Z26=4,12,IF(Z26=5,10,IF(Z26=6,8,IF(Z26=7,6,IF(Z26=8,4,IF(Z26=9,2,IF(Z26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(AA26=1,25,IF(AA26=2,18,IF(AA26=3,15,IF(AA26=4,12,IF(AA26=5,10,IF(AA26=6,8,IF(AA26=7,6,IF(AA26=8,4,IF(AA26=9,2,IF(AA26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="28"/>
@@ -3766,7 +3800,9 @@
       <c r="Y28" s="9">
         <v>11</v>
       </c>
-      <c r="Z28" s="9"/>
+      <c r="Z28" s="9">
+        <v>14</v>
+      </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -3786,91 +3822,91 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28">
-        <f t="shared" ref="F29:AA29" si="13">IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
+        <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="I29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(K28=1,25,IF(K28=2,18,IF(K28=3,15,IF(K28=4,12,IF(K28=5,10,IF(K28=6,8,IF(K28=7,6,IF(K28=8,4,IF(K28=9,2,IF(K28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="N29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(O28=1,25,IF(O28=2,18,IF(O28=3,15,IF(O28=4,12,IF(O28=5,10,IF(O28=6,8,IF(O28=7,6,IF(O28=8,4,IF(O28=9,2,IF(O28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(P28=1,25,IF(P28=2,18,IF(P28=3,15,IF(P28=4,12,IF(P28=5,10,IF(P28=6,8,IF(P28=7,6,IF(P28=8,4,IF(P28=9,2,IF(P28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(Q28=1,25,IF(Q28=2,18,IF(Q28=3,15,IF(Q28=4,12,IF(Q28=5,10,IF(Q28=6,8,IF(Q28=7,6,IF(Q28=8,4,IF(Q28=9,2,IF(Q28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(U28=1,25,IF(U28=2,18,IF(U28=3,15,IF(U28=4,12,IF(U28=5,10,IF(U28=6,8,IF(U28=7,6,IF(U28=8,4,IF(U28=9,2,IF(U28=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="V29" s="35">
-        <f t="shared" si="13"/>
+        <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="W29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="35">
-        <f t="shared" si="13"/>
+        <f>IF(X28=1,25,IF(X28=2,18,IF(X28=3,15,IF(X28=4,12,IF(X28=5,10,IF(X28=6,8,IF(X28=7,6,IF(X28=8,4,IF(X28=9,2,IF(X28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(Y28=1,25,IF(Y28=2,18,IF(Y28=3,15,IF(Y28=4,12,IF(Y28=5,10,IF(Y28=6,8,IF(Y28=7,6,IF(Y28=8,4,IF(Y28=9,2,IF(Y28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(Z28=1,25,IF(Z28=2,18,IF(Z28=3,15,IF(Z28=4,12,IF(Z28=5,10,IF(Z28=6,8,IF(Z28=7,6,IF(Z28=8,4,IF(Z28=9,2,IF(Z28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(AA28=1,25,IF(AA28=2,18,IF(AA28=3,15,IF(AA28=4,12,IF(AA28=5,10,IF(AA28=6,8,IF(AA28=7,6,IF(AA28=8,4,IF(AA28=9,2,IF(AA28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="28"/>
@@ -3954,17 +3990,19 @@
       <c r="Y30" s="8">
         <v>15</v>
       </c>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="8">
+        <v>10</v>
+      </c>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8">
         <f>SUM(F31:AA31)+AB30+AC30</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE30" s="8">
         <f>SUM(F31:AA31)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -3974,91 +4012,91 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28">
-        <f t="shared" ref="F31:AA31" si="14">IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
+        <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="J31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="K31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="O31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(O30=1,25,IF(O30=2,18,IF(O30=3,15,IF(O30=4,12,IF(O30=5,10,IF(O30=6,8,IF(O30=7,6,IF(O30=8,4,IF(O30=9,2,IF(O30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(P30=1,25,IF(P30=2,18,IF(P30=3,15,IF(P30=4,12,IF(P30=5,10,IF(P30=6,8,IF(P30=7,6,IF(P30=8,4,IF(P30=9,2,IF(P30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(Q30=1,25,IF(Q30=2,18,IF(Q30=3,15,IF(Q30=4,12,IF(Q30=5,10,IF(Q30=6,8,IF(Q30=7,6,IF(Q30=8,4,IF(Q30=9,2,IF(Q30=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="R31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="U31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(U30=1,25,IF(U30=2,18,IF(U30=3,15,IF(U30=4,12,IF(U30=5,10,IF(U30=6,8,IF(U30=7,6,IF(U30=8,4,IF(U30=9,2,IF(U30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="35">
-        <f t="shared" si="14"/>
+        <f>IF(V30=1,25,IF(V30=2,18,IF(V30=3,15,IF(V30=4,12,IF(V30=5,10,IF(V30=6,8,IF(V30=7,6,IF(V30=8,4,IF(V30=9,2,IF(V30=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="W31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="35">
-        <f t="shared" si="14"/>
+        <f>IF(X30=1,25,IF(X30=2,18,IF(X30=3,15,IF(X30=4,12,IF(X30=5,10,IF(X30=6,8,IF(X30=7,6,IF(X30=8,4,IF(X30=9,2,IF(X30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(Y30=1,25,IF(Y30=2,18,IF(Y30=3,15,IF(Y30=4,12,IF(Y30=5,10,IF(Y30=6,8,IF(Y30=7,6,IF(Y30=8,4,IF(Y30=9,2,IF(Y30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z31" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>IF(Z30=1,25,IF(Z30=2,18,IF(Z30=3,15,IF(Z30=4,12,IF(Z30=5,10,IF(Z30=6,8,IF(Z30=7,6,IF(Z30=8,4,IF(Z30=9,2,IF(Z30=10,1,0))))))))))</f>
+        <v>1</v>
       </c>
       <c r="AA31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="28"/>
@@ -4142,7 +4180,9 @@
       <c r="Y32" s="3">
         <v>16</v>
       </c>
-      <c r="Z32" s="3"/>
+      <c r="Z32" s="3">
+        <v>13</v>
+      </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -4162,91 +4202,91 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28">
-        <f t="shared" ref="F33:AA33" si="15">IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
+        <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(K32=1,25,IF(K32=2,18,IF(K32=3,15,IF(K32=4,12,IF(K32=5,10,IF(K32=6,8,IF(K32=7,6,IF(K32=8,4,IF(K32=9,2,IF(K32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(M32=1,25,IF(M32=2,18,IF(M32=3,15,IF(M32=4,12,IF(M32=5,10,IF(M32=6,8,IF(M32=7,6,IF(M32=8,4,IF(M32=9,2,IF(M32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(N32=1,25,IF(N32=2,18,IF(N32=3,15,IF(N32=4,12,IF(N32=5,10,IF(N32=6,8,IF(N32=7,6,IF(N32=8,4,IF(N32=9,2,IF(N32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(O32=1,25,IF(O32=2,18,IF(O32=3,15,IF(O32=4,12,IF(O32=5,10,IF(O32=6,8,IF(O32=7,6,IF(O32=8,4,IF(O32=9,2,IF(O32=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="P33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(P32=1,25,IF(P32=2,18,IF(P32=3,15,IF(P32=4,12,IF(P32=5,10,IF(P32=6,8,IF(P32=7,6,IF(P32=8,4,IF(P32=9,2,IF(P32=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="Q33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(Q32=1,25,IF(Q32=2,18,IF(Q32=3,15,IF(Q32=4,12,IF(Q32=5,10,IF(Q32=6,8,IF(Q32=7,6,IF(Q32=8,4,IF(Q32=9,2,IF(Q32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(S32=1,25,IF(S32=2,18,IF(S32=3,15,IF(S32=4,12,IF(S32=5,10,IF(S32=6,8,IF(S32=7,6,IF(S32=8,4,IF(S32=9,2,IF(S32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(T32=1,25,IF(T32=2,18,IF(T32=3,15,IF(T32=4,12,IF(T32=5,10,IF(T32=6,8,IF(T32=7,6,IF(T32=8,4,IF(T32=9,2,IF(T32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(U32=1,25,IF(U32=2,18,IF(U32=3,15,IF(U32=4,12,IF(U32=5,10,IF(U32=6,8,IF(U32=7,6,IF(U32=8,4,IF(U32=9,2,IF(U32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" si="15"/>
+        <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X33" s="35">
-        <f t="shared" si="15"/>
+        <f>IF(X32=1,25,IF(X32=2,18,IF(X32=3,15,IF(X32=4,12,IF(X32=5,10,IF(X32=6,8,IF(X32=7,6,IF(X32=8,4,IF(X32=9,2,IF(X32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(Y32=1,25,IF(Y32=2,18,IF(Y32=3,15,IF(Y32=4,12,IF(Y32=5,10,IF(Y32=6,8,IF(Y32=7,6,IF(Y32=8,4,IF(Y32=9,2,IF(Y32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(Z32=1,25,IF(Z32=2,18,IF(Z32=3,15,IF(Z32=4,12,IF(Z32=5,10,IF(Z32=6,8,IF(Z32=7,6,IF(Z32=8,4,IF(Z32=9,2,IF(Z32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(AA32=1,25,IF(AA32=2,18,IF(AA32=3,15,IF(AA32=4,12,IF(AA32=5,10,IF(AA32=6,8,IF(AA32=7,6,IF(AA32=8,4,IF(AA32=9,2,IF(AA32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="28"/>
@@ -4330,7 +4370,9 @@
       <c r="Y34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="9">
+        <v>17</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -4350,91 +4392,91 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28">
-        <f t="shared" ref="F35:AA35" si="16">IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
+        <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="L35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(L34=1,25,IF(L34=2,18,IF(L34=3,15,IF(L34=4,12,IF(L34=5,10,IF(L34=6,8,IF(L34=7,6,IF(L34=8,4,IF(L34=9,2,IF(L34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(M34=1,25,IF(M34=2,18,IF(M34=3,15,IF(M34=4,12,IF(M34=5,10,IF(M34=6,8,IF(M34=7,6,IF(M34=8,4,IF(M34=9,2,IF(M34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(N34=1,25,IF(N34=2,18,IF(N34=3,15,IF(N34=4,12,IF(N34=5,10,IF(N34=6,8,IF(N34=7,6,IF(N34=8,4,IF(N34=9,2,IF(N34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(O34=1,25,IF(O34=2,18,IF(O34=3,15,IF(O34=4,12,IF(O34=5,10,IF(O34=6,8,IF(O34=7,6,IF(O34=8,4,IF(O34=9,2,IF(O34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(P34=1,25,IF(P34=2,18,IF(P34=3,15,IF(P34=4,12,IF(P34=5,10,IF(P34=6,8,IF(P34=7,6,IF(P34=8,4,IF(P34=9,2,IF(P34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(Q34=1,25,IF(Q34=2,18,IF(Q34=3,15,IF(Q34=4,12,IF(Q34=5,10,IF(Q34=6,8,IF(Q34=7,6,IF(Q34=8,4,IF(Q34=9,2,IF(Q34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(S34=1,25,IF(S34=2,18,IF(S34=3,15,IF(S34=4,12,IF(S34=5,10,IF(S34=6,8,IF(S34=7,6,IF(S34=8,4,IF(S34=9,2,IF(S34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(T34=1,25,IF(T34=2,18,IF(T34=3,15,IF(T34=4,12,IF(T34=5,10,IF(T34=6,8,IF(T34=7,6,IF(T34=8,4,IF(T34=9,2,IF(T34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(U34=1,25,IF(U34=2,18,IF(U34=3,15,IF(U34=4,12,IF(U34=5,10,IF(U34=6,8,IF(U34=7,6,IF(U34=8,4,IF(U34=9,2,IF(U34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="16"/>
+        <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X35" s="35">
-        <f t="shared" si="16"/>
+        <f>IF(X34=1,25,IF(X34=2,18,IF(X34=3,15,IF(X34=4,12,IF(X34=5,10,IF(X34=6,8,IF(X34=7,6,IF(X34=8,4,IF(X34=9,2,IF(X34=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="Y35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(Y34=1,25,IF(Y34=2,18,IF(Y34=3,15,IF(Y34=4,12,IF(Y34=5,10,IF(Y34=6,8,IF(Y34=7,6,IF(Y34=8,4,IF(Y34=9,2,IF(Y34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(Z34=1,25,IF(Z34=2,18,IF(Z34=3,15,IF(Z34=4,12,IF(Z34=5,10,IF(Z34=6,8,IF(Z34=7,6,IF(Z34=8,4,IF(Z34=9,2,IF(Z34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(AA34=1,25,IF(AA34=2,18,IF(AA34=3,15,IF(AA34=4,12,IF(AA34=5,10,IF(AA34=6,8,IF(AA34=7,6,IF(AA34=8,4,IF(AA34=9,2,IF(AA34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="28"/>
@@ -4518,7 +4560,9 @@
       <c r="Y36" s="11">
         <v>13</v>
       </c>
-      <c r="Z36" s="11"/>
+      <c r="Z36" s="11">
+        <v>12</v>
+      </c>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
@@ -4538,91 +4582,91 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28">
-        <f t="shared" ref="F37:AA37" si="17">IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
+        <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="G37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(L36=1,25,IF(L36=2,18,IF(L36=3,15,IF(L36=4,12,IF(L36=5,10,IF(L36=6,8,IF(L36=7,6,IF(L36=8,4,IF(L36=9,2,IF(L36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(M36=1,25,IF(M36=2,18,IF(M36=3,15,IF(M36=4,12,IF(M36=5,10,IF(M36=6,8,IF(M36=7,6,IF(M36=8,4,IF(M36=9,2,IF(M36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(N36=1,25,IF(N36=2,18,IF(N36=3,15,IF(N36=4,12,IF(N36=5,10,IF(N36=6,8,IF(N36=7,6,IF(N36=8,4,IF(N36=9,2,IF(N36=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="O37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(O36=1,25,IF(O36=2,18,IF(O36=3,15,IF(O36=4,12,IF(O36=5,10,IF(O36=6,8,IF(O36=7,6,IF(O36=8,4,IF(O36=9,2,IF(O36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(P36=1,25,IF(P36=2,18,IF(P36=3,15,IF(P36=4,12,IF(P36=5,10,IF(P36=6,8,IF(P36=7,6,IF(P36=8,4,IF(P36=9,2,IF(P36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(Q36=1,25,IF(Q36=2,18,IF(Q36=3,15,IF(Q36=4,12,IF(Q36=5,10,IF(Q36=6,8,IF(Q36=7,6,IF(Q36=8,4,IF(Q36=9,2,IF(Q36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(S36=1,25,IF(S36=2,18,IF(S36=3,15,IF(S36=4,12,IF(S36=5,10,IF(S36=6,8,IF(S36=7,6,IF(S36=8,4,IF(S36=9,2,IF(S36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(U36=1,25,IF(U36=2,18,IF(U36=3,15,IF(U36=4,12,IF(U36=5,10,IF(U36=6,8,IF(U36=7,6,IF(U36=8,4,IF(U36=9,2,IF(U36=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="V37" s="35">
-        <f t="shared" si="17"/>
+        <f>IF(V36=1,25,IF(V36=2,18,IF(V36=3,15,IF(V36=4,12,IF(V36=5,10,IF(V36=6,8,IF(V36=7,6,IF(V36=8,4,IF(V36=9,2,IF(V36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(W36=1,25,IF(W36=2,18,IF(W36=3,15,IF(W36=4,12,IF(W36=5,10,IF(W36=6,8,IF(W36=7,6,IF(W36=8,4,IF(W36=9,2,IF(W36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="35">
-        <f t="shared" si="17"/>
+        <f>IF(X36=1,25,IF(X36=2,18,IF(X36=3,15,IF(X36=4,12,IF(X36=5,10,IF(X36=6,8,IF(X36=7,6,IF(X36=8,4,IF(X36=9,2,IF(X36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(Y36=1,25,IF(Y36=2,18,IF(Y36=3,15,IF(Y36=4,12,IF(Y36=5,10,IF(Y36=6,8,IF(Y36=7,6,IF(Y36=8,4,IF(Y36=9,2,IF(Y36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(Z36=1,25,IF(Z36=2,18,IF(Z36=3,15,IF(Z36=4,12,IF(Z36=5,10,IF(Z36=6,8,IF(Z36=7,6,IF(Z36=8,4,IF(Z36=9,2,IF(Z36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="28"/>
@@ -4704,7 +4748,9 @@
       <c r="Y38" s="5">
         <v>12</v>
       </c>
-      <c r="Z38" s="5"/>
+      <c r="Z38" s="5">
+        <v>15</v>
+      </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -4724,91 +4770,91 @@
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28">
-        <f t="shared" ref="F39:AA39" si="18">IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
+        <f>IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(G38=1,25,IF(G38=2,18,IF(G38=3,15,IF(G38=4,12,IF(G38=5,10,IF(G38=6,8,IF(G38=7,6,IF(G38=8,4,IF(G38=9,2,IF(G38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(H38=1,25,IF(H38=2,18,IF(H38=3,15,IF(H38=4,12,IF(H38=5,10,IF(H38=6,8,IF(H38=7,6,IF(H38=8,4,IF(H38=9,2,IF(H38=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="I39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(I38=1,25,IF(I38=2,18,IF(I38=3,15,IF(I38=4,12,IF(I38=5,10,IF(I38=6,8,IF(I38=7,6,IF(I38=8,4,IF(I38=9,2,IF(I38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(J38=1,25,IF(J38=2,18,IF(J38=3,15,IF(J38=4,12,IF(J38=5,10,IF(J38=6,8,IF(J38=7,6,IF(J38=8,4,IF(J38=9,2,IF(J38=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="K39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(K38=1,25,IF(K38=2,18,IF(K38=3,15,IF(K38=4,12,IF(K38=5,10,IF(K38=6,8,IF(K38=7,6,IF(K38=8,4,IF(K38=9,2,IF(K38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(L38=1,25,IF(L38=2,18,IF(L38=3,15,IF(L38=4,12,IF(L38=5,10,IF(L38=6,8,IF(L38=7,6,IF(L38=8,4,IF(L38=9,2,IF(L38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(M38=1,25,IF(M38=2,18,IF(M38=3,15,IF(M38=4,12,IF(M38=5,10,IF(M38=6,8,IF(M38=7,6,IF(M38=8,4,IF(M38=9,2,IF(M38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(N38=1,25,IF(N38=2,18,IF(N38=3,15,IF(N38=4,12,IF(N38=5,10,IF(N38=6,8,IF(N38=7,6,IF(N38=8,4,IF(N38=9,2,IF(N38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(O38=1,25,IF(O38=2,18,IF(O38=3,15,IF(O38=4,12,IF(O38=5,10,IF(O38=6,8,IF(O38=7,6,IF(O38=8,4,IF(O38=9,2,IF(O38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(P38=1,25,IF(P38=2,18,IF(P38=3,15,IF(P38=4,12,IF(P38=5,10,IF(P38=6,8,IF(P38=7,6,IF(P38=8,4,IF(P38=9,2,IF(P38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(Q38=1,25,IF(Q38=2,18,IF(Q38=3,15,IF(Q38=4,12,IF(Q38=5,10,IF(Q38=6,8,IF(Q38=7,6,IF(Q38=8,4,IF(Q38=9,2,IF(Q38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(R38=1,25,IF(R38=2,18,IF(R38=3,15,IF(R38=4,12,IF(R38=5,10,IF(R38=6,8,IF(R38=7,6,IF(R38=8,4,IF(R38=9,2,IF(R38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(S38=1,25,IF(S38=2,18,IF(S38=3,15,IF(S38=4,12,IF(S38=5,10,IF(S38=6,8,IF(S38=7,6,IF(S38=8,4,IF(S38=9,2,IF(S38=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(T38=1,25,IF(T38=2,18,IF(T38=3,15,IF(T38=4,12,IF(T38=5,10,IF(T38=6,8,IF(T38=7,6,IF(T38=8,4,IF(T38=9,2,IF(T38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(U38=1,25,IF(U38=2,18,IF(U38=3,15,IF(U38=4,12,IF(U38=5,10,IF(U38=6,8,IF(U38=7,6,IF(U38=8,4,IF(U38=9,2,IF(U38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="35">
-        <f t="shared" si="18"/>
+        <f>IF(V38=1,25,IF(V38=2,18,IF(V38=3,15,IF(V38=4,12,IF(V38=5,10,IF(V38=6,8,IF(V38=7,6,IF(V38=8,4,IF(V38=9,2,IF(V38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(W38=1,25,IF(W38=2,18,IF(W38=3,15,IF(W38=4,12,IF(W38=5,10,IF(W38=6,8,IF(W38=7,6,IF(W38=8,4,IF(W38=9,2,IF(W38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="35">
-        <f t="shared" si="18"/>
+        <f>IF(X38=1,25,IF(X38=2,18,IF(X38=3,15,IF(X38=4,12,IF(X38=5,10,IF(X38=6,8,IF(X38=7,6,IF(X38=8,4,IF(X38=9,2,IF(X38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(Y38=1,25,IF(Y38=2,18,IF(Y38=3,15,IF(Y38=4,12,IF(Y38=5,10,IF(Y38=6,8,IF(Y38=7,6,IF(Y38=8,4,IF(Y38=9,2,IF(Y38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(Z38=1,25,IF(Z38=2,18,IF(Z38=3,15,IF(Z38=4,12,IF(Z38=5,10,IF(Z38=6,8,IF(Z38=7,6,IF(Z38=8,4,IF(Z38=9,2,IF(Z38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(AA38=1,25,IF(AA38=2,18,IF(AA38=3,15,IF(AA38=4,12,IF(AA38=5,10,IF(AA38=6,8,IF(AA38=7,6,IF(AA38=8,4,IF(AA38=9,2,IF(AA38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="28"/>
@@ -4874,91 +4920,91 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28">
-        <f t="shared" ref="F41:AA41" si="19">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
+        <f>IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(G40=1,25,IF(G40=2,18,IF(G40=3,15,IF(G40=4,12,IF(G40=5,10,IF(G40=6,8,IF(G40=7,6,IF(G40=8,4,IF(G40=9,2,IF(G40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(H40=1,25,IF(H40=2,18,IF(H40=3,15,IF(H40=4,12,IF(H40=5,10,IF(H40=6,8,IF(H40=7,6,IF(H40=8,4,IF(H40=9,2,IF(H40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(I40=1,25,IF(I40=2,18,IF(I40=3,15,IF(I40=4,12,IF(I40=5,10,IF(I40=6,8,IF(I40=7,6,IF(I40=8,4,IF(I40=9,2,IF(I40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(J40=1,25,IF(J40=2,18,IF(J40=3,15,IF(J40=4,12,IF(J40=5,10,IF(J40=6,8,IF(J40=7,6,IF(J40=8,4,IF(J40=9,2,IF(J40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(K40=1,25,IF(K40=2,18,IF(K40=3,15,IF(K40=4,12,IF(K40=5,10,IF(K40=6,8,IF(K40=7,6,IF(K40=8,4,IF(K40=9,2,IF(K40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(L40=1,25,IF(L40=2,18,IF(L40=3,15,IF(L40=4,12,IF(L40=5,10,IF(L40=6,8,IF(L40=7,6,IF(L40=8,4,IF(L40=9,2,IF(L40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(M40=1,25,IF(M40=2,18,IF(M40=3,15,IF(M40=4,12,IF(M40=5,10,IF(M40=6,8,IF(M40=7,6,IF(M40=8,4,IF(M40=9,2,IF(M40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(N40=1,25,IF(N40=2,18,IF(N40=3,15,IF(N40=4,12,IF(N40=5,10,IF(N40=6,8,IF(N40=7,6,IF(N40=8,4,IF(N40=9,2,IF(N40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(O40=1,25,IF(O40=2,18,IF(O40=3,15,IF(O40=4,12,IF(O40=5,10,IF(O40=6,8,IF(O40=7,6,IF(O40=8,4,IF(O40=9,2,IF(O40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(P40=1,25,IF(P40=2,18,IF(P40=3,15,IF(P40=4,12,IF(P40=5,10,IF(P40=6,8,IF(P40=7,6,IF(P40=8,4,IF(P40=9,2,IF(P40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(Q40=1,25,IF(Q40=2,18,IF(Q40=3,15,IF(Q40=4,12,IF(Q40=5,10,IF(Q40=6,8,IF(Q40=7,6,IF(Q40=8,4,IF(Q40=9,2,IF(Q40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(S40=1,25,IF(S40=2,18,IF(S40=3,15,IF(S40=4,12,IF(S40=5,10,IF(S40=6,8,IF(S40=7,6,IF(S40=8,4,IF(S40=9,2,IF(S40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(T40=1,25,IF(T40=2,18,IF(T40=3,15,IF(T40=4,12,IF(T40=5,10,IF(T40=6,8,IF(T40=7,6,IF(T40=8,4,IF(T40=9,2,IF(T40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(U40=1,25,IF(U40=2,18,IF(U40=3,15,IF(U40=4,12,IF(U40=5,10,IF(U40=6,8,IF(U40=7,6,IF(U40=8,4,IF(U40=9,2,IF(U40=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="V41" s="35">
-        <f t="shared" si="19"/>
+        <f>IF(V40=1,25,IF(V40=2,18,IF(V40=3,15,IF(V40=4,12,IF(V40=5,10,IF(V40=6,8,IF(V40=7,6,IF(V40=8,4,IF(V40=9,2,IF(V40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="35">
-        <f t="shared" si="19"/>
+        <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(Y40=1,25,IF(Y40=2,18,IF(Y40=3,15,IF(Y40=4,12,IF(Y40=5,10,IF(Y40=6,8,IF(Y40=7,6,IF(Y40=8,4,IF(Y40=9,2,IF(Y40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(Z40=1,25,IF(Z40=2,18,IF(Z40=3,15,IF(Z40=4,12,IF(Z40=5,10,IF(Z40=6,8,IF(Z40=7,6,IF(Z40=8,4,IF(Z40=9,2,IF(Z40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="28"/>
@@ -5042,7 +5088,9 @@
       <c r="Y42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="Z42" s="5"/>
+      <c r="Z42" s="5">
+        <v>16</v>
+      </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -5062,91 +5110,91 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28">
-        <f t="shared" ref="F43:AA43" si="20">IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
+        <f>IF(F42=1,25,IF(F42=2,18,IF(F42=3,15,IF(F42=4,12,IF(F42=5,10,IF(F42=6,8,IF(F42=7,6,IF(F42=8,4,IF(F42=9,2,IF(F42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(H42=1,25,IF(H42=2,18,IF(H42=3,15,IF(H42=4,12,IF(H42=5,10,IF(H42=6,8,IF(H42=7,6,IF(H42=8,4,IF(H42=9,2,IF(H42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(I42=1,25,IF(I42=2,18,IF(I42=3,15,IF(I42=4,12,IF(I42=5,10,IF(I42=6,8,IF(I42=7,6,IF(I42=8,4,IF(I42=9,2,IF(I42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(J42=1,25,IF(J42=2,18,IF(J42=3,15,IF(J42=4,12,IF(J42=5,10,IF(J42=6,8,IF(J42=7,6,IF(J42=8,4,IF(J42=9,2,IF(J42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(K42=1,25,IF(K42=2,18,IF(K42=3,15,IF(K42=4,12,IF(K42=5,10,IF(K42=6,8,IF(K42=7,6,IF(K42=8,4,IF(K42=9,2,IF(K42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(L42=1,25,IF(L42=2,18,IF(L42=3,15,IF(L42=4,12,IF(L42=5,10,IF(L42=6,8,IF(L42=7,6,IF(L42=8,4,IF(L42=9,2,IF(L42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(M42=1,25,IF(M42=2,18,IF(M42=3,15,IF(M42=4,12,IF(M42=5,10,IF(M42=6,8,IF(M42=7,6,IF(M42=8,4,IF(M42=9,2,IF(M42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(N42=1,25,IF(N42=2,18,IF(N42=3,15,IF(N42=4,12,IF(N42=5,10,IF(N42=6,8,IF(N42=7,6,IF(N42=8,4,IF(N42=9,2,IF(N42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(O42=1,25,IF(O42=2,18,IF(O42=3,15,IF(O42=4,12,IF(O42=5,10,IF(O42=6,8,IF(O42=7,6,IF(O42=8,4,IF(O42=9,2,IF(O42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(P42=1,25,IF(P42=2,18,IF(P42=3,15,IF(P42=4,12,IF(P42=5,10,IF(P42=6,8,IF(P42=7,6,IF(P42=8,4,IF(P42=9,2,IF(P42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(Q42=1,25,IF(Q42=2,18,IF(Q42=3,15,IF(Q42=4,12,IF(Q42=5,10,IF(Q42=6,8,IF(Q42=7,6,IF(Q42=8,4,IF(Q42=9,2,IF(Q42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(R42=1,25,IF(R42=2,18,IF(R42=3,15,IF(R42=4,12,IF(R42=5,10,IF(R42=6,8,IF(R42=7,6,IF(R42=8,4,IF(R42=9,2,IF(R42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(T42=1,25,IF(T42=2,18,IF(T42=3,15,IF(T42=4,12,IF(T42=5,10,IF(T42=6,8,IF(T42=7,6,IF(T42=8,4,IF(T42=9,2,IF(T42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(U42=1,25,IF(U42=2,18,IF(U42=3,15,IF(U42=4,12,IF(U42=5,10,IF(U42=6,8,IF(U42=7,6,IF(U42=8,4,IF(U42=9,2,IF(U42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="35">
-        <f t="shared" si="20"/>
+        <f>IF(V42=1,25,IF(V42=2,18,IF(V42=3,15,IF(V42=4,12,IF(V42=5,10,IF(V42=6,8,IF(V42=7,6,IF(V42=8,4,IF(V42=9,2,IF(V42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(W42=1,25,IF(W42=2,18,IF(W42=3,15,IF(W42=4,12,IF(W42=5,10,IF(W42=6,8,IF(W42=7,6,IF(W42=8,4,IF(W42=9,2,IF(W42=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="X43" s="35">
-        <f t="shared" si="20"/>
+        <f>IF(X42=1,25,IF(X42=2,18,IF(X42=3,15,IF(X42=4,12,IF(X42=5,10,IF(X42=6,8,IF(X42=7,6,IF(X42=8,4,IF(X42=9,2,IF(X42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(Y42=1,25,IF(Y42=2,18,IF(Y42=3,15,IF(Y42=4,12,IF(Y42=5,10,IF(Y42=6,8,IF(Y42=7,6,IF(Y42=8,4,IF(Y42=9,2,IF(Y42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(Z42=1,25,IF(Z42=2,18,IF(Z42=3,15,IF(Z42=4,12,IF(Z42=5,10,IF(Z42=6,8,IF(Z42=7,6,IF(Z42=8,4,IF(Z42=9,2,IF(Z42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(AA42=1,25,IF(AA42=2,18,IF(AA42=3,15,IF(AA42=4,12,IF(AA42=5,10,IF(AA42=6,8,IF(AA42=7,6,IF(AA42=8,4,IF(AA42=9,2,IF(AA42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB43" s="28"/>
@@ -5214,91 +5262,91 @@
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28">
-        <f t="shared" ref="F45" si="21">IF(F44=1,25,IF(F44=2,18,IF(F44=3,15,IF(F44=4,12,IF(F44=5,10,IF(F44=6,8,IF(F44=7,6,IF(F44=8,4,IF(F44=9,2,IF(F44=10,1,0))))))))))</f>
+        <f t="shared" ref="F45" si="0">IF(F44=1,25,IF(F44=2,18,IF(F44=3,15,IF(F44=4,12,IF(F44=5,10,IF(F44=6,8,IF(F44=7,6,IF(F44=8,4,IF(F44=9,2,IF(F44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G45" s="28">
-        <f t="shared" ref="G45" si="22">IF(G44=1,25,IF(G44=2,18,IF(G44=3,15,IF(G44=4,12,IF(G44=5,10,IF(G44=6,8,IF(G44=7,6,IF(G44=8,4,IF(G44=9,2,IF(G44=10,1,0))))))))))</f>
+        <f t="shared" ref="G45" si="1">IF(G44=1,25,IF(G44=2,18,IF(G44=3,15,IF(G44=4,12,IF(G44=5,10,IF(G44=6,8,IF(G44=7,6,IF(G44=8,4,IF(G44=9,2,IF(G44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H45" s="28">
-        <f t="shared" ref="H45" si="23">IF(H44=1,25,IF(H44=2,18,IF(H44=3,15,IF(H44=4,12,IF(H44=5,10,IF(H44=6,8,IF(H44=7,6,IF(H44=8,4,IF(H44=9,2,IF(H44=10,1,0))))))))))</f>
+        <f t="shared" ref="H45" si="2">IF(H44=1,25,IF(H44=2,18,IF(H44=3,15,IF(H44=4,12,IF(H44=5,10,IF(H44=6,8,IF(H44=7,6,IF(H44=8,4,IF(H44=9,2,IF(H44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I45" s="28">
-        <f t="shared" ref="I45" si="24">IF(I44=1,25,IF(I44=2,18,IF(I44=3,15,IF(I44=4,12,IF(I44=5,10,IF(I44=6,8,IF(I44=7,6,IF(I44=8,4,IF(I44=9,2,IF(I44=10,1,0))))))))))</f>
+        <f t="shared" ref="I45" si="3">IF(I44=1,25,IF(I44=2,18,IF(I44=3,15,IF(I44=4,12,IF(I44=5,10,IF(I44=6,8,IF(I44=7,6,IF(I44=8,4,IF(I44=9,2,IF(I44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J45" s="28">
-        <f t="shared" ref="J45" si="25">IF(J44=1,25,IF(J44=2,18,IF(J44=3,15,IF(J44=4,12,IF(J44=5,10,IF(J44=6,8,IF(J44=7,6,IF(J44=8,4,IF(J44=9,2,IF(J44=10,1,0))))))))))</f>
+        <f t="shared" ref="J45" si="4">IF(J44=1,25,IF(J44=2,18,IF(J44=3,15,IF(J44=4,12,IF(J44=5,10,IF(J44=6,8,IF(J44=7,6,IF(J44=8,4,IF(J44=9,2,IF(J44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K45" s="28">
-        <f t="shared" ref="K45" si="26">IF(K44=1,25,IF(K44=2,18,IF(K44=3,15,IF(K44=4,12,IF(K44=5,10,IF(K44=6,8,IF(K44=7,6,IF(K44=8,4,IF(K44=9,2,IF(K44=10,1,0))))))))))</f>
+        <f t="shared" ref="K45" si="5">IF(K44=1,25,IF(K44=2,18,IF(K44=3,15,IF(K44=4,12,IF(K44=5,10,IF(K44=6,8,IF(K44=7,6,IF(K44=8,4,IF(K44=9,2,IF(K44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L45" s="28">
-        <f t="shared" ref="L45" si="27">IF(L44=1,25,IF(L44=2,18,IF(L44=3,15,IF(L44=4,12,IF(L44=5,10,IF(L44=6,8,IF(L44=7,6,IF(L44=8,4,IF(L44=9,2,IF(L44=10,1,0))))))))))</f>
+        <f t="shared" ref="L45" si="6">IF(L44=1,25,IF(L44=2,18,IF(L44=3,15,IF(L44=4,12,IF(L44=5,10,IF(L44=6,8,IF(L44=7,6,IF(L44=8,4,IF(L44=9,2,IF(L44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M45" s="28">
-        <f t="shared" ref="M45" si="28">IF(M44=1,25,IF(M44=2,18,IF(M44=3,15,IF(M44=4,12,IF(M44=5,10,IF(M44=6,8,IF(M44=7,6,IF(M44=8,4,IF(M44=9,2,IF(M44=10,1,0))))))))))</f>
+        <f t="shared" ref="M45" si="7">IF(M44=1,25,IF(M44=2,18,IF(M44=3,15,IF(M44=4,12,IF(M44=5,10,IF(M44=6,8,IF(M44=7,6,IF(M44=8,4,IF(M44=9,2,IF(M44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N45" s="28">
-        <f t="shared" ref="N45" si="29">IF(N44=1,25,IF(N44=2,18,IF(N44=3,15,IF(N44=4,12,IF(N44=5,10,IF(N44=6,8,IF(N44=7,6,IF(N44=8,4,IF(N44=9,2,IF(N44=10,1,0))))))))))</f>
+        <f t="shared" ref="N45" si="8">IF(N44=1,25,IF(N44=2,18,IF(N44=3,15,IF(N44=4,12,IF(N44=5,10,IF(N44=6,8,IF(N44=7,6,IF(N44=8,4,IF(N44=9,2,IF(N44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O45" s="28">
-        <f t="shared" ref="O45" si="30">IF(O44=1,25,IF(O44=2,18,IF(O44=3,15,IF(O44=4,12,IF(O44=5,10,IF(O44=6,8,IF(O44=7,6,IF(O44=8,4,IF(O44=9,2,IF(O44=10,1,0))))))))))</f>
+        <f t="shared" ref="O45" si="9">IF(O44=1,25,IF(O44=2,18,IF(O44=3,15,IF(O44=4,12,IF(O44=5,10,IF(O44=6,8,IF(O44=7,6,IF(O44=8,4,IF(O44=9,2,IF(O44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P45" s="28">
-        <f t="shared" ref="P45" si="31">IF(P44=1,25,IF(P44=2,18,IF(P44=3,15,IF(P44=4,12,IF(P44=5,10,IF(P44=6,8,IF(P44=7,6,IF(P44=8,4,IF(P44=9,2,IF(P44=10,1,0))))))))))</f>
+        <f t="shared" ref="P45" si="10">IF(P44=1,25,IF(P44=2,18,IF(P44=3,15,IF(P44=4,12,IF(P44=5,10,IF(P44=6,8,IF(P44=7,6,IF(P44=8,4,IF(P44=9,2,IF(P44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q45" s="28">
-        <f t="shared" ref="Q45" si="32">IF(Q44=1,25,IF(Q44=2,18,IF(Q44=3,15,IF(Q44=4,12,IF(Q44=5,10,IF(Q44=6,8,IF(Q44=7,6,IF(Q44=8,4,IF(Q44=9,2,IF(Q44=10,1,0))))))))))</f>
+        <f t="shared" ref="Q45" si="11">IF(Q44=1,25,IF(Q44=2,18,IF(Q44=3,15,IF(Q44=4,12,IF(Q44=5,10,IF(Q44=6,8,IF(Q44=7,6,IF(Q44=8,4,IF(Q44=9,2,IF(Q44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="R45" s="28">
-        <f t="shared" ref="R45" si="33">IF(R44=1,25,IF(R44=2,18,IF(R44=3,15,IF(R44=4,12,IF(R44=5,10,IF(R44=6,8,IF(R44=7,6,IF(R44=8,4,IF(R44=9,2,IF(R44=10,1,0))))))))))</f>
+        <f t="shared" ref="R45" si="12">IF(R44=1,25,IF(R44=2,18,IF(R44=3,15,IF(R44=4,12,IF(R44=5,10,IF(R44=6,8,IF(R44=7,6,IF(R44=8,4,IF(R44=9,2,IF(R44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S45" s="28">
-        <f t="shared" ref="S45" si="34">IF(S44=1,25,IF(S44=2,18,IF(S44=3,15,IF(S44=4,12,IF(S44=5,10,IF(S44=6,8,IF(S44=7,6,IF(S44=8,4,IF(S44=9,2,IF(S44=10,1,0))))))))))</f>
+        <f t="shared" ref="S45" si="13">IF(S44=1,25,IF(S44=2,18,IF(S44=3,15,IF(S44=4,12,IF(S44=5,10,IF(S44=6,8,IF(S44=7,6,IF(S44=8,4,IF(S44=9,2,IF(S44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T45" s="28">
-        <f t="shared" ref="T45" si="35">IF(T44=1,25,IF(T44=2,18,IF(T44=3,15,IF(T44=4,12,IF(T44=5,10,IF(T44=6,8,IF(T44=7,6,IF(T44=8,4,IF(T44=9,2,IF(T44=10,1,0))))))))))</f>
+        <f t="shared" ref="T45" si="14">IF(T44=1,25,IF(T44=2,18,IF(T44=3,15,IF(T44=4,12,IF(T44=5,10,IF(T44=6,8,IF(T44=7,6,IF(T44=8,4,IF(T44=9,2,IF(T44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U45" s="28">
-        <f t="shared" ref="U45" si="36">IF(U44=1,25,IF(U44=2,18,IF(U44=3,15,IF(U44=4,12,IF(U44=5,10,IF(U44=6,8,IF(U44=7,6,IF(U44=8,4,IF(U44=9,2,IF(U44=10,1,0))))))))))</f>
+        <f t="shared" ref="U45" si="15">IF(U44=1,25,IF(U44=2,18,IF(U44=3,15,IF(U44=4,12,IF(U44=5,10,IF(U44=6,8,IF(U44=7,6,IF(U44=8,4,IF(U44=9,2,IF(U44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" ref="V45" si="37">IF(V44=1,25,IF(V44=2,18,IF(V44=3,15,IF(V44=4,12,IF(V44=5,10,IF(V44=6,8,IF(V44=7,6,IF(V44=8,4,IF(V44=9,2,IF(V44=10,1,0))))))))))</f>
+        <f t="shared" ref="V45" si="16">IF(V44=1,25,IF(V44=2,18,IF(V44=3,15,IF(V44=4,12,IF(V44=5,10,IF(V44=6,8,IF(V44=7,6,IF(V44=8,4,IF(V44=9,2,IF(V44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W45" s="28">
-        <f t="shared" ref="W45" si="38">IF(W44=1,25,IF(W44=2,18,IF(W44=3,15,IF(W44=4,12,IF(W44=5,10,IF(W44=6,8,IF(W44=7,6,IF(W44=8,4,IF(W44=9,2,IF(W44=10,1,0))))))))))</f>
+        <f t="shared" ref="W45" si="17">IF(W44=1,25,IF(W44=2,18,IF(W44=3,15,IF(W44=4,12,IF(W44=5,10,IF(W44=6,8,IF(W44=7,6,IF(W44=8,4,IF(W44=9,2,IF(W44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X45" s="35">
-        <f t="shared" ref="X45" si="39">IF(X44=1,25,IF(X44=2,18,IF(X44=3,15,IF(X44=4,12,IF(X44=5,10,IF(X44=6,8,IF(X44=7,6,IF(X44=8,4,IF(X44=9,2,IF(X44=10,1,0))))))))))</f>
+        <f t="shared" ref="X45" si="18">IF(X44=1,25,IF(X44=2,18,IF(X44=3,15,IF(X44=4,12,IF(X44=5,10,IF(X44=6,8,IF(X44=7,6,IF(X44=8,4,IF(X44=9,2,IF(X44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y45" s="28">
-        <f t="shared" ref="Y45" si="40">IF(Y44=1,25,IF(Y44=2,18,IF(Y44=3,15,IF(Y44=4,12,IF(Y44=5,10,IF(Y44=6,8,IF(Y44=7,6,IF(Y44=8,4,IF(Y44=9,2,IF(Y44=10,1,0))))))))))</f>
+        <f t="shared" ref="Y45" si="19">IF(Y44=1,25,IF(Y44=2,18,IF(Y44=3,15,IF(Y44=4,12,IF(Y44=5,10,IF(Y44=6,8,IF(Y44=7,6,IF(Y44=8,4,IF(Y44=9,2,IF(Y44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z45" s="28">
-        <f t="shared" ref="Z45" si="41">IF(Z44=1,25,IF(Z44=2,18,IF(Z44=3,15,IF(Z44=4,12,IF(Z44=5,10,IF(Z44=6,8,IF(Z44=7,6,IF(Z44=8,4,IF(Z44=9,2,IF(Z44=10,1,0))))))))))</f>
+        <f t="shared" ref="Z45" si="20">IF(Z44=1,25,IF(Z44=2,18,IF(Z44=3,15,IF(Z44=4,12,IF(Z44=5,10,IF(Z44=6,8,IF(Z44=7,6,IF(Z44=8,4,IF(Z44=9,2,IF(Z44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA45" s="28">
-        <f t="shared" ref="AA45" si="42">IF(AA44=1,25,IF(AA44=2,18,IF(AA44=3,15,IF(AA44=4,12,IF(AA44=5,10,IF(AA44=6,8,IF(AA44=7,6,IF(AA44=8,4,IF(AA44=9,2,IF(AA44=10,1,0))))))))))</f>
+        <f t="shared" ref="AA45" si="21">IF(AA44=1,25,IF(AA44=2,18,IF(AA44=3,15,IF(AA44=4,12,IF(AA44=5,10,IF(AA44=6,8,IF(AA44=7,6,IF(AA44=8,4,IF(AA44=9,2,IF(AA44=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB45" s="28"/>
@@ -5384,7 +5432,8 @@
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
@@ -5466,7 +5515,7 @@
       <c r="Y1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
@@ -5552,11 +5601,13 @@
       <c r="Y2" s="9">
         <v>1</v>
       </c>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="34">
+        <v>6</v>
+      </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:Z3)</f>
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5566,91 +5617,91 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28">
-        <f t="shared" ref="F3:AA3" si="0">IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
+        <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="H3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="J3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="K3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="L3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="M3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="N3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="O3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="P3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="Q3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="R3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="S3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="T3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="U3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="V3" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="W3" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="X3" s="35">
-        <f t="shared" si="0"/>
+        <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="Y3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
         <v>10</v>
       </c>
-      <c r="Z3" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Z3" s="35">
+        <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
+        <v>3</v>
       </c>
       <c r="AA3" s="28">
-        <f t="shared" si="0"/>
+        <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="28"/>
@@ -5731,11 +5782,13 @@
       <c r="Y4" s="23">
         <v>3</v>
       </c>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="34">
+        <v>7</v>
+      </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9">
         <f>SUM(F5:Z5)</f>
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5745,91 +5798,91 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28">
-        <f t="shared" ref="F5:AA5" si="1">IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
+        <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="H5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="I5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="J5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="K5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="L5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="M5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="N5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="S5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="T5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="U5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="V5" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="W5" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="X5" s="35">
-        <f t="shared" si="1"/>
+        <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="Y5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
         <v>6</v>
       </c>
-      <c r="Z5" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="Z5" s="35">
+        <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
+        <v>2</v>
       </c>
       <c r="AA5" s="28">
-        <f t="shared" si="1"/>
+        <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="28"/>
@@ -5910,11 +5963,13 @@
       <c r="Y6" s="7">
         <v>6</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="36">
+        <v>4</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:Z7)</f>
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5924,91 +5979,91 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28">
-        <f t="shared" ref="F7:AA7" si="2">IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
+        <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="G7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="H7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="I7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="J7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="K7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(Q6=1,10,IF(Q6=2,8,IF(Q6=3,6,IF(Q6=4,5,IF(Q6=5,4,IF(Q6=6,3,IF(Q6=7,2,IF(Q6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="T7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="U7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="V7" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="W7" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="X7" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="Y7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
         <v>3</v>
       </c>
-      <c r="Z7" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="Z7" s="35">
+        <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
+        <v>5</v>
       </c>
       <c r="AA7" s="28">
-        <f t="shared" si="2"/>
+        <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="28"/>
@@ -6089,11 +6144,13 @@
       <c r="Y8" s="18">
         <v>4</v>
       </c>
-      <c r="Z8" s="18"/>
+      <c r="Z8" s="37">
+        <v>1</v>
+      </c>
       <c r="AA8" s="18"/>
       <c r="AB8" s="15">
         <f>SUM(F9:Z9)</f>
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -6103,91 +6160,91 @@
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28">
-        <f t="shared" ref="F9:AA9" si="3">IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="G9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="H9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="J9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="K9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="L9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="M9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="N9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="O9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="Q9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(Q8=1,10,IF(Q8=2,8,IF(Q8=3,6,IF(Q8=4,5,IF(Q8=5,4,IF(Q8=6,3,IF(Q8=7,2,IF(Q8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="R9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="S9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="T9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="U9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="V9" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W9" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="X9" s="35">
-        <f t="shared" si="3"/>
+        <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="Y9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
         <v>5</v>
       </c>
-      <c r="Z9" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="Z9" s="35">
+        <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
+        <v>10</v>
       </c>
       <c r="AA9" s="28">
-        <f t="shared" si="3"/>
+        <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="28"/>
@@ -6268,11 +6325,13 @@
       <c r="Y10" s="15">
         <v>2</v>
       </c>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="37">
+        <v>2</v>
+      </c>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15">
         <f>SUM(F11:Z11)</f>
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6282,91 +6341,91 @@
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28">
-        <f t="shared" ref="F11:AA11" si="4">IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="G11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="L11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="M11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="N11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="O11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="Q11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="S11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="U11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="V11" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W11" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="X11" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="Y11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
         <v>8</v>
       </c>
-      <c r="Z11" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="Z11" s="35">
+        <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
+        <v>8</v>
       </c>
       <c r="AA11" s="28">
-        <f t="shared" si="4"/>
+        <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="28"/>
@@ -6447,11 +6506,13 @@
       <c r="Y12" s="7">
         <v>5</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="36">
+        <v>3</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <f>SUM(F13:Z13)</f>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6461,91 +6522,91 @@
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28">
-        <f t="shared" ref="F13:AA13" si="5">IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
+        <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="M13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="O13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="S13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="V13" s="35">
-        <f t="shared" si="5"/>
+        <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="W13" s="35">
-        <f t="shared" si="5"/>
+        <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X13" s="35">
-        <f t="shared" si="5"/>
+        <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
         <v>4</v>
       </c>
-      <c r="Z13" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="Z13" s="35">
+        <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
+        <v>6</v>
       </c>
       <c r="AA13" s="28">
-        <f t="shared" si="5"/>
+        <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="28"/>
@@ -6626,7 +6687,9 @@
       <c r="Y14" s="6">
         <v>9</v>
       </c>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6">
         <f>SUM(F15:Z15)</f>
@@ -6640,91 +6703,91 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28">
-        <f t="shared" ref="F15:AA15" si="6">IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
+        <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="H15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="J15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="L15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="M15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="S15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="U15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="V15" s="35">
-        <f t="shared" si="6"/>
+        <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="W15" s="35">
-        <f t="shared" si="6"/>
+        <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X15" s="35">
-        <f t="shared" si="6"/>
+        <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="Y15" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="35">
+        <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="28">
-        <f t="shared" si="6"/>
+        <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="28"/>
@@ -6805,11 +6868,13 @@
       <c r="Y16" s="2">
         <v>8</v>
       </c>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="39">
+        <v>8</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
         <f>SUM(F17:Z17)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6819,91 +6884,91 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28">
-        <f t="shared" ref="F17:AA17" si="7">IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
+        <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="H17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="K17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="L17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="O17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="Q17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="R17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="35">
-        <f t="shared" si="7"/>
+        <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W17" s="35">
-        <f t="shared" si="7"/>
+        <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="X17" s="35">
-        <f t="shared" si="7"/>
+        <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
         <v>1</v>
       </c>
-      <c r="Z17" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="Z17" s="35">
+        <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
+        <v>1</v>
       </c>
       <c r="AA17" s="28">
-        <f t="shared" si="7"/>
+        <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="28"/>
@@ -6984,11 +7049,13 @@
       <c r="Y18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="39">
+        <v>5</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:Z19)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6998,91 +7065,91 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28">
-        <f t="shared" ref="F19:AA19" si="8">IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
+        <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="M19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="N19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="S19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="U19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V19" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="X19" s="35">
-        <f t="shared" si="8"/>
+        <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="Y19" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="35">
+        <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
+        <v>4</v>
       </c>
       <c r="AA19" s="28">
-        <f t="shared" si="8"/>
+        <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="28"/>
@@ -7163,7 +7230,9 @@
       <c r="Y20" s="11">
         <v>10</v>
       </c>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="40">
+        <v>9</v>
+      </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11">
         <f>SUM(F21:Z21)</f>
@@ -7177,91 +7246,91 @@
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28">
-        <f t="shared" ref="F21:AA21" si="9">IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
+        <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="L21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="O21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(Q20=1,10,IF(Q20=2,8,IF(Q20=3,6,IF(Q20=4,5,IF(Q20=5,4,IF(Q20=6,3,IF(Q20=7,2,IF(Q20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V21" s="35">
-        <f t="shared" si="9"/>
+        <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W21" s="35">
-        <f t="shared" si="9"/>
+        <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X21" s="35">
-        <f t="shared" si="9"/>
+        <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="35">
+        <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" si="9"/>
+        <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB21" s="28"/>
@@ -7342,7 +7411,9 @@
       <c r="Y22" s="6">
         <v>7</v>
       </c>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6">
         <f>SUM(F23:Z23)</f>
@@ -7356,91 +7427,91 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28">
-        <f t="shared" ref="F23:AA23" si="10">IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
+        <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="N23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(O22=1,10,IF(O22=2,8,IF(O22=3,6,IF(O22=4,5,IF(O22=5,4,IF(O22=6,3,IF(O22=7,2,IF(O22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(Q22=1,10,IF(Q22=2,8,IF(Q22=3,6,IF(Q22=4,5,IF(Q22=5,4,IF(Q22=6,3,IF(Q22=7,2,IF(Q22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(S22=1,10,IF(S22=2,8,IF(S22=3,6,IF(S22=4,5,IF(S22=5,4,IF(S22=6,3,IF(S22=7,2,IF(S22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V23" s="35">
-        <f t="shared" si="10"/>
+        <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="W23" s="35">
-        <f t="shared" si="10"/>
+        <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X23" s="35">
-        <f t="shared" si="10"/>
+        <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y23" s="28">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Z23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Z23" s="35">
+        <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="28">
-        <f t="shared" si="10"/>
+        <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="28"/>
@@ -7517,7 +7588,9 @@
       <c r="Y24" s="24">
         <v>14</v>
       </c>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="42">
+        <v>11</v>
+      </c>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8">
         <f>SUM(F25:Z25)</f>
@@ -7531,91 +7604,91 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28">
-        <f t="shared" ref="F25:AA25" si="11">IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
+        <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(O24=1,10,IF(O24=2,8,IF(O24=3,6,IF(O24=4,5,IF(O24=5,4,IF(O24=6,3,IF(O24=7,2,IF(O24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(S24=1,10,IF(S24=2,8,IF(S24=3,6,IF(S24=4,5,IF(S24=5,4,IF(S24=6,3,IF(S24=7,2,IF(S24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="35">
-        <f t="shared" si="11"/>
+        <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="W25" s="35">
-        <f t="shared" si="11"/>
+        <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="X25" s="35">
-        <f t="shared" si="11"/>
+        <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="Y25" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="35">
+        <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="28">
-        <f t="shared" si="11"/>
+        <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="28"/>
@@ -7696,7 +7769,9 @@
       <c r="Y26" s="9">
         <v>11</v>
       </c>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="34">
+        <v>14</v>
+      </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9">
         <f>SUM(F27:Z27)</f>
@@ -7710,91 +7785,91 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28">
-        <f t="shared" ref="F27:AA27" si="12">IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
+        <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="N27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="V27" s="35">
-        <f t="shared" si="12"/>
+        <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="35">
-        <f t="shared" si="12"/>
+        <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="35">
-        <f t="shared" si="12"/>
+        <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="35">
+        <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="28">
-        <f t="shared" si="12"/>
+        <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="28"/>
@@ -7875,7 +7950,9 @@
       <c r="Y28" s="4">
         <v>17</v>
       </c>
-      <c r="Z28" s="4"/>
+      <c r="Z28" s="41" t="s">
+        <v>122</v>
+      </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="3">
         <f>SUM(F29:Z29)</f>
@@ -7889,91 +7966,91 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28">
-        <f t="shared" ref="F29:AA29" si="13">IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
+        <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(O28=1,10,IF(O28=2,8,IF(O28=3,6,IF(O28=4,5,IF(O28=5,4,IF(O28=6,3,IF(O28=7,2,IF(O28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="Q29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(Q28=1,10,IF(Q28=2,8,IF(Q28=3,6,IF(Q28=4,5,IF(Q28=5,4,IF(Q28=6,3,IF(Q28=7,2,IF(Q28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(S28=1,10,IF(S28=2,8,IF(S28=3,6,IF(S28=4,5,IF(S28=5,4,IF(S28=6,3,IF(S28=7,2,IF(S28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="35">
-        <f t="shared" si="13"/>
+        <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W29" s="35">
-        <f t="shared" si="13"/>
+        <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="35">
-        <f t="shared" si="13"/>
+        <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="35">
+        <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="28">
-        <f t="shared" si="13"/>
+        <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="28"/>
@@ -8054,7 +8131,9 @@
       <c r="Y30" s="4">
         <v>16</v>
       </c>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="41">
+        <v>13</v>
+      </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3">
         <f>SUM(F31:Z31)</f>
@@ -8068,91 +8147,91 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28">
-        <f t="shared" ref="F31:AA31" si="14">IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
+        <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(L30=1,10,IF(L30=2,8,IF(L30=3,6,IF(L30=4,5,IF(L30=5,4,IF(L30=6,3,IF(L30=7,2,IF(L30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="P31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="Q31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(Q30=1,10,IF(Q30=2,8,IF(Q30=3,6,IF(Q30=4,5,IF(Q30=5,4,IF(Q30=6,3,IF(Q30=7,2,IF(Q30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(S30=1,10,IF(S30=2,8,IF(S30=3,6,IF(S30=4,5,IF(S30=5,4,IF(S30=6,3,IF(S30=7,2,IF(S30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="35">
-        <f t="shared" si="14"/>
+        <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="35">
-        <f t="shared" si="14"/>
+        <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="35">
-        <f t="shared" si="14"/>
+        <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="35">
+        <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA31" s="28">
-        <f t="shared" si="14"/>
+        <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="28"/>
@@ -8233,7 +8312,9 @@
       <c r="Y32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="34">
+        <v>17</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9">
         <f>SUM(F33:Z33)</f>
@@ -8247,91 +8328,91 @@
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28">
-        <f t="shared" ref="F33:AA33" si="15">IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
+        <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="G33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(H32=1,10,IF(H32=2,8,IF(H32=3,6,IF(H32=4,5,IF(H32=5,4,IF(H32=6,3,IF(H32=7,2,IF(H32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="J33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(K32=1,10,IF(K32=2,8,IF(K32=3,6,IF(K32=4,5,IF(K32=5,4,IF(K32=6,3,IF(K32=7,2,IF(K32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(L32=1,10,IF(L32=2,8,IF(L32=3,6,IF(L32=4,5,IF(L32=5,4,IF(L32=6,3,IF(L32=7,2,IF(L32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(M32=1,10,IF(M32=2,8,IF(M32=3,6,IF(M32=4,5,IF(M32=5,4,IF(M32=6,3,IF(M32=7,2,IF(M32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(N32=1,10,IF(N32=2,8,IF(N32=3,6,IF(N32=4,5,IF(N32=5,4,IF(N32=6,3,IF(N32=7,2,IF(N32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(O32=1,10,IF(O32=2,8,IF(O32=3,6,IF(O32=4,5,IF(O32=5,4,IF(O32=6,3,IF(O32=7,2,IF(O32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(P32=1,10,IF(P32=2,8,IF(P32=3,6,IF(P32=4,5,IF(P32=5,4,IF(P32=6,3,IF(P32=7,2,IF(P32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(Q32=1,10,IF(Q32=2,8,IF(Q32=3,6,IF(Q32=4,5,IF(Q32=5,4,IF(Q32=6,3,IF(Q32=7,2,IF(Q32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(S32=1,10,IF(S32=2,8,IF(S32=3,6,IF(S32=4,5,IF(S32=5,4,IF(S32=6,3,IF(S32=7,2,IF(S32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" si="15"/>
+        <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="35">
-        <f t="shared" si="15"/>
+        <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X33" s="35">
-        <f t="shared" si="15"/>
+        <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="28">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="35">
+        <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="28">
-        <f t="shared" si="15"/>
+        <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="28"/>
@@ -8412,7 +8493,9 @@
       <c r="Y34" s="8">
         <v>15</v>
       </c>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="42">
+        <v>10</v>
+      </c>
       <c r="AA34" s="8"/>
       <c r="AB34" s="8">
         <f>SUM(F35:Z35)</f>
@@ -8426,91 +8509,91 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28">
-        <f t="shared" ref="F35:AA35" si="16">IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
+        <f>IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(G34=1,10,IF(G34=2,8,IF(G34=3,6,IF(G34=4,5,IF(G34=5,4,IF(G34=6,3,IF(G34=7,2,IF(G34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(H34=1,10,IF(H34=2,8,IF(H34=3,6,IF(H34=4,5,IF(H34=5,4,IF(H34=6,3,IF(H34=7,2,IF(H34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(I34=1,10,IF(I34=2,8,IF(I34=3,6,IF(I34=4,5,IF(I34=5,4,IF(I34=6,3,IF(I34=7,2,IF(I34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(J34=1,10,IF(J34=2,8,IF(J34=3,6,IF(J34=4,5,IF(J34=5,4,IF(J34=6,3,IF(J34=7,2,IF(J34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(K34=1,10,IF(K34=2,8,IF(K34=3,6,IF(K34=4,5,IF(K34=5,4,IF(K34=6,3,IF(K34=7,2,IF(K34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(L34=1,10,IF(L34=2,8,IF(L34=3,6,IF(L34=4,5,IF(L34=5,4,IF(L34=6,3,IF(L34=7,2,IF(L34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(M34=1,10,IF(M34=2,8,IF(M34=3,6,IF(M34=4,5,IF(M34=5,4,IF(M34=6,3,IF(M34=7,2,IF(M34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(P34=1,10,IF(P34=2,8,IF(P34=3,6,IF(P34=4,5,IF(P34=5,4,IF(P34=6,3,IF(P34=7,2,IF(P34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(Q34=1,10,IF(Q34=2,8,IF(Q34=3,6,IF(Q34=4,5,IF(Q34=5,4,IF(Q34=6,3,IF(Q34=7,2,IF(Q34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(S34=1,10,IF(S34=2,8,IF(S34=3,6,IF(S34=4,5,IF(S34=5,4,IF(S34=6,3,IF(S34=7,2,IF(S34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="35">
-        <f t="shared" si="16"/>
+        <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="W35" s="35">
-        <f t="shared" si="16"/>
+        <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X35" s="35">
-        <f t="shared" si="16"/>
+        <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y35" s="28">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="35">
+        <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="28">
-        <f t="shared" si="16"/>
+        <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="28"/>
@@ -8591,7 +8674,9 @@
       <c r="Y36" s="11">
         <v>13</v>
       </c>
-      <c r="Z36" s="22"/>
+      <c r="Z36" s="40">
+        <v>12</v>
+      </c>
       <c r="AA36" s="22"/>
       <c r="AB36" s="11">
         <f>SUM(F37:Z37)</f>
@@ -8605,91 +8690,91 @@
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28">
-        <f t="shared" ref="F37:AA37" si="17">IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
+        <f>IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(G36=1,10,IF(G36=2,8,IF(G36=3,6,IF(G36=4,5,IF(G36=5,4,IF(G36=6,3,IF(G36=7,2,IF(G36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(H36=1,10,IF(H36=2,8,IF(H36=3,6,IF(H36=4,5,IF(H36=5,4,IF(H36=6,3,IF(H36=7,2,IF(H36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(I36=1,10,IF(I36=2,8,IF(I36=3,6,IF(I36=4,5,IF(I36=5,4,IF(I36=6,3,IF(I36=7,2,IF(I36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(J36=1,10,IF(J36=2,8,IF(J36=3,6,IF(J36=4,5,IF(J36=5,4,IF(J36=6,3,IF(J36=7,2,IF(J36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(K36=1,10,IF(K36=2,8,IF(K36=3,6,IF(K36=4,5,IF(K36=5,4,IF(K36=6,3,IF(K36=7,2,IF(K36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(L36=1,10,IF(L36=2,8,IF(L36=3,6,IF(L36=4,5,IF(L36=5,4,IF(L36=6,3,IF(L36=7,2,IF(L36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(M36=1,10,IF(M36=2,8,IF(M36=3,6,IF(M36=4,5,IF(M36=5,4,IF(M36=6,3,IF(M36=7,2,IF(M36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="O37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(P36=1,10,IF(P36=2,8,IF(P36=3,6,IF(P36=4,5,IF(P36=5,4,IF(P36=6,3,IF(P36=7,2,IF(P36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(Q36=1,10,IF(Q36=2,8,IF(Q36=3,6,IF(Q36=4,5,IF(Q36=5,4,IF(Q36=6,3,IF(Q36=7,2,IF(Q36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(S36=1,10,IF(S36=2,8,IF(S36=3,6,IF(S36=4,5,IF(S36=5,4,IF(S36=6,3,IF(S36=7,2,IF(S36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="35">
-        <f t="shared" si="17"/>
+        <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="35">
-        <f t="shared" si="17"/>
+        <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="35">
-        <f t="shared" si="17"/>
+        <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="28">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="35">
+        <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="28">
-        <f t="shared" si="17"/>
+        <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="28"/>
@@ -8770,7 +8855,9 @@
       <c r="Y38" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="Z38" s="20"/>
+      <c r="Z38" s="43">
+        <v>16</v>
+      </c>
       <c r="AA38" s="20"/>
       <c r="AB38" s="5">
         <f>SUM(F39:Z39)</f>
@@ -8784,91 +8871,91 @@
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28">
-        <f t="shared" ref="F39:AA39" si="18">IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
+        <f>IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(G38=1,10,IF(G38=2,8,IF(G38=3,6,IF(G38=4,5,IF(G38=5,4,IF(G38=6,3,IF(G38=7,2,IF(G38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(H38=1,10,IF(H38=2,8,IF(H38=3,6,IF(H38=4,5,IF(H38=5,4,IF(H38=6,3,IF(H38=7,2,IF(H38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(I38=1,10,IF(I38=2,8,IF(I38=3,6,IF(I38=4,5,IF(I38=5,4,IF(I38=6,3,IF(I38=7,2,IF(I38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(J38=1,10,IF(J38=2,8,IF(J38=3,6,IF(J38=4,5,IF(J38=5,4,IF(J38=6,3,IF(J38=7,2,IF(J38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(K38=1,10,IF(K38=2,8,IF(K38=3,6,IF(K38=4,5,IF(K38=5,4,IF(K38=6,3,IF(K38=7,2,IF(K38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(L38=1,10,IF(L38=2,8,IF(L38=3,6,IF(L38=4,5,IF(L38=5,4,IF(L38=6,3,IF(L38=7,2,IF(L38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(M38=1,10,IF(M38=2,8,IF(M38=3,6,IF(M38=4,5,IF(M38=5,4,IF(M38=6,3,IF(M38=7,2,IF(M38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(N38=1,10,IF(N38=2,8,IF(N38=3,6,IF(N38=4,5,IF(N38=5,4,IF(N38=6,3,IF(N38=7,2,IF(N38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(O38=1,10,IF(O38=2,8,IF(O38=3,6,IF(O38=4,5,IF(O38=5,4,IF(O38=6,3,IF(O38=7,2,IF(O38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(P38=1,10,IF(P38=2,8,IF(P38=3,6,IF(P38=4,5,IF(P38=5,4,IF(P38=6,3,IF(P38=7,2,IF(P38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(Q38=1,10,IF(Q38=2,8,IF(Q38=3,6,IF(Q38=4,5,IF(Q38=5,4,IF(Q38=6,3,IF(Q38=7,2,IF(Q38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(S38=1,10,IF(S38=2,8,IF(S38=3,6,IF(S38=4,5,IF(S38=5,4,IF(S38=6,3,IF(S38=7,2,IF(S38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="35">
-        <f t="shared" si="18"/>
+        <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="35">
-        <f t="shared" si="18"/>
+        <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="35">
-        <f t="shared" si="18"/>
+        <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="28">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="35">
+        <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="28">
-        <f t="shared" si="18"/>
+        <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="28"/>
@@ -8947,7 +9034,9 @@
       <c r="Y40" s="5">
         <v>12</v>
       </c>
-      <c r="Z40" s="20"/>
+      <c r="Z40" s="43">
+        <v>15</v>
+      </c>
       <c r="AA40" s="20"/>
       <c r="AB40" s="5">
         <f>SUM(F41:Z41)</f>
@@ -8961,91 +9050,91 @@
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28">
-        <f t="shared" ref="F41:AA41" si="19">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(G40=1,10,IF(G40=2,8,IF(G40=3,6,IF(G40=4,5,IF(G40=5,4,IF(G40=6,3,IF(G40=7,2,IF(G40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(H40=1,10,IF(H40=2,8,IF(H40=3,6,IF(H40=4,5,IF(H40=5,4,IF(H40=6,3,IF(H40=7,2,IF(H40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(I40=1,10,IF(I40=2,8,IF(I40=3,6,IF(I40=4,5,IF(I40=5,4,IF(I40=6,3,IF(I40=7,2,IF(I40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(J40=1,10,IF(J40=2,8,IF(J40=3,6,IF(J40=4,5,IF(J40=5,4,IF(J40=6,3,IF(J40=7,2,IF(J40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(K40=1,10,IF(K40=2,8,IF(K40=3,6,IF(K40=4,5,IF(K40=5,4,IF(K40=6,3,IF(K40=7,2,IF(K40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(L40=1,10,IF(L40=2,8,IF(L40=3,6,IF(L40=4,5,IF(L40=5,4,IF(L40=6,3,IF(L40=7,2,IF(L40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(M40=1,10,IF(M40=2,8,IF(M40=3,6,IF(M40=4,5,IF(M40=5,4,IF(M40=6,3,IF(M40=7,2,IF(M40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(N40=1,10,IF(N40=2,8,IF(N40=3,6,IF(N40=4,5,IF(N40=5,4,IF(N40=6,3,IF(N40=7,2,IF(N40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(O40=1,10,IF(O40=2,8,IF(O40=3,6,IF(O40=4,5,IF(O40=5,4,IF(O40=6,3,IF(O40=7,2,IF(O40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(P40=1,10,IF(P40=2,8,IF(P40=3,6,IF(P40=4,5,IF(P40=5,4,IF(P40=6,3,IF(P40=7,2,IF(P40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(Q40=1,10,IF(Q40=2,8,IF(Q40=3,6,IF(Q40=4,5,IF(Q40=5,4,IF(Q40=6,3,IF(Q40=7,2,IF(Q40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(S40=1,10,IF(S40=2,8,IF(S40=3,6,IF(S40=4,5,IF(S40=5,4,IF(S40=6,3,IF(S40=7,2,IF(S40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(T40=1,10,IF(T40=2,8,IF(T40=3,6,IF(T40=4,5,IF(T40=5,4,IF(T40=6,3,IF(T40=7,2,IF(T40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(U40=1,10,IF(U40=2,8,IF(U40=3,6,IF(U40=4,5,IF(U40=5,4,IF(U40=6,3,IF(U40=7,2,IF(U40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="35">
-        <f t="shared" si="19"/>
+        <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="35">
-        <f t="shared" si="19"/>
+        <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="35">
-        <f t="shared" si="19"/>
+        <f>IF(X40=1,10,IF(X40=2,8,IF(X40=3,6,IF(X40=4,5,IF(X40=5,4,IF(X40=6,3,IF(X40=7,2,IF(X40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(Y40=1,10,IF(Y40=2,8,IF(Y40=3,6,IF(Y40=4,5,IF(Y40=5,4,IF(Y40=6,3,IF(Y40=7,2,IF(Y40=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="35">
+        <f>IF(Z40=1,10,IF(Z40=2,8,IF(Z40=3,6,IF(Z40=4,5,IF(Z40=5,4,IF(Z40=6,3,IF(Z40=7,2,IF(Z40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="28">
-        <f t="shared" si="19"/>
+        <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="28"/>
@@ -9092,7 +9181,7 @@
       <c r="W42" s="42"/>
       <c r="X42" s="42"/>
       <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
+      <c r="Z42" s="42"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8">
         <f>SUM(F43:Z43)</f>
@@ -9106,91 +9195,91 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28">
-        <f t="shared" ref="F43:AA43" si="20">IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
+        <f>IF(F42=1,10,IF(F42=2,8,IF(F42=3,6,IF(F42=4,5,IF(F42=5,4,IF(F42=6,3,IF(F42=7,2,IF(F42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(Q42=1,10,IF(Q42=2,8,IF(Q42=3,6,IF(Q42=4,5,IF(Q42=5,4,IF(Q42=6,3,IF(Q42=7,2,IF(Q42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="35">
-        <f t="shared" si="20"/>
+        <f>IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="35">
-        <f t="shared" si="20"/>
+        <f>IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X43" s="35">
-        <f t="shared" si="20"/>
+        <f>IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="28">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="35">
+        <f>IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="28">
-        <f t="shared" si="20"/>
+        <f>IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB43" s="28"/>
@@ -9233,7 +9322,7 @@
       <c r="W44" s="43"/>
       <c r="X44" s="43"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="20"/>
+      <c r="Z44" s="43"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="5">
         <f>SUM(F45:Z45)</f>
@@ -9247,91 +9336,91 @@
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28">
-        <f t="shared" ref="F45" si="21">IF(F44=1,10,IF(F44=2,8,IF(F44=3,6,IF(F44=4,5,IF(F44=5,4,IF(F44=6,3,IF(F44=7,2,IF(F44=8,1,0))))))))</f>
+        <f t="shared" ref="F45" si="0">IF(F44=1,10,IF(F44=2,8,IF(F44=3,6,IF(F44=4,5,IF(F44=5,4,IF(F44=6,3,IF(F44=7,2,IF(F44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G45" s="28">
-        <f t="shared" ref="G45" si="22">IF(G44=1,10,IF(G44=2,8,IF(G44=3,6,IF(G44=4,5,IF(G44=5,4,IF(G44=6,3,IF(G44=7,2,IF(G44=8,1,0))))))))</f>
+        <f t="shared" ref="G45" si="1">IF(G44=1,10,IF(G44=2,8,IF(G44=3,6,IF(G44=4,5,IF(G44=5,4,IF(G44=6,3,IF(G44=7,2,IF(G44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H45" s="28">
-        <f t="shared" ref="H45" si="23">IF(H44=1,10,IF(H44=2,8,IF(H44=3,6,IF(H44=4,5,IF(H44=5,4,IF(H44=6,3,IF(H44=7,2,IF(H44=8,1,0))))))))</f>
+        <f t="shared" ref="H45" si="2">IF(H44=1,10,IF(H44=2,8,IF(H44=3,6,IF(H44=4,5,IF(H44=5,4,IF(H44=6,3,IF(H44=7,2,IF(H44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I45" s="28">
-        <f t="shared" ref="I45" si="24">IF(I44=1,10,IF(I44=2,8,IF(I44=3,6,IF(I44=4,5,IF(I44=5,4,IF(I44=6,3,IF(I44=7,2,IF(I44=8,1,0))))))))</f>
+        <f t="shared" ref="I45" si="3">IF(I44=1,10,IF(I44=2,8,IF(I44=3,6,IF(I44=4,5,IF(I44=5,4,IF(I44=6,3,IF(I44=7,2,IF(I44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J45" s="28">
-        <f t="shared" ref="J45" si="25">IF(J44=1,10,IF(J44=2,8,IF(J44=3,6,IF(J44=4,5,IF(J44=5,4,IF(J44=6,3,IF(J44=7,2,IF(J44=8,1,0))))))))</f>
+        <f t="shared" ref="J45" si="4">IF(J44=1,10,IF(J44=2,8,IF(J44=3,6,IF(J44=4,5,IF(J44=5,4,IF(J44=6,3,IF(J44=7,2,IF(J44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K45" s="28">
-        <f t="shared" ref="K45" si="26">IF(K44=1,10,IF(K44=2,8,IF(K44=3,6,IF(K44=4,5,IF(K44=5,4,IF(K44=6,3,IF(K44=7,2,IF(K44=8,1,0))))))))</f>
+        <f t="shared" ref="K45" si="5">IF(K44=1,10,IF(K44=2,8,IF(K44=3,6,IF(K44=4,5,IF(K44=5,4,IF(K44=6,3,IF(K44=7,2,IF(K44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L45" s="28">
-        <f t="shared" ref="L45" si="27">IF(L44=1,10,IF(L44=2,8,IF(L44=3,6,IF(L44=4,5,IF(L44=5,4,IF(L44=6,3,IF(L44=7,2,IF(L44=8,1,0))))))))</f>
+        <f t="shared" ref="L45" si="6">IF(L44=1,10,IF(L44=2,8,IF(L44=3,6,IF(L44=4,5,IF(L44=5,4,IF(L44=6,3,IF(L44=7,2,IF(L44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M45" s="28">
-        <f t="shared" ref="M45" si="28">IF(M44=1,10,IF(M44=2,8,IF(M44=3,6,IF(M44=4,5,IF(M44=5,4,IF(M44=6,3,IF(M44=7,2,IF(M44=8,1,0))))))))</f>
+        <f t="shared" ref="M45" si="7">IF(M44=1,10,IF(M44=2,8,IF(M44=3,6,IF(M44=4,5,IF(M44=5,4,IF(M44=6,3,IF(M44=7,2,IF(M44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N45" s="28">
-        <f t="shared" ref="N45" si="29">IF(N44=1,10,IF(N44=2,8,IF(N44=3,6,IF(N44=4,5,IF(N44=5,4,IF(N44=6,3,IF(N44=7,2,IF(N44=8,1,0))))))))</f>
+        <f t="shared" ref="N45" si="8">IF(N44=1,10,IF(N44=2,8,IF(N44=3,6,IF(N44=4,5,IF(N44=5,4,IF(N44=6,3,IF(N44=7,2,IF(N44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O45" s="28">
-        <f t="shared" ref="O45" si="30">IF(O44=1,10,IF(O44=2,8,IF(O44=3,6,IF(O44=4,5,IF(O44=5,4,IF(O44=6,3,IF(O44=7,2,IF(O44=8,1,0))))))))</f>
+        <f t="shared" ref="O45" si="9">IF(O44=1,10,IF(O44=2,8,IF(O44=3,6,IF(O44=4,5,IF(O44=5,4,IF(O44=6,3,IF(O44=7,2,IF(O44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P45" s="28">
-        <f t="shared" ref="P45" si="31">IF(P44=1,10,IF(P44=2,8,IF(P44=3,6,IF(P44=4,5,IF(P44=5,4,IF(P44=6,3,IF(P44=7,2,IF(P44=8,1,0))))))))</f>
+        <f t="shared" ref="P45" si="10">IF(P44=1,10,IF(P44=2,8,IF(P44=3,6,IF(P44=4,5,IF(P44=5,4,IF(P44=6,3,IF(P44=7,2,IF(P44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q45" s="28">
-        <f t="shared" ref="Q45" si="32">IF(Q44=1,10,IF(Q44=2,8,IF(Q44=3,6,IF(Q44=4,5,IF(Q44=5,4,IF(Q44=6,3,IF(Q44=7,2,IF(Q44=8,1,0))))))))</f>
+        <f t="shared" ref="Q45" si="11">IF(Q44=1,10,IF(Q44=2,8,IF(Q44=3,6,IF(Q44=4,5,IF(Q44=5,4,IF(Q44=6,3,IF(Q44=7,2,IF(Q44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="R45" s="28">
-        <f t="shared" ref="R45" si="33">IF(R44=1,10,IF(R44=2,8,IF(R44=3,6,IF(R44=4,5,IF(R44=5,4,IF(R44=6,3,IF(R44=7,2,IF(R44=8,1,0))))))))</f>
+        <f t="shared" ref="R45" si="12">IF(R44=1,10,IF(R44=2,8,IF(R44=3,6,IF(R44=4,5,IF(R44=5,4,IF(R44=6,3,IF(R44=7,2,IF(R44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S45" s="28">
-        <f t="shared" ref="S45" si="34">IF(S44=1,10,IF(S44=2,8,IF(S44=3,6,IF(S44=4,5,IF(S44=5,4,IF(S44=6,3,IF(S44=7,2,IF(S44=8,1,0))))))))</f>
+        <f t="shared" ref="S45" si="13">IF(S44=1,10,IF(S44=2,8,IF(S44=3,6,IF(S44=4,5,IF(S44=5,4,IF(S44=6,3,IF(S44=7,2,IF(S44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T45" s="28">
-        <f t="shared" ref="T45" si="35">IF(T44=1,10,IF(T44=2,8,IF(T44=3,6,IF(T44=4,5,IF(T44=5,4,IF(T44=6,3,IF(T44=7,2,IF(T44=8,1,0))))))))</f>
+        <f t="shared" ref="T45" si="14">IF(T44=1,10,IF(T44=2,8,IF(T44=3,6,IF(T44=4,5,IF(T44=5,4,IF(T44=6,3,IF(T44=7,2,IF(T44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U45" s="28">
-        <f t="shared" ref="U45" si="36">IF(U44=1,10,IF(U44=2,8,IF(U44=3,6,IF(U44=4,5,IF(U44=5,4,IF(U44=6,3,IF(U44=7,2,IF(U44=8,1,0))))))))</f>
+        <f t="shared" ref="U45" si="15">IF(U44=1,10,IF(U44=2,8,IF(U44=3,6,IF(U44=4,5,IF(U44=5,4,IF(U44=6,3,IF(U44=7,2,IF(U44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" ref="V45" si="37">IF(V44=1,10,IF(V44=2,8,IF(V44=3,6,IF(V44=4,5,IF(V44=5,4,IF(V44=6,3,IF(V44=7,2,IF(V44=8,1,0))))))))</f>
+        <f t="shared" ref="V45" si="16">IF(V44=1,10,IF(V44=2,8,IF(V44=3,6,IF(V44=4,5,IF(V44=5,4,IF(V44=6,3,IF(V44=7,2,IF(V44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W45" s="35">
-        <f t="shared" ref="W45" si="38">IF(W44=1,10,IF(W44=2,8,IF(W44=3,6,IF(W44=4,5,IF(W44=5,4,IF(W44=6,3,IF(W44=7,2,IF(W44=8,1,0))))))))</f>
+        <f t="shared" ref="W45" si="17">IF(W44=1,10,IF(W44=2,8,IF(W44=3,6,IF(W44=4,5,IF(W44=5,4,IF(W44=6,3,IF(W44=7,2,IF(W44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X45" s="35">
-        <f t="shared" ref="X45" si="39">IF(X44=1,10,IF(X44=2,8,IF(X44=3,6,IF(X44=4,5,IF(X44=5,4,IF(X44=6,3,IF(X44=7,2,IF(X44=8,1,0))))))))</f>
+        <f t="shared" ref="X45" si="18">IF(X44=1,10,IF(X44=2,8,IF(X44=3,6,IF(X44=4,5,IF(X44=5,4,IF(X44=6,3,IF(X44=7,2,IF(X44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y45" s="28">
-        <f t="shared" ref="Y45" si="40">IF(Y44=1,10,IF(Y44=2,8,IF(Y44=3,6,IF(Y44=4,5,IF(Y44=5,4,IF(Y44=6,3,IF(Y44=7,2,IF(Y44=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="28">
-        <f t="shared" ref="Z45" si="41">IF(Z44=1,10,IF(Z44=2,8,IF(Z44=3,6,IF(Z44=4,5,IF(Z44=5,4,IF(Z44=6,3,IF(Z44=7,2,IF(Z44=8,1,0))))))))</f>
+        <f t="shared" ref="Y45" si="19">IF(Y44=1,10,IF(Y44=2,8,IF(Y44=3,6,IF(Y44=4,5,IF(Y44=5,4,IF(Y44=6,3,IF(Y44=7,2,IF(Y44=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="35">
+        <f t="shared" ref="Z45" si="20">IF(Z44=1,10,IF(Z44=2,8,IF(Z44=3,6,IF(Z44=4,5,IF(Z44=5,4,IF(Z44=6,3,IF(Z44=7,2,IF(Z44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA45" s="28">
-        <f t="shared" ref="AA45" si="42">IF(AA44=1,10,IF(AA44=2,8,IF(AA44=3,6,IF(AA44=4,5,IF(AA44=5,4,IF(AA44=6,3,IF(AA44=7,2,IF(AA44=8,1,0))))))))</f>
+        <f t="shared" ref="AA45" si="21">IF(AA44=1,10,IF(AA44=2,8,IF(AA44=3,6,IF(AA44=4,5,IF(AA44=5,4,IF(AA44=6,3,IF(AA44=7,2,IF(AA44=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB45" s="28"/>
@@ -9350,7 +9439,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9374,13 +9463,13 @@
     <col min="23" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.25" style="45" customWidth="1"/>
+    <col min="27" max="27" width="20.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -9456,7 +9545,7 @@
       <c r="Y1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="AA1" s="27" t="s">
@@ -9465,11 +9554,8 @@
       <c r="AB1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -9545,18 +9631,16 @@
       <c r="Y2" s="9">
         <v>1</v>
       </c>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="34">
+        <v>6</v>
+      </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9">
         <f>SUM(F3:Y3)</f>
         <v>150</v>
       </c>
-      <c r="AC2" s="9">
-        <f>SUM(F3:Y3)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -9642,18 +9726,17 @@
         <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
         <v>10</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="35">
         <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="28">
         <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -9729,18 +9812,16 @@
       <c r="Y4" s="9">
         <v>3</v>
       </c>
-      <c r="Z4" s="9"/>
+      <c r="Z4" s="34">
+        <v>7</v>
+      </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9">
         <f>SUM(F5:Y5)</f>
         <v>83</v>
       </c>
-      <c r="AC4" s="9">
-        <f>SUM(F5:Y5)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -9826,7 +9907,7 @@
         <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
         <v>4</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="35">
         <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -9835,9 +9916,8 @@
         <v>0</v>
       </c>
       <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -9913,18 +9993,16 @@
       <c r="Y6" s="7">
         <v>6</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="36">
+        <v>4</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:Y7)</f>
         <v>78</v>
       </c>
-      <c r="AC6" s="7">
-        <f>SUM(F7:Y7)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -10010,18 +10088,17 @@
         <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
         <v>1</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="35">
         <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="28">
         <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -10097,18 +10174,16 @@
       <c r="Y8" s="7">
         <v>5</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="36">
+        <v>3</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>SUM(F9:Y9)</f>
         <v>58</v>
       </c>
-      <c r="AC8" s="7">
-        <f>SUM(F9:Y9)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -10194,18 +10269,17 @@
         <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
         <v>2</v>
       </c>
-      <c r="Z9" s="28">
+      <c r="Z9" s="35">
         <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="28">
         <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -10281,18 +10355,16 @@
       <c r="Y10" s="18">
         <v>4</v>
       </c>
-      <c r="Z10" s="18"/>
+      <c r="Z10" s="37">
+        <v>1</v>
+      </c>
       <c r="AA10" s="18"/>
       <c r="AB10" s="15">
         <f>SUM(F11:Y11)</f>
         <v>56</v>
       </c>
-      <c r="AC10" s="15">
-        <f>SUM(F11:Y11)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -10378,18 +10450,17 @@
         <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
         <v>3</v>
       </c>
-      <c r="Z11" s="28">
+      <c r="Z11" s="35">
         <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="28">
         <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
@@ -10465,18 +10536,16 @@
       <c r="Y12" s="15">
         <v>2</v>
       </c>
-      <c r="Z12" s="15"/>
+      <c r="Z12" s="37">
+        <v>2</v>
+      </c>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15">
         <f>SUM(F13:Y13)</f>
         <v>56</v>
       </c>
-      <c r="AC12" s="15">
-        <f>SUM(F13:Y13)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -10562,18 +10631,17 @@
         <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
         <v>6</v>
       </c>
-      <c r="Z13" s="28">
+      <c r="Z13" s="35">
         <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="28">
         <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -10649,18 +10717,16 @@
       <c r="Y14" s="6">
         <v>9</v>
       </c>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6">
         <f>SUM(F15:Y15)</f>
         <v>12</v>
       </c>
-      <c r="AC14" s="6">
-        <f>SUM(F15:Y15)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -10746,7 +10812,7 @@
         <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="Z15" s="35">
         <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10755,9 +10821,8 @@
         <v>0</v>
       </c>
       <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -10833,18 +10898,16 @@
       <c r="Y16" s="2">
         <v>8</v>
       </c>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="39">
+        <v>8</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
         <f>SUM(F17:Y17)</f>
         <v>7</v>
       </c>
-      <c r="AC16" s="2">
-        <f>SUM(F17:Y17)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -10930,7 +10993,7 @@
         <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="28">
+      <c r="Z17" s="35">
         <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -10939,9 +11002,8 @@
         <v>0</v>
       </c>
       <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -11015,20 +11077,18 @@
         <v>7</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="Z18" s="39">
+        <v>5</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
         <f>SUM(F19:Y19)</f>
         <v>6</v>
       </c>
-      <c r="AC18" s="2">
-        <f>SUM(F19:Y19)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -11114,18 +11174,17 @@
         <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="28">
+      <c r="Z19" s="35">
         <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA19" s="28">
         <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -11201,18 +11260,16 @@
       <c r="Y20" s="11">
         <v>10</v>
       </c>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="40">
+        <v>9</v>
+      </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11">
         <f>SUM(F21:Y21)</f>
         <v>4</v>
       </c>
-      <c r="AC20" s="11">
-        <f>SUM(F21:Y21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -11298,7 +11355,7 @@
         <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="28">
+      <c r="Z21" s="35">
         <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11307,9 +11364,8 @@
         <v>0</v>
       </c>
       <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -11385,18 +11441,16 @@
       <c r="Y22" s="6">
         <v>7</v>
       </c>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6">
         <f>SUM(F23:Y23)</f>
         <v>3</v>
       </c>
-      <c r="AC22" s="6">
-        <f>SUM(F23:Y23)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -11482,7 +11536,7 @@
         <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="28">
+      <c r="Z23" s="35">
         <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11491,9 +11545,8 @@
         <v>0</v>
       </c>
       <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -11569,18 +11622,16 @@
       <c r="Y24" s="4">
         <v>17</v>
       </c>
-      <c r="Z24" s="4"/>
+      <c r="Z24" s="41" t="s">
+        <v>122</v>
+      </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="3">
         <f>SUM(F25:Y25)</f>
         <v>2</v>
       </c>
-      <c r="AC24" s="3">
-        <f>SUM(F25:Y25)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -11666,7 +11717,7 @@
         <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="28">
+      <c r="Z25" s="35">
         <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11675,9 +11726,8 @@
         <v>0</v>
       </c>
       <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -11753,18 +11803,16 @@
       <c r="Y26" s="9">
         <v>11</v>
       </c>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="34">
+        <v>14</v>
+      </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9">
         <f>SUM(F27:Y27)</f>
         <v>2</v>
       </c>
-      <c r="AC26" s="9">
-        <f>SUM(F27:Y27)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
@@ -11850,7 +11898,7 @@
         <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="28">
+      <c r="Z27" s="35">
         <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -11859,9 +11907,8 @@
         <v>0</v>
       </c>
       <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>49</v>
       </c>
@@ -11933,18 +11980,16 @@
       <c r="Y28" s="8">
         <v>14</v>
       </c>
-      <c r="Z28" s="8"/>
+      <c r="Z28" s="42">
+        <v>11</v>
+      </c>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8">
         <f>SUM(F29:Y29)</f>
         <v>2</v>
       </c>
-      <c r="AC28" s="8">
-        <f>SUM(F29:Y29)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -12030,7 +12075,7 @@
         <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="28">
+      <c r="Z29" s="35">
         <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12039,9 +12084,8 @@
         <v>0</v>
       </c>
       <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -12117,18 +12161,16 @@
       <c r="Y30" s="3">
         <v>16</v>
       </c>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="41">
+        <v>13</v>
+      </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3">
         <f>SUM(F31:Y31)</f>
         <v>1</v>
       </c>
-      <c r="AC30" s="3">
-        <f>SUM(F31:Y31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -12214,7 +12256,7 @@
         <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="28">
+      <c r="Z31" s="35">
         <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12223,9 +12265,8 @@
         <v>0</v>
       </c>
       <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>52</v>
       </c>
@@ -12301,18 +12342,16 @@
       <c r="Y32" s="8">
         <v>15</v>
       </c>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="42">
+        <v>10</v>
+      </c>
       <c r="AA32" s="8"/>
       <c r="AB32" s="8">
         <f>SUM(F33:Y33)</f>
         <v>1</v>
       </c>
-      <c r="AC32" s="8">
-        <f>SUM(F33:Y33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -12398,7 +12437,7 @@
         <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="28">
+      <c r="Z33" s="35">
         <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12407,9 +12446,8 @@
         <v>0</v>
       </c>
       <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>106</v>
       </c>
@@ -12485,18 +12523,16 @@
       <c r="Y34" s="22">
         <v>13</v>
       </c>
-      <c r="Z34" s="22"/>
+      <c r="Z34" s="40">
+        <v>12</v>
+      </c>
       <c r="AA34" s="22"/>
       <c r="AB34" s="11">
         <f>SUM(F35:Y35)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="11">
-        <f>SUM(F35:Y35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -12582,7 +12618,7 @@
         <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="28">
+      <c r="Z35" s="35">
         <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12591,9 +12627,8 @@
         <v>0</v>
       </c>
       <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
@@ -12669,18 +12704,16 @@
       <c r="Y36" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="Z36" s="20"/>
+      <c r="Z36" s="43">
+        <v>16</v>
+      </c>
       <c r="AA36" s="20"/>
       <c r="AB36" s="5">
         <f>SUM(F37:Y37)</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="5">
-        <f>SUM(F37:Y37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12766,7 +12799,7 @@
         <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="28">
+      <c r="Z37" s="35">
         <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12775,9 +12808,8 @@
         <v>0</v>
       </c>
       <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>56</v>
       </c>
@@ -12853,18 +12885,16 @@
       <c r="Y38" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="34">
+        <v>17</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9">
         <f>SUM(F39:Y39)</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="9">
-        <f>SUM(F39:Y39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -12950,7 +12980,7 @@
         <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="28">
+      <c r="Z39" s="35">
         <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -12959,9 +12989,8 @@
         <v>0</v>
       </c>
       <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>98</v>
       </c>
@@ -13035,18 +13064,16 @@
       <c r="Y40" s="20">
         <v>12</v>
       </c>
-      <c r="Z40" s="20"/>
+      <c r="Z40" s="43">
+        <v>15</v>
+      </c>
       <c r="AA40" s="20"/>
       <c r="AB40" s="5">
         <f>SUM(F41:Y41)</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="5">
-        <f>SUM(F41:Y41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -13132,7 +13159,7 @@
         <f>IF(Y40=1,10,IF(Y40=2,6,IF(Y40=3,4,IF(Y40=4,3,IF(Y40=5,2,IF(Y40=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="28">
+      <c r="Z41" s="35">
         <f>IF(Z40=1,10,IF(Z40=2,6,IF(Z40=3,4,IF(Z40=4,3,IF(Z40=5,2,IF(Z40=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -13141,9 +13168,8 @@
         <v>0</v>
       </c>
       <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>109</v>
       </c>
@@ -13183,18 +13209,14 @@
       <c r="W42" s="8"/>
       <c r="X42" s="42"/>
       <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
+      <c r="Z42" s="42"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8">
         <f>SUM(F43:Y43)</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="8">
-        <f>SUM(F43:Y43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -13280,7 +13302,7 @@
         <f>IF(Y42=1,10,IF(Y42=2,6,IF(Y42=3,4,IF(Y42=4,3,IF(Y42=5,2,IF(Y42=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z43" s="28">
+      <c r="Z43" s="35">
         <f>IF(Z42=1,10,IF(Z42=2,6,IF(Z42=3,4,IF(Z42=4,3,IF(Z42=5,2,IF(Z42=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -13289,9 +13311,8 @@
         <v>0</v>
       </c>
       <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>116</v>
       </c>
@@ -13329,18 +13350,14 @@
       <c r="W44" s="5"/>
       <c r="X44" s="43"/>
       <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
+      <c r="Z44" s="43"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="5">
         <f>SUM(F45:Y45)</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="5">
-        <f>SUM(F45:Y45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -13426,7 +13443,7 @@
         <f t="shared" ref="Y45" si="19">IF(Y44=1,10,IF(Y44=2,6,IF(Y44=3,4,IF(Y44=4,3,IF(Y44=5,2,IF(Y44=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="Z45" s="28">
+      <c r="Z45" s="35">
         <f t="shared" ref="Z45" si="20">IF(Z44=1,10,IF(Z44=2,6,IF(Z44=3,4,IF(Z44=4,3,IF(Z44=5,2,IF(Z44=6,1,0))))))</f>
         <v>0</v>
       </c>
@@ -13435,10 +13452,9 @@
         <v>0</v>
       </c>
       <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC45">
+  <autoFilter ref="A1:AB45">
     <sortState ref="A2:AC44">
       <sortCondition descending="1" ref="AB1:AB45"/>
     </sortState>
@@ -13494,11 +13510,11 @@
       </c>
       <c r="D2" s="10">
         <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD4</f>
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="E2" s="10">
         <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13513,11 +13529,11 @@
       </c>
       <c r="D3" s="7">
         <f>'2022 Driver Ranking'!AD6+'2022 Driver Ranking'!AD12</f>
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="E3" s="7">
         <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE12</f>
-        <v>457</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13532,11 +13548,11 @@
       </c>
       <c r="D4" s="15">
         <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD10</f>
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="E4" s="15">
         <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE10</f>
-        <v>437</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13551,11 +13567,11 @@
       </c>
       <c r="D5" s="2">
         <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E5" s="2">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13570,7 +13586,7 @@
       </c>
       <c r="D6" s="6">
         <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD24</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E6" s="6">
         <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE24</f>
@@ -13589,11 +13605,11 @@
       </c>
       <c r="D7" s="11">
         <f>'2022 Driver Ranking'!AD20+'2022 Driver Ranking'!AD36</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="11">
         <f>'2022 Driver Ranking'!AE20+'2022 Driver Ranking'!AE36</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13608,11 +13624,11 @@
       </c>
       <c r="D8" s="8">
         <f>'2022 Driver Ranking'!AD22+'2022 Driver Ranking'!AD30+'2022 Driver Ranking'!AD44</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8">
         <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE44</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13627,7 +13643,7 @@
       </c>
       <c r="D9" s="3">
         <f>'2022 Driver Ranking'!AD26+'2022 Driver Ranking'!AD32</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <f>'2022 Driver Ranking'!AE26+'2022 Driver Ranking'!AE32</f>
@@ -13645,11 +13661,11 @@
         <v>74</v>
       </c>
       <c r="D10" s="10">
-        <f>'2022 Driver Ranking'!AD34+'2022 Driver Ranking'!AD28</f>
+        <f>'2022 Driver Ranking'!AD28+'2022 Driver Ranking'!AD34</f>
         <v>35</v>
       </c>
       <c r="E10" s="10">
-        <f>'2022 Driver Ranking'!AE34+'2022 Driver Ranking'!AE28</f>
+        <f>'2022 Driver Ranking'!AE28+'2022 Driver Ranking'!AE34</f>
         <v>35</v>
       </c>
     </row>
@@ -13725,7 +13741,7 @@
       </c>
       <c r="D2" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB4</f>
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13740,7 +13756,7 @@
       </c>
       <c r="D3" s="7">
         <f>'2003-2009 Driver Ranking'!AB6+'2003-2009 Driver Ranking'!AB12</f>
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13754,8 +13770,8 @@
         <v>73</v>
       </c>
       <c r="D4" s="15">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
-        <v>178</v>
+        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB8</f>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13770,7 +13786,7 @@
       </c>
       <c r="D5" s="2">
         <f>'2003-2009 Driver Ranking'!AB16+'2003-2009 Driver Ranking'!AB18</f>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13876,7 +13892,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13886,11 +13902,10 @@
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
@@ -13903,11 +13918,8 @@
       <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
@@ -13921,12 +13933,8 @@
         <f>'1991-2002 Driver Ranking'!AB2+'1991-2002 Driver Ranking'!AB4</f>
         <v>233</v>
       </c>
-      <c r="E2" s="10">
-        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC4</f>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
@@ -13940,12 +13948,8 @@
         <f>'1991-2002 Driver Ranking'!AB6+'1991-2002 Driver Ranking'!AB8</f>
         <v>136</v>
       </c>
-      <c r="E3" s="7">
-        <f>'1991-2002 Driver Ranking'!AC6+'1991-2002 Driver Ranking'!AC8</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>71</v>
       </c>
@@ -13959,12 +13963,8 @@
         <f>'1991-2002 Driver Ranking'!AB10+'1991-2002 Driver Ranking'!AB12</f>
         <v>112</v>
       </c>
-      <c r="E4" s="15">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC12</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -13978,12 +13978,8 @@
         <f>'1991-2002 Driver Ranking'!AB14+'1991-2002 Driver Ranking'!AB22</f>
         <v>15</v>
       </c>
-      <c r="E5" s="6">
-        <f>'1991-2002 Driver Ranking'!AC14+'1991-2002 Driver Ranking'!AC22</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -13997,12 +13993,8 @@
         <f>'1991-2002 Driver Ranking'!AB16+'1991-2002 Driver Ranking'!AB18</f>
         <v>13</v>
       </c>
-      <c r="E6" s="2">
-        <f>'1991-2002 Driver Ranking'!AC16+'1991-2002 Driver Ranking'!AC18</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>87</v>
       </c>
@@ -14016,12 +14008,8 @@
         <f>'1991-2002 Driver Ranking'!AB20+'1991-2002 Driver Ranking'!AB34</f>
         <v>4</v>
       </c>
-      <c r="E7" s="11">
-        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC34</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -14035,12 +14023,8 @@
         <f>'1991-2002 Driver Ranking'!AB24+'1991-2002 Driver Ranking'!AB30</f>
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC30</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
@@ -14054,12 +14038,8 @@
         <f>'1991-2002 Driver Ranking'!AB28+'1991-2002 Driver Ranking'!AB32+'1991-2002 Driver Ranking'!AB42</f>
         <v>3</v>
       </c>
-      <c r="E9" s="8">
-        <f>'1991-2002 Driver Ranking'!AC28+'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC42</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
@@ -14073,12 +14053,8 @@
         <f>'1991-2002 Driver Ranking'!AB26+'1991-2002 Driver Ranking'!AB38</f>
         <v>2</v>
       </c>
-      <c r="E10" s="10">
-        <f>'1991-2002 Driver Ranking'!AC26+'1991-2002 Driver Ranking'!AC38</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -14092,14 +14068,10 @@
         <f>'1991-2002 Driver Ranking'!AB36+'1991-2002 Driver Ranking'!AB40+'1991-2002 Driver Ranking'!AB44</f>
         <v>0</v>
       </c>
-      <c r="E11" s="5">
-        <f>'1991-2002 Driver Ranking'!AC36+'1991-2002 Driver Ranking'!AC40+'1991-2002 Driver Ranking'!AC44</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11">
-    <sortState ref="A2:E11">
+  <autoFilter ref="A1:D11">
+    <sortState ref="A2:D11">
       <sortCondition descending="1" ref="D1:D11"/>
     </sortState>
   </autoFilter>

--- a/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking_2022.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AB$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1991-2002 Engine Ranking'!$A$1:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'1991-2002 Engine Ranking'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2003-2009 Engine Ranking'!$A$1:$E$5</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="123">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total Points without FL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">25-18-15-12-10-8-6-4-2-1
 2019: Fastest Lap -1 on top 10
 2021: 3-2-1 on Sprint Qualifying </t>
@@ -428,10 +424,6 @@
   </si>
   <si>
     <t>Average Total Points without FL and SQ Of Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average Total Points without FL Of Team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,6 +523,14 @@
   </si>
   <si>
     <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did not Finsih</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1101,7 @@
     <col min="24" max="24" width="20.25" style="45" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -1132,13 +1132,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>64</v>
@@ -1168,19 +1168,19 @@
         <v>12</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -1215,10 +1215,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9">
         <v>19</v>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -1283,7 +1283,9 @@
       <c r="Z2" s="9">
         <v>6</v>
       </c>
-      <c r="AA2" s="9"/>
+      <c r="AA2" s="9">
+        <v>1</v>
+      </c>
       <c r="AB2" s="9">
         <f>1+1+1+1+1</f>
         <v>5</v>
@@ -1294,11 +1296,11 @@
       </c>
       <c r="AD2" s="9">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="AE2" s="9">
         <f>SUM(F3:AA3)</f>
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1393,7 +1395,7 @@
       </c>
       <c r="AA3" s="28">
         <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="28"/>
       <c r="AC3" s="28"/>
@@ -1401,100 +1403,102 @@
       <c r="AE3" s="28"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="9">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="7">
         <v>4</v>
       </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="M4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
         <v>4</v>
       </c>
-      <c r="K4" s="9">
-        <v>2</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="P4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="9">
-        <v>2</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="9">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="7">
+        <v>6</v>
+      </c>
+      <c r="S4" s="7">
+        <v>6</v>
+      </c>
+      <c r="T4" s="7">
+        <v>3</v>
+      </c>
+      <c r="U4" s="7">
+        <v>2</v>
+      </c>
+      <c r="V4" s="36">
+        <v>2</v>
+      </c>
+      <c r="W4" s="7">
+        <v>3</v>
+      </c>
+      <c r="X4" s="36">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="7">
         <v>4</v>
       </c>
-      <c r="R4" s="10">
-        <v>5</v>
-      </c>
-      <c r="S4" s="9">
-        <v>2</v>
-      </c>
-      <c r="T4" s="9">
-        <v>5</v>
-      </c>
-      <c r="U4" s="9">
-        <v>6</v>
-      </c>
-      <c r="V4" s="34">
-        <v>1</v>
-      </c>
-      <c r="W4" s="9">
-        <v>2</v>
-      </c>
-      <c r="X4" s="34">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9">
+      <c r="AA4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="7">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC4" s="9">
-        <f>6+4+4</f>
-        <v>14</v>
-      </c>
-      <c r="AD4" s="9">
+      <c r="AC4" s="7">
+        <f>7+7+3</f>
+        <v>17</v>
+      </c>
+      <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>290</v>
-      </c>
-      <c r="AE4" s="9">
+        <v>308</v>
+      </c>
+      <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1505,91 +1509,91 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G5" s="28">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H5" s="28">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I5" s="28">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J5" s="28">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K5" s="28">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L5" s="28">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M5" s="28">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N5" s="28">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="28">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P5" s="28">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="28">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R5" s="28">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S5" s="28">
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T5" s="28">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U5" s="28">
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V5" s="35">
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W5" s="28">
         <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X5" s="35">
         <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y5" s="28">
         <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="28">
         <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="28">
         <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
@@ -1597,100 +1601,102 @@
       <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="9">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>4</v>
+      </c>
+      <c r="R6" s="10">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9">
+        <v>5</v>
+      </c>
+      <c r="U6" s="9">
+        <v>6</v>
+      </c>
+      <c r="V6" s="34">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>6</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="W6" s="9">
+        <v>2</v>
+      </c>
+      <c r="X6" s="34">
         <v>4</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5</v>
-      </c>
-      <c r="O6" s="7">
-        <v>4</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="R6" s="7">
-        <v>6</v>
-      </c>
-      <c r="S6" s="7">
-        <v>6</v>
-      </c>
-      <c r="T6" s="7">
+      <c r="Y6" s="9">
         <v>3</v>
       </c>
-      <c r="U6" s="7">
-        <v>2</v>
-      </c>
-      <c r="V6" s="36">
-        <v>2</v>
-      </c>
-      <c r="W6" s="7">
+      <c r="Z6" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="9">
         <v>3</v>
       </c>
-      <c r="X6" s="36">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
+      <c r="AB6" s="9">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="AC6" s="7">
-        <f>7+7+3</f>
-        <v>17</v>
-      </c>
-      <c r="AD6" s="7">
+      <c r="AC6" s="9">
+        <f>6+4+4</f>
+        <v>14</v>
+      </c>
+      <c r="AD6" s="9">
         <f>SUM(F7:AA7)+AB6+AC6</f>
-        <v>290</v>
-      </c>
-      <c r="AE6" s="7">
+        <v>305</v>
+      </c>
+      <c r="AE6" s="9">
         <f>SUM(F7:AA7)</f>
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1701,91 +1707,91 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28">
         <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G7" s="28">
         <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H7" s="28">
         <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I7" s="28">
         <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J7" s="28">
         <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K7" s="28">
         <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L7" s="28">
         <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M7" s="28">
         <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N7" s="28">
         <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O7" s="28">
         <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P7" s="28">
         <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="28">
         <f>IF(Q6=1,25,IF(Q6=2,18,IF(Q6=3,15,IF(Q6=4,12,IF(Q6=5,10,IF(Q6=6,8,IF(Q6=7,6,IF(Q6=8,4,IF(Q6=9,2,IF(Q6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R7" s="28">
         <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S7" s="28">
         <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T7" s="28">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U7" s="28">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="V7" s="35">
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="W7" s="28">
         <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X7" s="35">
         <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="28">
         <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="28">
         <f>IF(Z6=1,25,IF(Z6=2,18,IF(Z6=3,15,IF(Z6=4,12,IF(Z6=5,10,IF(Z6=6,8,IF(Z6=7,6,IF(Z6=8,4,IF(Z6=9,2,IF(Z6=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="28">
         <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="28"/>
       <c r="AC7" s="28"/>
@@ -1803,7 +1809,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>21</v>
@@ -1836,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P8" s="15">
         <v>4</v>
@@ -1871,7 +1877,9 @@
       <c r="Z8" s="15">
         <v>1</v>
       </c>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="15">
+        <v>5</v>
+      </c>
       <c r="AB8" s="15">
         <f>1+1+1</f>
         <v>3</v>
@@ -1882,11 +1890,11 @@
       </c>
       <c r="AD8" s="15">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AE8" s="15">
         <f>SUM(F9:AA9)</f>
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1981,7 +1989,7 @@
       </c>
       <c r="AA9" s="28">
         <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -1989,100 +1997,102 @@
       <c r="AE9" s="28"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15">
-        <v>44</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="15">
-        <v>10</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="H10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
         <v>4</v>
       </c>
-      <c r="I10" s="15">
-        <v>13</v>
-      </c>
-      <c r="J10" s="15">
-        <v>6</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" s="7">
         <v>5</v>
       </c>
-      <c r="L10" s="15">
+      <c r="R10" s="7">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7">
+        <v>3</v>
+      </c>
+      <c r="T10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="15">
+      <c r="U10" s="7">
         <v>4</v>
       </c>
-      <c r="N10" s="15">
+      <c r="V10" s="36">
         <v>3</v>
       </c>
-      <c r="O10" s="15">
+      <c r="W10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="7">
         <v>3</v>
       </c>
-      <c r="P10" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>2</v>
-      </c>
-      <c r="R10" s="15">
-        <v>2</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="T10" s="15">
+      <c r="AA10" s="7">
         <v>4</v>
       </c>
-      <c r="U10" s="15">
-        <v>5</v>
-      </c>
-      <c r="V10" s="37">
-        <v>9</v>
-      </c>
-      <c r="W10" s="15">
-        <v>5</v>
-      </c>
-      <c r="X10" s="37">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15">
+      <c r="AB10" s="7">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="AC10" s="15">
-        <f>1+6</f>
-        <v>7</v>
-      </c>
-      <c r="AD10" s="15">
+      <c r="AC10" s="7">
+        <f>5+6+7</f>
+        <v>18</v>
+      </c>
+      <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>240</v>
-      </c>
-      <c r="AE10" s="15">
+        <v>246</v>
+      </c>
+      <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2093,15 +2103,15 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" s="28">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H11" s="28">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I11" s="28">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
@@ -2109,75 +2119,75 @@
       </c>
       <c r="J11" s="28">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K11" s="28">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L11" s="28">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M11" s="28">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N11" s="28">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O11" s="28">
         <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P11" s="28">
         <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="28">
         <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R11" s="28">
         <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S11" s="28">
         <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T11" s="28">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="U11" s="28">
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V11" s="35">
         <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W11" s="28">
         <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X11" s="35">
         <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="28">
         <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Z11" s="28">
         <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA11" s="28">
         <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="28"/>
       <c r="AC11" s="28"/>
@@ -2185,100 +2195,102 @@
       <c r="AE11" s="28"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15">
         <v>3</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="G12" s="15">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15">
+        <v>4</v>
+      </c>
+      <c r="I12" s="15">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15">
+        <v>6</v>
+      </c>
+      <c r="K12" s="15">
+        <v>5</v>
+      </c>
+      <c r="L12" s="15">
+        <v>8</v>
+      </c>
+      <c r="M12" s="15">
+        <v>4</v>
+      </c>
+      <c r="N12" s="15">
         <v>3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="O12" s="15">
+        <v>3</v>
+      </c>
+      <c r="P12" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>2</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" s="15">
         <v>4</v>
       </c>
-      <c r="L12" s="7">
-        <v>2</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="U12" s="15">
         <v>5</v>
       </c>
-      <c r="R12" s="7">
-        <v>4</v>
-      </c>
-      <c r="S12" s="7">
-        <v>3</v>
-      </c>
-      <c r="T12" s="7">
-        <v>8</v>
-      </c>
-      <c r="U12" s="7">
-        <v>4</v>
-      </c>
-      <c r="V12" s="36">
-        <v>3</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y12" s="7">
+      <c r="V12" s="37">
+        <v>9</v>
+      </c>
+      <c r="W12" s="15">
         <v>5</v>
       </c>
-      <c r="Z12" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7">
+      <c r="X12" s="37">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="15">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="AC12" s="7">
-        <f>5+6+7</f>
-        <v>18</v>
-      </c>
-      <c r="AD12" s="7">
+      <c r="AC12" s="15">
+        <f>1+6</f>
+        <v>7</v>
+      </c>
+      <c r="AD12" s="15">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>234</v>
-      </c>
-      <c r="AE12" s="7">
+        <v>240</v>
+      </c>
+      <c r="AE12" s="15">
         <f>SUM(F13:AA13)</f>
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2289,15 +2301,15 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" s="28">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H13" s="28">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="28">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
@@ -2305,71 +2317,71 @@
       </c>
       <c r="J13" s="28">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K13" s="28">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" s="28">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M13" s="28">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N13" s="28">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O13" s="28">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P13" s="28">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="28">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R13" s="28">
         <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S13" s="28">
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T13" s="28">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U13" s="28">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V13" s="35">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="W13" s="28">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13" s="35">
         <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y13" s="28">
         <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z13" s="28">
         <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA13" s="28">
         <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
@@ -2409,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K14" s="6">
         <v>8</v>
@@ -2457,12 +2469,14 @@
         <v>9</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA14" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>6</v>
+      </c>
       <c r="AB14" s="6">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="AC14" s="6">
         <f>4+2</f>
@@ -2470,11 +2484,11 @@
       </c>
       <c r="AD14" s="6">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AE14" s="6">
         <f>SUM(F15:AA15)</f>
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2569,7 +2583,7 @@
       </c>
       <c r="AA15" s="28">
         <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
@@ -2620,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -2641,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="V16" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W16" s="2">
         <v>4</v>
@@ -2655,7 +2669,9 @@
       <c r="Z16" s="2">
         <v>8</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>7</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2">
         <f>3</f>
@@ -2663,11 +2679,11 @@
       </c>
       <c r="AD16" s="2">
         <f>SUM(F17:AA17)+AB16+AC16</f>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE16" s="2">
         <f>SUM(F17:AA17)</f>
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2762,7 +2778,7 @@
       </c>
       <c r="AA17" s="28">
         <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="28"/>
       <c r="AC17" s="28"/>
@@ -2789,13 +2805,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2">
         <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2">
         <v>11</v>
@@ -2831,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V18" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W18" s="2">
         <v>7</v>
@@ -2843,12 +2859,14 @@
         <v>7</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z18" s="2">
         <v>5</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2">
@@ -2970,7 +2988,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>26</v>
@@ -2979,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" s="11">
         <v>8</v>
@@ -3003,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P20" s="11">
         <v>11</v>
@@ -3015,10 +3033,10 @@
         <v>20</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U20" s="11">
         <v>13</v>
@@ -3030,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="X20" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="11">
         <v>10</v>
@@ -3038,7 +3056,9 @@
       <c r="Z20" s="11">
         <v>9</v>
       </c>
-      <c r="AA20" s="11"/>
+      <c r="AA20" s="11">
+        <v>15</v>
+      </c>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11">
         <f>2</f>
@@ -3171,13 +3191,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I22" s="8">
         <v>8</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K22" s="8">
         <v>11</v>
@@ -3210,7 +3230,7 @@
         <v>14</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V22" s="42">
         <v>8</v>
@@ -3227,16 +3247,18 @@
       <c r="Z22" s="8">
         <v>11</v>
       </c>
-      <c r="AA22" s="8"/>
+      <c r="AA22" s="8">
+        <v>10</v>
+      </c>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE22" s="8">
         <f>SUM(F23:AA23)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3331,7 +3353,7 @@
       </c>
       <c r="AA23" s="28">
         <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="28"/>
       <c r="AC23" s="28"/>
@@ -3358,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H24" s="6">
         <v>6</v>
@@ -3400,7 +3422,7 @@
         <v>17</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V24" s="38">
         <v>5</v>
@@ -3415,9 +3437,11 @@
         <v>7</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA24" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>9</v>
+      </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6">
         <f>3</f>
@@ -3425,11 +3449,11 @@
       </c>
       <c r="AD24" s="6">
         <f>SUM(F25:AA25)+AB24+AC24</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE24" s="6">
         <f>SUM(F25:AA25)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3524,7 +3548,7 @@
       </c>
       <c r="AA25" s="28">
         <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="28"/>
       <c r="AC25" s="28"/>
@@ -3533,13 +3557,13 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3">
         <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>42</v>
@@ -3566,10 +3590,10 @@
         <v>17</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N26" s="3">
         <v>17</v>
@@ -3581,7 +3605,7 @@
         <v>8</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R26" s="3">
         <v>16</v>
@@ -3608,9 +3632,11 @@
         <v>17</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA26" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>17</v>
+      </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3">
         <f>1+2+1</f>
@@ -3735,13 +3761,13 @@
         <v>37</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G28" s="9">
         <v>8</v>
@@ -3753,7 +3779,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K28" s="9">
         <v>13</v>
@@ -3768,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P28" s="9">
         <v>15</v>
@@ -3803,7 +3829,9 @@
       <c r="Z28" s="9">
         <v>14</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="9">
+        <v>14</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9">
@@ -3976,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V30" s="42">
         <v>6</v>
@@ -3985,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="X30" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y30" s="8">
         <v>15</v>
@@ -3993,16 +4021,18 @@
       <c r="Z30" s="8">
         <v>10</v>
       </c>
-      <c r="AA30" s="8"/>
+      <c r="AA30" s="8">
+        <v>8</v>
+      </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8">
         <f>SUM(F31:AA31)+AB30+AC30</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE30" s="8">
         <f>SUM(F31:AA31)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -4097,7 +4127,7 @@
       </c>
       <c r="AA31" s="28">
         <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB31" s="28"/>
       <c r="AC31" s="28"/>
@@ -4124,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H32" s="3">
         <v>13</v>
@@ -4139,13 +4169,13 @@
         <v>14</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M32" s="3">
         <v>14</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O32" s="3">
         <v>8</v>
@@ -4183,7 +4213,9 @@
       <c r="Z32" s="3">
         <v>13</v>
       </c>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="3">
+        <v>16</v>
+      </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3">
@@ -4305,16 +4337,16 @@
         <v>55</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F34" s="9">
         <v>8</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" s="9">
         <v>15</v>
@@ -4335,7 +4367,7 @@
         <v>13</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O34" s="9">
         <v>14</v>
@@ -4344,7 +4376,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R34" s="9">
         <v>19</v>
@@ -4353,13 +4385,13 @@
         <v>13</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U34" s="10">
         <v>14</v>
       </c>
       <c r="V34" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W34" s="9">
         <v>13</v>
@@ -4368,12 +4400,14 @@
         <v>10</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z34" s="9">
         <v>17</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="9">
+        <v>11</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9">
@@ -4486,16 +4520,16 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="11">
         <v>24</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>43</v>
@@ -4513,22 +4547,22 @@
         <v>15</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L36" s="11">
         <v>16</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N36" s="11">
         <v>8</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P36" s="11">
         <v>14</v>
@@ -4549,7 +4583,7 @@
         <v>10</v>
       </c>
       <c r="V36" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W36" s="11">
         <v>16</v>
@@ -4563,7 +4597,9 @@
       <c r="Z36" s="11">
         <v>12</v>
       </c>
-      <c r="AA36" s="11"/>
+      <c r="AA36" s="11">
+        <v>12</v>
+      </c>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11">
@@ -4676,13 +4712,13 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="5">
         <v>23</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>59</v>
@@ -4709,7 +4745,7 @@
         <v>18</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M38" s="5">
         <v>12</v>
@@ -4718,7 +4754,7 @@
         <v>13</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P38" s="5">
         <v>12</v>
@@ -4737,10 +4773,10 @@
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X38" s="43">
         <v>13</v>
@@ -4751,7 +4787,9 @@
       <c r="Z38" s="5">
         <v>15</v>
       </c>
-      <c r="AA38" s="5"/>
+      <c r="AA38" s="5">
+        <v>13</v>
+      </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5">
@@ -4864,7 +4902,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" s="5">
         <v>45</v>
@@ -5032,7 +5070,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="5">
         <v>16</v>
@@ -5059,10 +5097,10 @@
         <v>12</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R42" s="5">
         <v>18</v>
@@ -5077,7 +5115,7 @@
         <v>15</v>
       </c>
       <c r="V42" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W42" s="5">
         <v>9</v>
@@ -5086,12 +5124,14 @@
         <v>17</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z42" s="5">
         <v>16</v>
       </c>
-      <c r="AA42" s="5"/>
+      <c r="AA42" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5">
@@ -5204,7 +5244,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" s="8">
         <v>27</v>
@@ -5401,7 +5441,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5414,7 +5454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5450,7 +5492,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>2</v>
@@ -5462,13 +5504,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>5</v>
@@ -5480,7 +5522,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>64</v>
@@ -5498,19 +5540,19 @@
         <v>12</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -5536,10 +5578,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9">
         <v>19</v>
@@ -5548,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -5604,7 +5646,9 @@
       <c r="Z2" s="34">
         <v>6</v>
       </c>
-      <c r="AA2" s="9"/>
+      <c r="AA2" s="9">
+        <v>1</v>
+      </c>
       <c r="AB2" s="9">
         <f>SUM(F3:Z3)</f>
         <v>161</v>
@@ -5702,7 +5746,7 @@
       </c>
       <c r="AA3" s="28">
         <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="28"/>
     </row>
@@ -5717,10 +5761,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="9">
         <v>18</v>
@@ -5747,13 +5791,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O4" s="9">
         <v>2</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="9">
         <v>4</v>
@@ -5785,7 +5829,9 @@
       <c r="Z4" s="34">
         <v>7</v>
       </c>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9">
+        <v>3</v>
+      </c>
       <c r="AB4" s="9">
         <f>SUM(F5:Z5)</f>
         <v>115</v>
@@ -5883,7 +5929,7 @@
       </c>
       <c r="AA5" s="28">
         <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB5" s="28"/>
     </row>
@@ -5919,13 +5965,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L6" s="7">
         <v>4</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7">
         <v>5</v>
@@ -5937,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R6" s="7">
         <v>6</v>
@@ -5966,7 +6012,9 @@
       <c r="Z6" s="36">
         <v>4</v>
       </c>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="7">
+        <v>2</v>
+      </c>
       <c r="AB6" s="7">
         <f>SUM(F7:Z7)</f>
         <v>111</v>
@@ -6064,7 +6112,7 @@
       </c>
       <c r="AA7" s="28">
         <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
@@ -6112,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P8" s="15">
         <v>4</v>
@@ -6147,7 +6195,9 @@
       <c r="Z8" s="37">
         <v>1</v>
       </c>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="18">
+        <v>5</v>
+      </c>
       <c r="AB8" s="15">
         <f>SUM(F9:Z9)</f>
         <v>101</v>
@@ -6245,7 +6295,7 @@
       </c>
       <c r="AA9" s="28">
         <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
@@ -6305,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T10" s="15">
         <v>4</v>
@@ -6328,7 +6378,9 @@
       <c r="Z10" s="37">
         <v>2</v>
       </c>
-      <c r="AA10" s="15"/>
+      <c r="AA10" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="AB10" s="15">
         <f>SUM(F11:Z11)</f>
         <v>95</v>
@@ -6453,10 +6505,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J12" s="7">
         <v>3</v>
@@ -6468,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N12" s="7">
         <v>2</v>
@@ -6477,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="7">
         <v>5</v>
@@ -6498,10 +6550,10 @@
         <v>3</v>
       </c>
       <c r="W12" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X12" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y12" s="7">
         <v>5</v>
@@ -6509,7 +6561,9 @@
       <c r="Z12" s="36">
         <v>3</v>
       </c>
-      <c r="AA12" s="7"/>
+      <c r="AA12" s="7">
+        <v>4</v>
+      </c>
       <c r="AB12" s="7">
         <f>SUM(F13:Z13)</f>
         <v>88</v>
@@ -6607,7 +6661,7 @@
       </c>
       <c r="AA13" s="28">
         <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB13" s="28"/>
     </row>
@@ -6640,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K14" s="6">
         <v>8</v>
@@ -6688,9 +6742,11 @@
         <v>9</v>
       </c>
       <c r="Z14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA14" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>6</v>
+      </c>
       <c r="AB14" s="6">
         <f>SUM(F15:Z15)</f>
         <v>37</v>
@@ -6788,7 +6844,7 @@
       </c>
       <c r="AA15" s="28">
         <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
@@ -6836,7 +6892,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -6857,7 +6913,7 @@
         <v>11</v>
       </c>
       <c r="V16" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W16" s="39">
         <v>4</v>
@@ -6871,7 +6927,9 @@
       <c r="Z16" s="39">
         <v>8</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>7</v>
+      </c>
       <c r="AB16" s="2">
         <f>SUM(F17:Z17)</f>
         <v>27</v>
@@ -6969,7 +7027,7 @@
       </c>
       <c r="AA17" s="28">
         <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="28"/>
     </row>
@@ -6993,13 +7051,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2">
         <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2">
         <v>11</v>
@@ -7035,10 +7093,10 @@
         <v>6</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V18" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W18" s="39">
         <v>7</v>
@@ -7047,12 +7105,14 @@
         <v>7</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z18" s="39">
         <v>5</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="AB18" s="2">
         <f>SUM(F19:Z19)</f>
         <v>27</v>
@@ -7165,7 +7225,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>26</v>
@@ -7174,7 +7234,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" s="11">
         <v>8</v>
@@ -7198,7 +7258,7 @@
         <v>7</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P20" s="22">
         <v>11</v>
@@ -7210,10 +7270,10 @@
         <v>20</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U20" s="11">
         <v>13</v>
@@ -7225,7 +7285,7 @@
         <v>15</v>
       </c>
       <c r="X20" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="11">
         <v>10</v>
@@ -7233,7 +7293,9 @@
       <c r="Z20" s="40">
         <v>9</v>
       </c>
-      <c r="AA20" s="11"/>
+      <c r="AA20" s="11">
+        <v>15</v>
+      </c>
       <c r="AB20" s="11">
         <f>SUM(F21:Z21)</f>
         <v>15</v>
@@ -7355,7 +7417,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="6">
         <v>6</v>
@@ -7397,7 +7459,7 @@
         <v>17</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V22" s="38">
         <v>5</v>
@@ -7412,9 +7474,11 @@
         <v>7</v>
       </c>
       <c r="Z22" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA22" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>9</v>
+      </c>
       <c r="AB22" s="6">
         <f>SUM(F23:Z23)</f>
         <v>10</v>
@@ -7535,13 +7599,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I24" s="8">
         <v>8</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K24" s="8">
         <v>11</v>
@@ -7574,7 +7638,7 @@
         <v>14</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V24" s="42">
         <v>8</v>
@@ -7591,7 +7655,9 @@
       <c r="Z24" s="42">
         <v>11</v>
       </c>
-      <c r="AA24" s="8"/>
+      <c r="AA24" s="8">
+        <v>10</v>
+      </c>
       <c r="AB24" s="8">
         <f>SUM(F25:Z25)</f>
         <v>9</v>
@@ -7704,13 +7770,13 @@
         <v>37</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26" s="9">
         <v>8</v>
@@ -7722,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K26" s="9">
         <v>13</v>
@@ -7737,7 +7803,7 @@
         <v>14</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P26" s="9">
         <v>15</v>
@@ -7772,7 +7838,9 @@
       <c r="Z26" s="34">
         <v>14</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="9">
+        <v>14</v>
+      </c>
       <c r="AB26" s="9">
         <f>SUM(F27:Z27)</f>
         <v>6</v>
@@ -7876,13 +7944,13 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3">
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>42</v>
@@ -7909,10 +7977,10 @@
         <v>17</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N28" s="3">
         <v>17</v>
@@ -7924,7 +7992,7 @@
         <v>8</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R28" s="4">
         <v>16</v>
@@ -7951,9 +8019,11 @@
         <v>17</v>
       </c>
       <c r="Z28" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA28" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>17</v>
+      </c>
       <c r="AB28" s="3">
         <f>SUM(F29:Z29)</f>
         <v>5</v>
@@ -8075,7 +8145,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H30" s="3">
         <v>13</v>
@@ -8090,13 +8160,13 @@
         <v>14</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M30" s="3">
         <v>14</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O30" s="3">
         <v>8</v>
@@ -8134,7 +8204,9 @@
       <c r="Z30" s="41">
         <v>13</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="3">
+        <v>16</v>
+      </c>
       <c r="AB30" s="3">
         <f>SUM(F31:Z31)</f>
         <v>4</v>
@@ -8247,16 +8319,16 @@
         <v>55</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="9">
         <v>8</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H32" s="9">
         <v>15</v>
@@ -8277,7 +8349,7 @@
         <v>13</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O32" s="9">
         <v>14</v>
@@ -8286,7 +8358,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R32" s="23">
         <v>19</v>
@@ -8295,13 +8367,13 @@
         <v>13</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U32" s="9">
         <v>14</v>
       </c>
       <c r="V32" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W32" s="34">
         <v>13</v>
@@ -8310,12 +8382,14 @@
         <v>10</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z32" s="34">
         <v>17</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9">
+        <v>11</v>
+      </c>
       <c r="AB32" s="9">
         <f>SUM(F33:Z33)</f>
         <v>3</v>
@@ -8479,7 +8553,7 @@
         <v>10</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V34" s="42">
         <v>6</v>
@@ -8488,7 +8562,7 @@
         <v>12</v>
       </c>
       <c r="X34" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y34" s="8">
         <v>15</v>
@@ -8496,7 +8570,9 @@
       <c r="Z34" s="42">
         <v>10</v>
       </c>
-      <c r="AA34" s="8"/>
+      <c r="AA34" s="8">
+        <v>8</v>
+      </c>
       <c r="AB34" s="8">
         <f>SUM(F35:Z35)</f>
         <v>3</v>
@@ -8594,22 +8670,22 @@
       </c>
       <c r="AA35" s="28">
         <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="28"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="11">
         <v>24</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>26</v>
@@ -8627,22 +8703,22 @@
         <v>15</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L36" s="11">
         <v>16</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N36" s="11">
         <v>8</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P36" s="11">
         <v>14</v>
@@ -8663,7 +8739,7 @@
         <v>10</v>
       </c>
       <c r="V36" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W36" s="40">
         <v>16</v>
@@ -8677,7 +8753,9 @@
       <c r="Z36" s="40">
         <v>12</v>
       </c>
-      <c r="AA36" s="22"/>
+      <c r="AA36" s="22">
+        <v>12</v>
+      </c>
       <c r="AB36" s="11">
         <f>SUM(F37:Z37)</f>
         <v>1</v>
@@ -8799,7 +8877,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H38" s="5">
         <v>16</v>
@@ -8814,7 +8892,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M38" s="5">
         <v>15</v>
@@ -8826,10 +8904,10 @@
         <v>12</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R38" s="5">
         <v>18</v>
@@ -8844,21 +8922,23 @@
         <v>15</v>
       </c>
       <c r="V38" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W38" s="43">
         <v>9</v>
       </c>
       <c r="X38" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z38" s="43">
         <v>16</v>
       </c>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="AB38" s="5">
         <f>SUM(F39:Z39)</f>
         <v>0</v>
@@ -8962,13 +9042,13 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="5">
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>59</v>
@@ -9004,7 +9084,7 @@
         <v>13</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P40" s="5">
         <v>12</v>
@@ -9023,10 +9103,10 @@
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W40" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X40" s="43">
         <v>13</v>
@@ -9037,7 +9117,9 @@
       <c r="Z40" s="43">
         <v>15</v>
       </c>
-      <c r="AA40" s="20"/>
+      <c r="AA40" s="20">
+        <v>13</v>
+      </c>
       <c r="AB40" s="5">
         <f>SUM(F41:Z41)</f>
         <v>0</v>
@@ -9141,7 +9223,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="8">
         <v>27</v>
@@ -9286,7 +9368,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="5">
         <v>45</v>
@@ -9492,13 +9574,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>5</v>
@@ -9510,7 +9592,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>64</v>
@@ -9528,19 +9610,19 @@
         <v>12</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>14</v>
@@ -9566,10 +9648,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9">
         <v>19</v>
@@ -9578,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -9634,7 +9716,9 @@
       <c r="Z2" s="34">
         <v>6</v>
       </c>
-      <c r="AA2" s="9"/>
+      <c r="AA2" s="9">
+        <v>1</v>
+      </c>
       <c r="AB2" s="9">
         <f>SUM(F3:Y3)</f>
         <v>150</v>
@@ -9732,7 +9816,7 @@
       </c>
       <c r="AA3" s="28">
         <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="28"/>
     </row>
@@ -9747,10 +9831,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="9">
         <v>18</v>
@@ -9777,13 +9861,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O4" s="9">
         <v>2</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="9">
         <v>4</v>
@@ -9815,7 +9899,9 @@
       <c r="Z4" s="34">
         <v>7</v>
       </c>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9">
+        <v>3</v>
+      </c>
       <c r="AB4" s="9">
         <f>SUM(F5:Y5)</f>
         <v>83</v>
@@ -9913,7 +9999,7 @@
       </c>
       <c r="AA5" s="28">
         <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="28"/>
     </row>
@@ -9949,13 +10035,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L6" s="7">
         <v>4</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7">
         <v>5</v>
@@ -9967,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R6" s="7">
         <v>6</v>
@@ -9996,7 +10082,9 @@
       <c r="Z6" s="36">
         <v>4</v>
       </c>
-      <c r="AA6" s="7"/>
+      <c r="AA6" s="7">
+        <v>2</v>
+      </c>
       <c r="AB6" s="7">
         <f>SUM(F7:Y7)</f>
         <v>78</v>
@@ -10094,7 +10182,7 @@
       </c>
       <c r="AA7" s="28">
         <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB7" s="28"/>
     </row>
@@ -10121,10 +10209,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J8" s="7">
         <v>3</v>
@@ -10136,7 +10224,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N8" s="7">
         <v>2</v>
@@ -10145,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7">
         <v>5</v>
@@ -10166,10 +10254,10 @@
         <v>3</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X8" s="36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y8" s="7">
         <v>5</v>
@@ -10177,7 +10265,9 @@
       <c r="Z8" s="36">
         <v>3</v>
       </c>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="7">
+        <v>4</v>
+      </c>
       <c r="AB8" s="7">
         <f>SUM(F9:Y9)</f>
         <v>58</v>
@@ -10275,7 +10365,7 @@
       </c>
       <c r="AA9" s="28">
         <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="28"/>
     </row>
@@ -10323,7 +10413,7 @@
         <v>4</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P10" s="15">
         <v>4</v>
@@ -10358,7 +10448,9 @@
       <c r="Z10" s="37">
         <v>1</v>
       </c>
-      <c r="AA10" s="18"/>
+      <c r="AA10" s="18">
+        <v>5</v>
+      </c>
       <c r="AB10" s="15">
         <f>SUM(F11:Y11)</f>
         <v>56</v>
@@ -10456,7 +10548,7 @@
       </c>
       <c r="AA11" s="28">
         <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="28"/>
     </row>
@@ -10516,7 +10608,7 @@
         <v>2</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T12" s="15">
         <v>4</v>
@@ -10539,7 +10631,9 @@
       <c r="Z12" s="37">
         <v>2</v>
       </c>
-      <c r="AA12" s="15"/>
+      <c r="AA12" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="AB12" s="15">
         <f>SUM(F13:Y13)</f>
         <v>56</v>
@@ -10670,7 +10764,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K14" s="6">
         <v>8</v>
@@ -10718,9 +10812,11 @@
         <v>9</v>
       </c>
       <c r="Z14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA14" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>6</v>
+      </c>
       <c r="AB14" s="6">
         <f>SUM(F15:Y15)</f>
         <v>12</v>
@@ -10818,7 +10914,7 @@
       </c>
       <c r="AA15" s="28">
         <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="28"/>
     </row>
@@ -10866,7 +10962,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -10887,7 +10983,7 @@
         <v>11</v>
       </c>
       <c r="V16" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W16" s="2">
         <v>4</v>
@@ -10901,7 +10997,9 @@
       <c r="Z16" s="39">
         <v>8</v>
       </c>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>7</v>
+      </c>
       <c r="AB16" s="2">
         <f>SUM(F17:Y17)</f>
         <v>7</v>
@@ -11023,13 +11121,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2">
         <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2">
         <v>11</v>
@@ -11065,10 +11163,10 @@
         <v>6</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V18" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W18" s="2">
         <v>7</v>
@@ -11077,12 +11175,14 @@
         <v>7</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Z18" s="39">
         <v>5</v>
       </c>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AB18" s="2">
         <f>SUM(F19:Y19)</f>
         <v>6</v>
@@ -11195,7 +11295,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>26</v>
@@ -11204,7 +11304,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" s="11">
         <v>8</v>
@@ -11228,7 +11328,7 @@
         <v>7</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P20" s="22">
         <v>11</v>
@@ -11240,10 +11340,10 @@
         <v>20</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U20" s="11">
         <v>13</v>
@@ -11255,7 +11355,7 @@
         <v>15</v>
       </c>
       <c r="X20" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y20" s="11">
         <v>10</v>
@@ -11263,7 +11363,9 @@
       <c r="Z20" s="40">
         <v>9</v>
       </c>
-      <c r="AA20" s="11"/>
+      <c r="AA20" s="11">
+        <v>16</v>
+      </c>
       <c r="AB20" s="11">
         <f>SUM(F21:Y21)</f>
         <v>4</v>
@@ -11385,7 +11487,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="6">
         <v>6</v>
@@ -11427,7 +11529,7 @@
         <v>17</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V22" s="38">
         <v>5</v>
@@ -11442,9 +11544,11 @@
         <v>7</v>
       </c>
       <c r="Z22" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA22" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>9</v>
+      </c>
       <c r="AB22" s="6">
         <f>SUM(F23:Y23)</f>
         <v>3</v>
@@ -11548,13 +11652,13 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>42</v>
@@ -11581,10 +11685,10 @@
         <v>17</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N24" s="3">
         <v>17</v>
@@ -11596,7 +11700,7 @@
         <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R24" s="4">
         <v>16</v>
@@ -11623,9 +11727,11 @@
         <v>17</v>
       </c>
       <c r="Z24" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA24" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>17</v>
+      </c>
       <c r="AB24" s="3">
         <f>SUM(F25:Y25)</f>
         <v>2</v>
@@ -11738,13 +11844,13 @@
         <v>37</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26" s="9">
         <v>8</v>
@@ -11756,7 +11862,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K26" s="9">
         <v>13</v>
@@ -11771,7 +11877,7 @@
         <v>14</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P26" s="9">
         <v>15</v>
@@ -11806,7 +11912,9 @@
       <c r="Z26" s="34">
         <v>14</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="9">
+        <v>14</v>
+      </c>
       <c r="AB26" s="9">
         <f>SUM(F27:Y27)</f>
         <v>2</v>
@@ -11927,13 +12035,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
       <c r="H28" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I28" s="8">
         <v>8</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K28" s="8">
         <v>11</v>
@@ -11966,7 +12074,7 @@
         <v>14</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V28" s="42">
         <v>8</v>
@@ -11983,7 +12091,9 @@
       <c r="Z28" s="42">
         <v>11</v>
       </c>
-      <c r="AA28" s="8"/>
+      <c r="AA28" s="8">
+        <v>10</v>
+      </c>
       <c r="AB28" s="8">
         <f>SUM(F29:Y29)</f>
         <v>2</v>
@@ -12105,7 +12215,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H30" s="3">
         <v>13</v>
@@ -12120,13 +12230,13 @@
         <v>14</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M30" s="3">
         <v>14</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O30" s="3">
         <v>8</v>
@@ -12164,7 +12274,9 @@
       <c r="Z30" s="41">
         <v>13</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="3">
+        <v>16</v>
+      </c>
       <c r="AB30" s="3">
         <f>SUM(F31:Y31)</f>
         <v>1</v>
@@ -12328,7 +12440,7 @@
         <v>10</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V32" s="42">
         <v>6</v>
@@ -12337,7 +12449,7 @@
         <v>12</v>
       </c>
       <c r="X32" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y32" s="8">
         <v>15</v>
@@ -12345,7 +12457,9 @@
       <c r="Z32" s="42">
         <v>10</v>
       </c>
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="8">
+        <v>8</v>
+      </c>
       <c r="AB32" s="8">
         <f>SUM(F33:Y33)</f>
         <v>1</v>
@@ -12449,16 +12563,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="11">
         <v>24</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>26</v>
@@ -12476,22 +12590,22 @@
         <v>15</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L34" s="11">
         <v>16</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N34" s="11">
         <v>8</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P34" s="11">
         <v>14</v>
@@ -12512,7 +12626,7 @@
         <v>10</v>
       </c>
       <c r="V34" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W34" s="11">
         <v>16</v>
@@ -12526,7 +12640,9 @@
       <c r="Z34" s="40">
         <v>12</v>
       </c>
-      <c r="AA34" s="22"/>
+      <c r="AA34" s="22">
+        <v>12</v>
+      </c>
       <c r="AB34" s="11">
         <f>SUM(F35:Y35)</f>
         <v>0</v>
@@ -12648,7 +12764,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H36" s="5">
         <v>16</v>
@@ -12675,10 +12791,10 @@
         <v>12</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R36" s="5">
         <v>18</v>
@@ -12693,21 +12809,23 @@
         <v>15</v>
       </c>
       <c r="V36" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W36" s="5">
         <v>9</v>
       </c>
       <c r="X36" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y36" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z36" s="43">
         <v>16</v>
       </c>
-      <c r="AA36" s="20"/>
+      <c r="AA36" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="AB36" s="5">
         <f>SUM(F37:Y37)</f>
         <v>0</v>
@@ -12820,16 +12938,16 @@
         <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" s="9">
         <v>8</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H38" s="9">
         <v>15</v>
@@ -12850,7 +12968,7 @@
         <v>13</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="9">
         <v>14</v>
@@ -12859,7 +12977,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R38" s="23">
         <v>19</v>
@@ -12868,13 +12986,13 @@
         <v>13</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U38" s="9">
         <v>14</v>
       </c>
       <c r="V38" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W38" s="9">
         <v>13</v>
@@ -12883,12 +13001,14 @@
         <v>10</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z38" s="34">
         <v>17</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="9">
+        <v>11</v>
+      </c>
       <c r="AB38" s="9">
         <f>SUM(F39:Y39)</f>
         <v>0</v>
@@ -12992,13 +13112,13 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="5">
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>59</v>
@@ -13025,7 +13145,7 @@
         <v>18</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M40" s="5">
         <v>12</v>
@@ -13034,7 +13154,7 @@
         <v>13</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P40" s="5">
         <v>12</v>
@@ -13053,10 +13173,10 @@
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X40" s="43">
         <v>13</v>
@@ -13067,7 +13187,9 @@
       <c r="Z40" s="43">
         <v>15</v>
       </c>
-      <c r="AA40" s="20"/>
+      <c r="AA40" s="20">
+        <v>13</v>
+      </c>
       <c r="AB40" s="5">
         <f>SUM(F41:Y41)</f>
         <v>0</v>
@@ -13171,7 +13293,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="8">
         <v>27</v>
@@ -13314,7 +13436,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="5">
         <v>45</v>
@@ -13455,7 +13577,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB45">
-    <sortState ref="A2:AC44">
+    <sortState ref="A2:AB44">
       <sortCondition descending="1" ref="AB1:AB45"/>
     </sortState>
   </autoFilter>
@@ -13500,21 +13622,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="10">
-        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD4</f>
-        <v>719</v>
+        <f>'2022 Driver Ranking'!AD2+'2022 Driver Ranking'!AD6</f>
+        <v>759</v>
       </c>
       <c r="E2" s="10">
-        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE4</f>
-        <v>676</v>
+        <f>'2022 Driver Ranking'!AE2+'2022 Driver Ranking'!AE6</f>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13528,12 +13650,12 @@
         <v>75</v>
       </c>
       <c r="D3" s="7">
-        <f>'2022 Driver Ranking'!AD6+'2022 Driver Ranking'!AD12</f>
-        <v>524</v>
+        <f>'2022 Driver Ranking'!AD4+'2022 Driver Ranking'!AD10</f>
+        <v>554</v>
       </c>
       <c r="E3" s="7">
-        <f>'2022 Driver Ranking'!AE6+'2022 Driver Ranking'!AE12</f>
-        <v>484</v>
+        <f>'2022 Driver Ranking'!AE4+'2022 Driver Ranking'!AE10</f>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13547,12 +13669,12 @@
         <v>73</v>
       </c>
       <c r="D4" s="15">
-        <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD10</f>
-        <v>505</v>
+        <f>'2022 Driver Ranking'!AD8+'2022 Driver Ranking'!AD12</f>
+        <v>515</v>
       </c>
       <c r="E4" s="15">
-        <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE10</f>
-        <v>480</v>
+        <f>'2022 Driver Ranking'!AE8+'2022 Driver Ranking'!AE12</f>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13567,11 +13689,11 @@
       </c>
       <c r="D5" s="2">
         <f>'2022 Driver Ranking'!AD16+'2022 Driver Ranking'!AD18</f>
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2">
         <f>'2022 Driver Ranking'!AE16+'2022 Driver Ranking'!AE18</f>
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13586,16 +13708,16 @@
       </c>
       <c r="D6" s="6">
         <f>'2022 Driver Ranking'!AD14+'2022 Driver Ranking'!AD24</f>
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E6" s="6">
         <f>'2022 Driver Ranking'!AE14+'2022 Driver Ranking'!AE24</f>
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>26</v>
@@ -13624,11 +13746,11 @@
       </c>
       <c r="D8" s="8">
         <f>'2022 Driver Ranking'!AD22+'2022 Driver Ranking'!AD30+'2022 Driver Ranking'!AD44</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="8">
         <f>'2022 Driver Ranking'!AE22+'2022 Driver Ranking'!AE30+'2022 Driver Ranking'!AE44</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13652,10 +13774,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>74</v>
@@ -13731,10 +13853,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>76</v>
@@ -13770,7 +13892,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="15">
-        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB8</f>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB10</f>
         <v>196</v>
       </c>
     </row>
@@ -13806,7 +13928,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>26</v>
@@ -13851,10 +13973,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>74</v>
@@ -13921,10 +14043,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>76</v>
@@ -13996,7 +14118,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>26</v>
@@ -14041,10 +14163,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>74</v>
@@ -14085,19 +14207,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
@@ -14108,109 +14228,133 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'2022 Team Ranking'!D2+'2022 Team Ranking'!D10</f>
+        <v>794</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2/C2</f>
+        <v>397</v>
+      </c>
+      <c r="F2" s="3">
+        <f>'2022 Team Ranking'!E2+'2022 Team Ranking'!E10</f>
+        <v>751</v>
+      </c>
+      <c r="G2" s="12">
+        <f>F2/C2</f>
+        <v>375.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13">
-        <f>D2/C2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13">
-        <f>F2/C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="D3" s="7">
+        <f>'2022 Team Ranking'!D3+'2022 Team Ranking'!D7+'2022 Team Ranking'!D9</f>
+        <v>646</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3/C3</f>
+        <v>215.33333333333334</v>
+      </c>
+      <c r="F3" s="7">
+        <f>'2022 Team Ranking'!E3+'2022 Team Ranking'!E7+'2022 Team Ranking'!E9</f>
+        <v>600</v>
+      </c>
+      <c r="G3" s="13">
+        <f>F3/C3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
-        <f>D3/C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
-        <f>F3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="15">
+        <f>'2022 Team Ranking'!D4+'2022 Team Ranking'!D6+'2022 Team Ranking'!D8+'2022 Team Ranking'!D11</f>
+        <v>737</v>
+      </c>
+      <c r="E4" s="16">
+        <f>D4/C4</f>
+        <v>184.25</v>
+      </c>
+      <c r="F4" s="15">
+        <f>'2022 Team Ranking'!E4+'2022 Team Ranking'!E6+'2022 Team Ranking'!E8+'2022 Team Ranking'!E11</f>
+        <v>701</v>
+      </c>
+      <c r="G4" s="16">
+        <f>F4/C4</f>
+        <v>175.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="14">
-        <f>D4/C4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="14">
-        <f>F4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="12">
+      <c r="D5" s="2">
+        <f>'2022 Team Ranking'!D5</f>
+        <v>173</v>
+      </c>
+      <c r="E5" s="14">
         <f>D5/C5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="12">
+        <v>173</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'2022 Team Ranking'!E5</f>
+        <v>170</v>
+      </c>
+      <c r="G5" s="14">
         <f>F5/C5</f>
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G5">
     <sortState ref="A2:G5">
-      <sortCondition descending="1" ref="D1:D5"/>
+      <sortCondition descending="1" ref="E1:E5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14222,17 +14366,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -14243,83 +14385,95 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'2003-2009 Team Ranking'!D2+'2003-2009 Team Ranking'!D10</f>
+        <v>285</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2/C2</f>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13">
-        <f>D2/C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="D3" s="7">
+        <f>'2003-2009 Team Ranking'!D3+'2003-2009 Team Ranking'!D7+'2003-2009 Team Ranking'!D9</f>
+        <v>224</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3/C3</f>
+        <v>74.666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
-        <f>D3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="15">
+        <f>'2003-2009 Team Ranking'!D4+'2003-2009 Team Ranking'!D6+'2003-2009 Team Ranking'!D8+'2003-2009 Team Ranking'!D11</f>
+        <v>255</v>
+      </c>
+      <c r="E4" s="16">
+        <f>D4/C4</f>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="14">
-        <f>D4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="12">
+      <c r="D5" s="2">
+        <f>'2003-2009 Team Ranking'!D5</f>
+        <v>54</v>
+      </c>
+      <c r="E5" s="14">
         <f>D5/C5</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5">
     <sortState ref="A2:E5">
-      <sortCondition descending="1" ref="D1:D5"/>
+      <sortCondition descending="1" ref="E1:E5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14329,23 +14483,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -14353,85 +14504,73 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'1991-2002 Team Ranking'!D2+'1991-2002 Team Ranking'!D10</f>
+        <v>235</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2/C2</f>
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13">
-        <f>D2/C2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13">
-        <f>F2/C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="D3" s="7">
+        <f>'1991-2002 Team Ranking'!D3+'1991-2002 Team Ranking'!D7+'1991-2002 Team Ranking'!D8</f>
+        <v>143</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3/C3</f>
+        <v>47.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="15">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
-        <f>D3/C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
-        <f>F3/C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12">
+      <c r="D4" s="15">
+        <f>'1991-2002 Team Ranking'!D4+'1991-2002 Team Ranking'!D5+'1991-2002 Team Ranking'!D9+'1991-2002 Team Ranking'!D11</f>
+        <v>130</v>
+      </c>
+      <c r="E4" s="16">
         <f>D4/C4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="12">
-        <f>F4/C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -14441,21 +14580,19 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <f>'1991-2002 Team Ranking'!D6</f>
+        <v>13</v>
+      </c>
       <c r="E5" s="14">
         <f>D5/C5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="14">
-        <f>F5/C5</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G5">
-    <sortState ref="A2:G5">
-      <sortCondition descending="1" ref="D1:D5"/>
+  <autoFilter ref="A1:E5">
+    <sortState ref="A2:E5">
+      <sortCondition descending="1" ref="E1:E5"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
